--- a/AAII_Financials/Quarterly/SIEGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIEGY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>SIEGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,221 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22308100</v>
+        <v>15755600</v>
       </c>
       <c r="E8" s="3">
-        <v>26925200</v>
+        <v>15629300</v>
       </c>
       <c r="F8" s="3">
-        <v>23360000</v>
+        <v>27160600</v>
       </c>
       <c r="G8" s="3">
-        <v>22987700</v>
+        <v>23564200</v>
       </c>
       <c r="H8" s="3">
-        <v>22087400</v>
+        <v>15777800</v>
       </c>
       <c r="I8" s="3">
-        <v>24822500</v>
+        <v>15091100</v>
       </c>
       <c r="J8" s="3">
+        <v>25039500</v>
+      </c>
+      <c r="K8" s="3">
         <v>22479400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>22598000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>22241200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>24927300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>23896100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>23634700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>22552400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>25768700</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15978100</v>
+        <v>10136800</v>
       </c>
       <c r="E9" s="3">
-        <v>18908700</v>
+        <v>10030400</v>
       </c>
       <c r="F9" s="3">
-        <v>16572100</v>
+        <v>19074000</v>
       </c>
       <c r="G9" s="3">
-        <v>15813400</v>
+        <v>16717000</v>
       </c>
       <c r="H9" s="3">
-        <v>15598200</v>
+        <v>9798900</v>
       </c>
       <c r="I9" s="3">
-        <v>17669000</v>
+        <v>9664900</v>
       </c>
       <c r="J9" s="3">
+        <v>17823500</v>
+      </c>
+      <c r="K9" s="3">
         <v>15801300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15522700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15554100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17849700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>17030700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>15969700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>15409800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>18465200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6330000</v>
+        <v>5618900</v>
       </c>
       <c r="E10" s="3">
-        <v>8016500</v>
+        <v>5598900</v>
       </c>
       <c r="F10" s="3">
-        <v>6787800</v>
+        <v>8086600</v>
       </c>
       <c r="G10" s="3">
-        <v>7174300</v>
+        <v>6847200</v>
       </c>
       <c r="H10" s="3">
-        <v>6489200</v>
+        <v>5978800</v>
       </c>
       <c r="I10" s="3">
-        <v>7153500</v>
+        <v>5426100</v>
       </c>
       <c r="J10" s="3">
+        <v>7216000</v>
+      </c>
+      <c r="K10" s="3">
         <v>6678000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7075300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6687100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7077500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6865500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7665000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7142600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7303400</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -885,55 +897,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1471300</v>
+        <v>1292600</v>
       </c>
       <c r="E12" s="3">
-        <v>1757900</v>
+        <v>1252700</v>
       </c>
       <c r="F12" s="3">
-        <v>1526200</v>
+        <v>1773300</v>
       </c>
       <c r="G12" s="3">
-        <v>1507600</v>
+        <v>1539600</v>
       </c>
       <c r="H12" s="3">
-        <v>1434000</v>
+        <v>1266000</v>
       </c>
       <c r="I12" s="3">
-        <v>1720600</v>
+        <v>1202900</v>
       </c>
       <c r="J12" s="3">
+        <v>1735600</v>
+      </c>
+      <c r="K12" s="3">
         <v>1506500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1565200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1373300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1656100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1511300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1425000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1322900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1551800</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -979,8 +995,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1017,8 +1036,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1026,8 +1045,11 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1073,8 +1095,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1089,102 +1114,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
+      <c r="D17" s="3">
+        <v>14370000</v>
       </c>
       <c r="E17" s="3">
-        <v>24601800</v>
+        <v>14289100</v>
       </c>
       <c r="F17" s="3">
-        <v>21750300</v>
+        <v>24816900</v>
       </c>
       <c r="G17" s="3">
-        <v>20808200</v>
+        <v>21940400</v>
       </c>
       <c r="H17" s="3">
-        <v>20636900</v>
+        <v>13820600</v>
       </c>
       <c r="I17" s="3">
-        <v>23324800</v>
+        <v>13821700</v>
       </c>
       <c r="J17" s="3">
+        <v>23528700</v>
+      </c>
+      <c r="K17" s="3">
         <v>20824700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>20680500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20439300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23346400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>22102100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>20967800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>19862000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>23667500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
+      <c r="D18" s="3">
+        <v>1385600</v>
       </c>
       <c r="E18" s="3">
-        <v>2323400</v>
+        <v>1340200</v>
       </c>
       <c r="F18" s="3">
-        <v>1609700</v>
+        <v>2343700</v>
       </c>
       <c r="G18" s="3">
-        <v>2179500</v>
+        <v>1623700</v>
       </c>
       <c r="H18" s="3">
-        <v>1450500</v>
+        <v>1957100</v>
       </c>
       <c r="I18" s="3">
-        <v>1497700</v>
+        <v>1269300</v>
       </c>
       <c r="J18" s="3">
+        <v>1510800</v>
+      </c>
+      <c r="K18" s="3">
         <v>1654700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1917500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1801900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1580900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1794100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2666900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2690400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2101100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1202,243 +1234,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>10</v>
+      <c r="D20" s="3">
+        <v>418700</v>
       </c>
       <c r="E20" s="3">
-        <v>387600</v>
+        <v>471800</v>
       </c>
       <c r="F20" s="3">
-        <v>401900</v>
+        <v>391000</v>
       </c>
       <c r="G20" s="3">
-        <v>574300</v>
+        <v>405400</v>
       </c>
       <c r="H20" s="3">
-        <v>567700</v>
+        <v>522800</v>
       </c>
       <c r="I20" s="3">
-        <v>347000</v>
+        <v>512800</v>
       </c>
       <c r="J20" s="3">
+        <v>350000</v>
+      </c>
+      <c r="K20" s="3">
         <v>435900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1373300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1141100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>478000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>518400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>154900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>759500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
+      <c r="D21" s="3">
+        <v>2275000</v>
       </c>
       <c r="E21" s="3">
-        <v>3770500</v>
+        <v>2997200</v>
       </c>
       <c r="F21" s="3">
-        <v>2960200</v>
+        <v>3803500</v>
       </c>
       <c r="G21" s="3">
-        <v>3671700</v>
+        <v>2986100</v>
       </c>
       <c r="H21" s="3">
-        <v>2928400</v>
+        <v>3405900</v>
       </c>
       <c r="I21" s="3">
-        <v>2849300</v>
+        <v>2700300</v>
       </c>
       <c r="J21" s="3">
+        <v>2874200</v>
+      </c>
+      <c r="K21" s="3">
         <v>2982200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4229900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3902300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3202200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3279600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3607100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4225700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3242100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>283300</v>
+        <v>346700</v>
       </c>
       <c r="E22" s="3">
-        <v>311800</v>
+        <v>156200</v>
       </c>
       <c r="F22" s="3">
-        <v>325000</v>
+        <v>314600</v>
       </c>
       <c r="G22" s="3">
-        <v>283300</v>
+        <v>327800</v>
       </c>
       <c r="H22" s="3">
-        <v>319500</v>
+        <v>289100</v>
       </c>
       <c r="I22" s="3">
-        <v>298700</v>
+        <v>240300</v>
       </c>
       <c r="J22" s="3">
+        <v>301300</v>
+      </c>
+      <c r="K22" s="3">
         <v>299800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>298400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>311900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>310800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>322000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>284100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>286400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>291100</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1455900</v>
+        <v>1457600</v>
       </c>
       <c r="E23" s="3">
-        <v>2399100</v>
+        <v>1655900</v>
       </c>
       <c r="F23" s="3">
-        <v>1686500</v>
+        <v>2420100</v>
       </c>
       <c r="G23" s="3">
-        <v>2470500</v>
+        <v>1701300</v>
       </c>
       <c r="H23" s="3">
-        <v>1698600</v>
+        <v>2190800</v>
       </c>
       <c r="I23" s="3">
-        <v>1546000</v>
+        <v>1541800</v>
       </c>
       <c r="J23" s="3">
+        <v>1559500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1790800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2992300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2631100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1748100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1990400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2537800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3163400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2080000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>261300</v>
+        <v>334500</v>
       </c>
       <c r="E24" s="3">
-        <v>787300</v>
+        <v>306800</v>
       </c>
       <c r="F24" s="3">
-        <v>441400</v>
+        <v>794100</v>
       </c>
       <c r="G24" s="3">
-        <v>354700</v>
+        <v>445300</v>
       </c>
       <c r="H24" s="3">
-        <v>471000</v>
+        <v>288000</v>
       </c>
       <c r="I24" s="3">
-        <v>821300</v>
+        <v>427500</v>
       </c>
       <c r="J24" s="3">
+        <v>828500</v>
+      </c>
+      <c r="K24" s="3">
         <v>512800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>774200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>655200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>379200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>392700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>860400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>853400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>693700</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1484,102 +1532,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>10</v>
+      <c r="D26" s="3">
+        <v>1123100</v>
       </c>
       <c r="E26" s="3">
-        <v>1611900</v>
+        <v>1349100</v>
       </c>
       <c r="F26" s="3">
-        <v>1245100</v>
+        <v>1626000</v>
       </c>
       <c r="G26" s="3">
-        <v>2115800</v>
+        <v>1256000</v>
       </c>
       <c r="H26" s="3">
-        <v>1227600</v>
+        <v>1902900</v>
       </c>
       <c r="I26" s="3">
-        <v>724700</v>
+        <v>1114200</v>
       </c>
       <c r="J26" s="3">
+        <v>731000</v>
+      </c>
+      <c r="K26" s="3">
         <v>1278100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2218200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1975800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1368800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1597700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1677400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2310100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1386300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>10</v>
+      <c r="D27" s="3">
+        <v>1073300</v>
       </c>
       <c r="E27" s="3">
-        <v>1446100</v>
+        <v>1341300</v>
       </c>
       <c r="F27" s="3">
-        <v>1129800</v>
+        <v>1458700</v>
       </c>
       <c r="G27" s="3">
-        <v>1988500</v>
+        <v>1139700</v>
       </c>
       <c r="H27" s="3">
-        <v>1113400</v>
+        <v>1774400</v>
       </c>
       <c r="I27" s="3">
-        <v>589600</v>
+        <v>999100</v>
       </c>
       <c r="J27" s="3">
+        <v>594800</v>
+      </c>
+      <c r="K27" s="3">
         <v>1163900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2144100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1952300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1350900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1539400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1636300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2271300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1359300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1625,55 +1682,61 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-351100</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-144000</v>
+      </c>
+      <c r="F29" s="3">
         <v>2200</v>
       </c>
-      <c r="E29" s="3">
-        <v>2200</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>3300</v>
       </c>
-      <c r="G29" s="3">
-        <v>-3300</v>
-      </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>227100</v>
       </c>
       <c r="I29" s="3">
-        <v>24200</v>
+        <v>125200</v>
       </c>
       <c r="J29" s="3">
+        <v>24400</v>
+      </c>
+      <c r="K29" s="3">
         <v>50500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>47100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>503800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>34800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-16800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>29300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>14100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1719,8 +1782,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1766,102 +1832,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>10</v>
+      <c r="D32" s="3">
+        <v>-418700</v>
       </c>
       <c r="E32" s="3">
-        <v>-387600</v>
+        <v>-471800</v>
       </c>
       <c r="F32" s="3">
-        <v>-401900</v>
+        <v>-391000</v>
       </c>
       <c r="G32" s="3">
-        <v>-574300</v>
+        <v>-405400</v>
       </c>
       <c r="H32" s="3">
-        <v>-567700</v>
+        <v>-522800</v>
       </c>
       <c r="I32" s="3">
-        <v>-347000</v>
+        <v>-512800</v>
       </c>
       <c r="J32" s="3">
+        <v>-350000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-435900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1373300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1141100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-478000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-518400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-154900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-759500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-270000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>10</v>
+      <c r="D33" s="3">
+        <v>722200</v>
       </c>
       <c r="E33" s="3">
-        <v>1448300</v>
+        <v>1197300</v>
       </c>
       <c r="F33" s="3">
-        <v>1133100</v>
+        <v>1460900</v>
       </c>
       <c r="G33" s="3">
-        <v>1985200</v>
+        <v>1143000</v>
       </c>
       <c r="H33" s="3">
-        <v>1113400</v>
+        <v>2001400</v>
       </c>
       <c r="I33" s="3">
-        <v>613800</v>
+        <v>1124200</v>
       </c>
       <c r="J33" s="3">
+        <v>619100</v>
+      </c>
+      <c r="K33" s="3">
         <v>1214400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2191200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2456000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1385700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1522500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1665600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2285400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1907,107 +1982,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>10</v>
+      <c r="D35" s="3">
+        <v>722200</v>
       </c>
       <c r="E35" s="3">
-        <v>1448300</v>
+        <v>1197300</v>
       </c>
       <c r="F35" s="3">
-        <v>1133100</v>
+        <v>1460900</v>
       </c>
       <c r="G35" s="3">
-        <v>1985200</v>
+        <v>1143000</v>
       </c>
       <c r="H35" s="3">
-        <v>1113400</v>
+        <v>2001400</v>
       </c>
       <c r="I35" s="3">
-        <v>613800</v>
+        <v>1124200</v>
       </c>
       <c r="J35" s="3">
+        <v>619100</v>
+      </c>
+      <c r="K35" s="3">
         <v>1214400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2191200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2456000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1385700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1522500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1665600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2285400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2025,8 +2109,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2044,431 +2129,459 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12462300</v>
+        <v>8674700</v>
       </c>
       <c r="E41" s="3">
-        <v>13605300</v>
+        <v>12571300</v>
       </c>
       <c r="F41" s="3">
-        <v>8808200</v>
+        <v>13724300</v>
       </c>
       <c r="G41" s="3">
-        <v>9755700</v>
+        <v>8885200</v>
       </c>
       <c r="H41" s="3">
-        <v>13603100</v>
+        <v>9841000</v>
       </c>
       <c r="I41" s="3">
-        <v>12150500</v>
+        <v>13722100</v>
       </c>
       <c r="J41" s="3">
+        <v>12256700</v>
+      </c>
+      <c r="K41" s="3">
         <v>7784800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10749800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11215400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9396700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9520100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11598400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11182900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12447100</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>10924000</v>
+        <v>10892100</v>
       </c>
       <c r="E42" s="3">
-        <v>11714600</v>
+        <v>11019500</v>
       </c>
       <c r="F42" s="3">
-        <v>10700000</v>
+        <v>11817000</v>
       </c>
       <c r="G42" s="3">
-        <v>10767000</v>
+        <v>10793600</v>
       </c>
       <c r="H42" s="3">
-        <v>10371700</v>
+        <v>10861100</v>
       </c>
       <c r="I42" s="3">
-        <v>11762900</v>
+        <v>10462400</v>
       </c>
       <c r="J42" s="3">
+        <v>11865700</v>
+      </c>
+      <c r="K42" s="3">
         <v>10144400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>10626400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>10132700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>9992400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>9755700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>10085400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>10037200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>9499600</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>32941100</v>
+        <v>23573100</v>
       </c>
       <c r="E43" s="3">
-        <v>33276000</v>
+        <v>33229100</v>
       </c>
       <c r="F43" s="3">
-        <v>33414300</v>
+        <v>33566900</v>
       </c>
       <c r="G43" s="3">
-        <v>31937500</v>
+        <v>33706500</v>
       </c>
       <c r="H43" s="3">
-        <v>31698200</v>
+        <v>32216800</v>
       </c>
       <c r="I43" s="3">
-        <v>31157900</v>
+        <v>31975300</v>
       </c>
       <c r="J43" s="3">
+        <v>31430400</v>
+      </c>
+      <c r="K43" s="3">
         <v>29901800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>28899100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>29119000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>29882000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>20761300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>20843300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>20116800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>20045200</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>17508700</v>
+        <v>9386900</v>
       </c>
       <c r="E44" s="3">
-        <v>16257000</v>
+        <v>17661800</v>
       </c>
       <c r="F44" s="3">
-        <v>17412100</v>
+        <v>16399100</v>
       </c>
       <c r="G44" s="3">
-        <v>17166100</v>
+        <v>17564300</v>
       </c>
       <c r="H44" s="3">
-        <v>16422800</v>
+        <v>17316200</v>
       </c>
       <c r="I44" s="3">
-        <v>15245700</v>
+        <v>16566400</v>
       </c>
       <c r="J44" s="3">
+        <v>15379000</v>
+      </c>
+      <c r="K44" s="3">
         <v>16156000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>16172400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>16158900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>15578800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>23339600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>23185100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>22082900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>21316400</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2442000</v>
+        <v>47595800</v>
       </c>
       <c r="E45" s="3">
-        <v>2413400</v>
+        <v>2463300</v>
       </c>
       <c r="F45" s="3">
-        <v>2362900</v>
+        <v>2434500</v>
       </c>
       <c r="G45" s="3">
-        <v>2172900</v>
+        <v>2383600</v>
       </c>
       <c r="H45" s="3">
-        <v>2156500</v>
+        <v>2191900</v>
       </c>
       <c r="I45" s="3">
-        <v>1976400</v>
+        <v>2175300</v>
       </c>
       <c r="J45" s="3">
+        <v>1993700</v>
+      </c>
+      <c r="K45" s="3">
         <v>2067500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2175500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1936600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4957000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2066700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1916800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1676200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1637500</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>76278100</v>
+        <v>100122600</v>
       </c>
       <c r="E46" s="3">
-        <v>77266300</v>
+        <v>76945000</v>
       </c>
       <c r="F46" s="3">
-        <v>72697500</v>
+        <v>77941800</v>
       </c>
       <c r="G46" s="3">
-        <v>71799300</v>
+        <v>73333100</v>
       </c>
       <c r="H46" s="3">
-        <v>74252300</v>
+        <v>72427100</v>
       </c>
       <c r="I46" s="3">
-        <v>70882500</v>
+        <v>74901500</v>
       </c>
       <c r="J46" s="3">
+        <v>71502200</v>
+      </c>
+      <c r="K46" s="3">
         <v>66054600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>68623200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>68562600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>68160900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>65443400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>67629100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>65096000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>64945700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>24100000</v>
+        <v>24863400</v>
       </c>
       <c r="E47" s="3">
-        <v>24251500</v>
+        <v>24310700</v>
       </c>
       <c r="F47" s="3">
-        <v>23352300</v>
+        <v>24463600</v>
       </c>
       <c r="G47" s="3">
-        <v>23255600</v>
+        <v>23556400</v>
       </c>
       <c r="H47" s="3">
-        <v>22917500</v>
+        <v>23459000</v>
       </c>
       <c r="I47" s="3">
-        <v>22347600</v>
+        <v>23117800</v>
       </c>
       <c r="J47" s="3">
+        <v>22543000</v>
+      </c>
+      <c r="K47" s="3">
         <v>22100500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>21630800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>23888300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>24426800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>25769900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>27684300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>27944900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>27727700</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16444700</v>
+        <v>11422700</v>
       </c>
       <c r="E48" s="3">
-        <v>13376900</v>
+        <v>16588500</v>
       </c>
       <c r="F48" s="3">
-        <v>12954200</v>
+        <v>13493900</v>
       </c>
       <c r="G48" s="3">
-        <v>12919100</v>
+        <v>13067500</v>
       </c>
       <c r="H48" s="3">
-        <v>12646800</v>
+        <v>13032000</v>
       </c>
       <c r="I48" s="3">
-        <v>12496300</v>
+        <v>12757300</v>
       </c>
       <c r="J48" s="3">
+        <v>12605600</v>
+      </c>
+      <c r="K48" s="3">
         <v>12157100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12203900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12181400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12316100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12254400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12244000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12059700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>11922400</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>44822600</v>
+        <v>29512000</v>
       </c>
       <c r="E49" s="3">
-        <v>43876100</v>
+        <v>45214400</v>
       </c>
       <c r="F49" s="3">
-        <v>43024000</v>
+        <v>44259700</v>
       </c>
       <c r="G49" s="3">
-        <v>43676200</v>
+        <v>43400200</v>
       </c>
       <c r="H49" s="3">
-        <v>42947200</v>
+        <v>44058100</v>
       </c>
       <c r="I49" s="3">
-        <v>42245600</v>
+        <v>43322700</v>
       </c>
       <c r="J49" s="3">
+        <v>42614900</v>
+      </c>
+      <c r="K49" s="3">
         <v>42278500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>42292300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>43301000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>43569100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>44476800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>42453200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>38471600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>37445700</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2514,8 +2627,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2561,55 +2677,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5626200</v>
+        <v>4842400</v>
       </c>
       <c r="E52" s="3">
-        <v>6201500</v>
+        <v>5677600</v>
       </c>
       <c r="F52" s="3">
-        <v>5570200</v>
+        <v>6255700</v>
       </c>
       <c r="G52" s="3">
-        <v>5284700</v>
+        <v>5618900</v>
       </c>
       <c r="H52" s="3">
-        <v>4917900</v>
+        <v>5330900</v>
       </c>
       <c r="I52" s="3">
-        <v>4556700</v>
+        <v>4960900</v>
       </c>
       <c r="J52" s="3">
+        <v>4596500</v>
+      </c>
+      <c r="K52" s="3">
         <v>4630300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4895200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4720200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4242200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3778900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4188200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4597800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5526300</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2655,55 +2777,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>167273700</v>
+        <v>170763100</v>
       </c>
       <c r="E54" s="3">
-        <v>164972300</v>
+        <v>168736200</v>
       </c>
       <c r="F54" s="3">
-        <v>157598100</v>
+        <v>166414700</v>
       </c>
       <c r="G54" s="3">
-        <v>156934900</v>
+        <v>158976000</v>
       </c>
       <c r="H54" s="3">
-        <v>157681600</v>
+        <v>158307100</v>
       </c>
       <c r="I54" s="3">
-        <v>152528700</v>
+        <v>159060200</v>
       </c>
       <c r="J54" s="3">
+        <v>153862300</v>
+      </c>
+      <c r="K54" s="3">
         <v>147220900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>149645400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>152653500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>152715200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>151723300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>154198700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>148170000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>147567900</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2721,8 +2849,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2740,290 +2869,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11496100</v>
+        <v>6868200</v>
       </c>
       <c r="E57" s="3">
-        <v>12527100</v>
+        <v>11596600</v>
       </c>
       <c r="F57" s="3">
-        <v>11431300</v>
+        <v>12636600</v>
       </c>
       <c r="G57" s="3">
-        <v>11264400</v>
+        <v>11531200</v>
       </c>
       <c r="H57" s="3">
-        <v>10995400</v>
+        <v>11362900</v>
       </c>
       <c r="I57" s="3">
-        <v>11766200</v>
+        <v>11091500</v>
       </c>
       <c r="J57" s="3">
+        <v>11869000</v>
+      </c>
+      <c r="K57" s="3">
         <v>10496900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10028300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9988000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10946100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10770000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9352900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8818800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9446800</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7412600</v>
+        <v>7651300</v>
       </c>
       <c r="E58" s="3">
-        <v>6625300</v>
+        <v>7477400</v>
       </c>
       <c r="F58" s="3">
-        <v>10705500</v>
+        <v>6683300</v>
       </c>
       <c r="G58" s="3">
-        <v>9873200</v>
+        <v>10799100</v>
       </c>
       <c r="H58" s="3">
-        <v>8600600</v>
+        <v>9959500</v>
       </c>
       <c r="I58" s="3">
-        <v>5552600</v>
+        <v>8675800</v>
       </c>
       <c r="J58" s="3">
+        <v>5601100</v>
+      </c>
+      <c r="K58" s="3">
         <v>3361000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6353800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6216900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6111500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7700200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6085000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5627200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7284700</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>36260400</v>
+        <v>48937100</v>
       </c>
       <c r="E59" s="3">
-        <v>36541400</v>
+        <v>36575200</v>
       </c>
       <c r="F59" s="3">
-        <v>35566400</v>
+        <v>36860900</v>
       </c>
       <c r="G59" s="3">
-        <v>34622100</v>
+        <v>35877400</v>
       </c>
       <c r="H59" s="3">
-        <v>36179100</v>
+        <v>34924800</v>
       </c>
       <c r="I59" s="3">
-        <v>35246900</v>
+        <v>36495400</v>
       </c>
       <c r="J59" s="3">
+        <v>35555100</v>
+      </c>
+      <c r="K59" s="3">
         <v>34141200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>34551700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>35443700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>34640300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>32000300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>33477100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>33731800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>33643700</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>55166800</v>
+        <v>63456600</v>
       </c>
       <c r="E60" s="3">
-        <v>55693900</v>
+        <v>55649100</v>
       </c>
       <c r="F60" s="3">
-        <v>57703200</v>
+        <v>56180800</v>
       </c>
       <c r="G60" s="3">
-        <v>55759700</v>
+        <v>58207700</v>
       </c>
       <c r="H60" s="3">
-        <v>55775100</v>
+        <v>56247300</v>
       </c>
       <c r="I60" s="3">
-        <v>52565700</v>
+        <v>56262800</v>
       </c>
       <c r="J60" s="3">
+        <v>53025200</v>
+      </c>
+      <c r="K60" s="3">
         <v>47999100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>50933900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>51648600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>51697900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>50470500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>48915000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>48177900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>50375200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>36595200</v>
+        <v>40789600</v>
       </c>
       <c r="E61" s="3">
-        <v>33394600</v>
+        <v>36915200</v>
       </c>
       <c r="F61" s="3">
-        <v>28684200</v>
+        <v>33686500</v>
       </c>
       <c r="G61" s="3">
-        <v>30171900</v>
+        <v>28934900</v>
       </c>
       <c r="H61" s="3">
-        <v>30476100</v>
+        <v>30435700</v>
       </c>
       <c r="I61" s="3">
-        <v>29777800</v>
+        <v>30742500</v>
       </c>
       <c r="J61" s="3">
+        <v>30038100</v>
+      </c>
+      <c r="K61" s="3">
         <v>28666600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>28340300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>29600300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>30043500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>32026100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>38674700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>31563800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>30405200</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>18417900</v>
+        <v>14222700</v>
       </c>
       <c r="E62" s="3">
-        <v>19903400</v>
+        <v>18580000</v>
       </c>
       <c r="F62" s="3">
-        <v>19095300</v>
+        <v>20077500</v>
       </c>
       <c r="G62" s="3">
-        <v>19272100</v>
+        <v>19262300</v>
       </c>
       <c r="H62" s="3">
-        <v>19126100</v>
+        <v>19440600</v>
       </c>
       <c r="I62" s="3">
-        <v>17430800</v>
+        <v>19293300</v>
       </c>
       <c r="J62" s="3">
+        <v>17583200</v>
+      </c>
+      <c r="K62" s="3">
         <v>17860100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18649700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>20484200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>20910500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>20396700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>21366900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>22391600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>25920100</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3069,8 +3217,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3116,8 +3267,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3163,55 +3317,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>113207100</v>
+        <v>121334300</v>
       </c>
       <c r="E66" s="3">
-        <v>112130000</v>
+        <v>114198000</v>
       </c>
       <c r="F66" s="3">
-        <v>108435200</v>
+        <v>113110300</v>
       </c>
       <c r="G66" s="3">
-        <v>108103600</v>
+        <v>109383300</v>
       </c>
       <c r="H66" s="3">
-        <v>108269400</v>
+        <v>109048800</v>
       </c>
       <c r="I66" s="3">
-        <v>102599300</v>
+        <v>109216000</v>
       </c>
       <c r="J66" s="3">
+        <v>103496400</v>
+      </c>
+      <c r="K66" s="3">
         <v>97249900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>100645900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>103254500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>104266500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>104659200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>109687800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>102846900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>107410700</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3229,8 +3389,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3276,8 +3437,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3323,8 +3487,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3370,8 +3537,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3417,55 +3587,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>47218400</v>
+        <v>43705900</v>
       </c>
       <c r="E72" s="3">
-        <v>45916200</v>
+        <v>47631200</v>
       </c>
       <c r="F72" s="3">
-        <v>44529400</v>
+        <v>46317600</v>
       </c>
       <c r="G72" s="3">
-        <v>43311700</v>
+        <v>44918700</v>
       </c>
       <c r="H72" s="3">
-        <v>44718200</v>
+        <v>43690400</v>
       </c>
       <c r="I72" s="3">
-        <v>45033400</v>
+        <v>45109200</v>
       </c>
       <c r="J72" s="3">
+        <v>45427100</v>
+      </c>
+      <c r="K72" s="3">
         <v>44466800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>44000000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>42359600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>40160500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>38469700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>35296500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>36673300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>32225800</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3511,8 +3687,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3558,8 +3737,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3605,55 +3787,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>54065500</v>
+        <v>49428900</v>
       </c>
       <c r="E76" s="3">
-        <v>52842300</v>
+        <v>54538200</v>
       </c>
       <c r="F76" s="3">
-        <v>49163000</v>
+        <v>53304400</v>
       </c>
       <c r="G76" s="3">
-        <v>48831400</v>
+        <v>49592800</v>
       </c>
       <c r="H76" s="3">
-        <v>49412200</v>
+        <v>49258300</v>
       </c>
       <c r="I76" s="3">
-        <v>49929400</v>
+        <v>49844200</v>
       </c>
       <c r="J76" s="3">
+        <v>50365900</v>
+      </c>
+      <c r="K76" s="3">
         <v>49971100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>48999500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>49399000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>48448700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>47064100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>44510900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>45323200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>40157200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3699,107 +3887,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>10</v>
+      <c r="D81" s="3">
+        <v>722200</v>
       </c>
       <c r="E81" s="3">
-        <v>1448300</v>
+        <v>1197300</v>
       </c>
       <c r="F81" s="3">
-        <v>1133100</v>
+        <v>1460900</v>
       </c>
       <c r="G81" s="3">
-        <v>1985200</v>
+        <v>1143000</v>
       </c>
       <c r="H81" s="3">
-        <v>1113400</v>
+        <v>2001400</v>
       </c>
       <c r="I81" s="3">
-        <v>613800</v>
+        <v>1124200</v>
       </c>
       <c r="J81" s="3">
+        <v>619100</v>
+      </c>
+      <c r="K81" s="3">
         <v>1214400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2191200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2456000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1385700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1522500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1665600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2285400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3817,55 +4014,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1174900</v>
+        <v>470700</v>
       </c>
       <c r="E83" s="3">
-        <v>1059600</v>
+        <v>1185100</v>
       </c>
       <c r="F83" s="3">
-        <v>948700</v>
+        <v>1068800</v>
       </c>
       <c r="G83" s="3">
-        <v>917900</v>
+        <v>957000</v>
       </c>
       <c r="H83" s="3">
-        <v>910200</v>
+        <v>926000</v>
       </c>
       <c r="I83" s="3">
-        <v>1004700</v>
+        <v>918200</v>
       </c>
       <c r="J83" s="3">
+        <v>1013500</v>
+      </c>
+      <c r="K83" s="3">
         <v>891600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>939100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>959300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1143300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>967200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>785300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>775900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>871000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3911,8 +4112,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3958,8 +4162,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4005,8 +4212,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4052,8 +4262,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4099,55 +4312,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>583000</v>
+        <v>742100</v>
       </c>
       <c r="E89" s="3">
-        <v>6689000</v>
+        <v>588100</v>
       </c>
       <c r="F89" s="3">
-        <v>1195700</v>
+        <v>6748600</v>
       </c>
       <c r="G89" s="3">
-        <v>1192400</v>
+        <v>1206200</v>
       </c>
       <c r="H89" s="3">
-        <v>206400</v>
+        <v>1202900</v>
       </c>
       <c r="I89" s="3">
-        <v>4655500</v>
+        <v>208200</v>
       </c>
       <c r="J89" s="3">
+        <v>4696200</v>
+      </c>
+      <c r="K89" s="3">
         <v>1625000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1495600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1540500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3636400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1781700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1423800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1331100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5149500</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4165,55 +4384,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-534700</v>
+        <v>-227100</v>
       </c>
       <c r="E91" s="3">
-        <v>-911300</v>
+        <v>-539400</v>
       </c>
       <c r="F91" s="3">
-        <v>-719200</v>
+        <v>-919300</v>
       </c>
       <c r="G91" s="3">
-        <v>-658800</v>
+        <v>-725500</v>
       </c>
       <c r="H91" s="3">
-        <v>-576500</v>
+        <v>-664600</v>
       </c>
       <c r="I91" s="3">
-        <v>-1049700</v>
+        <v>-581500</v>
       </c>
       <c r="J91" s="3">
+        <v>-1058900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-662100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-607000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-563200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-969400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-724800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1115100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-988300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-959000</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4259,8 +4482,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4306,55 +4532,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2412300</v>
+        <v>-1558400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1768900</v>
+        <v>-2433400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1122200</v>
+        <v>-1785500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1212200</v>
+        <v>-1132000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1397800</v>
+        <v>-1222800</v>
       </c>
       <c r="I94" s="3">
-        <v>-2440900</v>
+        <v>-1410000</v>
       </c>
       <c r="J94" s="3">
+        <v>-2462200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1002500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1308200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>592400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1884900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1668400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4665900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-369800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2619900</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4372,8 +4604,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4419,8 +4652,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4466,8 +4702,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4513,8 +4752,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4560,145 +4802,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>773000</v>
+        <v>-744300</v>
       </c>
       <c r="E100" s="3">
-        <v>-237200</v>
+        <v>779800</v>
       </c>
       <c r="F100" s="3">
-        <v>-831200</v>
+        <v>-237000</v>
       </c>
       <c r="G100" s="3">
-        <v>-4005500</v>
+        <v>-838500</v>
       </c>
       <c r="H100" s="3">
-        <v>2571500</v>
+        <v>-4040500</v>
       </c>
       <c r="I100" s="3">
-        <v>2287100</v>
+        <v>2594000</v>
       </c>
       <c r="J100" s="3">
+        <v>2307100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3425800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-639500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-380400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1729000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1276800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3617700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2304200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2442700</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-86700</v>
+        <v>-78600</v>
       </c>
       <c r="E101" s="3">
-        <v>113100</v>
+        <v>-87500</v>
       </c>
       <c r="F101" s="3">
-        <v>-190000</v>
+        <v>114100</v>
       </c>
       <c r="G101" s="3">
-        <v>176800</v>
+        <v>-191600</v>
       </c>
       <c r="H101" s="3">
-        <v>72500</v>
+        <v>178300</v>
       </c>
       <c r="I101" s="3">
-        <v>-136200</v>
+        <v>73100</v>
       </c>
       <c r="J101" s="3">
+        <v>-137300</v>
+      </c>
+      <c r="K101" s="3">
         <v>68100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-13500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>50500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-130200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-402800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>39900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>63400</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1143000</v>
+        <v>-1639200</v>
       </c>
       <c r="E102" s="3">
-        <v>4798300</v>
+        <v>-1153000</v>
       </c>
       <c r="F102" s="3">
-        <v>-947600</v>
+        <v>4840200</v>
       </c>
       <c r="G102" s="3">
-        <v>-3848500</v>
+        <v>-955900</v>
       </c>
       <c r="H102" s="3">
-        <v>1452700</v>
+        <v>-3882100</v>
       </c>
       <c r="I102" s="3">
-        <v>4365600</v>
+        <v>1465400</v>
       </c>
       <c r="J102" s="3">
+        <v>4403800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2735100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-465600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1803000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-107700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1566300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>415500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1279500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4972300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SIEGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIEGY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,221 +665,233 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15755600</v>
+        <v>15958500</v>
       </c>
       <c r="E8" s="3">
-        <v>15629300</v>
+        <v>16826800</v>
       </c>
       <c r="F8" s="3">
-        <v>27160600</v>
+        <v>16691900</v>
       </c>
       <c r="G8" s="3">
-        <v>23564200</v>
+        <v>29007100</v>
       </c>
       <c r="H8" s="3">
-        <v>15777800</v>
+        <v>16842100</v>
       </c>
       <c r="I8" s="3">
-        <v>15091100</v>
+        <v>16850400</v>
       </c>
       <c r="J8" s="3">
+        <v>16117000</v>
+      </c>
+      <c r="K8" s="3">
         <v>25039500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>22479400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>22598000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>22241200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>24927300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>23896100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>23634700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>22552400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>25768700</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10136800</v>
+        <v>10230900</v>
       </c>
       <c r="E9" s="3">
-        <v>10030400</v>
+        <v>10825900</v>
       </c>
       <c r="F9" s="3">
-        <v>19074000</v>
+        <v>10712300</v>
       </c>
       <c r="G9" s="3">
-        <v>16717000</v>
+        <v>20370700</v>
       </c>
       <c r="H9" s="3">
-        <v>9798900</v>
+        <v>10734800</v>
       </c>
       <c r="I9" s="3">
-        <v>9664900</v>
+        <v>10465100</v>
       </c>
       <c r="J9" s="3">
+        <v>10322000</v>
+      </c>
+      <c r="K9" s="3">
         <v>17823500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15801300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15522700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15554100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>17849700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>17030700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>15969700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>15409800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>18465200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5618900</v>
+        <v>5727600</v>
       </c>
       <c r="E10" s="3">
-        <v>5598900</v>
+        <v>6000900</v>
       </c>
       <c r="F10" s="3">
-        <v>8086600</v>
+        <v>5979600</v>
       </c>
       <c r="G10" s="3">
-        <v>6847200</v>
+        <v>8636400</v>
       </c>
       <c r="H10" s="3">
-        <v>5978800</v>
+        <v>6107300</v>
       </c>
       <c r="I10" s="3">
-        <v>5426100</v>
+        <v>6385300</v>
       </c>
       <c r="J10" s="3">
+        <v>5795000</v>
+      </c>
+      <c r="K10" s="3">
         <v>7216000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6678000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7075300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6687100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7077500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6865500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7665000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7142600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7303400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,58 +910,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1292600</v>
+        <v>1296500</v>
       </c>
       <c r="E12" s="3">
-        <v>1252700</v>
+        <v>1380400</v>
       </c>
       <c r="F12" s="3">
-        <v>1773300</v>
+        <v>1337900</v>
       </c>
       <c r="G12" s="3">
-        <v>1539600</v>
+        <v>1893800</v>
       </c>
       <c r="H12" s="3">
-        <v>1266000</v>
+        <v>1367400</v>
       </c>
       <c r="I12" s="3">
-        <v>1202900</v>
+        <v>1352100</v>
       </c>
       <c r="J12" s="3">
+        <v>1284600</v>
+      </c>
+      <c r="K12" s="3">
         <v>1735600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1506500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1565200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1373300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1656100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1511300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1425000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1322900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1551800</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -998,8 +1014,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1039,8 +1058,8 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1048,8 +1067,11 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1098,8 +1120,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1115,108 +1140,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14370000</v>
+        <v>14556800</v>
       </c>
       <c r="E17" s="3">
-        <v>14289100</v>
+        <v>15346900</v>
       </c>
       <c r="F17" s="3">
-        <v>24816900</v>
+        <v>15260600</v>
       </c>
       <c r="G17" s="3">
-        <v>21940400</v>
+        <v>26504100</v>
       </c>
       <c r="H17" s="3">
-        <v>13820600</v>
+        <v>15261800</v>
       </c>
       <c r="I17" s="3">
-        <v>13821700</v>
+        <v>14760200</v>
       </c>
       <c r="J17" s="3">
+        <v>14761400</v>
+      </c>
+      <c r="K17" s="3">
         <v>23528700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>20824700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20680500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20439300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>23346400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>22102100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>20967800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>19862000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>23667500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1385600</v>
+        <v>1401700</v>
       </c>
       <c r="E18" s="3">
-        <v>1340200</v>
+        <v>1479800</v>
       </c>
       <c r="F18" s="3">
-        <v>2343700</v>
+        <v>1431300</v>
       </c>
       <c r="G18" s="3">
-        <v>1623700</v>
+        <v>2503000</v>
       </c>
       <c r="H18" s="3">
-        <v>1957100</v>
+        <v>1580400</v>
       </c>
       <c r="I18" s="3">
-        <v>1269300</v>
+        <v>2090200</v>
       </c>
       <c r="J18" s="3">
+        <v>1355600</v>
+      </c>
+      <c r="K18" s="3">
         <v>1510800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1654700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1917500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1801900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1580900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1794100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2666900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2690400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2101100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1235,258 +1267,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>418700</v>
+        <v>522800</v>
       </c>
       <c r="E20" s="3">
-        <v>471800</v>
+        <v>447100</v>
       </c>
       <c r="F20" s="3">
-        <v>391000</v>
+        <v>503900</v>
       </c>
       <c r="G20" s="3">
-        <v>405400</v>
+        <v>417600</v>
       </c>
       <c r="H20" s="3">
-        <v>522800</v>
+        <v>402200</v>
       </c>
       <c r="I20" s="3">
-        <v>512800</v>
+        <v>558300</v>
       </c>
       <c r="J20" s="3">
+        <v>547700</v>
+      </c>
+      <c r="K20" s="3">
         <v>350000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>435900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1373300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1141100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>478000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>518400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>154900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>759500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2275000</v>
+        <v>2837800</v>
       </c>
       <c r="E21" s="3">
-        <v>2997200</v>
+        <v>2429700</v>
       </c>
       <c r="F21" s="3">
-        <v>3803500</v>
+        <v>3200900</v>
       </c>
       <c r="G21" s="3">
-        <v>2986100</v>
+        <v>4062100</v>
       </c>
       <c r="H21" s="3">
-        <v>3405900</v>
+        <v>3004600</v>
       </c>
       <c r="I21" s="3">
-        <v>2700300</v>
+        <v>3637400</v>
       </c>
       <c r="J21" s="3">
+        <v>2883900</v>
+      </c>
+      <c r="K21" s="3">
         <v>2874200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2982200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4229900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3902300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3202200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3279600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3607100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4225700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3242100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>346700</v>
+        <v>259100</v>
       </c>
       <c r="E22" s="3">
-        <v>156200</v>
+        <v>370200</v>
       </c>
       <c r="F22" s="3">
-        <v>314600</v>
+        <v>166800</v>
       </c>
       <c r="G22" s="3">
-        <v>327800</v>
+        <v>335900</v>
       </c>
       <c r="H22" s="3">
-        <v>289100</v>
+        <v>278000</v>
       </c>
       <c r="I22" s="3">
-        <v>240300</v>
+        <v>308700</v>
       </c>
       <c r="J22" s="3">
+        <v>256700</v>
+      </c>
+      <c r="K22" s="3">
         <v>301300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>299800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>298400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>311900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>310800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>322000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>284100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>286400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>291100</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1457600</v>
+        <v>1665500</v>
       </c>
       <c r="E23" s="3">
-        <v>1655900</v>
+        <v>1556700</v>
       </c>
       <c r="F23" s="3">
-        <v>2420100</v>
+        <v>1768400</v>
       </c>
       <c r="G23" s="3">
-        <v>1701300</v>
+        <v>2584600</v>
       </c>
       <c r="H23" s="3">
-        <v>2190800</v>
+        <v>1704600</v>
       </c>
       <c r="I23" s="3">
-        <v>1541800</v>
+        <v>2339800</v>
       </c>
       <c r="J23" s="3">
+        <v>1646600</v>
+      </c>
+      <c r="K23" s="3">
         <v>1559500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1790800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2992300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2631100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1748100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1990400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2537800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3163400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2080000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>334500</v>
+        <v>499200</v>
       </c>
       <c r="E24" s="3">
-        <v>306800</v>
+        <v>357200</v>
       </c>
       <c r="F24" s="3">
-        <v>794100</v>
+        <v>327700</v>
       </c>
       <c r="G24" s="3">
-        <v>445300</v>
+        <v>848100</v>
       </c>
       <c r="H24" s="3">
-        <v>288000</v>
+        <v>450700</v>
       </c>
       <c r="I24" s="3">
-        <v>427500</v>
+        <v>307600</v>
       </c>
       <c r="J24" s="3">
+        <v>456600</v>
+      </c>
+      <c r="K24" s="3">
         <v>828500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>512800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>774200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>655200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>379200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>392700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>860400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>853400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>693700</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1535,108 +1583,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1123100</v>
+        <v>1166300</v>
       </c>
       <c r="E26" s="3">
-        <v>1349100</v>
+        <v>1199500</v>
       </c>
       <c r="F26" s="3">
-        <v>1626000</v>
+        <v>1440800</v>
       </c>
       <c r="G26" s="3">
-        <v>1256000</v>
+        <v>1736500</v>
       </c>
       <c r="H26" s="3">
-        <v>1902900</v>
+        <v>1253900</v>
       </c>
       <c r="I26" s="3">
-        <v>1114200</v>
+        <v>2032200</v>
       </c>
       <c r="J26" s="3">
+        <v>1190000</v>
+      </c>
+      <c r="K26" s="3">
         <v>731000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1278100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2218200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1975800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1368800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1597700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1677400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2310100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1386300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1073300</v>
+        <v>1171100</v>
       </c>
       <c r="E27" s="3">
-        <v>1341300</v>
+        <v>1146200</v>
       </c>
       <c r="F27" s="3">
-        <v>1458700</v>
+        <v>1432500</v>
       </c>
       <c r="G27" s="3">
-        <v>1139700</v>
+        <v>1557900</v>
       </c>
       <c r="H27" s="3">
-        <v>1774400</v>
+        <v>1128500</v>
       </c>
       <c r="I27" s="3">
-        <v>999100</v>
+        <v>1895000</v>
       </c>
       <c r="J27" s="3">
+        <v>1067000</v>
+      </c>
+      <c r="K27" s="3">
         <v>594800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1163900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2144100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1952300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1350900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1539400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1636300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2271300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1359300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1685,58 +1742,64 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-351100</v>
+        <v>-533500</v>
       </c>
       <c r="E29" s="3">
-        <v>-144000</v>
+        <v>-375000</v>
       </c>
       <c r="F29" s="3">
-        <v>2200</v>
+        <v>-153800</v>
       </c>
       <c r="G29" s="3">
-        <v>3300</v>
+        <v>2400</v>
       </c>
       <c r="H29" s="3">
-        <v>227100</v>
+        <v>92300</v>
       </c>
       <c r="I29" s="3">
-        <v>125200</v>
+        <v>242500</v>
       </c>
       <c r="J29" s="3">
+        <v>133700</v>
+      </c>
+      <c r="K29" s="3">
         <v>24400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>50500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>47100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>503800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>34800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-16800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>29300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>14100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1785,8 +1848,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1835,108 +1901,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-418700</v>
+        <v>-522800</v>
       </c>
       <c r="E32" s="3">
-        <v>-471800</v>
+        <v>-447100</v>
       </c>
       <c r="F32" s="3">
-        <v>-391000</v>
+        <v>-503900</v>
       </c>
       <c r="G32" s="3">
-        <v>-405400</v>
+        <v>-417600</v>
       </c>
       <c r="H32" s="3">
-        <v>-522800</v>
+        <v>-402200</v>
       </c>
       <c r="I32" s="3">
-        <v>-512800</v>
+        <v>-558300</v>
       </c>
       <c r="J32" s="3">
+        <v>-547700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-350000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-435900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1373300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1141100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-478000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-518400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-154900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-759500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-270000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>722200</v>
+        <v>637600</v>
       </c>
       <c r="E33" s="3">
-        <v>1197300</v>
+        <v>771300</v>
       </c>
       <c r="F33" s="3">
-        <v>1460900</v>
+        <v>1278700</v>
       </c>
       <c r="G33" s="3">
-        <v>1143000</v>
+        <v>1560200</v>
       </c>
       <c r="H33" s="3">
-        <v>2001400</v>
+        <v>1220800</v>
       </c>
       <c r="I33" s="3">
-        <v>1124200</v>
+        <v>2137500</v>
       </c>
       <c r="J33" s="3">
+        <v>1200600</v>
+      </c>
+      <c r="K33" s="3">
         <v>619100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1214400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2191200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2456000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1385700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1522500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1665600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2285400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1985,113 +2060,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>722200</v>
+        <v>637600</v>
       </c>
       <c r="E35" s="3">
-        <v>1197300</v>
+        <v>771300</v>
       </c>
       <c r="F35" s="3">
-        <v>1460900</v>
+        <v>1278700</v>
       </c>
       <c r="G35" s="3">
-        <v>1143000</v>
+        <v>1560200</v>
       </c>
       <c r="H35" s="3">
-        <v>2001400</v>
+        <v>1220800</v>
       </c>
       <c r="I35" s="3">
-        <v>1124200</v>
+        <v>2137500</v>
       </c>
       <c r="J35" s="3">
+        <v>1200600</v>
+      </c>
+      <c r="K35" s="3">
         <v>619100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1214400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2191200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2456000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1385700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1522500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1665600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2285400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2110,8 +2194,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2130,458 +2215,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8674700</v>
+        <v>14294200</v>
       </c>
       <c r="E41" s="3">
-        <v>12571300</v>
+        <v>9264500</v>
       </c>
       <c r="F41" s="3">
-        <v>13724300</v>
+        <v>13425900</v>
       </c>
       <c r="G41" s="3">
-        <v>8885200</v>
+        <v>14657300</v>
       </c>
       <c r="H41" s="3">
-        <v>9841000</v>
+        <v>9489200</v>
       </c>
       <c r="I41" s="3">
-        <v>13722100</v>
+        <v>10510100</v>
       </c>
       <c r="J41" s="3">
+        <v>14654900</v>
+      </c>
+      <c r="K41" s="3">
         <v>12256700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7784800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10749800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11215400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9396700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9520100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11598400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11182900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12447100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>10892100</v>
+        <v>10019200</v>
       </c>
       <c r="E42" s="3">
-        <v>11019500</v>
+        <v>11632600</v>
       </c>
       <c r="F42" s="3">
-        <v>11817000</v>
+        <v>11768700</v>
       </c>
       <c r="G42" s="3">
-        <v>10793600</v>
+        <v>12620400</v>
       </c>
       <c r="H42" s="3">
-        <v>10861100</v>
+        <v>11527400</v>
       </c>
       <c r="I42" s="3">
-        <v>10462400</v>
+        <v>11599500</v>
       </c>
       <c r="J42" s="3">
+        <v>11173700</v>
+      </c>
+      <c r="K42" s="3">
         <v>11865700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>10144400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>10626400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>10132700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>9992400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>9755700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>10085400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>10037200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>9499600</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>23573100</v>
+        <v>24355900</v>
       </c>
       <c r="E43" s="3">
-        <v>33229100</v>
+        <v>25175700</v>
       </c>
       <c r="F43" s="3">
-        <v>33566900</v>
+        <v>35488200</v>
       </c>
       <c r="G43" s="3">
-        <v>33706500</v>
+        <v>35849000</v>
       </c>
       <c r="H43" s="3">
-        <v>32216800</v>
+        <v>35998000</v>
       </c>
       <c r="I43" s="3">
-        <v>31975300</v>
+        <v>34407000</v>
       </c>
       <c r="J43" s="3">
+        <v>34149100</v>
+      </c>
+      <c r="K43" s="3">
         <v>31430400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>29901800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>28899100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>29119000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>29882000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>20761300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>20843300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>20116800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>20045200</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9386900</v>
+        <v>10280600</v>
       </c>
       <c r="E44" s="3">
-        <v>17661800</v>
+        <v>10025100</v>
       </c>
       <c r="F44" s="3">
-        <v>16399100</v>
+        <v>18862500</v>
       </c>
       <c r="G44" s="3">
-        <v>17564300</v>
+        <v>17514000</v>
       </c>
       <c r="H44" s="3">
-        <v>17316200</v>
+        <v>18758400</v>
       </c>
       <c r="I44" s="3">
-        <v>16566400</v>
+        <v>18493500</v>
       </c>
       <c r="J44" s="3">
+        <v>17692600</v>
+      </c>
+      <c r="K44" s="3">
         <v>15379000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>16156000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>16172400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>16158900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>15578800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>23339600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>23185100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>22082900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>21316400</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>47595800</v>
+        <v>51400600</v>
       </c>
       <c r="E45" s="3">
-        <v>2463300</v>
+        <v>50831600</v>
       </c>
       <c r="F45" s="3">
-        <v>2434500</v>
+        <v>2630800</v>
       </c>
       <c r="G45" s="3">
-        <v>2383600</v>
+        <v>2600000</v>
       </c>
       <c r="H45" s="3">
-        <v>2191900</v>
+        <v>2545600</v>
       </c>
       <c r="I45" s="3">
-        <v>2175300</v>
+        <v>2341000</v>
       </c>
       <c r="J45" s="3">
+        <v>2323200</v>
+      </c>
+      <c r="K45" s="3">
         <v>1993700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2067500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2175500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1936600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4957000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2066700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1916800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1676200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1637500</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100122600</v>
+        <v>110350400</v>
       </c>
       <c r="E46" s="3">
-        <v>76945000</v>
+        <v>106929400</v>
       </c>
       <c r="F46" s="3">
-        <v>77941800</v>
+        <v>82176100</v>
       </c>
       <c r="G46" s="3">
-        <v>73333100</v>
+        <v>83240700</v>
       </c>
       <c r="H46" s="3">
-        <v>72427100</v>
+        <v>78318600</v>
       </c>
       <c r="I46" s="3">
-        <v>74901500</v>
+        <v>77351000</v>
       </c>
       <c r="J46" s="3">
+        <v>79993600</v>
+      </c>
+      <c r="K46" s="3">
         <v>71502200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>66054600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>68623200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>68562600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>68160900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>65443400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>67629100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>65096000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>64945700</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>24863400</v>
+        <v>26887300</v>
       </c>
       <c r="E47" s="3">
-        <v>24310700</v>
+        <v>26553700</v>
       </c>
       <c r="F47" s="3">
-        <v>24463600</v>
+        <v>25963500</v>
       </c>
       <c r="G47" s="3">
-        <v>23556400</v>
+        <v>26126700</v>
       </c>
       <c r="H47" s="3">
-        <v>23459000</v>
+        <v>25157900</v>
       </c>
       <c r="I47" s="3">
-        <v>23117800</v>
+        <v>25053800</v>
       </c>
       <c r="J47" s="3">
+        <v>24689500</v>
+      </c>
+      <c r="K47" s="3">
         <v>22543000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>22100500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>21630800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>23888300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>24426800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>25769900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>27684300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>27944900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>27727700</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11422700</v>
+        <v>12193300</v>
       </c>
       <c r="E48" s="3">
-        <v>16588500</v>
+        <v>12199200</v>
       </c>
       <c r="F48" s="3">
-        <v>13493900</v>
+        <v>17716300</v>
       </c>
       <c r="G48" s="3">
-        <v>13067500</v>
+        <v>14411300</v>
       </c>
       <c r="H48" s="3">
-        <v>13032000</v>
+        <v>13955900</v>
       </c>
       <c r="I48" s="3">
-        <v>12757300</v>
+        <v>13918000</v>
       </c>
       <c r="J48" s="3">
+        <v>13624600</v>
+      </c>
+      <c r="K48" s="3">
         <v>12605600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12157100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12203900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12181400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12316100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12254400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12244000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12059700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>11922400</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>29512000</v>
+        <v>30903300</v>
       </c>
       <c r="E49" s="3">
-        <v>45214400</v>
+        <v>31518400</v>
       </c>
       <c r="F49" s="3">
-        <v>44259700</v>
+        <v>48288300</v>
       </c>
       <c r="G49" s="3">
-        <v>43400200</v>
+        <v>47268700</v>
       </c>
       <c r="H49" s="3">
-        <v>44058100</v>
+        <v>46350800</v>
       </c>
       <c r="I49" s="3">
-        <v>43322700</v>
+        <v>47053400</v>
       </c>
       <c r="J49" s="3">
+        <v>46268000</v>
+      </c>
+      <c r="K49" s="3">
         <v>42614900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>42278500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>42292300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>43301000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>43569100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>44476800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>42453200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>38471600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>37445700</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2630,8 +2743,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2680,58 +2796,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4842400</v>
+        <v>5482700</v>
       </c>
       <c r="E52" s="3">
-        <v>5677600</v>
+        <v>5171600</v>
       </c>
       <c r="F52" s="3">
-        <v>6255700</v>
+        <v>6063500</v>
       </c>
       <c r="G52" s="3">
-        <v>5618900</v>
+        <v>6681000</v>
       </c>
       <c r="H52" s="3">
-        <v>5330900</v>
+        <v>6000900</v>
       </c>
       <c r="I52" s="3">
-        <v>4960900</v>
+        <v>5693300</v>
       </c>
       <c r="J52" s="3">
+        <v>5298200</v>
+      </c>
+      <c r="K52" s="3">
         <v>4596500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4630300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4895200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4720200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4242200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3778900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4188200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4597800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5526300</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2780,58 +2902,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>170763100</v>
+        <v>185817000</v>
       </c>
       <c r="E54" s="3">
-        <v>168736200</v>
+        <v>182372400</v>
       </c>
       <c r="F54" s="3">
-        <v>166414700</v>
+        <v>180207700</v>
       </c>
       <c r="G54" s="3">
-        <v>158976000</v>
+        <v>177728400</v>
       </c>
       <c r="H54" s="3">
-        <v>158307100</v>
+        <v>169784000</v>
       </c>
       <c r="I54" s="3">
-        <v>159060200</v>
+        <v>169069500</v>
       </c>
       <c r="J54" s="3">
+        <v>169873900</v>
+      </c>
+      <c r="K54" s="3">
         <v>153862300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>147220900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>149645400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>152653500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>152715200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>151723300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>154198700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>148170000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>147567900</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2850,8 +2978,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2870,308 +2999,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6868200</v>
+        <v>7252400</v>
       </c>
       <c r="E57" s="3">
-        <v>11596600</v>
+        <v>7335200</v>
       </c>
       <c r="F57" s="3">
-        <v>12636600</v>
+        <v>12385000</v>
       </c>
       <c r="G57" s="3">
-        <v>11531200</v>
+        <v>13495700</v>
       </c>
       <c r="H57" s="3">
-        <v>11362900</v>
+        <v>12315200</v>
       </c>
       <c r="I57" s="3">
-        <v>11091500</v>
+        <v>12135400</v>
       </c>
       <c r="J57" s="3">
+        <v>11845600</v>
+      </c>
+      <c r="K57" s="3">
         <v>11869000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10496900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10028300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9988000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10946100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10770000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9352900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8818800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9446800</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7651300</v>
+        <v>6457500</v>
       </c>
       <c r="E58" s="3">
-        <v>7477400</v>
+        <v>8171500</v>
       </c>
       <c r="F58" s="3">
-        <v>6683300</v>
+        <v>7985800</v>
       </c>
       <c r="G58" s="3">
-        <v>10799100</v>
+        <v>7137600</v>
       </c>
       <c r="H58" s="3">
-        <v>9959500</v>
+        <v>11533300</v>
       </c>
       <c r="I58" s="3">
-        <v>8675800</v>
+        <v>10636600</v>
       </c>
       <c r="J58" s="3">
+        <v>9265700</v>
+      </c>
+      <c r="K58" s="3">
         <v>5601100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3361000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6353800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6216900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6111500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7700200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6085000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5627200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7284700</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>48937100</v>
+        <v>53843200</v>
       </c>
       <c r="E59" s="3">
-        <v>36575200</v>
+        <v>52264100</v>
       </c>
       <c r="F59" s="3">
-        <v>36860900</v>
+        <v>39061700</v>
       </c>
       <c r="G59" s="3">
-        <v>35877400</v>
+        <v>39366900</v>
       </c>
       <c r="H59" s="3">
-        <v>34924800</v>
+        <v>38316500</v>
       </c>
       <c r="I59" s="3">
-        <v>36495400</v>
+        <v>37299200</v>
       </c>
       <c r="J59" s="3">
+        <v>38976600</v>
+      </c>
+      <c r="K59" s="3">
         <v>35555100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>34141200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>34551700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>35443700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>34640300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>32000300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>33477100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>33731800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>33643700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>63456600</v>
+        <v>67553100</v>
       </c>
       <c r="E60" s="3">
-        <v>55649100</v>
+        <v>67770700</v>
       </c>
       <c r="F60" s="3">
-        <v>56180800</v>
+        <v>59432400</v>
       </c>
       <c r="G60" s="3">
-        <v>58207700</v>
+        <v>60000200</v>
       </c>
       <c r="H60" s="3">
-        <v>56247300</v>
+        <v>62164900</v>
       </c>
       <c r="I60" s="3">
-        <v>56262800</v>
+        <v>60071200</v>
       </c>
       <c r="J60" s="3">
+        <v>60087800</v>
+      </c>
+      <c r="K60" s="3">
         <v>53025200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>47999100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>50933900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>51648600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>51697900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>50470500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>48915000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>48177900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>50375200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>40789600</v>
+        <v>48048200</v>
       </c>
       <c r="E61" s="3">
-        <v>36915200</v>
+        <v>43562700</v>
       </c>
       <c r="F61" s="3">
-        <v>33686500</v>
+        <v>39424900</v>
       </c>
       <c r="G61" s="3">
-        <v>28934900</v>
+        <v>35976700</v>
       </c>
       <c r="H61" s="3">
-        <v>30435700</v>
+        <v>30902100</v>
       </c>
       <c r="I61" s="3">
-        <v>30742500</v>
+        <v>32504900</v>
       </c>
       <c r="J61" s="3">
+        <v>32832600</v>
+      </c>
+      <c r="K61" s="3">
         <v>30038100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>28666600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>28340300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>29600300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>30043500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>32026100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>38674700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>31563800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>30405200</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14222700</v>
+        <v>15383600</v>
       </c>
       <c r="E62" s="3">
-        <v>18580000</v>
+        <v>15189600</v>
       </c>
       <c r="F62" s="3">
-        <v>20077500</v>
+        <v>19843100</v>
       </c>
       <c r="G62" s="3">
-        <v>19262300</v>
+        <v>21442400</v>
       </c>
       <c r="H62" s="3">
-        <v>19440600</v>
+        <v>20571800</v>
       </c>
       <c r="I62" s="3">
-        <v>19293300</v>
+        <v>20762300</v>
       </c>
       <c r="J62" s="3">
+        <v>20604900</v>
+      </c>
+      <c r="K62" s="3">
         <v>17583200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>17860100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18649700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>20484200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>20910500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>20396700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>21366900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>22391600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>25920100</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3220,8 +3368,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3270,8 +3421,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3320,58 +3474,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>121334300</v>
+        <v>133955100</v>
       </c>
       <c r="E66" s="3">
-        <v>114198000</v>
+        <v>129583100</v>
       </c>
       <c r="F66" s="3">
-        <v>113110300</v>
+        <v>121961700</v>
       </c>
       <c r="G66" s="3">
-        <v>109383300</v>
+        <v>120800100</v>
       </c>
       <c r="H66" s="3">
-        <v>109048800</v>
+        <v>116819700</v>
       </c>
       <c r="I66" s="3">
-        <v>109216000</v>
+        <v>116462400</v>
       </c>
       <c r="J66" s="3">
+        <v>116641000</v>
+      </c>
+      <c r="K66" s="3">
         <v>103496400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>97249900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>100645900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>103254500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>104266500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>104659200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>109687800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>102846900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>107410700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3390,8 +3550,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3440,8 +3601,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3490,8 +3654,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3540,8 +3707,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3590,58 +3760,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>43705900</v>
+        <v>46996600</v>
       </c>
       <c r="E72" s="3">
-        <v>47631200</v>
+        <v>46677200</v>
       </c>
       <c r="F72" s="3">
-        <v>46317600</v>
+        <v>50869400</v>
       </c>
       <c r="G72" s="3">
-        <v>44918700</v>
+        <v>49466500</v>
       </c>
       <c r="H72" s="3">
-        <v>43690400</v>
+        <v>47972500</v>
       </c>
       <c r="I72" s="3">
-        <v>45109200</v>
+        <v>46660700</v>
       </c>
       <c r="J72" s="3">
+        <v>48176000</v>
+      </c>
+      <c r="K72" s="3">
         <v>45427100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>44466800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>44000000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>42359600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>40160500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>38469700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>35296500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>36673300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>32225800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3690,8 +3866,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3740,8 +3919,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3790,58 +3972,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>49428900</v>
+        <v>51861900</v>
       </c>
       <c r="E76" s="3">
-        <v>54538200</v>
+        <v>52789300</v>
       </c>
       <c r="F76" s="3">
-        <v>53304400</v>
+        <v>58246000</v>
       </c>
       <c r="G76" s="3">
-        <v>49592800</v>
+        <v>56928200</v>
       </c>
       <c r="H76" s="3">
-        <v>49258300</v>
+        <v>52964300</v>
       </c>
       <c r="I76" s="3">
-        <v>49844200</v>
+        <v>52607100</v>
       </c>
       <c r="J76" s="3">
+        <v>53232900</v>
+      </c>
+      <c r="K76" s="3">
         <v>50365900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>49971100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>48999500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>49399000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>48448700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>47064100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>44510900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>45323200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>40157200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3890,113 +4078,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>722200</v>
+        <v>637600</v>
       </c>
       <c r="E81" s="3">
-        <v>1197300</v>
+        <v>771300</v>
       </c>
       <c r="F81" s="3">
-        <v>1460900</v>
+        <v>1278700</v>
       </c>
       <c r="G81" s="3">
-        <v>1143000</v>
+        <v>1560200</v>
       </c>
       <c r="H81" s="3">
-        <v>2001400</v>
+        <v>1220800</v>
       </c>
       <c r="I81" s="3">
-        <v>1124200</v>
+        <v>2137500</v>
       </c>
       <c r="J81" s="3">
+        <v>1200600</v>
+      </c>
+      <c r="K81" s="3">
         <v>619100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1214400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2191200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2456000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1385700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1522500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1665600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2285400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4015,58 +4212,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>470700</v>
+        <v>913200</v>
       </c>
       <c r="E83" s="3">
-        <v>1185100</v>
+        <v>502700</v>
       </c>
       <c r="F83" s="3">
-        <v>1068800</v>
+        <v>1265700</v>
       </c>
       <c r="G83" s="3">
-        <v>957000</v>
+        <v>1141500</v>
       </c>
       <c r="H83" s="3">
-        <v>926000</v>
+        <v>1022000</v>
       </c>
       <c r="I83" s="3">
-        <v>918200</v>
+        <v>988900</v>
       </c>
       <c r="J83" s="3">
+        <v>980600</v>
+      </c>
+      <c r="K83" s="3">
         <v>1013500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>891600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>939100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>959300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1143300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>967200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>785300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>775900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>871000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4115,8 +4316,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4165,8 +4369,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4215,8 +4422,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4265,8 +4475,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4315,58 +4528,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>742100</v>
+        <v>3572400</v>
       </c>
       <c r="E89" s="3">
-        <v>588100</v>
+        <v>792500</v>
       </c>
       <c r="F89" s="3">
-        <v>6748600</v>
+        <v>628100</v>
       </c>
       <c r="G89" s="3">
-        <v>1206200</v>
+        <v>7207400</v>
       </c>
       <c r="H89" s="3">
-        <v>1202900</v>
+        <v>1288200</v>
       </c>
       <c r="I89" s="3">
-        <v>208200</v>
+        <v>1284600</v>
       </c>
       <c r="J89" s="3">
+        <v>222400</v>
+      </c>
+      <c r="K89" s="3">
         <v>4696200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1625000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1495600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1540500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3636400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1781700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1423800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1331100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5149500</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4385,58 +4604,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-227100</v>
+        <v>-404600</v>
       </c>
       <c r="E91" s="3">
-        <v>-539400</v>
+        <v>-242500</v>
       </c>
       <c r="F91" s="3">
-        <v>-919300</v>
+        <v>-576100</v>
       </c>
       <c r="G91" s="3">
-        <v>-725500</v>
+        <v>-981800</v>
       </c>
       <c r="H91" s="3">
-        <v>-664600</v>
+        <v>-774800</v>
       </c>
       <c r="I91" s="3">
-        <v>-581500</v>
+        <v>-709700</v>
       </c>
       <c r="J91" s="3">
+        <v>-621000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1058900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-662100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-607000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-563200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-969400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-724800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1115100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-988300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-959000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4485,8 +4708,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4535,58 +4761,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1558400</v>
+        <v>-314700</v>
       </c>
       <c r="E94" s="3">
-        <v>-2433400</v>
+        <v>-1664300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1785500</v>
+        <v>-2598800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1132000</v>
+        <v>-1906800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1222800</v>
+        <v>-1208900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1410000</v>
+        <v>-1305900</v>
       </c>
       <c r="J94" s="3">
+        <v>-1505800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2462200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1002500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1308200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>592400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1884900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1668400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4665900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-369800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2619900</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4605,8 +4837,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4655,8 +4888,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4705,8 +4941,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4755,8 +4994,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4805,154 +5047,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-744300</v>
+        <v>2268800</v>
       </c>
       <c r="E100" s="3">
-        <v>779800</v>
+        <v>-794900</v>
       </c>
       <c r="F100" s="3">
-        <v>-237000</v>
+        <v>832800</v>
       </c>
       <c r="G100" s="3">
-        <v>-838500</v>
+        <v>-253100</v>
       </c>
       <c r="H100" s="3">
-        <v>-4040500</v>
+        <v>-895500</v>
       </c>
       <c r="I100" s="3">
-        <v>2594000</v>
+        <v>-4315200</v>
       </c>
       <c r="J100" s="3">
+        <v>2770400</v>
+      </c>
+      <c r="K100" s="3">
         <v>2307100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3425800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-639500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-380400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1729000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1276800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3617700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2304200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2442700</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-78600</v>
+        <v>-108800</v>
       </c>
       <c r="E101" s="3">
-        <v>-87500</v>
+        <v>-84000</v>
       </c>
       <c r="F101" s="3">
-        <v>114100</v>
+        <v>-93400</v>
       </c>
       <c r="G101" s="3">
-        <v>-191600</v>
+        <v>121800</v>
       </c>
       <c r="H101" s="3">
-        <v>178300</v>
+        <v>-204600</v>
       </c>
       <c r="I101" s="3">
-        <v>73100</v>
+        <v>190400</v>
       </c>
       <c r="J101" s="3">
+        <v>78100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-137300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>68100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-13500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>50500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-130200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-402800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>39900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>63400</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1639200</v>
+        <v>5417700</v>
       </c>
       <c r="E102" s="3">
-        <v>-1153000</v>
+        <v>-1750700</v>
       </c>
       <c r="F102" s="3">
-        <v>4840200</v>
+        <v>-1231400</v>
       </c>
       <c r="G102" s="3">
-        <v>-955900</v>
+        <v>5169300</v>
       </c>
       <c r="H102" s="3">
-        <v>-3882100</v>
+        <v>-1020800</v>
       </c>
       <c r="I102" s="3">
-        <v>1465400</v>
+        <v>-4146100</v>
       </c>
       <c r="J102" s="3">
+        <v>1565000</v>
+      </c>
+      <c r="K102" s="3">
         <v>4403800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2735100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-465600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1803000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-107700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1566300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>415500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1279500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4972300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SIEGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIEGY_QTR_FIN.xlsx
@@ -737,25 +737,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15958500</v>
+        <v>16137900</v>
       </c>
       <c r="E8" s="3">
-        <v>16826800</v>
+        <v>17015900</v>
       </c>
       <c r="F8" s="3">
-        <v>16691900</v>
+        <v>16879600</v>
       </c>
       <c r="G8" s="3">
-        <v>29007100</v>
+        <v>29333200</v>
       </c>
       <c r="H8" s="3">
-        <v>16842100</v>
+        <v>17031500</v>
       </c>
       <c r="I8" s="3">
-        <v>16850400</v>
+        <v>17039900</v>
       </c>
       <c r="J8" s="3">
-        <v>16117000</v>
+        <v>16298200</v>
       </c>
       <c r="K8" s="3">
         <v>25039500</v>
@@ -790,25 +790,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10230900</v>
+        <v>10345900</v>
       </c>
       <c r="E9" s="3">
-        <v>10825900</v>
+        <v>10947600</v>
       </c>
       <c r="F9" s="3">
-        <v>10712300</v>
+        <v>10832800</v>
       </c>
       <c r="G9" s="3">
-        <v>20370700</v>
+        <v>20599800</v>
       </c>
       <c r="H9" s="3">
-        <v>10734800</v>
+        <v>10855500</v>
       </c>
       <c r="I9" s="3">
-        <v>10465100</v>
+        <v>10582800</v>
       </c>
       <c r="J9" s="3">
-        <v>10322000</v>
+        <v>10438000</v>
       </c>
       <c r="K9" s="3">
         <v>17823500</v>
@@ -843,25 +843,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5727600</v>
+        <v>5792000</v>
       </c>
       <c r="E10" s="3">
-        <v>6000900</v>
+        <v>6068300</v>
       </c>
       <c r="F10" s="3">
-        <v>5979600</v>
+        <v>6046800</v>
       </c>
       <c r="G10" s="3">
-        <v>8636400</v>
+        <v>8733500</v>
       </c>
       <c r="H10" s="3">
-        <v>6107300</v>
+        <v>6176000</v>
       </c>
       <c r="I10" s="3">
-        <v>6385300</v>
+        <v>6457100</v>
       </c>
       <c r="J10" s="3">
-        <v>5795000</v>
+        <v>5860200</v>
       </c>
       <c r="K10" s="3">
         <v>7216000</v>
@@ -917,25 +917,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1296500</v>
+        <v>1311000</v>
       </c>
       <c r="E12" s="3">
-        <v>1380400</v>
+        <v>1396000</v>
       </c>
       <c r="F12" s="3">
-        <v>1337900</v>
+        <v>1352900</v>
       </c>
       <c r="G12" s="3">
-        <v>1893800</v>
+        <v>1915100</v>
       </c>
       <c r="H12" s="3">
-        <v>1367400</v>
+        <v>1382800</v>
       </c>
       <c r="I12" s="3">
-        <v>1352100</v>
+        <v>1367300</v>
       </c>
       <c r="J12" s="3">
-        <v>1284600</v>
+        <v>1299100</v>
       </c>
       <c r="K12" s="3">
         <v>1735600</v>
@@ -1147,25 +1147,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14556800</v>
+        <v>14720400</v>
       </c>
       <c r="E17" s="3">
-        <v>15346900</v>
+        <v>15519500</v>
       </c>
       <c r="F17" s="3">
-        <v>15260600</v>
+        <v>15432200</v>
       </c>
       <c r="G17" s="3">
-        <v>26504100</v>
+        <v>26802100</v>
       </c>
       <c r="H17" s="3">
-        <v>15261800</v>
+        <v>15433400</v>
       </c>
       <c r="I17" s="3">
-        <v>14760200</v>
+        <v>14926200</v>
       </c>
       <c r="J17" s="3">
-        <v>14761400</v>
+        <v>14927400</v>
       </c>
       <c r="K17" s="3">
         <v>23528700</v>
@@ -1200,25 +1200,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1401700</v>
+        <v>1417500</v>
       </c>
       <c r="E18" s="3">
-        <v>1479800</v>
+        <v>1496400</v>
       </c>
       <c r="F18" s="3">
-        <v>1431300</v>
+        <v>1447400</v>
       </c>
       <c r="G18" s="3">
-        <v>2503000</v>
+        <v>2531200</v>
       </c>
       <c r="H18" s="3">
-        <v>1580400</v>
+        <v>1598100</v>
       </c>
       <c r="I18" s="3">
-        <v>2090200</v>
+        <v>2113700</v>
       </c>
       <c r="J18" s="3">
-        <v>1355600</v>
+        <v>1370800</v>
       </c>
       <c r="K18" s="3">
         <v>1510800</v>
@@ -1274,25 +1274,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>522800</v>
+        <v>528700</v>
       </c>
       <c r="E20" s="3">
-        <v>447100</v>
+        <v>452200</v>
       </c>
       <c r="F20" s="3">
-        <v>503900</v>
+        <v>509600</v>
       </c>
       <c r="G20" s="3">
-        <v>417600</v>
+        <v>422300</v>
       </c>
       <c r="H20" s="3">
-        <v>402200</v>
+        <v>406700</v>
       </c>
       <c r="I20" s="3">
-        <v>558300</v>
+        <v>564600</v>
       </c>
       <c r="J20" s="3">
-        <v>547700</v>
+        <v>553800</v>
       </c>
       <c r="K20" s="3">
         <v>350000</v>
@@ -1327,25 +1327,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2837800</v>
+        <v>2869700</v>
       </c>
       <c r="E21" s="3">
-        <v>2429700</v>
+        <v>2457000</v>
       </c>
       <c r="F21" s="3">
-        <v>3200900</v>
+        <v>3236900</v>
       </c>
       <c r="G21" s="3">
-        <v>4062100</v>
+        <v>4107800</v>
       </c>
       <c r="H21" s="3">
-        <v>3004600</v>
+        <v>3038300</v>
       </c>
       <c r="I21" s="3">
-        <v>3637400</v>
+        <v>3678300</v>
       </c>
       <c r="J21" s="3">
-        <v>2883900</v>
+        <v>2916300</v>
       </c>
       <c r="K21" s="3">
         <v>2874200</v>
@@ -1380,25 +1380,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>259100</v>
+        <v>262000</v>
       </c>
       <c r="E22" s="3">
-        <v>370200</v>
+        <v>374400</v>
       </c>
       <c r="F22" s="3">
-        <v>166800</v>
+        <v>168700</v>
       </c>
       <c r="G22" s="3">
-        <v>335900</v>
+        <v>339700</v>
       </c>
       <c r="H22" s="3">
-        <v>278000</v>
+        <v>281100</v>
       </c>
       <c r="I22" s="3">
-        <v>308700</v>
+        <v>312200</v>
       </c>
       <c r="J22" s="3">
-        <v>256700</v>
+        <v>259600</v>
       </c>
       <c r="K22" s="3">
         <v>301300</v>
@@ -1433,25 +1433,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1665500</v>
+        <v>1684200</v>
       </c>
       <c r="E23" s="3">
-        <v>1556700</v>
+        <v>1574200</v>
       </c>
       <c r="F23" s="3">
-        <v>1768400</v>
+        <v>1788300</v>
       </c>
       <c r="G23" s="3">
-        <v>2584600</v>
+        <v>2613700</v>
       </c>
       <c r="H23" s="3">
-        <v>1704600</v>
+        <v>1723700</v>
       </c>
       <c r="I23" s="3">
-        <v>2339800</v>
+        <v>2366100</v>
       </c>
       <c r="J23" s="3">
-        <v>1646600</v>
+        <v>1665100</v>
       </c>
       <c r="K23" s="3">
         <v>1559500</v>
@@ -1486,25 +1486,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>499200</v>
+        <v>504800</v>
       </c>
       <c r="E24" s="3">
-        <v>357200</v>
+        <v>361300</v>
       </c>
       <c r="F24" s="3">
-        <v>327700</v>
+        <v>331300</v>
       </c>
       <c r="G24" s="3">
-        <v>848100</v>
+        <v>857700</v>
       </c>
       <c r="H24" s="3">
-        <v>450700</v>
+        <v>455800</v>
       </c>
       <c r="I24" s="3">
-        <v>307600</v>
+        <v>311000</v>
       </c>
       <c r="J24" s="3">
-        <v>456600</v>
+        <v>461700</v>
       </c>
       <c r="K24" s="3">
         <v>828500</v>
@@ -1592,25 +1592,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1166300</v>
+        <v>1179500</v>
       </c>
       <c r="E26" s="3">
-        <v>1199500</v>
+        <v>1212900</v>
       </c>
       <c r="F26" s="3">
-        <v>1440800</v>
+        <v>1457000</v>
       </c>
       <c r="G26" s="3">
-        <v>1736500</v>
+        <v>1756000</v>
       </c>
       <c r="H26" s="3">
-        <v>1253900</v>
+        <v>1268000</v>
       </c>
       <c r="I26" s="3">
-        <v>2032200</v>
+        <v>2055100</v>
       </c>
       <c r="J26" s="3">
-        <v>1190000</v>
+        <v>1203400</v>
       </c>
       <c r="K26" s="3">
         <v>731000</v>
@@ -1645,25 +1645,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1171100</v>
+        <v>1184200</v>
       </c>
       <c r="E27" s="3">
-        <v>1146200</v>
+        <v>1159100</v>
       </c>
       <c r="F27" s="3">
-        <v>1432500</v>
+        <v>1448600</v>
       </c>
       <c r="G27" s="3">
-        <v>1557900</v>
+        <v>1575400</v>
       </c>
       <c r="H27" s="3">
-        <v>1128500</v>
+        <v>1141200</v>
       </c>
       <c r="I27" s="3">
-        <v>1895000</v>
+        <v>1916300</v>
       </c>
       <c r="J27" s="3">
-        <v>1067000</v>
+        <v>1079000</v>
       </c>
       <c r="K27" s="3">
         <v>594800</v>
@@ -1751,25 +1751,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-533500</v>
+        <v>-539500</v>
       </c>
       <c r="E29" s="3">
-        <v>-375000</v>
+        <v>-379200</v>
       </c>
       <c r="F29" s="3">
-        <v>-153800</v>
+        <v>-155500</v>
       </c>
       <c r="G29" s="3">
         <v>2400</v>
       </c>
       <c r="H29" s="3">
-        <v>92300</v>
+        <v>93300</v>
       </c>
       <c r="I29" s="3">
-        <v>242500</v>
+        <v>245200</v>
       </c>
       <c r="J29" s="3">
-        <v>133700</v>
+        <v>135200</v>
       </c>
       <c r="K29" s="3">
         <v>24400</v>
@@ -1910,25 +1910,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-522800</v>
+        <v>-528700</v>
       </c>
       <c r="E32" s="3">
-        <v>-447100</v>
+        <v>-452200</v>
       </c>
       <c r="F32" s="3">
-        <v>-503900</v>
+        <v>-509600</v>
       </c>
       <c r="G32" s="3">
-        <v>-417600</v>
+        <v>-422300</v>
       </c>
       <c r="H32" s="3">
-        <v>-402200</v>
+        <v>-406700</v>
       </c>
       <c r="I32" s="3">
-        <v>-558300</v>
+        <v>-564600</v>
       </c>
       <c r="J32" s="3">
-        <v>-547700</v>
+        <v>-553800</v>
       </c>
       <c r="K32" s="3">
         <v>-350000</v>
@@ -1963,25 +1963,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>637600</v>
+        <v>644800</v>
       </c>
       <c r="E33" s="3">
-        <v>771300</v>
+        <v>779900</v>
       </c>
       <c r="F33" s="3">
-        <v>1278700</v>
+        <v>1293100</v>
       </c>
       <c r="G33" s="3">
-        <v>1560200</v>
+        <v>1577800</v>
       </c>
       <c r="H33" s="3">
-        <v>1220800</v>
+        <v>1234500</v>
       </c>
       <c r="I33" s="3">
-        <v>2137500</v>
+        <v>2161500</v>
       </c>
       <c r="J33" s="3">
-        <v>1200600</v>
+        <v>1214100</v>
       </c>
       <c r="K33" s="3">
         <v>619100</v>
@@ -2069,25 +2069,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>637600</v>
+        <v>644800</v>
       </c>
       <c r="E35" s="3">
-        <v>771300</v>
+        <v>779900</v>
       </c>
       <c r="F35" s="3">
-        <v>1278700</v>
+        <v>1293100</v>
       </c>
       <c r="G35" s="3">
-        <v>1560200</v>
+        <v>1577800</v>
       </c>
       <c r="H35" s="3">
-        <v>1220800</v>
+        <v>1234500</v>
       </c>
       <c r="I35" s="3">
-        <v>2137500</v>
+        <v>2161500</v>
       </c>
       <c r="J35" s="3">
-        <v>1200600</v>
+        <v>1214100</v>
       </c>
       <c r="K35" s="3">
         <v>619100</v>
@@ -2222,25 +2222,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14294200</v>
+        <v>14454900</v>
       </c>
       <c r="E41" s="3">
-        <v>9264500</v>
+        <v>9368600</v>
       </c>
       <c r="F41" s="3">
-        <v>13425900</v>
+        <v>13576900</v>
       </c>
       <c r="G41" s="3">
-        <v>14657300</v>
+        <v>14822100</v>
       </c>
       <c r="H41" s="3">
-        <v>9489200</v>
+        <v>9595900</v>
       </c>
       <c r="I41" s="3">
-        <v>10510100</v>
+        <v>10628200</v>
       </c>
       <c r="J41" s="3">
-        <v>14654900</v>
+        <v>14819700</v>
       </c>
       <c r="K41" s="3">
         <v>12256700</v>
@@ -2275,25 +2275,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>10019200</v>
+        <v>10131800</v>
       </c>
       <c r="E42" s="3">
-        <v>11632600</v>
+        <v>11763400</v>
       </c>
       <c r="F42" s="3">
-        <v>11768700</v>
+        <v>11901000</v>
       </c>
       <c r="G42" s="3">
-        <v>12620400</v>
+        <v>12762300</v>
       </c>
       <c r="H42" s="3">
-        <v>11527400</v>
+        <v>11657000</v>
       </c>
       <c r="I42" s="3">
-        <v>11599500</v>
+        <v>11729900</v>
       </c>
       <c r="J42" s="3">
-        <v>11173700</v>
+        <v>11299300</v>
       </c>
       <c r="K42" s="3">
         <v>11865700</v>
@@ -2328,25 +2328,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>24355900</v>
+        <v>24629800</v>
       </c>
       <c r="E43" s="3">
-        <v>25175700</v>
+        <v>25458700</v>
       </c>
       <c r="F43" s="3">
-        <v>35488200</v>
+        <v>35887200</v>
       </c>
       <c r="G43" s="3">
-        <v>35849000</v>
+        <v>36252000</v>
       </c>
       <c r="H43" s="3">
-        <v>35998000</v>
+        <v>36402800</v>
       </c>
       <c r="I43" s="3">
-        <v>34407000</v>
+        <v>34793900</v>
       </c>
       <c r="J43" s="3">
-        <v>34149100</v>
+        <v>34533100</v>
       </c>
       <c r="K43" s="3">
         <v>31430400</v>
@@ -2381,25 +2381,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10280600</v>
+        <v>10396200</v>
       </c>
       <c r="E44" s="3">
-        <v>10025100</v>
+        <v>10137800</v>
       </c>
       <c r="F44" s="3">
-        <v>18862500</v>
+        <v>19074600</v>
       </c>
       <c r="G44" s="3">
-        <v>17514000</v>
+        <v>17710900</v>
       </c>
       <c r="H44" s="3">
-        <v>18758400</v>
+        <v>18969300</v>
       </c>
       <c r="I44" s="3">
-        <v>18493500</v>
+        <v>18701400</v>
       </c>
       <c r="J44" s="3">
-        <v>17692600</v>
+        <v>17891600</v>
       </c>
       <c r="K44" s="3">
         <v>15379000</v>
@@ -2434,25 +2434,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>51400600</v>
+        <v>51978500</v>
       </c>
       <c r="E45" s="3">
-        <v>50831600</v>
+        <v>51403100</v>
       </c>
       <c r="F45" s="3">
-        <v>2630800</v>
+        <v>2660300</v>
       </c>
       <c r="G45" s="3">
-        <v>2600000</v>
+        <v>2629200</v>
       </c>
       <c r="H45" s="3">
-        <v>2545600</v>
+        <v>2574200</v>
       </c>
       <c r="I45" s="3">
-        <v>2341000</v>
+        <v>2367300</v>
       </c>
       <c r="J45" s="3">
-        <v>2323200</v>
+        <v>2349300</v>
       </c>
       <c r="K45" s="3">
         <v>1993700</v>
@@ -2487,25 +2487,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>110350400</v>
+        <v>111591100</v>
       </c>
       <c r="E46" s="3">
-        <v>106929400</v>
+        <v>108131700</v>
       </c>
       <c r="F46" s="3">
-        <v>82176100</v>
+        <v>83100000</v>
       </c>
       <c r="G46" s="3">
-        <v>83240700</v>
+        <v>84176600</v>
       </c>
       <c r="H46" s="3">
-        <v>78318600</v>
+        <v>79199200</v>
       </c>
       <c r="I46" s="3">
-        <v>77351000</v>
+        <v>78220700</v>
       </c>
       <c r="J46" s="3">
-        <v>79993600</v>
+        <v>80893000</v>
       </c>
       <c r="K46" s="3">
         <v>71502200</v>
@@ -2540,25 +2540,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>26887300</v>
+        <v>27189600</v>
       </c>
       <c r="E47" s="3">
-        <v>26553700</v>
+        <v>26852300</v>
       </c>
       <c r="F47" s="3">
-        <v>25963500</v>
+        <v>26255400</v>
       </c>
       <c r="G47" s="3">
-        <v>26126700</v>
+        <v>26420500</v>
       </c>
       <c r="H47" s="3">
-        <v>25157900</v>
+        <v>25440800</v>
       </c>
       <c r="I47" s="3">
-        <v>25053800</v>
+        <v>25335500</v>
       </c>
       <c r="J47" s="3">
-        <v>24689500</v>
+        <v>24967100</v>
       </c>
       <c r="K47" s="3">
         <v>22543000</v>
@@ -2593,25 +2593,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12193300</v>
+        <v>12330400</v>
       </c>
       <c r="E48" s="3">
-        <v>12199200</v>
+        <v>12336400</v>
       </c>
       <c r="F48" s="3">
-        <v>17716300</v>
+        <v>17915500</v>
       </c>
       <c r="G48" s="3">
-        <v>14411300</v>
+        <v>14573300</v>
       </c>
       <c r="H48" s="3">
-        <v>13955900</v>
+        <v>14112800</v>
       </c>
       <c r="I48" s="3">
-        <v>13918000</v>
+        <v>14074500</v>
       </c>
       <c r="J48" s="3">
-        <v>13624600</v>
+        <v>13777800</v>
       </c>
       <c r="K48" s="3">
         <v>12605600</v>
@@ -2646,25 +2646,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>30903300</v>
+        <v>31250700</v>
       </c>
       <c r="E49" s="3">
-        <v>31518400</v>
+        <v>31872700</v>
       </c>
       <c r="F49" s="3">
-        <v>48288300</v>
+        <v>48831300</v>
       </c>
       <c r="G49" s="3">
-        <v>47268700</v>
+        <v>47800200</v>
       </c>
       <c r="H49" s="3">
-        <v>46350800</v>
+        <v>46871900</v>
       </c>
       <c r="I49" s="3">
-        <v>47053400</v>
+        <v>47582400</v>
       </c>
       <c r="J49" s="3">
-        <v>46268000</v>
+        <v>46788200</v>
       </c>
       <c r="K49" s="3">
         <v>42614900</v>
@@ -2805,25 +2805,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5482700</v>
+        <v>5544400</v>
       </c>
       <c r="E52" s="3">
-        <v>5171600</v>
+        <v>5229800</v>
       </c>
       <c r="F52" s="3">
-        <v>6063500</v>
+        <v>6131700</v>
       </c>
       <c r="G52" s="3">
-        <v>6681000</v>
+        <v>6756100</v>
       </c>
       <c r="H52" s="3">
-        <v>6000900</v>
+        <v>6068300</v>
       </c>
       <c r="I52" s="3">
-        <v>5693300</v>
+        <v>5757300</v>
       </c>
       <c r="J52" s="3">
-        <v>5298200</v>
+        <v>5357800</v>
       </c>
       <c r="K52" s="3">
         <v>4596500</v>
@@ -2911,25 +2911,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>185817000</v>
+        <v>187906300</v>
       </c>
       <c r="E54" s="3">
-        <v>182372400</v>
+        <v>184422900</v>
       </c>
       <c r="F54" s="3">
-        <v>180207700</v>
+        <v>182233900</v>
       </c>
       <c r="G54" s="3">
-        <v>177728400</v>
+        <v>179726700</v>
       </c>
       <c r="H54" s="3">
-        <v>169784000</v>
+        <v>171693000</v>
       </c>
       <c r="I54" s="3">
-        <v>169069500</v>
+        <v>170970500</v>
       </c>
       <c r="J54" s="3">
-        <v>169873900</v>
+        <v>171783900</v>
       </c>
       <c r="K54" s="3">
         <v>153862300</v>
@@ -3006,25 +3006,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7252400</v>
+        <v>7333900</v>
       </c>
       <c r="E57" s="3">
-        <v>7335200</v>
+        <v>7417600</v>
       </c>
       <c r="F57" s="3">
-        <v>12385000</v>
+        <v>12524200</v>
       </c>
       <c r="G57" s="3">
-        <v>13495700</v>
+        <v>13647400</v>
       </c>
       <c r="H57" s="3">
-        <v>12315200</v>
+        <v>12453600</v>
       </c>
       <c r="I57" s="3">
-        <v>12135400</v>
+        <v>12271800</v>
       </c>
       <c r="J57" s="3">
-        <v>11845600</v>
+        <v>11978700</v>
       </c>
       <c r="K57" s="3">
         <v>11869000</v>
@@ -3059,25 +3059,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6457500</v>
+        <v>6530100</v>
       </c>
       <c r="E58" s="3">
-        <v>8171500</v>
+        <v>8263300</v>
       </c>
       <c r="F58" s="3">
-        <v>7985800</v>
+        <v>8075500</v>
       </c>
       <c r="G58" s="3">
-        <v>7137600</v>
+        <v>7217900</v>
       </c>
       <c r="H58" s="3">
-        <v>11533300</v>
+        <v>11663000</v>
       </c>
       <c r="I58" s="3">
-        <v>10636600</v>
+        <v>10756200</v>
       </c>
       <c r="J58" s="3">
-        <v>9265700</v>
+        <v>9369800</v>
       </c>
       <c r="K58" s="3">
         <v>5601100</v>
@@ -3112,25 +3112,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>53843200</v>
+        <v>54448600</v>
       </c>
       <c r="E59" s="3">
-        <v>52264100</v>
+        <v>52851700</v>
       </c>
       <c r="F59" s="3">
-        <v>39061700</v>
+        <v>39500900</v>
       </c>
       <c r="G59" s="3">
-        <v>39366900</v>
+        <v>39809500</v>
       </c>
       <c r="H59" s="3">
-        <v>38316500</v>
+        <v>38747300</v>
       </c>
       <c r="I59" s="3">
-        <v>37299200</v>
+        <v>37718600</v>
       </c>
       <c r="J59" s="3">
-        <v>38976600</v>
+        <v>39414800</v>
       </c>
       <c r="K59" s="3">
         <v>35555100</v>
@@ -3165,25 +3165,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>67553100</v>
+        <v>68312600</v>
       </c>
       <c r="E60" s="3">
-        <v>67770700</v>
+        <v>68532700</v>
       </c>
       <c r="F60" s="3">
-        <v>59432400</v>
+        <v>60100700</v>
       </c>
       <c r="G60" s="3">
-        <v>60000200</v>
+        <v>60674900</v>
       </c>
       <c r="H60" s="3">
-        <v>62164900</v>
+        <v>62863900</v>
       </c>
       <c r="I60" s="3">
-        <v>60071200</v>
+        <v>60746600</v>
       </c>
       <c r="J60" s="3">
-        <v>60087800</v>
+        <v>60763400</v>
       </c>
       <c r="K60" s="3">
         <v>53025200</v>
@@ -3218,25 +3218,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>48048200</v>
+        <v>48588400</v>
       </c>
       <c r="E61" s="3">
-        <v>43562700</v>
+        <v>44052500</v>
       </c>
       <c r="F61" s="3">
-        <v>39424900</v>
+        <v>39868100</v>
       </c>
       <c r="G61" s="3">
-        <v>35976700</v>
+        <v>36381200</v>
       </c>
       <c r="H61" s="3">
-        <v>30902100</v>
+        <v>31249500</v>
       </c>
       <c r="I61" s="3">
-        <v>32504900</v>
+        <v>32870400</v>
       </c>
       <c r="J61" s="3">
-        <v>32832600</v>
+        <v>33201700</v>
       </c>
       <c r="K61" s="3">
         <v>30038100</v>
@@ -3271,25 +3271,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15383600</v>
+        <v>15556600</v>
       </c>
       <c r="E62" s="3">
-        <v>15189600</v>
+        <v>15360400</v>
       </c>
       <c r="F62" s="3">
-        <v>19843100</v>
+        <v>20066300</v>
       </c>
       <c r="G62" s="3">
-        <v>21442400</v>
+        <v>21683500</v>
       </c>
       <c r="H62" s="3">
-        <v>20571800</v>
+        <v>20803100</v>
       </c>
       <c r="I62" s="3">
-        <v>20762300</v>
+        <v>20995700</v>
       </c>
       <c r="J62" s="3">
-        <v>20604900</v>
+        <v>20836600</v>
       </c>
       <c r="K62" s="3">
         <v>17583200</v>
@@ -3483,25 +3483,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>133955100</v>
+        <v>135461300</v>
       </c>
       <c r="E66" s="3">
-        <v>129583100</v>
+        <v>131040100</v>
       </c>
       <c r="F66" s="3">
-        <v>121961700</v>
+        <v>123333000</v>
       </c>
       <c r="G66" s="3">
-        <v>120800100</v>
+        <v>122158300</v>
       </c>
       <c r="H66" s="3">
-        <v>116819700</v>
+        <v>118133100</v>
       </c>
       <c r="I66" s="3">
-        <v>116462400</v>
+        <v>117771900</v>
       </c>
       <c r="J66" s="3">
-        <v>116641000</v>
+        <v>117952500</v>
       </c>
       <c r="K66" s="3">
         <v>103496400</v>
@@ -3769,25 +3769,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>46996600</v>
+        <v>47525000</v>
       </c>
       <c r="E72" s="3">
-        <v>46677200</v>
+        <v>47202100</v>
       </c>
       <c r="F72" s="3">
-        <v>50869400</v>
+        <v>51441400</v>
       </c>
       <c r="G72" s="3">
-        <v>49466500</v>
+        <v>50022700</v>
       </c>
       <c r="H72" s="3">
-        <v>47972500</v>
+        <v>48511900</v>
       </c>
       <c r="I72" s="3">
-        <v>46660700</v>
+        <v>47185300</v>
       </c>
       <c r="J72" s="3">
-        <v>48176000</v>
+        <v>48717600</v>
       </c>
       <c r="K72" s="3">
         <v>45427100</v>
@@ -3981,25 +3981,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>51861900</v>
+        <v>52445000</v>
       </c>
       <c r="E76" s="3">
-        <v>52789300</v>
+        <v>53382800</v>
       </c>
       <c r="F76" s="3">
-        <v>58246000</v>
+        <v>58900900</v>
       </c>
       <c r="G76" s="3">
-        <v>56928200</v>
+        <v>57568300</v>
       </c>
       <c r="H76" s="3">
-        <v>52964300</v>
+        <v>53559900</v>
       </c>
       <c r="I76" s="3">
-        <v>52607100</v>
+        <v>53198600</v>
       </c>
       <c r="J76" s="3">
-        <v>53232900</v>
+        <v>53831400</v>
       </c>
       <c r="K76" s="3">
         <v>50365900</v>
@@ -4145,25 +4145,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>637600</v>
+        <v>644800</v>
       </c>
       <c r="E81" s="3">
-        <v>771300</v>
+        <v>779900</v>
       </c>
       <c r="F81" s="3">
-        <v>1278700</v>
+        <v>1293100</v>
       </c>
       <c r="G81" s="3">
-        <v>1560200</v>
+        <v>1577800</v>
       </c>
       <c r="H81" s="3">
-        <v>1220800</v>
+        <v>1234500</v>
       </c>
       <c r="I81" s="3">
-        <v>2137500</v>
+        <v>2161500</v>
       </c>
       <c r="J81" s="3">
-        <v>1200600</v>
+        <v>1214100</v>
       </c>
       <c r="K81" s="3">
         <v>619100</v>
@@ -4219,25 +4219,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>913200</v>
+        <v>923500</v>
       </c>
       <c r="E83" s="3">
-        <v>502700</v>
+        <v>508400</v>
       </c>
       <c r="F83" s="3">
-        <v>1265700</v>
+        <v>1279900</v>
       </c>
       <c r="G83" s="3">
-        <v>1141500</v>
+        <v>1154300</v>
       </c>
       <c r="H83" s="3">
-        <v>1022000</v>
+        <v>1033500</v>
       </c>
       <c r="I83" s="3">
-        <v>988900</v>
+        <v>1000000</v>
       </c>
       <c r="J83" s="3">
-        <v>980600</v>
+        <v>991600</v>
       </c>
       <c r="K83" s="3">
         <v>1013500</v>
@@ -4537,25 +4537,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3572400</v>
+        <v>3612500</v>
       </c>
       <c r="E89" s="3">
-        <v>792500</v>
+        <v>801500</v>
       </c>
       <c r="F89" s="3">
-        <v>628100</v>
+        <v>635200</v>
       </c>
       <c r="G89" s="3">
-        <v>7207400</v>
+        <v>7288400</v>
       </c>
       <c r="H89" s="3">
-        <v>1288200</v>
+        <v>1302700</v>
       </c>
       <c r="I89" s="3">
-        <v>1284600</v>
+        <v>1299100</v>
       </c>
       <c r="J89" s="3">
-        <v>222400</v>
+        <v>224900</v>
       </c>
       <c r="K89" s="3">
         <v>4696200</v>
@@ -4611,25 +4611,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-404600</v>
+        <v>-409100</v>
       </c>
       <c r="E91" s="3">
-        <v>-242500</v>
+        <v>-245200</v>
       </c>
       <c r="F91" s="3">
-        <v>-576100</v>
+        <v>-582500</v>
       </c>
       <c r="G91" s="3">
-        <v>-981800</v>
+        <v>-992800</v>
       </c>
       <c r="H91" s="3">
-        <v>-774800</v>
+        <v>-783500</v>
       </c>
       <c r="I91" s="3">
-        <v>-709700</v>
+        <v>-717700</v>
       </c>
       <c r="J91" s="3">
-        <v>-621000</v>
+        <v>-628000</v>
       </c>
       <c r="K91" s="3">
         <v>-1058900</v>
@@ -4770,25 +4770,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-314700</v>
+        <v>-318200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1664300</v>
+        <v>-1683100</v>
       </c>
       <c r="F94" s="3">
-        <v>-2598800</v>
+        <v>-2628100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1906800</v>
+        <v>-1928300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1208900</v>
+        <v>-1222500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1305900</v>
+        <v>-1320600</v>
       </c>
       <c r="J94" s="3">
-        <v>-1505800</v>
+        <v>-1522800</v>
       </c>
       <c r="K94" s="3">
         <v>-2462200</v>
@@ -5056,25 +5056,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2268800</v>
+        <v>2294300</v>
       </c>
       <c r="E100" s="3">
-        <v>-794900</v>
+        <v>-803800</v>
       </c>
       <c r="F100" s="3">
-        <v>832800</v>
+        <v>842100</v>
       </c>
       <c r="G100" s="3">
-        <v>-253100</v>
+        <v>-256000</v>
       </c>
       <c r="H100" s="3">
-        <v>-895500</v>
+        <v>-905500</v>
       </c>
       <c r="I100" s="3">
-        <v>-4315200</v>
+        <v>-4363700</v>
       </c>
       <c r="J100" s="3">
-        <v>2770400</v>
+        <v>2801500</v>
       </c>
       <c r="K100" s="3">
         <v>2307100</v>
@@ -5109,25 +5109,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-108800</v>
+        <v>-110100</v>
       </c>
       <c r="E101" s="3">
-        <v>-84000</v>
+        <v>-84900</v>
       </c>
       <c r="F101" s="3">
-        <v>-93400</v>
+        <v>-94500</v>
       </c>
       <c r="G101" s="3">
-        <v>121800</v>
+        <v>123200</v>
       </c>
       <c r="H101" s="3">
-        <v>-204600</v>
+        <v>-206900</v>
       </c>
       <c r="I101" s="3">
-        <v>190400</v>
+        <v>192600</v>
       </c>
       <c r="J101" s="3">
-        <v>78100</v>
+        <v>78900</v>
       </c>
       <c r="K101" s="3">
         <v>-137300</v>
@@ -5162,25 +5162,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5417700</v>
+        <v>5478600</v>
       </c>
       <c r="E102" s="3">
-        <v>-1750700</v>
+        <v>-1770400</v>
       </c>
       <c r="F102" s="3">
-        <v>-1231400</v>
+        <v>-1245200</v>
       </c>
       <c r="G102" s="3">
-        <v>5169300</v>
+        <v>5227400</v>
       </c>
       <c r="H102" s="3">
-        <v>-1020800</v>
+        <v>-1032300</v>
       </c>
       <c r="I102" s="3">
-        <v>-4146100</v>
+        <v>-4192700</v>
       </c>
       <c r="J102" s="3">
-        <v>1565000</v>
+        <v>1582600</v>
       </c>
       <c r="K102" s="3">
         <v>4403800</v>

--- a/AAII_Financials/Quarterly/SIEGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIEGY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,233 +665,257 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16137900</v>
+        <v>16553100</v>
       </c>
       <c r="E8" s="3">
-        <v>17015900</v>
+        <v>18011900</v>
       </c>
       <c r="F8" s="3">
-        <v>16879600</v>
+        <v>15870800</v>
       </c>
       <c r="G8" s="3">
-        <v>29333200</v>
+        <v>16734300</v>
       </c>
       <c r="H8" s="3">
-        <v>17031500</v>
+        <v>16087300</v>
       </c>
       <c r="I8" s="3">
+        <v>19263600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>16749600</v>
+      </c>
+      <c r="K8" s="3">
         <v>17039900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>16298200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>25039500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>22479400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>22598000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>22241200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>24927300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>23896100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>23634700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>22552400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>25768700</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10345900</v>
+        <v>10294700</v>
       </c>
       <c r="E9" s="3">
-        <v>10947600</v>
+        <v>11878100</v>
       </c>
       <c r="F9" s="3">
-        <v>10832800</v>
+        <v>10174700</v>
       </c>
       <c r="G9" s="3">
-        <v>20599800</v>
+        <v>10766400</v>
       </c>
       <c r="H9" s="3">
-        <v>10855500</v>
+        <v>10220600</v>
       </c>
       <c r="I9" s="3">
+        <v>12000500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>10675800</v>
+      </c>
+      <c r="K9" s="3">
         <v>10582800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>10438000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>17823500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>15801300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>15522700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>15554100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>17849700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>17030700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>15969700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>15409800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>18465200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5792000</v>
+        <v>6258400</v>
       </c>
       <c r="E10" s="3">
-        <v>6068300</v>
+        <v>6133700</v>
       </c>
       <c r="F10" s="3">
-        <v>6046800</v>
+        <v>5696100</v>
       </c>
       <c r="G10" s="3">
-        <v>8733500</v>
+        <v>5967900</v>
       </c>
       <c r="H10" s="3">
-        <v>6176000</v>
+        <v>5866700</v>
       </c>
       <c r="I10" s="3">
+        <v>7263100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>6073800</v>
+      </c>
+      <c r="K10" s="3">
         <v>6457100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>5860200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>7216000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>6678000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>7075300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>6687100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>7077500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>6865500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>7665000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>7142600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>7303400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,61 +935,69 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1311000</v>
+        <v>1251700</v>
       </c>
       <c r="E12" s="3">
-        <v>1396000</v>
+        <v>1419900</v>
       </c>
       <c r="F12" s="3">
-        <v>1352900</v>
+        <v>1289300</v>
       </c>
       <c r="G12" s="3">
-        <v>1915100</v>
+        <v>1372900</v>
       </c>
       <c r="H12" s="3">
-        <v>1382800</v>
+        <v>1322300</v>
       </c>
       <c r="I12" s="3">
+        <v>1510500</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1359900</v>
+      </c>
+      <c r="K12" s="3">
         <v>1367300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1299100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1735600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1506500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1565200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1373300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>1656100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1511300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>1425000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>1322900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>1551800</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1017,8 +1049,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1061,17 +1099,23 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1123,8 +1167,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1141,114 +1191,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14720400</v>
+        <v>14507400</v>
       </c>
       <c r="E17" s="3">
-        <v>15519500</v>
+        <v>16370800</v>
       </c>
       <c r="F17" s="3">
-        <v>15432200</v>
+        <v>14476800</v>
       </c>
       <c r="G17" s="3">
-        <v>26802100</v>
+        <v>15262600</v>
       </c>
       <c r="H17" s="3">
-        <v>15433400</v>
+        <v>14708500</v>
       </c>
       <c r="I17" s="3">
+        <v>16861300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>15177900</v>
+      </c>
+      <c r="K17" s="3">
         <v>14926200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>14927400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>23528700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>20824700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>20680500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>20439300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>23346400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>22102100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>20967800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>19862000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>23667500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1417500</v>
+        <v>2045800</v>
       </c>
       <c r="E18" s="3">
-        <v>1496400</v>
+        <v>1641100</v>
       </c>
       <c r="F18" s="3">
-        <v>1447400</v>
+        <v>1394000</v>
       </c>
       <c r="G18" s="3">
-        <v>2531200</v>
+        <v>1471700</v>
       </c>
       <c r="H18" s="3">
-        <v>1598100</v>
+        <v>1378700</v>
       </c>
       <c r="I18" s="3">
+        <v>2402200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1571700</v>
+      </c>
+      <c r="K18" s="3">
         <v>2113700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1370800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1510800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1654700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1917500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1801900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1580900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1794100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>2666900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>2690400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>2101100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1268,273 +1332,305 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>528700</v>
+        <v>460000</v>
       </c>
       <c r="E20" s="3">
-        <v>452200</v>
+        <v>235300</v>
       </c>
       <c r="F20" s="3">
-        <v>509600</v>
+        <v>520000</v>
       </c>
       <c r="G20" s="3">
-        <v>422300</v>
+        <v>444700</v>
       </c>
       <c r="H20" s="3">
-        <v>406700</v>
+        <v>500000</v>
       </c>
       <c r="I20" s="3">
+        <v>391700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>400000</v>
+      </c>
+      <c r="K20" s="3">
         <v>564600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>553800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>350000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>435900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1373300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1141100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>478000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>518400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>154900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>759500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2869700</v>
+        <v>3341000</v>
       </c>
       <c r="E21" s="3">
-        <v>2457000</v>
+        <v>2923400</v>
       </c>
       <c r="F21" s="3">
-        <v>3236900</v>
+        <v>2822200</v>
       </c>
       <c r="G21" s="3">
-        <v>4107800</v>
+        <v>2416300</v>
       </c>
       <c r="H21" s="3">
-        <v>3038300</v>
+        <v>3137500</v>
       </c>
       <c r="I21" s="3">
+        <v>3929200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2988100</v>
+      </c>
+      <c r="K21" s="3">
         <v>3678300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2916300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>2874200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2982200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>4229900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>3902300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>3202200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>3279600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>3607100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>4225700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>3242100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>262000</v>
+        <v>195300</v>
       </c>
       <c r="E22" s="3">
-        <v>374400</v>
+        <v>167000</v>
       </c>
       <c r="F22" s="3">
-        <v>168700</v>
+        <v>257600</v>
       </c>
       <c r="G22" s="3">
-        <v>339700</v>
+        <v>368200</v>
       </c>
       <c r="H22" s="3">
-        <v>281100</v>
+        <v>165900</v>
       </c>
       <c r="I22" s="3">
+        <v>296500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>276500</v>
+      </c>
+      <c r="K22" s="3">
         <v>312200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>259600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>301300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>299800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>298400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>311900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>310800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>322000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>284100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>286400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>291100</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1684200</v>
+        <v>2310400</v>
       </c>
       <c r="E23" s="3">
-        <v>1574200</v>
+        <v>1709300</v>
       </c>
       <c r="F23" s="3">
-        <v>1788300</v>
+        <v>1656400</v>
       </c>
       <c r="G23" s="3">
-        <v>2613700</v>
+        <v>1548100</v>
       </c>
       <c r="H23" s="3">
-        <v>1723700</v>
+        <v>1712800</v>
       </c>
       <c r="I23" s="3">
+        <v>2497500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1695200</v>
+      </c>
+      <c r="K23" s="3">
         <v>2366100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1665100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1559500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1790800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2992300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>2631100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1748100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1990400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>2537800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>3163400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>2080000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>504800</v>
+        <v>574100</v>
       </c>
       <c r="E24" s="3">
-        <v>361300</v>
+        <v>448200</v>
       </c>
       <c r="F24" s="3">
-        <v>331300</v>
+        <v>496400</v>
       </c>
       <c r="G24" s="3">
-        <v>857700</v>
+        <v>355300</v>
       </c>
       <c r="H24" s="3">
-        <v>455800</v>
+        <v>315300</v>
       </c>
       <c r="I24" s="3">
+        <v>879900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>448200</v>
+      </c>
+      <c r="K24" s="3">
         <v>311000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>461700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>828500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>512800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>774200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>655200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>379200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>392700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>860400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>853400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>693700</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1586,114 +1682,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1179500</v>
+        <v>1736400</v>
       </c>
       <c r="E26" s="3">
-        <v>1212900</v>
+        <v>1261100</v>
       </c>
       <c r="F26" s="3">
-        <v>1457000</v>
+        <v>1159900</v>
       </c>
       <c r="G26" s="3">
-        <v>1756000</v>
+        <v>1192900</v>
       </c>
       <c r="H26" s="3">
-        <v>1268000</v>
+        <v>1397600</v>
       </c>
       <c r="I26" s="3">
+        <v>1617600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1247000</v>
+      </c>
+      <c r="K26" s="3">
         <v>2055100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1203400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>731000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1278100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>2218200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1975800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1368800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1597700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1677400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>2310100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1386300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1184200</v>
+        <v>1592800</v>
       </c>
       <c r="E27" s="3">
-        <v>1159100</v>
+        <v>1118800</v>
       </c>
       <c r="F27" s="3">
-        <v>1448600</v>
+        <v>1164600</v>
       </c>
       <c r="G27" s="3">
-        <v>1575400</v>
+        <v>1139900</v>
       </c>
       <c r="H27" s="3">
-        <v>1141200</v>
+        <v>1389300</v>
       </c>
       <c r="I27" s="3">
+        <v>1439900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1122300</v>
+      </c>
+      <c r="K27" s="3">
         <v>1916300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1079000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>594800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1163900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2144100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1952300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1350900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1539400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1636300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>2271300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1359300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,61 +1859,73 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-539500</v>
+        <v>27100</v>
       </c>
       <c r="E29" s="3">
-        <v>-379200</v>
+        <v>949400</v>
       </c>
       <c r="F29" s="3">
-        <v>-155500</v>
+        <v>-530600</v>
       </c>
       <c r="G29" s="3">
-        <v>2400</v>
+        <v>-372900</v>
       </c>
       <c r="H29" s="3">
-        <v>93300</v>
+        <v>-116500</v>
       </c>
       <c r="I29" s="3">
+        <v>110600</v>
+      </c>
+      <c r="J29" s="3">
+        <v>91800</v>
+      </c>
+      <c r="K29" s="3">
         <v>245200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>135200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>24400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>50500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>47100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>503800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>34800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-16800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>29300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>14100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1851,8 +1977,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1904,114 +2036,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-528700</v>
+        <v>-460000</v>
       </c>
       <c r="E32" s="3">
-        <v>-452200</v>
+        <v>-235300</v>
       </c>
       <c r="F32" s="3">
-        <v>-509600</v>
+        <v>-520000</v>
       </c>
       <c r="G32" s="3">
-        <v>-422300</v>
+        <v>-444700</v>
       </c>
       <c r="H32" s="3">
-        <v>-406700</v>
+        <v>-500000</v>
       </c>
       <c r="I32" s="3">
+        <v>-391700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-400000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-564600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-553800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-350000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-435900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1373300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1141100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-478000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-518400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-154900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-759500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-270000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>644800</v>
+        <v>1619900</v>
       </c>
       <c r="E33" s="3">
-        <v>779900</v>
+        <v>2068100</v>
       </c>
       <c r="F33" s="3">
-        <v>1293100</v>
+        <v>634100</v>
       </c>
       <c r="G33" s="3">
-        <v>1577800</v>
+        <v>767000</v>
       </c>
       <c r="H33" s="3">
-        <v>1234500</v>
+        <v>1272900</v>
       </c>
       <c r="I33" s="3">
+        <v>1550500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1214000</v>
+      </c>
+      <c r="K33" s="3">
         <v>2161500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1214100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>619100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1214400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>2191200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>2456000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1385700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1522500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1665600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>2285400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2063,119 +2213,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>644800</v>
+        <v>1619900</v>
       </c>
       <c r="E35" s="3">
-        <v>779900</v>
+        <v>2068100</v>
       </c>
       <c r="F35" s="3">
-        <v>1293100</v>
+        <v>634100</v>
       </c>
       <c r="G35" s="3">
-        <v>1577800</v>
+        <v>767000</v>
       </c>
       <c r="H35" s="3">
-        <v>1234500</v>
+        <v>1272900</v>
       </c>
       <c r="I35" s="3">
+        <v>1550500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1214000</v>
+      </c>
+      <c r="K35" s="3">
         <v>2161500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1214100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>619100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1214400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>2191200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>2456000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1385700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1522500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1665600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>2285400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2195,8 +2363,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2216,485 +2386,541 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14454900</v>
+        <v>16488400</v>
       </c>
       <c r="E41" s="3">
-        <v>9368600</v>
+        <v>16517800</v>
       </c>
       <c r="F41" s="3">
-        <v>13576900</v>
+        <v>14215600</v>
       </c>
       <c r="G41" s="3">
-        <v>14822100</v>
+        <v>9213600</v>
       </c>
       <c r="H41" s="3">
-        <v>9595900</v>
+        <v>13352100</v>
       </c>
       <c r="I41" s="3">
+        <v>14576800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>9437100</v>
+      </c>
+      <c r="K41" s="3">
         <v>10628200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>14819700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>12256700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>7784800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>10749800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>11215400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>9396700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>9520100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>11598400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>11182900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>12447100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>10131800</v>
+        <v>9893500</v>
       </c>
       <c r="E42" s="3">
-        <v>11763400</v>
+        <v>9860600</v>
       </c>
       <c r="F42" s="3">
-        <v>11901000</v>
+        <v>9964100</v>
       </c>
       <c r="G42" s="3">
-        <v>12762300</v>
+        <v>11568700</v>
       </c>
       <c r="H42" s="3">
-        <v>11657000</v>
+        <v>11704000</v>
       </c>
       <c r="I42" s="3">
+        <v>12551000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>11464000</v>
+      </c>
+      <c r="K42" s="3">
         <v>11729900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>11299300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>11865700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>10144400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>10626400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>10132700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>9992400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>9755700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>10085400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>10037200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>9499600</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>24629800</v>
+        <v>24526800</v>
       </c>
       <c r="E43" s="3">
-        <v>25458700</v>
+        <v>24871400</v>
       </c>
       <c r="F43" s="3">
-        <v>35887200</v>
+        <v>24222100</v>
       </c>
       <c r="G43" s="3">
-        <v>36252000</v>
+        <v>25037300</v>
       </c>
       <c r="H43" s="3">
-        <v>36402800</v>
+        <v>35293200</v>
       </c>
       <c r="I43" s="3">
+        <v>35652000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>35800200</v>
+      </c>
+      <c r="K43" s="3">
         <v>34793900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>34533100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>31430400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>29901800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>28899100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>29119000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>29882000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>20761300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>20843300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>20116800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>20045200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10396200</v>
+        <v>9108900</v>
       </c>
       <c r="E44" s="3">
-        <v>10137800</v>
+        <v>9170000</v>
       </c>
       <c r="F44" s="3">
-        <v>19074600</v>
+        <v>10224100</v>
       </c>
       <c r="G44" s="3">
-        <v>17710900</v>
+        <v>9970000</v>
       </c>
       <c r="H44" s="3">
-        <v>18969300</v>
+        <v>18758900</v>
       </c>
       <c r="I44" s="3">
+        <v>17417800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>18655400</v>
+      </c>
+      <c r="K44" s="3">
         <v>18701400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>17891600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>15379000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>16156000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>16172400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>16158900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>15578800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>23339600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>23185100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>22082900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>21316400</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>51978500</v>
+        <v>3648000</v>
       </c>
       <c r="E45" s="3">
-        <v>51403100</v>
+        <v>1891700</v>
       </c>
       <c r="F45" s="3">
-        <v>2660300</v>
+        <v>51118100</v>
       </c>
       <c r="G45" s="3">
-        <v>2629200</v>
+        <v>50552300</v>
       </c>
       <c r="H45" s="3">
-        <v>2574200</v>
+        <v>2616300</v>
       </c>
       <c r="I45" s="3">
+        <v>2585700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2531600</v>
+      </c>
+      <c r="K45" s="3">
         <v>2367300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2349300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1993700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2067500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>2175500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1936600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>4957000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2066700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1916800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1676200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1637500</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>111591100</v>
+        <v>63665600</v>
       </c>
       <c r="E46" s="3">
-        <v>108131700</v>
+        <v>62311600</v>
       </c>
       <c r="F46" s="3">
-        <v>83100000</v>
+        <v>109744000</v>
       </c>
       <c r="G46" s="3">
-        <v>84176600</v>
+        <v>106341900</v>
       </c>
       <c r="H46" s="3">
-        <v>79199200</v>
+        <v>81724500</v>
       </c>
       <c r="I46" s="3">
+        <v>82783300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>77888300</v>
+      </c>
+      <c r="K46" s="3">
         <v>78220700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>80893000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>71502200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>66054600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>68623200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>68562600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>68160900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>65443400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>67629100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>65096000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>64945700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>27189600</v>
+        <v>33369800</v>
       </c>
       <c r="E47" s="3">
-        <v>26852300</v>
+        <v>36036700</v>
       </c>
       <c r="F47" s="3">
-        <v>26255400</v>
+        <v>26739600</v>
       </c>
       <c r="G47" s="3">
-        <v>26420500</v>
+        <v>26407800</v>
       </c>
       <c r="H47" s="3">
-        <v>25440800</v>
+        <v>25820800</v>
       </c>
       <c r="I47" s="3">
+        <v>25983100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>25019700</v>
+      </c>
+      <c r="K47" s="3">
         <v>25335500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>24967100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>22543000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>22100500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>21630800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>23888300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>24426800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>25769900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>27684300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>27944900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>27727700</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12330400</v>
+        <v>11512300</v>
       </c>
       <c r="E48" s="3">
-        <v>12336400</v>
+        <v>12058100</v>
       </c>
       <c r="F48" s="3">
-        <v>17915500</v>
+        <v>12126300</v>
       </c>
       <c r="G48" s="3">
-        <v>14573300</v>
+        <v>12132200</v>
       </c>
       <c r="H48" s="3">
-        <v>14112800</v>
+        <v>17618900</v>
       </c>
       <c r="I48" s="3">
+        <v>14332100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>13879200</v>
+      </c>
+      <c r="K48" s="3">
         <v>14074500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>13777800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>12605600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>12157100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>12203900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>12181400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>12316100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>12254400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>12244000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>12059700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>11922400</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>31250700</v>
+        <v>28771200</v>
       </c>
       <c r="E49" s="3">
-        <v>31872700</v>
+        <v>29747600</v>
       </c>
       <c r="F49" s="3">
-        <v>48831300</v>
+        <v>30733500</v>
       </c>
       <c r="G49" s="3">
-        <v>47800200</v>
+        <v>31345200</v>
       </c>
       <c r="H49" s="3">
-        <v>46871900</v>
+        <v>48023000</v>
       </c>
       <c r="I49" s="3">
+        <v>47008900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>46096100</v>
+      </c>
+      <c r="K49" s="3">
         <v>47582400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>46788200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>42614900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>42278500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>42292300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>43301000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>43569100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>44476800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>42453200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>38471600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>37445700</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2746,8 +2972,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2799,61 +3031,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5544400</v>
+        <v>5535000</v>
       </c>
       <c r="E52" s="3">
-        <v>5229800</v>
+        <v>5598500</v>
       </c>
       <c r="F52" s="3">
-        <v>6131700</v>
+        <v>5452600</v>
       </c>
       <c r="G52" s="3">
-        <v>6756100</v>
+        <v>5143200</v>
       </c>
       <c r="H52" s="3">
-        <v>6068300</v>
+        <v>6030200</v>
       </c>
       <c r="I52" s="3">
+        <v>6644300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>5967900</v>
+      </c>
+      <c r="K52" s="3">
         <v>5757300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>5357800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>4596500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>4630300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>4895200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>4720200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>4242200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>3778900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>4188200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>4597800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>5526300</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2905,61 +3149,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>187906300</v>
+        <v>142853800</v>
       </c>
       <c r="E54" s="3">
-        <v>184422900</v>
+        <v>145752400</v>
       </c>
       <c r="F54" s="3">
-        <v>182233900</v>
+        <v>184796000</v>
       </c>
       <c r="G54" s="3">
-        <v>179726700</v>
+        <v>181370300</v>
       </c>
       <c r="H54" s="3">
-        <v>171693000</v>
+        <v>179217500</v>
       </c>
       <c r="I54" s="3">
+        <v>176751700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>168851000</v>
+      </c>
+      <c r="K54" s="3">
         <v>170970500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>171783900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>153862300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>147220900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>149645400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>152653500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>152715200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>151723300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>154198700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>148170000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>147567900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2979,8 +3235,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3000,326 +3258,364 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7333900</v>
+        <v>8264200</v>
       </c>
       <c r="E57" s="3">
-        <v>7417600</v>
+        <v>9261800</v>
       </c>
       <c r="F57" s="3">
-        <v>12524200</v>
+        <v>7212500</v>
       </c>
       <c r="G57" s="3">
-        <v>13647400</v>
+        <v>7294900</v>
       </c>
       <c r="H57" s="3">
-        <v>12453600</v>
+        <v>12316900</v>
       </c>
       <c r="I57" s="3">
+        <v>13421500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>12247500</v>
+      </c>
+      <c r="K57" s="3">
         <v>12271800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>11978700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>11869000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>10496900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>10028300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>9988000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>10946100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>10770000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>9352900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>8818800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>9446800</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6530100</v>
+        <v>8867700</v>
       </c>
       <c r="E58" s="3">
-        <v>8263300</v>
+        <v>7719500</v>
       </c>
       <c r="F58" s="3">
-        <v>8075500</v>
+        <v>6422000</v>
       </c>
       <c r="G58" s="3">
-        <v>7217900</v>
+        <v>8126600</v>
       </c>
       <c r="H58" s="3">
-        <v>11663000</v>
+        <v>7941900</v>
       </c>
       <c r="I58" s="3">
+        <v>7098400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>11469900</v>
+      </c>
+      <c r="K58" s="3">
         <v>10756200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>9369800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>5601100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3361000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>6353800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>6216900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>6111500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>7700200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>6085000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>5627200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>7284700</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>54448600</v>
+        <v>23603300</v>
       </c>
       <c r="E59" s="3">
-        <v>52851700</v>
+        <v>23153900</v>
       </c>
       <c r="F59" s="3">
-        <v>39500900</v>
+        <v>53547400</v>
       </c>
       <c r="G59" s="3">
-        <v>39809500</v>
+        <v>51976900</v>
       </c>
       <c r="H59" s="3">
-        <v>38747300</v>
+        <v>38847100</v>
       </c>
       <c r="I59" s="3">
+        <v>39150600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>38105900</v>
+      </c>
+      <c r="K59" s="3">
         <v>37718600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>39414800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>35555100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>34141200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>34551700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>35443700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>34640300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>32000300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>33477100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>33731800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>33643700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>68312600</v>
+        <v>40735200</v>
       </c>
       <c r="E60" s="3">
-        <v>68532700</v>
+        <v>40135200</v>
       </c>
       <c r="F60" s="3">
-        <v>60100700</v>
+        <v>67181900</v>
       </c>
       <c r="G60" s="3">
-        <v>60674900</v>
+        <v>67398300</v>
       </c>
       <c r="H60" s="3">
-        <v>62863900</v>
+        <v>59105900</v>
       </c>
       <c r="I60" s="3">
+        <v>59670500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>61823300</v>
+      </c>
+      <c r="K60" s="3">
         <v>60746600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>60763400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>53025200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>47999100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>50933900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>51648600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>51697900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>50470500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>48915000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>48177900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>50375200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>48588400</v>
+        <v>42282200</v>
       </c>
       <c r="E61" s="3">
-        <v>44052500</v>
+        <v>44709100</v>
       </c>
       <c r="F61" s="3">
-        <v>39868100</v>
+        <v>47784200</v>
       </c>
       <c r="G61" s="3">
-        <v>36381200</v>
+        <v>43323300</v>
       </c>
       <c r="H61" s="3">
-        <v>31249500</v>
+        <v>39208200</v>
       </c>
       <c r="I61" s="3">
+        <v>35779000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>30732300</v>
+      </c>
+      <c r="K61" s="3">
         <v>32870400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>33201700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>30038100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>28666600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>28340300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>29600300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>30043500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>32026100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>38674700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>31563800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>30405200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15556600</v>
+        <v>12300400</v>
       </c>
       <c r="E62" s="3">
-        <v>15360400</v>
+        <v>14060300</v>
       </c>
       <c r="F62" s="3">
-        <v>20066300</v>
+        <v>15299100</v>
       </c>
       <c r="G62" s="3">
-        <v>21683500</v>
+        <v>15106200</v>
       </c>
       <c r="H62" s="3">
-        <v>20803100</v>
+        <v>19734100</v>
       </c>
       <c r="I62" s="3">
+        <v>21324600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>20458800</v>
+      </c>
+      <c r="K62" s="3">
         <v>20995700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>20836600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>17583200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>17860100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>18649700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>20484200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>20910500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>20396700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>21366900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>22391600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>25920100</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3371,8 +3667,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3424,8 +3726,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3477,61 +3785,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>135461300</v>
+        <v>99251700</v>
       </c>
       <c r="E66" s="3">
-        <v>131040100</v>
+        <v>102943200</v>
       </c>
       <c r="F66" s="3">
-        <v>123333000</v>
+        <v>133219100</v>
       </c>
       <c r="G66" s="3">
-        <v>122158300</v>
+        <v>128871100</v>
       </c>
       <c r="H66" s="3">
-        <v>118133100</v>
+        <v>121291500</v>
       </c>
       <c r="I66" s="3">
+        <v>120136300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>116177700</v>
+      </c>
+      <c r="K66" s="3">
         <v>117771900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>117952500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>103496400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>97249900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>100645900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>103254500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>104266500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>104659200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>109687800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>102846900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>107410700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3551,8 +3871,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3604,8 +3926,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3657,8 +3985,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3710,8 +4044,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3763,61 +4103,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>47525000</v>
+        <v>40765800</v>
       </c>
       <c r="E72" s="3">
-        <v>47202100</v>
+        <v>38913000</v>
       </c>
       <c r="F72" s="3">
-        <v>51441400</v>
+        <v>46738400</v>
       </c>
       <c r="G72" s="3">
-        <v>50022700</v>
+        <v>46420700</v>
       </c>
       <c r="H72" s="3">
-        <v>48511900</v>
+        <v>50589900</v>
       </c>
       <c r="I72" s="3">
+        <v>49194700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>47708900</v>
+      </c>
+      <c r="K72" s="3">
         <v>47185300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>48717600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>45427100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>44466800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>44000000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>42359600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>40160500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>38469700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>35296500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>36673300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>32225800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3869,8 +4221,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3922,8 +4280,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3975,61 +4339,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>52445000</v>
+        <v>43602100</v>
       </c>
       <c r="E76" s="3">
-        <v>53382800</v>
+        <v>42809200</v>
       </c>
       <c r="F76" s="3">
-        <v>58900900</v>
+        <v>51576900</v>
       </c>
       <c r="G76" s="3">
-        <v>57568300</v>
+        <v>52499200</v>
       </c>
       <c r="H76" s="3">
-        <v>53559900</v>
+        <v>57925900</v>
       </c>
       <c r="I76" s="3">
+        <v>56615400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>52673300</v>
+      </c>
+      <c r="K76" s="3">
         <v>53198600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>53831400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>50365900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>49971100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>48999500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>49399000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>48448700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>47064100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>44510900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>45323200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>40157200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4081,119 +4457,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>644800</v>
+        <v>1619900</v>
       </c>
       <c r="E81" s="3">
-        <v>779900</v>
+        <v>2068100</v>
       </c>
       <c r="F81" s="3">
-        <v>1293100</v>
+        <v>634100</v>
       </c>
       <c r="G81" s="3">
-        <v>1577800</v>
+        <v>767000</v>
       </c>
       <c r="H81" s="3">
-        <v>1234500</v>
+        <v>1272900</v>
       </c>
       <c r="I81" s="3">
+        <v>1550500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1214000</v>
+      </c>
+      <c r="K81" s="3">
         <v>2161500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1214100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>619100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1214400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>2191200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>2456000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1385700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1522500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1665600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>2285400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4213,61 +4607,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>923500</v>
+        <v>835200</v>
       </c>
       <c r="E83" s="3">
-        <v>508400</v>
+        <v>1047000</v>
       </c>
       <c r="F83" s="3">
-        <v>1279900</v>
+        <v>908200</v>
       </c>
       <c r="G83" s="3">
-        <v>1154300</v>
+        <v>500000</v>
       </c>
       <c r="H83" s="3">
-        <v>1033500</v>
+        <v>1258700</v>
       </c>
       <c r="I83" s="3">
+        <v>1135200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1016400</v>
+      </c>
+      <c r="K83" s="3">
         <v>1000000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>991600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1013500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>891600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>939100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>959300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>1143300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>967200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>785300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>775900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>871000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4319,8 +4721,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4372,8 +4780,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4425,8 +4839,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4478,8 +4898,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4531,61 +4957,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3612500</v>
+        <v>1542300</v>
       </c>
       <c r="E89" s="3">
-        <v>801500</v>
+        <v>-24700</v>
       </c>
       <c r="F89" s="3">
-        <v>635200</v>
+        <v>3552700</v>
       </c>
       <c r="G89" s="3">
-        <v>7288400</v>
+        <v>788200</v>
       </c>
       <c r="H89" s="3">
-        <v>1302700</v>
+        <v>624700</v>
       </c>
       <c r="I89" s="3">
+        <v>7167800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1281100</v>
+      </c>
+      <c r="K89" s="3">
         <v>1299100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>224900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>4696200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1625000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1495600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1540500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>3636400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1781700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1423800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>1331100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>5149500</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4605,61 +5043,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-409100</v>
+        <v>-387000</v>
       </c>
       <c r="E91" s="3">
-        <v>-245200</v>
+        <v>-611700</v>
       </c>
       <c r="F91" s="3">
-        <v>-582500</v>
+        <v>-402300</v>
       </c>
       <c r="G91" s="3">
-        <v>-992800</v>
+        <v>-241200</v>
       </c>
       <c r="H91" s="3">
-        <v>-783500</v>
+        <v>-572900</v>
       </c>
       <c r="I91" s="3">
+        <v>-976400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-770500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-717700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-628000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1058900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-662100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-607000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-563200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-969400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-724800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1115100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-988300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-959000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4711,8 +5157,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4764,61 +5216,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-318200</v>
+        <v>-527000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1683100</v>
+        <v>-1545800</v>
       </c>
       <c r="F94" s="3">
-        <v>-2628100</v>
+        <v>-312900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1928300</v>
+        <v>-1655200</v>
       </c>
       <c r="H94" s="3">
-        <v>-1222500</v>
+        <v>-2584600</v>
       </c>
       <c r="I94" s="3">
+        <v>-1896400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1202300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1320600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1522800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2462200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1002500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1308200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>592400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1884900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1668400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-4665900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-369800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-2619900</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4838,8 +5302,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4891,8 +5357,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4944,8 +5416,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4997,8 +5475,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5050,163 +5534,187 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2294300</v>
+        <v>-728200</v>
       </c>
       <c r="E100" s="3">
-        <v>-803800</v>
+        <v>1437600</v>
       </c>
       <c r="F100" s="3">
-        <v>842100</v>
+        <v>2256300</v>
       </c>
       <c r="G100" s="3">
-        <v>-256000</v>
+        <v>-790500</v>
       </c>
       <c r="H100" s="3">
-        <v>-905500</v>
+        <v>828200</v>
       </c>
       <c r="I100" s="3">
+        <v>-251700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-890500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-4363700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2801500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2307100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-3425800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-639500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-380400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1729000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1276800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>3617700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-2304200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>2442700</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-110100</v>
+        <v>-254100</v>
       </c>
       <c r="E101" s="3">
-        <v>-84900</v>
+        <v>-332900</v>
       </c>
       <c r="F101" s="3">
-        <v>-94500</v>
+        <v>-108200</v>
       </c>
       <c r="G101" s="3">
-        <v>123200</v>
+        <v>-83500</v>
       </c>
       <c r="H101" s="3">
-        <v>-206900</v>
+        <v>-92900</v>
       </c>
       <c r="I101" s="3">
+        <v>121200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-203500</v>
+      </c>
+      <c r="K101" s="3">
         <v>192600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>78900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-137300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>68100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-13500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>50500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-130200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-402800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>39900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>63400</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5478600</v>
+        <v>32900</v>
       </c>
       <c r="E102" s="3">
-        <v>-1770400</v>
+        <v>-465900</v>
       </c>
       <c r="F102" s="3">
-        <v>-1245200</v>
+        <v>5387900</v>
       </c>
       <c r="G102" s="3">
-        <v>5227400</v>
+        <v>-1741100</v>
       </c>
       <c r="H102" s="3">
-        <v>-1032300</v>
+        <v>-1224600</v>
       </c>
       <c r="I102" s="3">
+        <v>5140900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-1015200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-4192700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1582600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>4403800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-2735100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-465600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1803000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-107700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1566300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>415500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1279500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>4972300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SIEGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIEGY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16553100</v>
+        <v>17964500</v>
       </c>
       <c r="E8" s="3">
-        <v>18011900</v>
+        <v>17236800</v>
       </c>
       <c r="F8" s="3">
-        <v>15870800</v>
+        <v>18755800</v>
       </c>
       <c r="G8" s="3">
-        <v>16734300</v>
+        <v>16526300</v>
       </c>
       <c r="H8" s="3">
-        <v>16087300</v>
+        <v>16885300</v>
       </c>
       <c r="I8" s="3">
-        <v>19263600</v>
+        <v>16751700</v>
       </c>
       <c r="J8" s="3">
+        <v>20059200</v>
+      </c>
+      <c r="K8" s="3">
         <v>16749600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17039900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16298200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>25039500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>22479400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>22598000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>22241200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>24927300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>23896100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>23634700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>22552400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>25768700</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10294700</v>
+        <v>11546800</v>
       </c>
       <c r="E9" s="3">
-        <v>11878100</v>
+        <v>10719900</v>
       </c>
       <c r="F9" s="3">
-        <v>10174700</v>
+        <v>12368700</v>
       </c>
       <c r="G9" s="3">
-        <v>10766400</v>
+        <v>10594900</v>
       </c>
       <c r="H9" s="3">
-        <v>10220600</v>
+        <v>10744400</v>
       </c>
       <c r="I9" s="3">
-        <v>12000500</v>
+        <v>10642700</v>
       </c>
       <c r="J9" s="3">
+        <v>12496100</v>
+      </c>
+      <c r="K9" s="3">
         <v>10675800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10582800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10438000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17823500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>15801300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>15522700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>15554100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>17849700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>17030700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>15969700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>15409800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>18465200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6258400</v>
+        <v>6417700</v>
       </c>
       <c r="E10" s="3">
-        <v>6133700</v>
+        <v>6516900</v>
       </c>
       <c r="F10" s="3">
-        <v>5696100</v>
+        <v>6387100</v>
       </c>
       <c r="G10" s="3">
-        <v>5967900</v>
+        <v>5931400</v>
       </c>
       <c r="H10" s="3">
-        <v>5866700</v>
+        <v>6140900</v>
       </c>
       <c r="I10" s="3">
-        <v>7263100</v>
+        <v>6109000</v>
       </c>
       <c r="J10" s="3">
+        <v>7563100</v>
+      </c>
+      <c r="K10" s="3">
         <v>6073800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6457100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5860200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7216000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6678000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7075300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6687100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7077500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6865500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7665000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7142600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7303400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,67 +949,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1251700</v>
+        <v>1381800</v>
       </c>
       <c r="E12" s="3">
-        <v>1419900</v>
+        <v>1303400</v>
       </c>
       <c r="F12" s="3">
-        <v>1289300</v>
+        <v>1478600</v>
       </c>
       <c r="G12" s="3">
-        <v>1372900</v>
+        <v>1342600</v>
       </c>
       <c r="H12" s="3">
-        <v>1322300</v>
+        <v>1419800</v>
       </c>
       <c r="I12" s="3">
-        <v>1510500</v>
+        <v>1376900</v>
       </c>
       <c r="J12" s="3">
+        <v>1572900</v>
+      </c>
+      <c r="K12" s="3">
         <v>1359900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1367300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1299100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1735600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1506500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1565200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1373300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1656100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1511300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1425000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1322900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1551800</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1055,8 +1071,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1105,8 +1124,8 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1114,8 +1133,11 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1173,8 +1195,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1193,126 +1218,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14507400</v>
+        <v>16160100</v>
       </c>
       <c r="E17" s="3">
-        <v>16370800</v>
+        <v>15106600</v>
       </c>
       <c r="F17" s="3">
-        <v>14476800</v>
+        <v>17047000</v>
       </c>
       <c r="G17" s="3">
-        <v>15262600</v>
+        <v>15074700</v>
       </c>
       <c r="H17" s="3">
-        <v>14708500</v>
+        <v>15388300</v>
       </c>
       <c r="I17" s="3">
-        <v>16861300</v>
+        <v>15316000</v>
       </c>
       <c r="J17" s="3">
+        <v>17557800</v>
+      </c>
+      <c r="K17" s="3">
         <v>15177900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14926200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14927400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23528700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20824700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>20680500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>20439300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>23346400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>22102100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>20967800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>19862000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>23667500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2045800</v>
+        <v>1804400</v>
       </c>
       <c r="E18" s="3">
-        <v>1641100</v>
+        <v>2130300</v>
       </c>
       <c r="F18" s="3">
-        <v>1394000</v>
+        <v>1708900</v>
       </c>
       <c r="G18" s="3">
-        <v>1471700</v>
+        <v>1451600</v>
       </c>
       <c r="H18" s="3">
-        <v>1378700</v>
+        <v>1496900</v>
       </c>
       <c r="I18" s="3">
-        <v>2402200</v>
+        <v>1435700</v>
       </c>
       <c r="J18" s="3">
+        <v>2501400</v>
+      </c>
+      <c r="K18" s="3">
         <v>1571700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2113700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1370800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1510800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1654700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1917500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1801900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1580900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1794100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2666900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2690400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2101100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1334,303 +1366,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>460000</v>
+        <v>826900</v>
       </c>
       <c r="E20" s="3">
-        <v>235300</v>
+        <v>479000</v>
       </c>
       <c r="F20" s="3">
-        <v>520000</v>
+        <v>245000</v>
       </c>
       <c r="G20" s="3">
-        <v>444700</v>
+        <v>541400</v>
       </c>
       <c r="H20" s="3">
-        <v>500000</v>
+        <v>464300</v>
       </c>
       <c r="I20" s="3">
-        <v>391700</v>
+        <v>520600</v>
       </c>
       <c r="J20" s="3">
+        <v>407900</v>
+      </c>
+      <c r="K20" s="3">
         <v>400000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>564600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>553800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>350000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>435900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1373300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1141100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>478000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>518400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>154900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>759500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3341000</v>
+        <v>3483900</v>
       </c>
       <c r="E21" s="3">
-        <v>2923400</v>
+        <v>3479000</v>
       </c>
       <c r="F21" s="3">
-        <v>2822200</v>
+        <v>3044100</v>
       </c>
       <c r="G21" s="3">
-        <v>2416300</v>
+        <v>2938800</v>
       </c>
       <c r="H21" s="3">
-        <v>3137500</v>
+        <v>2481800</v>
       </c>
       <c r="I21" s="3">
-        <v>3929200</v>
+        <v>3267000</v>
       </c>
       <c r="J21" s="3">
+        <v>4091500</v>
+      </c>
+      <c r="K21" s="3">
         <v>2988100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3678300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2916300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2874200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2982200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4229900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3902300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3202200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3279600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3607100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4225700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3242100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>195300</v>
+        <v>200900</v>
       </c>
       <c r="E22" s="3">
-        <v>167000</v>
+        <v>203300</v>
       </c>
       <c r="F22" s="3">
-        <v>257600</v>
+        <v>173900</v>
       </c>
       <c r="G22" s="3">
-        <v>368200</v>
+        <v>268300</v>
       </c>
       <c r="H22" s="3">
-        <v>165900</v>
+        <v>383400</v>
       </c>
       <c r="I22" s="3">
-        <v>296500</v>
+        <v>172700</v>
       </c>
       <c r="J22" s="3">
+        <v>308700</v>
+      </c>
+      <c r="K22" s="3">
         <v>276500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>312200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>259600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>301300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>299800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>298400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>311900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>310800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>322000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>284100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>286400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>291100</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2310400</v>
+        <v>2430400</v>
       </c>
       <c r="E23" s="3">
-        <v>1709300</v>
+        <v>2405900</v>
       </c>
       <c r="F23" s="3">
-        <v>1656400</v>
+        <v>1779900</v>
       </c>
       <c r="G23" s="3">
-        <v>1548100</v>
+        <v>1724800</v>
       </c>
       <c r="H23" s="3">
-        <v>1712800</v>
+        <v>1577800</v>
       </c>
       <c r="I23" s="3">
-        <v>2497500</v>
+        <v>1783600</v>
       </c>
       <c r="J23" s="3">
+        <v>2600700</v>
+      </c>
+      <c r="K23" s="3">
         <v>1695200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2366100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1665100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1559500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1790800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2992300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2631100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1748100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1990400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2537800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3163400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2080000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>574100</v>
+        <v>574500</v>
       </c>
       <c r="E24" s="3">
+        <v>597800</v>
+      </c>
+      <c r="F24" s="3">
+        <v>466700</v>
+      </c>
+      <c r="G24" s="3">
+        <v>516900</v>
+      </c>
+      <c r="H24" s="3">
+        <v>362600</v>
+      </c>
+      <c r="I24" s="3">
+        <v>328300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>916300</v>
+      </c>
+      <c r="K24" s="3">
         <v>448200</v>
       </c>
-      <c r="F24" s="3">
-        <v>496400</v>
-      </c>
-      <c r="G24" s="3">
-        <v>355300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>315300</v>
-      </c>
-      <c r="I24" s="3">
-        <v>879900</v>
-      </c>
-      <c r="J24" s="3">
-        <v>448200</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>311000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>461700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>828500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>512800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>774200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>655200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>379200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>392700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>860400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>853400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>693700</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1688,126 +1736,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1736400</v>
+        <v>1855900</v>
       </c>
       <c r="E26" s="3">
-        <v>1261100</v>
+        <v>1808100</v>
       </c>
       <c r="F26" s="3">
-        <v>1159900</v>
+        <v>1313200</v>
       </c>
       <c r="G26" s="3">
-        <v>1192900</v>
+        <v>1207800</v>
       </c>
       <c r="H26" s="3">
-        <v>1397600</v>
+        <v>1215200</v>
       </c>
       <c r="I26" s="3">
-        <v>1617600</v>
+        <v>1455300</v>
       </c>
       <c r="J26" s="3">
+        <v>1684400</v>
+      </c>
+      <c r="K26" s="3">
         <v>1247000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2055100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1203400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>731000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1278100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2218200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1975800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1368800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1597700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1677400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2310100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1386300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1592800</v>
+        <v>1704000</v>
       </c>
       <c r="E27" s="3">
-        <v>1118800</v>
+        <v>1658600</v>
       </c>
       <c r="F27" s="3">
-        <v>1164600</v>
+        <v>1165000</v>
       </c>
       <c r="G27" s="3">
-        <v>1139900</v>
+        <v>1212700</v>
       </c>
       <c r="H27" s="3">
-        <v>1389300</v>
+        <v>1160100</v>
       </c>
       <c r="I27" s="3">
-        <v>1439900</v>
+        <v>1446700</v>
       </c>
       <c r="J27" s="3">
+        <v>1499400</v>
+      </c>
+      <c r="K27" s="3">
         <v>1122300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1916300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1079000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>594800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1163900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2144100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1952300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1350900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1539400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1636300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2271300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1359300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1865,67 +1922,73 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>27100</v>
+        <v>1070600</v>
       </c>
       <c r="E29" s="3">
-        <v>949400</v>
+        <v>28200</v>
       </c>
       <c r="F29" s="3">
-        <v>-530600</v>
+        <v>988600</v>
       </c>
       <c r="G29" s="3">
-        <v>-372900</v>
+        <v>-552500</v>
       </c>
       <c r="H29" s="3">
-        <v>-116500</v>
+        <v>-361400</v>
       </c>
       <c r="I29" s="3">
-        <v>110600</v>
+        <v>-121300</v>
       </c>
       <c r="J29" s="3">
+        <v>115100</v>
+      </c>
+      <c r="K29" s="3">
         <v>91800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>245200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>135200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>24400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>50500</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>47100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>503800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>34800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-16800</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>29300</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>14100</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1983,8 +2046,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2042,126 +2108,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-460000</v>
+        <v>-826900</v>
       </c>
       <c r="E32" s="3">
-        <v>-235300</v>
+        <v>-479000</v>
       </c>
       <c r="F32" s="3">
-        <v>-520000</v>
+        <v>-245000</v>
       </c>
       <c r="G32" s="3">
-        <v>-444700</v>
+        <v>-541400</v>
       </c>
       <c r="H32" s="3">
-        <v>-500000</v>
+        <v>-464300</v>
       </c>
       <c r="I32" s="3">
-        <v>-391700</v>
+        <v>-520600</v>
       </c>
       <c r="J32" s="3">
+        <v>-407900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-400000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-564600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-553800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-350000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-435900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1373300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1141100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-478000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-518400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-154900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-759500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-270000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1619900</v>
+        <v>2774600</v>
       </c>
       <c r="E33" s="3">
-        <v>2068100</v>
+        <v>1686800</v>
       </c>
       <c r="F33" s="3">
-        <v>634100</v>
+        <v>2153500</v>
       </c>
       <c r="G33" s="3">
-        <v>767000</v>
+        <v>660300</v>
       </c>
       <c r="H33" s="3">
-        <v>1272900</v>
+        <v>798700</v>
       </c>
       <c r="I33" s="3">
-        <v>1550500</v>
+        <v>1325400</v>
       </c>
       <c r="J33" s="3">
+        <v>1614500</v>
+      </c>
+      <c r="K33" s="3">
         <v>1214000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2161500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1214100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>619100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1214400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2191200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2456000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1385700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1522500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1665600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2285400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2219,131 +2294,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1619900</v>
+        <v>2774600</v>
       </c>
       <c r="E35" s="3">
-        <v>2068100</v>
+        <v>1686800</v>
       </c>
       <c r="F35" s="3">
-        <v>634100</v>
+        <v>2153500</v>
       </c>
       <c r="G35" s="3">
-        <v>767000</v>
+        <v>660300</v>
       </c>
       <c r="H35" s="3">
-        <v>1272900</v>
+        <v>798700</v>
       </c>
       <c r="I35" s="3">
-        <v>1550500</v>
+        <v>1325400</v>
       </c>
       <c r="J35" s="3">
+        <v>1614500</v>
+      </c>
+      <c r="K35" s="3">
         <v>1214000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2161500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1214100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>619100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1214400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2191200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2456000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1385700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1522500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1665600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2285400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2365,8 +2449,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2388,539 +2473,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>16488400</v>
+        <v>28957500</v>
       </c>
       <c r="E41" s="3">
-        <v>16517800</v>
+        <v>17169500</v>
       </c>
       <c r="F41" s="3">
-        <v>14215600</v>
+        <v>17200100</v>
       </c>
       <c r="G41" s="3">
-        <v>9213600</v>
+        <v>14802800</v>
       </c>
       <c r="H41" s="3">
-        <v>13352100</v>
+        <v>9594100</v>
       </c>
       <c r="I41" s="3">
-        <v>14576800</v>
+        <v>13903600</v>
       </c>
       <c r="J41" s="3">
+        <v>15178900</v>
+      </c>
+      <c r="K41" s="3">
         <v>9437100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10628200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14819700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12256700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7784800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10749800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11215400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9396700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9520100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>11598400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>11182900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>12447100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9893500</v>
+        <v>11201300</v>
       </c>
       <c r="E42" s="3">
-        <v>9860600</v>
+        <v>10302200</v>
       </c>
       <c r="F42" s="3">
-        <v>9964100</v>
+        <v>10267900</v>
       </c>
       <c r="G42" s="3">
-        <v>11568700</v>
+        <v>10375700</v>
       </c>
       <c r="H42" s="3">
-        <v>11704000</v>
+        <v>12046600</v>
       </c>
       <c r="I42" s="3">
-        <v>12551000</v>
+        <v>12187400</v>
       </c>
       <c r="J42" s="3">
+        <v>13069400</v>
+      </c>
+      <c r="K42" s="3">
         <v>11464000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>11729900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>11299300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>11865700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>10144400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>10626400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>10132700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>9992400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>9755700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>10085400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>10037200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>9499600</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>24526800</v>
+        <v>26355700</v>
       </c>
       <c r="E43" s="3">
-        <v>24871400</v>
+        <v>25539800</v>
       </c>
       <c r="F43" s="3">
-        <v>24222100</v>
+        <v>25898700</v>
       </c>
       <c r="G43" s="3">
-        <v>25037300</v>
+        <v>25222500</v>
       </c>
       <c r="H43" s="3">
-        <v>35293200</v>
+        <v>26071500</v>
       </c>
       <c r="I43" s="3">
-        <v>35652000</v>
+        <v>36750900</v>
       </c>
       <c r="J43" s="3">
+        <v>37124500</v>
+      </c>
+      <c r="K43" s="3">
         <v>35800200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>34793900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>34533100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>31430400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>29901800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>28899100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>29119000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>29882000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>20761300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>20843300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>20116800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>20045200</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9108900</v>
+        <v>9746000</v>
       </c>
       <c r="E44" s="3">
-        <v>9170000</v>
+        <v>9485100</v>
       </c>
       <c r="F44" s="3">
-        <v>10224100</v>
+        <v>9548800</v>
       </c>
       <c r="G44" s="3">
-        <v>9970000</v>
+        <v>10646400</v>
       </c>
       <c r="H44" s="3">
-        <v>18758900</v>
+        <v>10381800</v>
       </c>
       <c r="I44" s="3">
-        <v>17417800</v>
+        <v>19533700</v>
       </c>
       <c r="J44" s="3">
+        <v>18137200</v>
+      </c>
+      <c r="K44" s="3">
         <v>18655400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>18701400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>17891600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>15379000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>16156000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>16172400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>16158900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>15578800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>23339600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>23185100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>22082900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>21316400</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3648000</v>
+        <v>1885300</v>
       </c>
       <c r="E45" s="3">
-        <v>1891700</v>
+        <v>3798700</v>
       </c>
       <c r="F45" s="3">
-        <v>51118100</v>
+        <v>1969800</v>
       </c>
       <c r="G45" s="3">
-        <v>50552300</v>
+        <v>53229500</v>
       </c>
       <c r="H45" s="3">
-        <v>2616300</v>
+        <v>52640300</v>
       </c>
       <c r="I45" s="3">
-        <v>2585700</v>
+        <v>2724400</v>
       </c>
       <c r="J45" s="3">
+        <v>2692500</v>
+      </c>
+      <c r="K45" s="3">
         <v>2531600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2367300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2349300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1993700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2067500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2175500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1936600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4957000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2066700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1916800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1676200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1637500</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>63665600</v>
+        <v>78145800</v>
       </c>
       <c r="E46" s="3">
-        <v>62311600</v>
+        <v>66295200</v>
       </c>
       <c r="F46" s="3">
-        <v>109744000</v>
+        <v>64885300</v>
       </c>
       <c r="G46" s="3">
-        <v>106341900</v>
+        <v>114276900</v>
       </c>
       <c r="H46" s="3">
-        <v>81724500</v>
+        <v>110734200</v>
       </c>
       <c r="I46" s="3">
-        <v>82783300</v>
+        <v>85100100</v>
       </c>
       <c r="J46" s="3">
+        <v>86202500</v>
+      </c>
+      <c r="K46" s="3">
         <v>77888300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>78220700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>80893000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>71502200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>66054600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>68623200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>68562600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>68160900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>65443400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>67629100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>65096000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>64945700</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>33369800</v>
+        <v>34326700</v>
       </c>
       <c r="E47" s="3">
-        <v>36036700</v>
+        <v>34748100</v>
       </c>
       <c r="F47" s="3">
-        <v>26739600</v>
+        <v>37525100</v>
       </c>
       <c r="G47" s="3">
-        <v>26407800</v>
+        <v>27844000</v>
       </c>
       <c r="H47" s="3">
-        <v>25820800</v>
+        <v>27498600</v>
       </c>
       <c r="I47" s="3">
-        <v>25983100</v>
+        <v>26887300</v>
       </c>
       <c r="J47" s="3">
+        <v>27056400</v>
+      </c>
+      <c r="K47" s="3">
         <v>25019700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>25335500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>24967100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>22543000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>22100500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>21630800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>23888300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>24426800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>25769900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>27684300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>27944900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>27727700</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11512300</v>
+        <v>12358900</v>
       </c>
       <c r="E48" s="3">
-        <v>12058100</v>
+        <v>11987800</v>
       </c>
       <c r="F48" s="3">
-        <v>12126300</v>
+        <v>12556100</v>
       </c>
       <c r="G48" s="3">
-        <v>12132200</v>
+        <v>12627200</v>
       </c>
       <c r="H48" s="3">
-        <v>17618900</v>
+        <v>12633300</v>
       </c>
       <c r="I48" s="3">
-        <v>14332100</v>
+        <v>18346700</v>
       </c>
       <c r="J48" s="3">
+        <v>14924100</v>
+      </c>
+      <c r="K48" s="3">
         <v>13879200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14074500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13777800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12605600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12157100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12203900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12181400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12316100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12254400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12244000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12059700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>11922400</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>28771200</v>
+        <v>30954300</v>
       </c>
       <c r="E49" s="3">
-        <v>29747600</v>
+        <v>29959600</v>
       </c>
       <c r="F49" s="3">
-        <v>30733500</v>
+        <v>30976300</v>
       </c>
       <c r="G49" s="3">
-        <v>31345200</v>
+        <v>32002900</v>
       </c>
       <c r="H49" s="3">
-        <v>48023000</v>
+        <v>32639900</v>
       </c>
       <c r="I49" s="3">
-        <v>47008900</v>
+        <v>50006500</v>
       </c>
       <c r="J49" s="3">
+        <v>48950600</v>
+      </c>
+      <c r="K49" s="3">
         <v>46096100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>47582400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>46788200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>42614900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>42278500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>42292300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>43301000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>43569100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>44476800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>42453200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>38471600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>37445700</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2978,8 +3091,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3037,67 +3153,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5535000</v>
+        <v>5494100</v>
       </c>
       <c r="E52" s="3">
-        <v>5598500</v>
+        <v>5763600</v>
       </c>
       <c r="F52" s="3">
-        <v>5452600</v>
+        <v>5829700</v>
       </c>
       <c r="G52" s="3">
-        <v>5143200</v>
+        <v>5677800</v>
       </c>
       <c r="H52" s="3">
-        <v>6030200</v>
+        <v>5355700</v>
       </c>
       <c r="I52" s="3">
-        <v>6644300</v>
+        <v>6279300</v>
       </c>
       <c r="J52" s="3">
+        <v>6918700</v>
+      </c>
+      <c r="K52" s="3">
         <v>5967900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5757300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5357800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4596500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4630300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4895200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4720200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4242200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3778900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4188200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4597800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5526300</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3155,67 +3277,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>142853800</v>
+        <v>161279700</v>
       </c>
       <c r="E54" s="3">
-        <v>145752400</v>
+        <v>148754200</v>
       </c>
       <c r="F54" s="3">
-        <v>184796000</v>
+        <v>151772600</v>
       </c>
       <c r="G54" s="3">
-        <v>181370300</v>
+        <v>192428800</v>
       </c>
       <c r="H54" s="3">
-        <v>179217500</v>
+        <v>188861600</v>
       </c>
       <c r="I54" s="3">
-        <v>176751700</v>
+        <v>186619900</v>
       </c>
       <c r="J54" s="3">
+        <v>184052300</v>
+      </c>
+      <c r="K54" s="3">
         <v>168851000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>170970500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>171783900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>153862300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>147220900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>149645400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>152653500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>152715200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>151723300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>154198700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>148170000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>147567900</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3237,8 +3365,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3260,362 +3389,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8264200</v>
+        <v>8910600</v>
       </c>
       <c r="E57" s="3">
-        <v>9261800</v>
+        <v>8605600</v>
       </c>
       <c r="F57" s="3">
-        <v>7212500</v>
+        <v>9644300</v>
       </c>
       <c r="G57" s="3">
-        <v>7294900</v>
+        <v>7510400</v>
       </c>
       <c r="H57" s="3">
-        <v>12316900</v>
+        <v>7596200</v>
       </c>
       <c r="I57" s="3">
-        <v>13421500</v>
+        <v>12825600</v>
       </c>
       <c r="J57" s="3">
+        <v>13975900</v>
+      </c>
+      <c r="K57" s="3">
         <v>12247500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12271800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11978700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11869000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10496900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10028300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9988000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10946100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>10770000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9352900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8818800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>9446800</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8867700</v>
+        <v>10446700</v>
       </c>
       <c r="E58" s="3">
-        <v>7719500</v>
+        <v>9234000</v>
       </c>
       <c r="F58" s="3">
-        <v>6422000</v>
+        <v>8038400</v>
       </c>
       <c r="G58" s="3">
-        <v>8126600</v>
+        <v>6687200</v>
       </c>
       <c r="H58" s="3">
-        <v>7941900</v>
+        <v>8462200</v>
       </c>
       <c r="I58" s="3">
-        <v>7098400</v>
+        <v>8269900</v>
       </c>
       <c r="J58" s="3">
+        <v>7391600</v>
+      </c>
+      <c r="K58" s="3">
         <v>11469900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10756200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9369800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5601100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3361000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6353800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6216900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6111500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7700200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6085000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5627200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7284700</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>23603300</v>
+        <v>23062900</v>
       </c>
       <c r="E59" s="3">
-        <v>23153900</v>
+        <v>24578200</v>
       </c>
       <c r="F59" s="3">
-        <v>53547400</v>
+        <v>24110300</v>
       </c>
       <c r="G59" s="3">
-        <v>51976900</v>
+        <v>55759100</v>
       </c>
       <c r="H59" s="3">
-        <v>38847100</v>
+        <v>54123700</v>
       </c>
       <c r="I59" s="3">
-        <v>39150600</v>
+        <v>40451600</v>
       </c>
       <c r="J59" s="3">
+        <v>40767700</v>
+      </c>
+      <c r="K59" s="3">
         <v>38105900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>37718600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>39414800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>35555100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>34141200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>34551700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>35443700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>34640300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>32000300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>33477100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>33731800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>33643700</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>40735200</v>
+        <v>42420200</v>
       </c>
       <c r="E60" s="3">
-        <v>40135200</v>
+        <v>42417700</v>
       </c>
       <c r="F60" s="3">
-        <v>67181900</v>
+        <v>41793000</v>
       </c>
       <c r="G60" s="3">
-        <v>67398300</v>
+        <v>69956700</v>
       </c>
       <c r="H60" s="3">
-        <v>59105900</v>
+        <v>70182100</v>
       </c>
       <c r="I60" s="3">
-        <v>59670500</v>
+        <v>61547200</v>
       </c>
       <c r="J60" s="3">
+        <v>62135200</v>
+      </c>
+      <c r="K60" s="3">
         <v>61823300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>60746600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>60763400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>53025200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>47999100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>50933900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>51648600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>51697900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>50470500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>48915000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>48177900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>50375200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>42282200</v>
+        <v>53372800</v>
       </c>
       <c r="E61" s="3">
-        <v>44709100</v>
+        <v>44028600</v>
       </c>
       <c r="F61" s="3">
-        <v>47784200</v>
+        <v>46555700</v>
       </c>
       <c r="G61" s="3">
-        <v>43323300</v>
+        <v>49757900</v>
       </c>
       <c r="H61" s="3">
-        <v>39208200</v>
+        <v>45112700</v>
       </c>
       <c r="I61" s="3">
-        <v>35779000</v>
+        <v>40827700</v>
       </c>
       <c r="J61" s="3">
+        <v>37256800</v>
+      </c>
+      <c r="K61" s="3">
         <v>30732300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>32870400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>33201700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>30038100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>28666600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>28340300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>29600300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>30043500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>32026100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>38674700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>31563800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>30405200</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12300400</v>
+        <v>10858300</v>
       </c>
       <c r="E62" s="3">
-        <v>14060300</v>
+        <v>12808500</v>
       </c>
       <c r="F62" s="3">
-        <v>15299100</v>
+        <v>14641100</v>
       </c>
       <c r="G62" s="3">
-        <v>15106200</v>
+        <v>15931000</v>
       </c>
       <c r="H62" s="3">
-        <v>19734100</v>
+        <v>15730100</v>
       </c>
       <c r="I62" s="3">
-        <v>21324600</v>
+        <v>20549200</v>
       </c>
       <c r="J62" s="3">
+        <v>22205400</v>
+      </c>
+      <c r="K62" s="3">
         <v>20458800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>20995700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>20836600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>17583200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>17860100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>18649700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>20484200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>20910500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>20396700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>21366900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>22391600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>25920100</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3673,8 +3821,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3732,8 +3883,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3791,67 +3945,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>99251700</v>
+        <v>112125800</v>
       </c>
       <c r="E66" s="3">
-        <v>102943200</v>
+        <v>103351200</v>
       </c>
       <c r="F66" s="3">
-        <v>133219100</v>
+        <v>107195200</v>
       </c>
       <c r="G66" s="3">
-        <v>128871100</v>
+        <v>138721500</v>
       </c>
       <c r="H66" s="3">
-        <v>121291500</v>
+        <v>134194000</v>
       </c>
       <c r="I66" s="3">
-        <v>120136300</v>
+        <v>126301400</v>
       </c>
       <c r="J66" s="3">
+        <v>125098400</v>
+      </c>
+      <c r="K66" s="3">
         <v>116177700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>117771900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>117952500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>103496400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>97249900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>100645900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>103254500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>104266500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>104659200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>109687800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>102846900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>107410700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3873,8 +4033,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3932,8 +4093,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3991,8 +4155,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4050,8 +4217,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4109,67 +4279,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>40765800</v>
+        <v>44456100</v>
       </c>
       <c r="E72" s="3">
-        <v>38913000</v>
+        <v>42449600</v>
       </c>
       <c r="F72" s="3">
-        <v>46738400</v>
+        <v>40520200</v>
       </c>
       <c r="G72" s="3">
-        <v>46420700</v>
+        <v>48668900</v>
       </c>
       <c r="H72" s="3">
-        <v>50589900</v>
+        <v>48338100</v>
       </c>
       <c r="I72" s="3">
-        <v>49194700</v>
+        <v>52679500</v>
       </c>
       <c r="J72" s="3">
+        <v>51226600</v>
+      </c>
+      <c r="K72" s="3">
         <v>47708900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>47185300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>48717600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>45427100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>44466800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>44000000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>42359600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>40160500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>38469700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>35296500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>36673300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>32225800</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4227,8 +4403,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4286,8 +4465,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4345,67 +4527,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>43602100</v>
+        <v>49153900</v>
       </c>
       <c r="E76" s="3">
-        <v>42809200</v>
+        <v>45403000</v>
       </c>
       <c r="F76" s="3">
-        <v>51576900</v>
+        <v>44577400</v>
       </c>
       <c r="G76" s="3">
-        <v>52499200</v>
+        <v>53707200</v>
       </c>
       <c r="H76" s="3">
-        <v>57925900</v>
+        <v>54667600</v>
       </c>
       <c r="I76" s="3">
-        <v>56615400</v>
+        <v>60318500</v>
       </c>
       <c r="J76" s="3">
+        <v>58953900</v>
+      </c>
+      <c r="K76" s="3">
         <v>52673300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>53198600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>53831400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>50365900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>49971100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>48999500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>49399000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>48448700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>47064100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>44510900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>45323200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>40157200</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4463,131 +4651,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1619900</v>
+        <v>2774600</v>
       </c>
       <c r="E81" s="3">
-        <v>2068100</v>
+        <v>1686800</v>
       </c>
       <c r="F81" s="3">
-        <v>634100</v>
+        <v>2153500</v>
       </c>
       <c r="G81" s="3">
-        <v>767000</v>
+        <v>660300</v>
       </c>
       <c r="H81" s="3">
-        <v>1272900</v>
+        <v>798700</v>
       </c>
       <c r="I81" s="3">
-        <v>1550500</v>
+        <v>1325400</v>
       </c>
       <c r="J81" s="3">
+        <v>1614500</v>
+      </c>
+      <c r="K81" s="3">
         <v>1214000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2161500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1214100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>619100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1214400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2191200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2456000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1385700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1522500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1665600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2285400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4609,67 +4806,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>835200</v>
+        <v>852600</v>
       </c>
       <c r="E83" s="3">
-        <v>1047000</v>
+        <v>869700</v>
       </c>
       <c r="F83" s="3">
-        <v>908200</v>
+        <v>1090200</v>
       </c>
       <c r="G83" s="3">
-        <v>500000</v>
+        <v>945700</v>
       </c>
       <c r="H83" s="3">
-        <v>1258700</v>
+        <v>520600</v>
       </c>
       <c r="I83" s="3">
-        <v>1135200</v>
+        <v>1310700</v>
       </c>
       <c r="J83" s="3">
+        <v>1182100</v>
+      </c>
+      <c r="K83" s="3">
         <v>1016400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1000000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>991600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1013500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>891600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>939100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>959300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1143300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>967200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>785300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>775900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>871000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4727,8 +4928,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4786,8 +4990,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4845,8 +5052,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4904,8 +5114,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4963,67 +5176,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1542300</v>
+        <v>1952600</v>
       </c>
       <c r="E89" s="3">
-        <v>-24700</v>
+        <v>1606000</v>
       </c>
       <c r="F89" s="3">
-        <v>3552700</v>
+        <v>-25700</v>
       </c>
       <c r="G89" s="3">
-        <v>788200</v>
+        <v>3699500</v>
       </c>
       <c r="H89" s="3">
-        <v>624700</v>
+        <v>820700</v>
       </c>
       <c r="I89" s="3">
-        <v>7167800</v>
+        <v>650500</v>
       </c>
       <c r="J89" s="3">
+        <v>7463900</v>
+      </c>
+      <c r="K89" s="3">
         <v>1281100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1299100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>224900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4696200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1625000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1495600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1540500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3636400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1781700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1423800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1331100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>5149500</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5045,67 +5264,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-387000</v>
+        <v>-444700</v>
       </c>
       <c r="E91" s="3">
-        <v>-611700</v>
+        <v>-403000</v>
       </c>
       <c r="F91" s="3">
-        <v>-402300</v>
+        <v>-637000</v>
       </c>
       <c r="G91" s="3">
-        <v>-241200</v>
+        <v>-418900</v>
       </c>
       <c r="H91" s="3">
-        <v>-572900</v>
+        <v>-251100</v>
       </c>
       <c r="I91" s="3">
-        <v>-976400</v>
+        <v>-596600</v>
       </c>
       <c r="J91" s="3">
+        <v>-1016700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-770500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-717700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-628000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1058900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-662100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-607000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-563200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-969400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-724800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1115100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-988300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-959000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5163,8 +5386,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5222,67 +5448,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-527000</v>
+        <v>1312000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1545800</v>
+        <v>-548800</v>
       </c>
       <c r="F94" s="3">
-        <v>-312900</v>
+        <v>-1609600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1655200</v>
+        <v>-325800</v>
       </c>
       <c r="H94" s="3">
-        <v>-2584600</v>
+        <v>-1723600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1896400</v>
+        <v>-2691300</v>
       </c>
       <c r="J94" s="3">
+        <v>-1974700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1202300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1320600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1522800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2462200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1002500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1308200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>592400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1884900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1668400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4665900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-369800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2619900</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5304,8 +5536,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5363,8 +5596,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5422,8 +5658,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5481,8 +5720,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5540,181 +5782,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-728200</v>
+        <v>8053100</v>
       </c>
       <c r="E100" s="3">
-        <v>1437600</v>
+        <v>-758300</v>
       </c>
       <c r="F100" s="3">
-        <v>2256300</v>
+        <v>1496900</v>
       </c>
       <c r="G100" s="3">
-        <v>-790500</v>
+        <v>2349500</v>
       </c>
       <c r="H100" s="3">
-        <v>828200</v>
+        <v>-823200</v>
       </c>
       <c r="I100" s="3">
-        <v>-251700</v>
+        <v>862400</v>
       </c>
       <c r="J100" s="3">
+        <v>-262100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-890500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4363700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2801500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2307100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3425800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-639500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-380400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1729000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1276800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3617700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2304200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2442700</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-254100</v>
+        <v>389500</v>
       </c>
       <c r="E101" s="3">
-        <v>-332900</v>
+        <v>-264600</v>
       </c>
       <c r="F101" s="3">
-        <v>-108200</v>
+        <v>-346700</v>
       </c>
       <c r="G101" s="3">
-        <v>-83500</v>
+        <v>-112700</v>
       </c>
       <c r="H101" s="3">
-        <v>-92900</v>
+        <v>-87000</v>
       </c>
       <c r="I101" s="3">
-        <v>121200</v>
+        <v>-96800</v>
       </c>
       <c r="J101" s="3">
+        <v>126200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-203500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>192600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>78900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-137300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>68100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-13500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>50500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-130200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-402800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>39900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>63400</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>32900</v>
+        <v>11707200</v>
       </c>
       <c r="E102" s="3">
-        <v>-465900</v>
+        <v>34300</v>
       </c>
       <c r="F102" s="3">
-        <v>5387900</v>
+        <v>-485100</v>
       </c>
       <c r="G102" s="3">
-        <v>-1741100</v>
+        <v>5610500</v>
       </c>
       <c r="H102" s="3">
-        <v>-1224600</v>
+        <v>-1813000</v>
       </c>
       <c r="I102" s="3">
-        <v>5140900</v>
+        <v>-1275200</v>
       </c>
       <c r="J102" s="3">
+        <v>5353200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1015200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4192700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1582600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4403800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2735100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-465600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1803000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-107700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1566300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>415500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1279500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4972300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SIEGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIEGY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,281 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17964500</v>
+        <v>18777800</v>
       </c>
       <c r="E8" s="3">
-        <v>17236800</v>
+        <v>17120100</v>
       </c>
       <c r="F8" s="3">
-        <v>18755800</v>
+        <v>16426600</v>
       </c>
       <c r="G8" s="3">
-        <v>16526300</v>
+        <v>17874200</v>
       </c>
       <c r="H8" s="3">
-        <v>16885300</v>
+        <v>15151800</v>
       </c>
       <c r="I8" s="3">
-        <v>16751700</v>
+        <v>16091600</v>
       </c>
       <c r="J8" s="3">
+        <v>15964300</v>
+      </c>
+      <c r="K8" s="3">
         <v>20059200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16749600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17039900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16298200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>25039500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>22479400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>22598000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>22241200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>24927300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>23896100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>23634700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>22552400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>25768700</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11546800</v>
+        <v>11922800</v>
       </c>
       <c r="E9" s="3">
-        <v>10719900</v>
+        <v>11004000</v>
       </c>
       <c r="F9" s="3">
-        <v>12368700</v>
+        <v>10216000</v>
       </c>
       <c r="G9" s="3">
-        <v>10594900</v>
+        <v>11787300</v>
       </c>
       <c r="H9" s="3">
-        <v>10744400</v>
+        <v>9600800</v>
       </c>
       <c r="I9" s="3">
-        <v>10642700</v>
+        <v>10239400</v>
       </c>
       <c r="J9" s="3">
+        <v>10142500</v>
+      </c>
+      <c r="K9" s="3">
         <v>12496100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10675800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10582800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10438000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>17823500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>15801300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>15522700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>15554100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>17849700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>17030700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>15969700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>15409800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>18465200</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6417700</v>
+        <v>6855000</v>
       </c>
       <c r="E10" s="3">
-        <v>6516900</v>
+        <v>6116100</v>
       </c>
       <c r="F10" s="3">
-        <v>6387100</v>
+        <v>6210600</v>
       </c>
       <c r="G10" s="3">
-        <v>5931400</v>
+        <v>6086900</v>
       </c>
       <c r="H10" s="3">
-        <v>6140900</v>
+        <v>5551000</v>
       </c>
       <c r="I10" s="3">
-        <v>6109000</v>
+        <v>5852200</v>
       </c>
       <c r="J10" s="3">
+        <v>5821900</v>
+      </c>
+      <c r="K10" s="3">
         <v>7563100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6073800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6457100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5860200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7216000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6678000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7075300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6687100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7077500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6865500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7665000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7142600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>7303400</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,70 +962,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1381800</v>
+        <v>1424200</v>
       </c>
       <c r="E12" s="3">
-        <v>1303400</v>
+        <v>1316800</v>
       </c>
       <c r="F12" s="3">
-        <v>1478600</v>
+        <v>1242100</v>
       </c>
       <c r="G12" s="3">
-        <v>1342600</v>
+        <v>1409100</v>
       </c>
       <c r="H12" s="3">
-        <v>1419800</v>
+        <v>1269000</v>
       </c>
       <c r="I12" s="3">
-        <v>1376900</v>
+        <v>1353000</v>
       </c>
       <c r="J12" s="3">
+        <v>1312200</v>
+      </c>
+      <c r="K12" s="3">
         <v>1572900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1359900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1367300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1299100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1735600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1506500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1565200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1373300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1656100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1511300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1425000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1322900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1551800</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1074,8 +1090,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1146,8 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
@@ -1136,8 +1155,11 @@
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1198,8 +1220,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1219,132 +1244,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16160100</v>
+        <v>16838700</v>
       </c>
       <c r="E17" s="3">
-        <v>15106600</v>
+        <v>15400500</v>
       </c>
       <c r="F17" s="3">
-        <v>17047000</v>
+        <v>14396500</v>
       </c>
       <c r="G17" s="3">
-        <v>15074700</v>
+        <v>16245700</v>
       </c>
       <c r="H17" s="3">
-        <v>15388300</v>
+        <v>13838500</v>
       </c>
       <c r="I17" s="3">
-        <v>15316000</v>
+        <v>14665000</v>
       </c>
       <c r="J17" s="3">
+        <v>14596100</v>
+      </c>
+      <c r="K17" s="3">
         <v>17557800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15177900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14926200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14927400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>23528700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>20824700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>20680500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>20439300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>23346400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>22102100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>20967800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>19862000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>23667500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1804400</v>
+        <v>1939100</v>
       </c>
       <c r="E18" s="3">
-        <v>2130300</v>
+        <v>1719600</v>
       </c>
       <c r="F18" s="3">
-        <v>1708900</v>
+        <v>2030100</v>
       </c>
       <c r="G18" s="3">
-        <v>1451600</v>
+        <v>1628500</v>
       </c>
       <c r="H18" s="3">
-        <v>1496900</v>
+        <v>1313300</v>
       </c>
       <c r="I18" s="3">
-        <v>1435700</v>
+        <v>1426600</v>
       </c>
       <c r="J18" s="3">
+        <v>1368200</v>
+      </c>
+      <c r="K18" s="3">
         <v>2501400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1571700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2113700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1370800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1510800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1654700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1917500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1801900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1580900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1794100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2666900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2690400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2101100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1367,318 +1399,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>826900</v>
+        <v>214800</v>
       </c>
       <c r="E20" s="3">
-        <v>479000</v>
+        <v>788000</v>
       </c>
       <c r="F20" s="3">
-        <v>245000</v>
+        <v>456500</v>
       </c>
       <c r="G20" s="3">
-        <v>541400</v>
+        <v>233500</v>
       </c>
       <c r="H20" s="3">
-        <v>464300</v>
+        <v>513700</v>
       </c>
       <c r="I20" s="3">
-        <v>520600</v>
+        <v>442400</v>
       </c>
       <c r="J20" s="3">
+        <v>496100</v>
+      </c>
+      <c r="K20" s="3">
         <v>407900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>564600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>553800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>350000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>435900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1373300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1141100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>478000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>518400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>154900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>759500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3483900</v>
+        <v>3156700</v>
       </c>
       <c r="E21" s="3">
-        <v>3479000</v>
+        <v>3320100</v>
       </c>
       <c r="F21" s="3">
-        <v>3044100</v>
+        <v>3315400</v>
       </c>
       <c r="G21" s="3">
-        <v>2938800</v>
+        <v>2901000</v>
       </c>
       <c r="H21" s="3">
-        <v>2481800</v>
+        <v>2728200</v>
       </c>
       <c r="I21" s="3">
-        <v>3267000</v>
+        <v>2365200</v>
       </c>
       <c r="J21" s="3">
+        <v>3113500</v>
+      </c>
+      <c r="K21" s="3">
         <v>4091500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2988100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3678300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2916300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2874200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2982200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4229900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3902300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3202200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3279600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3607100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4225700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3242100</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200900</v>
+        <v>159900</v>
       </c>
       <c r="E22" s="3">
-        <v>203300</v>
+        <v>191500</v>
       </c>
       <c r="F22" s="3">
-        <v>173900</v>
+        <v>193800</v>
       </c>
       <c r="G22" s="3">
-        <v>268300</v>
+        <v>165800</v>
       </c>
       <c r="H22" s="3">
-        <v>383400</v>
+        <v>254500</v>
       </c>
       <c r="I22" s="3">
-        <v>172700</v>
+        <v>365400</v>
       </c>
       <c r="J22" s="3">
+        <v>164600</v>
+      </c>
+      <c r="K22" s="3">
         <v>308700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>276500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>312200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>259600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>301300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>299800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>298400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>311900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>310800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>322000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>284100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>286400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>291100</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2430400</v>
+        <v>1993900</v>
       </c>
       <c r="E23" s="3">
-        <v>2405900</v>
+        <v>2316100</v>
       </c>
       <c r="F23" s="3">
-        <v>1779900</v>
+        <v>2292800</v>
       </c>
       <c r="G23" s="3">
-        <v>1724800</v>
+        <v>1696200</v>
       </c>
       <c r="H23" s="3">
-        <v>1577800</v>
+        <v>1572500</v>
       </c>
       <c r="I23" s="3">
-        <v>1783600</v>
+        <v>1503600</v>
       </c>
       <c r="J23" s="3">
+        <v>1699700</v>
+      </c>
+      <c r="K23" s="3">
         <v>2600700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1695200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2366100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1665100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1559500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1790800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2992300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2631100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1748100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1990400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2537800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3163400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2080000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>574500</v>
+        <v>387600</v>
       </c>
       <c r="E24" s="3">
-        <v>597800</v>
+        <v>547500</v>
       </c>
       <c r="F24" s="3">
-        <v>466700</v>
+        <v>569700</v>
       </c>
       <c r="G24" s="3">
-        <v>516900</v>
+        <v>444800</v>
       </c>
       <c r="H24" s="3">
-        <v>362600</v>
+        <v>477500</v>
       </c>
       <c r="I24" s="3">
-        <v>328300</v>
+        <v>345600</v>
       </c>
       <c r="J24" s="3">
+        <v>312900</v>
+      </c>
+      <c r="K24" s="3">
         <v>916300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>448200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>311000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>461700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>828500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>512800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>774200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>655200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>379200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>392700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>860400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>853400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>693700</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1739,132 +1787,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1855900</v>
+        <v>1606400</v>
       </c>
       <c r="E26" s="3">
-        <v>1808100</v>
+        <v>1768600</v>
       </c>
       <c r="F26" s="3">
-        <v>1313200</v>
+        <v>1723100</v>
       </c>
       <c r="G26" s="3">
-        <v>1207800</v>
+        <v>1251500</v>
       </c>
       <c r="H26" s="3">
-        <v>1215200</v>
+        <v>1095000</v>
       </c>
       <c r="I26" s="3">
-        <v>1455300</v>
+        <v>1158100</v>
       </c>
       <c r="J26" s="3">
+        <v>1386900</v>
+      </c>
+      <c r="K26" s="3">
         <v>1684400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1247000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2055100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1203400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>731000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1278100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2218200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1975800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1368800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1597700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1677400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2310100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1386300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1704000</v>
+        <v>1455800</v>
       </c>
       <c r="E27" s="3">
-        <v>1658600</v>
+        <v>1623900</v>
       </c>
       <c r="F27" s="3">
-        <v>1165000</v>
+        <v>1580700</v>
       </c>
       <c r="G27" s="3">
-        <v>1212700</v>
+        <v>1110200</v>
       </c>
       <c r="H27" s="3">
-        <v>1160100</v>
+        <v>1099700</v>
       </c>
       <c r="I27" s="3">
-        <v>1446700</v>
+        <v>1105500</v>
       </c>
       <c r="J27" s="3">
+        <v>1378700</v>
+      </c>
+      <c r="K27" s="3">
         <v>1499400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1122300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1916300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1079000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>594800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1163900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2144100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1952300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1350900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1539400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1636300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2271300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1359300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1925,70 +1982,76 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>1070600</v>
+        <v>122600</v>
       </c>
       <c r="E29" s="3">
-        <v>28200</v>
+        <v>1020300</v>
       </c>
       <c r="F29" s="3">
-        <v>988600</v>
+        <v>26900</v>
       </c>
       <c r="G29" s="3">
-        <v>-552500</v>
+        <v>942100</v>
       </c>
       <c r="H29" s="3">
-        <v>-361400</v>
+        <v>-470500</v>
       </c>
       <c r="I29" s="3">
-        <v>-121300</v>
+        <v>-344400</v>
       </c>
       <c r="J29" s="3">
+        <v>-115600</v>
+      </c>
+      <c r="K29" s="3">
         <v>115100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>91800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>245200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>135200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>24400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>50500</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>47100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>503800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>34800</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-16800</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>29300</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>14100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2049,8 +2112,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2111,132 +2177,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-826900</v>
+        <v>-214800</v>
       </c>
       <c r="E32" s="3">
-        <v>-479000</v>
+        <v>-788000</v>
       </c>
       <c r="F32" s="3">
-        <v>-245000</v>
+        <v>-456500</v>
       </c>
       <c r="G32" s="3">
-        <v>-541400</v>
+        <v>-233500</v>
       </c>
       <c r="H32" s="3">
-        <v>-464300</v>
+        <v>-513700</v>
       </c>
       <c r="I32" s="3">
-        <v>-520600</v>
+        <v>-442400</v>
       </c>
       <c r="J32" s="3">
+        <v>-496100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-407900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-564600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-553800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-350000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-435900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1373300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1141100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-478000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-518400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-154900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-759500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-270000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2774600</v>
+        <v>1578300</v>
       </c>
       <c r="E33" s="3">
-        <v>1686800</v>
+        <v>2644200</v>
       </c>
       <c r="F33" s="3">
-        <v>2153500</v>
+        <v>1607500</v>
       </c>
       <c r="G33" s="3">
-        <v>660300</v>
+        <v>2052300</v>
       </c>
       <c r="H33" s="3">
-        <v>798700</v>
+        <v>629200</v>
       </c>
       <c r="I33" s="3">
-        <v>1325400</v>
+        <v>761200</v>
       </c>
       <c r="J33" s="3">
+        <v>1263100</v>
+      </c>
+      <c r="K33" s="3">
         <v>1614500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1214000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2161500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1214100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>619100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1214400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2191200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2456000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1385700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1522500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1665600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2285400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2297,137 +2372,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2774600</v>
+        <v>1578300</v>
       </c>
       <c r="E35" s="3">
-        <v>1686800</v>
+        <v>2644200</v>
       </c>
       <c r="F35" s="3">
-        <v>2153500</v>
+        <v>1607500</v>
       </c>
       <c r="G35" s="3">
-        <v>660300</v>
+        <v>2052300</v>
       </c>
       <c r="H35" s="3">
-        <v>798700</v>
+        <v>629200</v>
       </c>
       <c r="I35" s="3">
-        <v>1325400</v>
+        <v>761200</v>
       </c>
       <c r="J35" s="3">
+        <v>1263100</v>
+      </c>
+      <c r="K35" s="3">
         <v>1614500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1214000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2161500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1214100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>619100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1214400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2191200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2456000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1385700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1522500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1665600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2285400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2450,8 +2534,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2474,566 +2559,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>28957500</v>
+        <v>12465600</v>
       </c>
       <c r="E41" s="3">
-        <v>17169500</v>
+        <v>27596400</v>
       </c>
       <c r="F41" s="3">
-        <v>17200100</v>
+        <v>16362400</v>
       </c>
       <c r="G41" s="3">
-        <v>14802800</v>
+        <v>16391600</v>
       </c>
       <c r="H41" s="3">
-        <v>9594100</v>
+        <v>14107000</v>
       </c>
       <c r="I41" s="3">
-        <v>13903600</v>
+        <v>9143200</v>
       </c>
       <c r="J41" s="3">
+        <v>13250100</v>
+      </c>
+      <c r="K41" s="3">
         <v>15178900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9437100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10628200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14819700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12256700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7784800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10749800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11215400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9396700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9520100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>11598400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>11182900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>12447100</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>11201300</v>
+        <v>8747400</v>
       </c>
       <c r="E42" s="3">
-        <v>10302200</v>
+        <v>10674800</v>
       </c>
       <c r="F42" s="3">
-        <v>10267900</v>
+        <v>9817900</v>
       </c>
       <c r="G42" s="3">
-        <v>10375700</v>
+        <v>9785200</v>
       </c>
       <c r="H42" s="3">
-        <v>12046600</v>
+        <v>9888000</v>
       </c>
       <c r="I42" s="3">
-        <v>12187400</v>
+        <v>11480300</v>
       </c>
       <c r="J42" s="3">
+        <v>11614600</v>
+      </c>
+      <c r="K42" s="3">
         <v>13069400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>11464000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>11729900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>11299300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>11865700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>10144400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>10626400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>10132700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>9992400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>9755700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>10085400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>10037200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>9499600</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>26355700</v>
+        <v>27114300</v>
       </c>
       <c r="E43" s="3">
-        <v>25539800</v>
+        <v>25116800</v>
       </c>
       <c r="F43" s="3">
-        <v>25898700</v>
+        <v>24339300</v>
       </c>
       <c r="G43" s="3">
-        <v>25222500</v>
+        <v>24681400</v>
       </c>
       <c r="H43" s="3">
-        <v>26071500</v>
+        <v>24037000</v>
       </c>
       <c r="I43" s="3">
-        <v>36750900</v>
+        <v>24846000</v>
       </c>
       <c r="J43" s="3">
+        <v>35023500</v>
+      </c>
+      <c r="K43" s="3">
         <v>37124500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>35800200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>34793900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>34533100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>31430400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>29901800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>28899100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>29119000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>29882000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>20761300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>20843300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>20116800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>20045200</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9746000</v>
+        <v>10455300</v>
       </c>
       <c r="E44" s="3">
-        <v>9485100</v>
+        <v>9287900</v>
       </c>
       <c r="F44" s="3">
-        <v>9548800</v>
+        <v>9039300</v>
       </c>
       <c r="G44" s="3">
-        <v>10646400</v>
+        <v>9100000</v>
       </c>
       <c r="H44" s="3">
-        <v>10381800</v>
+        <v>10146000</v>
       </c>
       <c r="I44" s="3">
-        <v>19533700</v>
+        <v>9893800</v>
       </c>
       <c r="J44" s="3">
+        <v>18615500</v>
+      </c>
+      <c r="K44" s="3">
         <v>18137200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>18655400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>18701400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>17891600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>15379000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>16156000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>16172400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>16158900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>15578800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>23339600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>23185100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>22082900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>21316400</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1885300</v>
+        <v>1936700</v>
       </c>
       <c r="E45" s="3">
-        <v>3798700</v>
+        <v>1796600</v>
       </c>
       <c r="F45" s="3">
-        <v>1969800</v>
+        <v>3620100</v>
       </c>
       <c r="G45" s="3">
-        <v>53229500</v>
+        <v>1877200</v>
       </c>
       <c r="H45" s="3">
-        <v>52640300</v>
+        <v>50727500</v>
       </c>
       <c r="I45" s="3">
-        <v>2724400</v>
+        <v>50165900</v>
       </c>
       <c r="J45" s="3">
+        <v>2596300</v>
+      </c>
+      <c r="K45" s="3">
         <v>2692500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2531600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2367300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2349300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1993700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2067500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2175500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1936600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4957000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2066700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1916800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1676200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1637500</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>78145800</v>
+        <v>60719300</v>
       </c>
       <c r="E46" s="3">
-        <v>66295200</v>
+        <v>74472600</v>
       </c>
       <c r="F46" s="3">
-        <v>64885300</v>
+        <v>63179100</v>
       </c>
       <c r="G46" s="3">
-        <v>114276900</v>
+        <v>61835400</v>
       </c>
       <c r="H46" s="3">
-        <v>110734200</v>
+        <v>108905300</v>
       </c>
       <c r="I46" s="3">
-        <v>85100100</v>
+        <v>105529200</v>
       </c>
       <c r="J46" s="3">
+        <v>81100000</v>
+      </c>
+      <c r="K46" s="3">
         <v>86202500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>77888300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>78220700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>80893000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>71502200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>66054600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>68623200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>68562600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>68160900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>65443400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>67629100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>65096000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>64945700</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>34326700</v>
+        <v>35029300</v>
       </c>
       <c r="E47" s="3">
-        <v>34748100</v>
+        <v>32713200</v>
       </c>
       <c r="F47" s="3">
-        <v>37525100</v>
+        <v>33114800</v>
       </c>
       <c r="G47" s="3">
-        <v>27844000</v>
+        <v>35761300</v>
       </c>
       <c r="H47" s="3">
-        <v>27498600</v>
+        <v>26535200</v>
       </c>
       <c r="I47" s="3">
-        <v>26887300</v>
+        <v>26206000</v>
       </c>
       <c r="J47" s="3">
+        <v>25623500</v>
+      </c>
+      <c r="K47" s="3">
         <v>27056400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>25019700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>25335500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>24967100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>22543000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>22100500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>21630800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>23888300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>24426800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>25769900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>27684300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>27944900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>27727700</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12358900</v>
+        <v>12399100</v>
       </c>
       <c r="E48" s="3">
-        <v>11987800</v>
+        <v>11778000</v>
       </c>
       <c r="F48" s="3">
-        <v>12556100</v>
+        <v>11424300</v>
       </c>
       <c r="G48" s="3">
-        <v>12627200</v>
+        <v>11966000</v>
       </c>
       <c r="H48" s="3">
-        <v>12633300</v>
+        <v>12033700</v>
       </c>
       <c r="I48" s="3">
-        <v>18346700</v>
+        <v>12039500</v>
       </c>
       <c r="J48" s="3">
+        <v>17484300</v>
+      </c>
+      <c r="K48" s="3">
         <v>14924100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13879200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14074500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13777800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12605600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12157100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12203900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12181400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12316100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12254400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12244000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12059700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>11922400</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>30954300</v>
+        <v>46106900</v>
       </c>
       <c r="E49" s="3">
-        <v>29959600</v>
+        <v>29499300</v>
       </c>
       <c r="F49" s="3">
-        <v>30976300</v>
+        <v>28551300</v>
       </c>
       <c r="G49" s="3">
-        <v>32002900</v>
+        <v>29520300</v>
       </c>
       <c r="H49" s="3">
-        <v>32639900</v>
+        <v>30498600</v>
       </c>
       <c r="I49" s="3">
-        <v>50006500</v>
+        <v>31105600</v>
       </c>
       <c r="J49" s="3">
+        <v>47656000</v>
+      </c>
+      <c r="K49" s="3">
         <v>48950600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>46096100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>47582400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>46788200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>42614900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>42278500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>42292300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>43301000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>43569100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>44476800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>42453200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>38471600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>37445700</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3094,8 +3207,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3156,70 +3272,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5494100</v>
+        <v>5483300</v>
       </c>
       <c r="E52" s="3">
-        <v>5763600</v>
+        <v>5235800</v>
       </c>
       <c r="F52" s="3">
-        <v>5829700</v>
+        <v>5492700</v>
       </c>
       <c r="G52" s="3">
-        <v>5677800</v>
+        <v>5555700</v>
       </c>
       <c r="H52" s="3">
-        <v>5355700</v>
+        <v>5410900</v>
       </c>
       <c r="I52" s="3">
-        <v>6279300</v>
+        <v>5103900</v>
       </c>
       <c r="J52" s="3">
+        <v>5984100</v>
+      </c>
+      <c r="K52" s="3">
         <v>6918700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5967900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5757300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5357800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4596500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4630300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4895200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4720200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4242200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3778900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4188200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4597800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5526300</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3280,70 +3402,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>161279700</v>
+        <v>159737900</v>
       </c>
       <c r="E54" s="3">
-        <v>148754200</v>
+        <v>153698900</v>
       </c>
       <c r="F54" s="3">
-        <v>151772600</v>
+        <v>141762100</v>
       </c>
       <c r="G54" s="3">
-        <v>192428800</v>
+        <v>144638600</v>
       </c>
       <c r="H54" s="3">
-        <v>188861600</v>
+        <v>183383800</v>
       </c>
       <c r="I54" s="3">
-        <v>186619900</v>
+        <v>179984300</v>
       </c>
       <c r="J54" s="3">
+        <v>177847900</v>
+      </c>
+      <c r="K54" s="3">
         <v>184052300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>168851000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>170970500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>171783900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>153862300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>147220900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>149645400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>152653500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>152715200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>151723300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>154198700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>148170000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>147567900</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3366,8 +3494,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3390,380 +3519,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8910600</v>
+        <v>9379000</v>
       </c>
       <c r="E57" s="3">
-        <v>8605600</v>
+        <v>8491700</v>
       </c>
       <c r="F57" s="3">
-        <v>9644300</v>
+        <v>8201100</v>
       </c>
       <c r="G57" s="3">
-        <v>7510400</v>
+        <v>9191000</v>
       </c>
       <c r="H57" s="3">
-        <v>7596200</v>
+        <v>7157400</v>
       </c>
       <c r="I57" s="3">
-        <v>12825600</v>
+        <v>7239100</v>
       </c>
       <c r="J57" s="3">
+        <v>12222800</v>
+      </c>
+      <c r="K57" s="3">
         <v>13975900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12247500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12271800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11978700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11869000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10496900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10028300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9988000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>10946100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>10770000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9352900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>8818800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>9446800</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10446700</v>
+        <v>12582300</v>
       </c>
       <c r="E58" s="3">
-        <v>9234000</v>
+        <v>9955700</v>
       </c>
       <c r="F58" s="3">
-        <v>8038400</v>
+        <v>8799900</v>
       </c>
       <c r="G58" s="3">
-        <v>6687200</v>
+        <v>7660500</v>
       </c>
       <c r="H58" s="3">
-        <v>8462200</v>
+        <v>6372900</v>
       </c>
       <c r="I58" s="3">
-        <v>8269900</v>
+        <v>8064500</v>
       </c>
       <c r="J58" s="3">
+        <v>7881200</v>
+      </c>
+      <c r="K58" s="3">
         <v>7391600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11469900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10756200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9369800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5601100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3361000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6353800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6216900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6111500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7700200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6085000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5627200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7284700</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>23062900</v>
+        <v>24979100</v>
       </c>
       <c r="E59" s="3">
-        <v>24578200</v>
+        <v>21978800</v>
       </c>
       <c r="F59" s="3">
-        <v>24110300</v>
+        <v>23422900</v>
       </c>
       <c r="G59" s="3">
-        <v>55759100</v>
+        <v>22977000</v>
       </c>
       <c r="H59" s="3">
-        <v>54123700</v>
+        <v>53138200</v>
       </c>
       <c r="I59" s="3">
-        <v>40451600</v>
+        <v>51579700</v>
       </c>
       <c r="J59" s="3">
+        <v>38550200</v>
+      </c>
+      <c r="K59" s="3">
         <v>40767700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>38105900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>37718600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>39414800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>35555100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>34141200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>34551700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>35443700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>34640300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>32000300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>33477100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>33731800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>33643700</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>42420200</v>
+        <v>46940400</v>
       </c>
       <c r="E60" s="3">
-        <v>42417700</v>
+        <v>40426200</v>
       </c>
       <c r="F60" s="3">
-        <v>41793000</v>
+        <v>40423900</v>
       </c>
       <c r="G60" s="3">
-        <v>69956700</v>
+        <v>39828500</v>
       </c>
       <c r="H60" s="3">
-        <v>70182100</v>
+        <v>66668500</v>
       </c>
       <c r="I60" s="3">
-        <v>61547200</v>
+        <v>66883300</v>
       </c>
       <c r="J60" s="3">
+        <v>58654200</v>
+      </c>
+      <c r="K60" s="3">
         <v>62135200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>61823300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>60746600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>60763400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>53025200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>47999100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>50933900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>51648600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>51697900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>50470500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>48915000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>48177900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>50375200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>53372800</v>
+        <v>47085100</v>
       </c>
       <c r="E61" s="3">
-        <v>44028600</v>
+        <v>50864100</v>
       </c>
       <c r="F61" s="3">
-        <v>46555700</v>
+        <v>41959100</v>
       </c>
       <c r="G61" s="3">
-        <v>49757900</v>
+        <v>44367400</v>
       </c>
       <c r="H61" s="3">
-        <v>45112700</v>
+        <v>47419000</v>
       </c>
       <c r="I61" s="3">
-        <v>40827700</v>
+        <v>42992200</v>
       </c>
       <c r="J61" s="3">
+        <v>38908600</v>
+      </c>
+      <c r="K61" s="3">
         <v>37256800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>30732300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>32870400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>33201700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>30038100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>28666600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>28340300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>29600300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>30043500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>32026100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>38674700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>31563800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>30405200</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10858300</v>
+        <v>11222300</v>
       </c>
       <c r="E62" s="3">
-        <v>12808500</v>
+        <v>10347900</v>
       </c>
       <c r="F62" s="3">
-        <v>14641100</v>
+        <v>12206400</v>
       </c>
       <c r="G62" s="3">
-        <v>15931000</v>
+        <v>13952900</v>
       </c>
       <c r="H62" s="3">
-        <v>15730100</v>
+        <v>15182200</v>
       </c>
       <c r="I62" s="3">
-        <v>20549200</v>
+        <v>14990700</v>
       </c>
       <c r="J62" s="3">
+        <v>19583300</v>
+      </c>
+      <c r="K62" s="3">
         <v>22205400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>20458800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>20995700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>20836600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>17583200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>17860100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>18649700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>20484200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>20910500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>20396700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>21366900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>22391600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>25920100</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3824,8 +3972,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3886,8 +4037,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3948,70 +4102,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>112125800</v>
+        <v>110619100</v>
       </c>
       <c r="E66" s="3">
-        <v>103351200</v>
+        <v>106855400</v>
       </c>
       <c r="F66" s="3">
-        <v>107195200</v>
+        <v>98493200</v>
       </c>
       <c r="G66" s="3">
-        <v>138721500</v>
+        <v>102156500</v>
       </c>
       <c r="H66" s="3">
-        <v>134194000</v>
+        <v>132201000</v>
       </c>
       <c r="I66" s="3">
-        <v>126301400</v>
+        <v>127886300</v>
       </c>
       <c r="J66" s="3">
+        <v>120364600</v>
+      </c>
+      <c r="K66" s="3">
         <v>125098400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>116177700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>117771900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>117952500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>103496400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>97249900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>100645900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>103254500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>104266500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>104659200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>109687800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>102846900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>107410700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4034,8 +4194,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4096,8 +4257,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4158,8 +4322,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4220,8 +4387,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4282,70 +4452,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>44456100</v>
+        <v>44756200</v>
       </c>
       <c r="E72" s="3">
-        <v>42449600</v>
+        <v>42366500</v>
       </c>
       <c r="F72" s="3">
-        <v>40520200</v>
+        <v>40454300</v>
       </c>
       <c r="G72" s="3">
-        <v>48668900</v>
+        <v>38615600</v>
       </c>
       <c r="H72" s="3">
-        <v>48338100</v>
+        <v>46381200</v>
       </c>
       <c r="I72" s="3">
-        <v>52679500</v>
+        <v>46066000</v>
       </c>
       <c r="J72" s="3">
+        <v>50203300</v>
+      </c>
+      <c r="K72" s="3">
         <v>51226600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>47708900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>47185300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>48717600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>45427100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>44466800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>44000000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>42359600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>40160500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>38469700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>35296500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>36673300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>32225800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4406,8 +4582,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4468,8 +4647,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4530,70 +4712,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>49153900</v>
+        <v>49118800</v>
       </c>
       <c r="E76" s="3">
-        <v>45403000</v>
+        <v>46843500</v>
       </c>
       <c r="F76" s="3">
-        <v>44577400</v>
+        <v>43268900</v>
       </c>
       <c r="G76" s="3">
-        <v>53707200</v>
+        <v>42482000</v>
       </c>
       <c r="H76" s="3">
-        <v>54667600</v>
+        <v>51182800</v>
       </c>
       <c r="I76" s="3">
-        <v>60318500</v>
+        <v>52098000</v>
       </c>
       <c r="J76" s="3">
+        <v>57483300</v>
+      </c>
+      <c r="K76" s="3">
         <v>58953900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>52673300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>53198600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>53831400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>50365900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>49971100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>48999500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>49399000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>48448700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>47064100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>44510900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>45323200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>40157200</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4654,137 +4842,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2774600</v>
+        <v>1578300</v>
       </c>
       <c r="E81" s="3">
-        <v>1686800</v>
+        <v>2644200</v>
       </c>
       <c r="F81" s="3">
-        <v>2153500</v>
+        <v>1607500</v>
       </c>
       <c r="G81" s="3">
-        <v>660300</v>
+        <v>2052300</v>
       </c>
       <c r="H81" s="3">
-        <v>798700</v>
+        <v>629200</v>
       </c>
       <c r="I81" s="3">
-        <v>1325400</v>
+        <v>761200</v>
       </c>
       <c r="J81" s="3">
+        <v>1263100</v>
+      </c>
+      <c r="K81" s="3">
         <v>1614500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1214000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2161500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1214100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>619100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1214400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2191200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2456000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1385700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1522500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1665600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2285400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4807,70 +5004,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>852600</v>
+        <v>1002800</v>
       </c>
       <c r="E83" s="3">
-        <v>869700</v>
+        <v>812500</v>
       </c>
       <c r="F83" s="3">
-        <v>1090200</v>
+        <v>828900</v>
       </c>
       <c r="G83" s="3">
-        <v>945700</v>
+        <v>1039000</v>
       </c>
       <c r="H83" s="3">
-        <v>520600</v>
+        <v>901200</v>
       </c>
       <c r="I83" s="3">
-        <v>1310700</v>
+        <v>496100</v>
       </c>
       <c r="J83" s="3">
+        <v>1249100</v>
+      </c>
+      <c r="K83" s="3">
         <v>1182100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1016400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1000000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>991600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1013500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>891600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>939100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>959300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1143300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>967200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>785300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>775900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>871000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4931,8 +5132,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4993,8 +5197,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5055,8 +5262,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5117,8 +5327,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5179,70 +5392,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1952600</v>
+        <v>3145000</v>
       </c>
       <c r="E89" s="3">
-        <v>1606000</v>
+        <v>1860900</v>
       </c>
       <c r="F89" s="3">
-        <v>-25700</v>
+        <v>1530500</v>
       </c>
       <c r="G89" s="3">
-        <v>3699500</v>
+        <v>-24500</v>
       </c>
       <c r="H89" s="3">
-        <v>820700</v>
+        <v>3525600</v>
       </c>
       <c r="I89" s="3">
-        <v>650500</v>
+        <v>782200</v>
       </c>
       <c r="J89" s="3">
+        <v>619900</v>
+      </c>
+      <c r="K89" s="3">
         <v>7463900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1281100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1299100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>224900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4696200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1625000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1495600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1540500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3636400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1781700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1423800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1331100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>5149500</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5265,70 +5484,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-444700</v>
+        <v>-488000</v>
       </c>
       <c r="E91" s="3">
-        <v>-403000</v>
+        <v>-423800</v>
       </c>
       <c r="F91" s="3">
-        <v>-637000</v>
+        <v>-384100</v>
       </c>
       <c r="G91" s="3">
-        <v>-418900</v>
+        <v>-607100</v>
       </c>
       <c r="H91" s="3">
-        <v>-251100</v>
+        <v>-399300</v>
       </c>
       <c r="I91" s="3">
-        <v>-596600</v>
+        <v>-239300</v>
       </c>
       <c r="J91" s="3">
+        <v>-568500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1016700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-770500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-717700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-628000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1058900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-662100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-607000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-563200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-969400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-724800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1115100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-988300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-959000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5389,8 +5612,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5451,70 +5677,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1312000</v>
+        <v>-16928600</v>
       </c>
       <c r="E94" s="3">
-        <v>-548800</v>
+        <v>1250300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1609600</v>
+        <v>-523000</v>
       </c>
       <c r="G94" s="3">
-        <v>-325800</v>
+        <v>-1534000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1723600</v>
+        <v>-310500</v>
       </c>
       <c r="I94" s="3">
-        <v>-2691300</v>
+        <v>-1642500</v>
       </c>
       <c r="J94" s="3">
+        <v>-2564800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1974700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1202300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1320600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1522800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2462200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1002500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1308200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>592400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1884900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1668400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4665900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-369800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2619900</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5537,8 +5769,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5599,8 +5832,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5661,8 +5897,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5723,8 +5962,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5785,190 +6027,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>8053100</v>
+        <v>-1286500</v>
       </c>
       <c r="E100" s="3">
-        <v>-758300</v>
+        <v>7674600</v>
       </c>
       <c r="F100" s="3">
-        <v>1496900</v>
+        <v>-722600</v>
       </c>
       <c r="G100" s="3">
-        <v>2349500</v>
+        <v>1426600</v>
       </c>
       <c r="H100" s="3">
-        <v>-823200</v>
+        <v>2239100</v>
       </c>
       <c r="I100" s="3">
-        <v>862400</v>
+        <v>-784500</v>
       </c>
       <c r="J100" s="3">
+        <v>821900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-262100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-890500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4363700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2801500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2307100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3425800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-639500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-380400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1729000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1276800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3617700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2304200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2442700</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>389500</v>
+        <v>-60700</v>
       </c>
       <c r="E101" s="3">
-        <v>-264600</v>
+        <v>371200</v>
       </c>
       <c r="F101" s="3">
-        <v>-346700</v>
+        <v>-252200</v>
       </c>
       <c r="G101" s="3">
-        <v>-112700</v>
+        <v>-330400</v>
       </c>
       <c r="H101" s="3">
-        <v>-87000</v>
+        <v>-107400</v>
       </c>
       <c r="I101" s="3">
-        <v>-96800</v>
+        <v>-82900</v>
       </c>
       <c r="J101" s="3">
+        <v>-92200</v>
+      </c>
+      <c r="K101" s="3">
         <v>126200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-203500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>192600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>78900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-137300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>68100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>50500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-130200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-402800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>39900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>63400</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>11707200</v>
+        <v>-15130800</v>
       </c>
       <c r="E102" s="3">
-        <v>34300</v>
+        <v>11156900</v>
       </c>
       <c r="F102" s="3">
-        <v>-485100</v>
+        <v>32700</v>
       </c>
       <c r="G102" s="3">
-        <v>5610500</v>
+        <v>-462300</v>
       </c>
       <c r="H102" s="3">
-        <v>-1813000</v>
+        <v>5346700</v>
       </c>
       <c r="I102" s="3">
-        <v>-1275200</v>
+        <v>-1727800</v>
       </c>
       <c r="J102" s="3">
+        <v>-1215300</v>
+      </c>
+      <c r="K102" s="3">
         <v>5353200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1015200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4192700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1582600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4403800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2735100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-465600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1803000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-107700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1566300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>415500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1279500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>4972300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SIEGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIEGY_QTR_FIN.xlsx
@@ -749,25 +749,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18777800</v>
+        <v>18161600</v>
       </c>
       <c r="E8" s="3">
-        <v>17120100</v>
+        <v>16558300</v>
       </c>
       <c r="F8" s="3">
-        <v>16426600</v>
+        <v>15887600</v>
       </c>
       <c r="G8" s="3">
-        <v>17874200</v>
+        <v>17287700</v>
       </c>
       <c r="H8" s="3">
-        <v>15151800</v>
+        <v>14654600</v>
       </c>
       <c r="I8" s="3">
-        <v>16091600</v>
+        <v>15563500</v>
       </c>
       <c r="J8" s="3">
-        <v>15964300</v>
+        <v>15440400</v>
       </c>
       <c r="K8" s="3">
         <v>20059200</v>
@@ -814,25 +814,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11922800</v>
+        <v>11531500</v>
       </c>
       <c r="E9" s="3">
-        <v>11004000</v>
+        <v>10642900</v>
       </c>
       <c r="F9" s="3">
-        <v>10216000</v>
+        <v>9880800</v>
       </c>
       <c r="G9" s="3">
-        <v>11787300</v>
+        <v>11400500</v>
       </c>
       <c r="H9" s="3">
-        <v>9600800</v>
+        <v>9285700</v>
       </c>
       <c r="I9" s="3">
-        <v>10239400</v>
+        <v>9903300</v>
       </c>
       <c r="J9" s="3">
-        <v>10142500</v>
+        <v>9809600</v>
       </c>
       <c r="K9" s="3">
         <v>12496100</v>
@@ -879,25 +879,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6855000</v>
+        <v>6630100</v>
       </c>
       <c r="E10" s="3">
-        <v>6116100</v>
+        <v>5915400</v>
       </c>
       <c r="F10" s="3">
-        <v>6210600</v>
+        <v>6006800</v>
       </c>
       <c r="G10" s="3">
-        <v>6086900</v>
+        <v>5887100</v>
       </c>
       <c r="H10" s="3">
-        <v>5551000</v>
+        <v>5368900</v>
       </c>
       <c r="I10" s="3">
-        <v>5852200</v>
+        <v>5660200</v>
       </c>
       <c r="J10" s="3">
-        <v>5821900</v>
+        <v>5630800</v>
       </c>
       <c r="K10" s="3">
         <v>7563100</v>
@@ -969,25 +969,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1424200</v>
+        <v>1377500</v>
       </c>
       <c r="E12" s="3">
-        <v>1316800</v>
+        <v>1273600</v>
       </c>
       <c r="F12" s="3">
-        <v>1242100</v>
+        <v>1201400</v>
       </c>
       <c r="G12" s="3">
-        <v>1409100</v>
+        <v>1362800</v>
       </c>
       <c r="H12" s="3">
-        <v>1269000</v>
+        <v>1227300</v>
       </c>
       <c r="I12" s="3">
-        <v>1353000</v>
+        <v>1308600</v>
       </c>
       <c r="J12" s="3">
-        <v>1312200</v>
+        <v>1269100</v>
       </c>
       <c r="K12" s="3">
         <v>1572900</v>
@@ -1251,25 +1251,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16838700</v>
+        <v>16286100</v>
       </c>
       <c r="E17" s="3">
-        <v>15400500</v>
+        <v>14895100</v>
       </c>
       <c r="F17" s="3">
-        <v>14396500</v>
+        <v>13924100</v>
       </c>
       <c r="G17" s="3">
-        <v>16245700</v>
+        <v>15712600</v>
       </c>
       <c r="H17" s="3">
-        <v>13838500</v>
+        <v>13384400</v>
       </c>
       <c r="I17" s="3">
-        <v>14665000</v>
+        <v>14183800</v>
       </c>
       <c r="J17" s="3">
-        <v>14596100</v>
+        <v>14117100</v>
       </c>
       <c r="K17" s="3">
         <v>17557800</v>
@@ -1316,25 +1316,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1939100</v>
+        <v>1875400</v>
       </c>
       <c r="E18" s="3">
-        <v>1719600</v>
+        <v>1663200</v>
       </c>
       <c r="F18" s="3">
-        <v>2030100</v>
+        <v>1963500</v>
       </c>
       <c r="G18" s="3">
-        <v>1628500</v>
+        <v>1575100</v>
       </c>
       <c r="H18" s="3">
-        <v>1313300</v>
+        <v>1270200</v>
       </c>
       <c r="I18" s="3">
-        <v>1426600</v>
+        <v>1379800</v>
       </c>
       <c r="J18" s="3">
-        <v>1368200</v>
+        <v>1323300</v>
       </c>
       <c r="K18" s="3">
         <v>2501400</v>
@@ -1406,25 +1406,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>214800</v>
+        <v>207800</v>
       </c>
       <c r="E20" s="3">
-        <v>788000</v>
+        <v>762100</v>
       </c>
       <c r="F20" s="3">
-        <v>456500</v>
+        <v>441500</v>
       </c>
       <c r="G20" s="3">
-        <v>233500</v>
+        <v>225800</v>
       </c>
       <c r="H20" s="3">
-        <v>513700</v>
+        <v>496800</v>
       </c>
       <c r="I20" s="3">
-        <v>442400</v>
+        <v>427900</v>
       </c>
       <c r="J20" s="3">
-        <v>496100</v>
+        <v>479900</v>
       </c>
       <c r="K20" s="3">
         <v>407900</v>
@@ -1471,25 +1471,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3156700</v>
+        <v>3053100</v>
       </c>
       <c r="E21" s="3">
-        <v>3320100</v>
+        <v>3211200</v>
       </c>
       <c r="F21" s="3">
-        <v>3315400</v>
+        <v>3206600</v>
       </c>
       <c r="G21" s="3">
-        <v>2901000</v>
+        <v>2805800</v>
       </c>
       <c r="H21" s="3">
-        <v>2728200</v>
+        <v>2638700</v>
       </c>
       <c r="I21" s="3">
-        <v>2365200</v>
+        <v>2287600</v>
       </c>
       <c r="J21" s="3">
-        <v>3113500</v>
+        <v>3011300</v>
       </c>
       <c r="K21" s="3">
         <v>4091500</v>
@@ -1536,25 +1536,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>159900</v>
+        <v>154700</v>
       </c>
       <c r="E22" s="3">
-        <v>191500</v>
+        <v>185200</v>
       </c>
       <c r="F22" s="3">
-        <v>193800</v>
+        <v>187400</v>
       </c>
       <c r="G22" s="3">
-        <v>165800</v>
+        <v>160300</v>
       </c>
       <c r="H22" s="3">
-        <v>254500</v>
+        <v>246100</v>
       </c>
       <c r="I22" s="3">
-        <v>365400</v>
+        <v>353400</v>
       </c>
       <c r="J22" s="3">
-        <v>164600</v>
+        <v>159200</v>
       </c>
       <c r="K22" s="3">
         <v>308700</v>
@@ -1601,25 +1601,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1993900</v>
+        <v>1928500</v>
       </c>
       <c r="E23" s="3">
-        <v>2316100</v>
+        <v>2240100</v>
       </c>
       <c r="F23" s="3">
-        <v>2292800</v>
+        <v>2217600</v>
       </c>
       <c r="G23" s="3">
-        <v>1696200</v>
+        <v>1640600</v>
       </c>
       <c r="H23" s="3">
-        <v>1572500</v>
+        <v>1520900</v>
       </c>
       <c r="I23" s="3">
-        <v>1503600</v>
+        <v>1454300</v>
       </c>
       <c r="J23" s="3">
-        <v>1699700</v>
+        <v>1644000</v>
       </c>
       <c r="K23" s="3">
         <v>2600700</v>
@@ -1666,25 +1666,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>387600</v>
+        <v>374900</v>
       </c>
       <c r="E24" s="3">
-        <v>547500</v>
+        <v>529500</v>
       </c>
       <c r="F24" s="3">
-        <v>569700</v>
+        <v>551000</v>
       </c>
       <c r="G24" s="3">
-        <v>444800</v>
+        <v>430200</v>
       </c>
       <c r="H24" s="3">
-        <v>477500</v>
+        <v>461800</v>
       </c>
       <c r="I24" s="3">
-        <v>345600</v>
+        <v>334200</v>
       </c>
       <c r="J24" s="3">
-        <v>312900</v>
+        <v>302600</v>
       </c>
       <c r="K24" s="3">
         <v>916300</v>
@@ -1796,25 +1796,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1606400</v>
+        <v>1553600</v>
       </c>
       <c r="E26" s="3">
-        <v>1768600</v>
+        <v>1710600</v>
       </c>
       <c r="F26" s="3">
-        <v>1723100</v>
+        <v>1666600</v>
       </c>
       <c r="G26" s="3">
-        <v>1251500</v>
+        <v>1210400</v>
       </c>
       <c r="H26" s="3">
-        <v>1095000</v>
+        <v>1059100</v>
       </c>
       <c r="I26" s="3">
-        <v>1158100</v>
+        <v>1120100</v>
       </c>
       <c r="J26" s="3">
-        <v>1386900</v>
+        <v>1341400</v>
       </c>
       <c r="K26" s="3">
         <v>1684400</v>
@@ -1861,25 +1861,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1455800</v>
+        <v>1408000</v>
       </c>
       <c r="E27" s="3">
-        <v>1623900</v>
+        <v>1570600</v>
       </c>
       <c r="F27" s="3">
-        <v>1580700</v>
+        <v>1528800</v>
       </c>
       <c r="G27" s="3">
-        <v>1110200</v>
+        <v>1073800</v>
       </c>
       <c r="H27" s="3">
-        <v>1099700</v>
+        <v>1063600</v>
       </c>
       <c r="I27" s="3">
-        <v>1105500</v>
+        <v>1069300</v>
       </c>
       <c r="J27" s="3">
-        <v>1378700</v>
+        <v>1333500</v>
       </c>
       <c r="K27" s="3">
         <v>1499400</v>
@@ -1991,25 +1991,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>122600</v>
+        <v>118600</v>
       </c>
       <c r="E29" s="3">
-        <v>1020300</v>
+        <v>986800</v>
       </c>
       <c r="F29" s="3">
-        <v>26900</v>
+        <v>26000</v>
       </c>
       <c r="G29" s="3">
-        <v>942100</v>
+        <v>911200</v>
       </c>
       <c r="H29" s="3">
-        <v>-470500</v>
+        <v>-455000</v>
       </c>
       <c r="I29" s="3">
-        <v>-344400</v>
+        <v>-333100</v>
       </c>
       <c r="J29" s="3">
-        <v>-115600</v>
+        <v>-111800</v>
       </c>
       <c r="K29" s="3">
         <v>115100</v>
@@ -2186,25 +2186,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-214800</v>
+        <v>-207800</v>
       </c>
       <c r="E32" s="3">
-        <v>-788000</v>
+        <v>-762100</v>
       </c>
       <c r="F32" s="3">
-        <v>-456500</v>
+        <v>-441500</v>
       </c>
       <c r="G32" s="3">
-        <v>-233500</v>
+        <v>-225800</v>
       </c>
       <c r="H32" s="3">
-        <v>-513700</v>
+        <v>-496800</v>
       </c>
       <c r="I32" s="3">
-        <v>-442400</v>
+        <v>-427900</v>
       </c>
       <c r="J32" s="3">
-        <v>-496100</v>
+        <v>-479900</v>
       </c>
       <c r="K32" s="3">
         <v>-407900</v>
@@ -2251,25 +2251,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1578300</v>
+        <v>1526500</v>
       </c>
       <c r="E33" s="3">
-        <v>2644200</v>
+        <v>2557400</v>
       </c>
       <c r="F33" s="3">
-        <v>1607500</v>
+        <v>1554800</v>
       </c>
       <c r="G33" s="3">
-        <v>2052300</v>
+        <v>1985000</v>
       </c>
       <c r="H33" s="3">
-        <v>629200</v>
+        <v>608600</v>
       </c>
       <c r="I33" s="3">
-        <v>761200</v>
+        <v>736200</v>
       </c>
       <c r="J33" s="3">
-        <v>1263100</v>
+        <v>1221700</v>
       </c>
       <c r="K33" s="3">
         <v>1614500</v>
@@ -2381,25 +2381,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1578300</v>
+        <v>1526500</v>
       </c>
       <c r="E35" s="3">
-        <v>2644200</v>
+        <v>2557400</v>
       </c>
       <c r="F35" s="3">
-        <v>1607500</v>
+        <v>1554800</v>
       </c>
       <c r="G35" s="3">
-        <v>2052300</v>
+        <v>1985000</v>
       </c>
       <c r="H35" s="3">
-        <v>629200</v>
+        <v>608600</v>
       </c>
       <c r="I35" s="3">
-        <v>761200</v>
+        <v>736200</v>
       </c>
       <c r="J35" s="3">
-        <v>1263100</v>
+        <v>1221700</v>
       </c>
       <c r="K35" s="3">
         <v>1614500</v>
@@ -2566,25 +2566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12465600</v>
+        <v>12056500</v>
       </c>
       <c r="E41" s="3">
-        <v>27596400</v>
+        <v>26690800</v>
       </c>
       <c r="F41" s="3">
-        <v>16362400</v>
+        <v>15825500</v>
       </c>
       <c r="G41" s="3">
-        <v>16391600</v>
+        <v>15853700</v>
       </c>
       <c r="H41" s="3">
-        <v>14107000</v>
+        <v>13644000</v>
       </c>
       <c r="I41" s="3">
-        <v>9143200</v>
+        <v>8843100</v>
       </c>
       <c r="J41" s="3">
-        <v>13250100</v>
+        <v>12815300</v>
       </c>
       <c r="K41" s="3">
         <v>15178900</v>
@@ -2631,25 +2631,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8747400</v>
+        <v>8460300</v>
       </c>
       <c r="E42" s="3">
-        <v>10674800</v>
+        <v>10324500</v>
       </c>
       <c r="F42" s="3">
-        <v>9817900</v>
+        <v>9495700</v>
       </c>
       <c r="G42" s="3">
-        <v>9785200</v>
+        <v>9464100</v>
       </c>
       <c r="H42" s="3">
-        <v>9888000</v>
+        <v>9563500</v>
       </c>
       <c r="I42" s="3">
-        <v>11480300</v>
+        <v>11103600</v>
       </c>
       <c r="J42" s="3">
-        <v>11614600</v>
+        <v>11233400</v>
       </c>
       <c r="K42" s="3">
         <v>13069400</v>
@@ -2696,25 +2696,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>27114300</v>
+        <v>26224500</v>
       </c>
       <c r="E43" s="3">
-        <v>25116800</v>
+        <v>24292600</v>
       </c>
       <c r="F43" s="3">
-        <v>24339300</v>
+        <v>23540600</v>
       </c>
       <c r="G43" s="3">
-        <v>24681400</v>
+        <v>23871400</v>
       </c>
       <c r="H43" s="3">
-        <v>24037000</v>
+        <v>23248200</v>
       </c>
       <c r="I43" s="3">
-        <v>24846000</v>
+        <v>24030600</v>
       </c>
       <c r="J43" s="3">
-        <v>35023500</v>
+        <v>33874100</v>
       </c>
       <c r="K43" s="3">
         <v>37124500</v>
@@ -2761,25 +2761,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10455300</v>
+        <v>10112200</v>
       </c>
       <c r="E44" s="3">
-        <v>9287900</v>
+        <v>8983100</v>
       </c>
       <c r="F44" s="3">
-        <v>9039300</v>
+        <v>8742600</v>
       </c>
       <c r="G44" s="3">
-        <v>9100000</v>
+        <v>8801300</v>
       </c>
       <c r="H44" s="3">
-        <v>10146000</v>
+        <v>9813000</v>
       </c>
       <c r="I44" s="3">
-        <v>9893800</v>
+        <v>9569100</v>
       </c>
       <c r="J44" s="3">
-        <v>18615500</v>
+        <v>18004600</v>
       </c>
       <c r="K44" s="3">
         <v>18137200</v>
@@ -2826,25 +2826,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1936700</v>
+        <v>1873200</v>
       </c>
       <c r="E45" s="3">
-        <v>1796600</v>
+        <v>1737700</v>
       </c>
       <c r="F45" s="3">
-        <v>3620100</v>
+        <v>3501300</v>
       </c>
       <c r="G45" s="3">
-        <v>1877200</v>
+        <v>1815600</v>
       </c>
       <c r="H45" s="3">
-        <v>50727500</v>
+        <v>49062800</v>
       </c>
       <c r="I45" s="3">
-        <v>50165900</v>
+        <v>48519700</v>
       </c>
       <c r="J45" s="3">
-        <v>2596300</v>
+        <v>2511100</v>
       </c>
       <c r="K45" s="3">
         <v>2692500</v>
@@ -2891,25 +2891,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>60719300</v>
+        <v>58726700</v>
       </c>
       <c r="E46" s="3">
-        <v>74472600</v>
+        <v>72028700</v>
       </c>
       <c r="F46" s="3">
-        <v>63179100</v>
+        <v>61105800</v>
       </c>
       <c r="G46" s="3">
-        <v>61835400</v>
+        <v>59806200</v>
       </c>
       <c r="H46" s="3">
-        <v>108905300</v>
+        <v>105331500</v>
       </c>
       <c r="I46" s="3">
-        <v>105529200</v>
+        <v>102066100</v>
       </c>
       <c r="J46" s="3">
-        <v>81100000</v>
+        <v>78438600</v>
       </c>
       <c r="K46" s="3">
         <v>86202500</v>
@@ -2956,25 +2956,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>35029300</v>
+        <v>33879800</v>
       </c>
       <c r="E47" s="3">
-        <v>32713200</v>
+        <v>31639600</v>
       </c>
       <c r="F47" s="3">
-        <v>33114800</v>
+        <v>32028100</v>
       </c>
       <c r="G47" s="3">
-        <v>35761300</v>
+        <v>34587700</v>
       </c>
       <c r="H47" s="3">
-        <v>26535200</v>
+        <v>25664400</v>
       </c>
       <c r="I47" s="3">
-        <v>26206000</v>
+        <v>25346000</v>
       </c>
       <c r="J47" s="3">
-        <v>25623500</v>
+        <v>24782600</v>
       </c>
       <c r="K47" s="3">
         <v>27056400</v>
@@ -3021,25 +3021,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12399100</v>
+        <v>11992200</v>
       </c>
       <c r="E48" s="3">
-        <v>11778000</v>
+        <v>11391500</v>
       </c>
       <c r="F48" s="3">
-        <v>11424300</v>
+        <v>11049400</v>
       </c>
       <c r="G48" s="3">
-        <v>11966000</v>
+        <v>11573300</v>
       </c>
       <c r="H48" s="3">
-        <v>12033700</v>
+        <v>11638800</v>
       </c>
       <c r="I48" s="3">
-        <v>12039500</v>
+        <v>11644400</v>
       </c>
       <c r="J48" s="3">
-        <v>17484300</v>
+        <v>16910500</v>
       </c>
       <c r="K48" s="3">
         <v>14924100</v>
@@ -3086,25 +3086,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>46106900</v>
+        <v>44593800</v>
       </c>
       <c r="E49" s="3">
-        <v>29499300</v>
+        <v>28531200</v>
       </c>
       <c r="F49" s="3">
-        <v>28551300</v>
+        <v>27614400</v>
       </c>
       <c r="G49" s="3">
-        <v>29520300</v>
+        <v>28551600</v>
       </c>
       <c r="H49" s="3">
-        <v>30498600</v>
+        <v>29497700</v>
       </c>
       <c r="I49" s="3">
-        <v>31105600</v>
+        <v>30084900</v>
       </c>
       <c r="J49" s="3">
-        <v>47656000</v>
+        <v>46092100</v>
       </c>
       <c r="K49" s="3">
         <v>48950600</v>
@@ -3281,25 +3281,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5483300</v>
+        <v>5303400</v>
       </c>
       <c r="E52" s="3">
-        <v>5235800</v>
+        <v>5064000</v>
       </c>
       <c r="F52" s="3">
-        <v>5492700</v>
+        <v>5312400</v>
       </c>
       <c r="G52" s="3">
-        <v>5555700</v>
+        <v>5373400</v>
       </c>
       <c r="H52" s="3">
-        <v>5410900</v>
+        <v>5233400</v>
       </c>
       <c r="I52" s="3">
-        <v>5103900</v>
+        <v>4936400</v>
       </c>
       <c r="J52" s="3">
-        <v>5984100</v>
+        <v>5787800</v>
       </c>
       <c r="K52" s="3">
         <v>6918700</v>
@@ -3411,25 +3411,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>159737900</v>
+        <v>154495900</v>
       </c>
       <c r="E54" s="3">
-        <v>153698900</v>
+        <v>148655000</v>
       </c>
       <c r="F54" s="3">
-        <v>141762100</v>
+        <v>137110000</v>
       </c>
       <c r="G54" s="3">
-        <v>144638600</v>
+        <v>139892100</v>
       </c>
       <c r="H54" s="3">
-        <v>183383800</v>
+        <v>177365800</v>
       </c>
       <c r="I54" s="3">
-        <v>179984300</v>
+        <v>174077900</v>
       </c>
       <c r="J54" s="3">
-        <v>177847900</v>
+        <v>172011600</v>
       </c>
       <c r="K54" s="3">
         <v>184052300</v>
@@ -3526,25 +3526,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9379000</v>
+        <v>9071200</v>
       </c>
       <c r="E57" s="3">
-        <v>8491700</v>
+        <v>8213100</v>
       </c>
       <c r="F57" s="3">
-        <v>8201100</v>
+        <v>7931900</v>
       </c>
       <c r="G57" s="3">
-        <v>9191000</v>
+        <v>8889400</v>
       </c>
       <c r="H57" s="3">
-        <v>7157400</v>
+        <v>6922500</v>
       </c>
       <c r="I57" s="3">
-        <v>7239100</v>
+        <v>7001500</v>
       </c>
       <c r="J57" s="3">
-        <v>12222800</v>
+        <v>11821700</v>
       </c>
       <c r="K57" s="3">
         <v>13975900</v>
@@ -3591,25 +3591,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12582300</v>
+        <v>12169400</v>
       </c>
       <c r="E58" s="3">
-        <v>9955700</v>
+        <v>9629000</v>
       </c>
       <c r="F58" s="3">
-        <v>8799900</v>
+        <v>8511200</v>
       </c>
       <c r="G58" s="3">
-        <v>7660500</v>
+        <v>7409200</v>
       </c>
       <c r="H58" s="3">
-        <v>6372900</v>
+        <v>6163800</v>
       </c>
       <c r="I58" s="3">
-        <v>8064500</v>
+        <v>7799800</v>
       </c>
       <c r="J58" s="3">
-        <v>7881200</v>
+        <v>7622600</v>
       </c>
       <c r="K58" s="3">
         <v>7391600</v>
@@ -3656,25 +3656,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24979100</v>
+        <v>24159400</v>
       </c>
       <c r="E59" s="3">
-        <v>21978800</v>
+        <v>21257600</v>
       </c>
       <c r="F59" s="3">
-        <v>23422900</v>
+        <v>22654300</v>
       </c>
       <c r="G59" s="3">
-        <v>22977000</v>
+        <v>22222900</v>
       </c>
       <c r="H59" s="3">
-        <v>53138200</v>
+        <v>51394400</v>
       </c>
       <c r="I59" s="3">
-        <v>51579700</v>
+        <v>49887000</v>
       </c>
       <c r="J59" s="3">
-        <v>38550200</v>
+        <v>37285100</v>
       </c>
       <c r="K59" s="3">
         <v>40767700</v>
@@ -3721,25 +3721,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>46940400</v>
+        <v>45400000</v>
       </c>
       <c r="E60" s="3">
-        <v>40426200</v>
+        <v>39099600</v>
       </c>
       <c r="F60" s="3">
-        <v>40423900</v>
+        <v>39097300</v>
       </c>
       <c r="G60" s="3">
-        <v>39828500</v>
+        <v>38521500</v>
       </c>
       <c r="H60" s="3">
-        <v>66668500</v>
+        <v>64480600</v>
       </c>
       <c r="I60" s="3">
-        <v>66883300</v>
+        <v>64688400</v>
       </c>
       <c r="J60" s="3">
-        <v>58654200</v>
+        <v>56729400</v>
       </c>
       <c r="K60" s="3">
         <v>62135200</v>
@@ -3786,25 +3786,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>47085100</v>
+        <v>45540000</v>
       </c>
       <c r="E61" s="3">
-        <v>50864100</v>
+        <v>49194900</v>
       </c>
       <c r="F61" s="3">
-        <v>41959100</v>
+        <v>40582100</v>
       </c>
       <c r="G61" s="3">
-        <v>44367400</v>
+        <v>42911400</v>
       </c>
       <c r="H61" s="3">
-        <v>47419000</v>
+        <v>45862900</v>
       </c>
       <c r="I61" s="3">
-        <v>42992200</v>
+        <v>41581400</v>
       </c>
       <c r="J61" s="3">
-        <v>38908600</v>
+        <v>37631800</v>
       </c>
       <c r="K61" s="3">
         <v>37256800</v>
@@ -3851,25 +3851,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11222300</v>
+        <v>10854000</v>
       </c>
       <c r="E62" s="3">
-        <v>10347900</v>
+        <v>10008300</v>
       </c>
       <c r="F62" s="3">
-        <v>12206400</v>
+        <v>11805900</v>
       </c>
       <c r="G62" s="3">
-        <v>13952900</v>
+        <v>13495000</v>
       </c>
       <c r="H62" s="3">
-        <v>15182200</v>
+        <v>14683900</v>
       </c>
       <c r="I62" s="3">
-        <v>14990700</v>
+        <v>14498800</v>
       </c>
       <c r="J62" s="3">
-        <v>19583300</v>
+        <v>18940700</v>
       </c>
       <c r="K62" s="3">
         <v>22205400</v>
@@ -4111,25 +4111,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>110619100</v>
+        <v>106989000</v>
       </c>
       <c r="E66" s="3">
-        <v>106855400</v>
+        <v>103348800</v>
       </c>
       <c r="F66" s="3">
-        <v>98493200</v>
+        <v>95261000</v>
       </c>
       <c r="G66" s="3">
-        <v>102156500</v>
+        <v>98804200</v>
       </c>
       <c r="H66" s="3">
-        <v>132201000</v>
+        <v>127862700</v>
       </c>
       <c r="I66" s="3">
-        <v>127886300</v>
+        <v>123689500</v>
       </c>
       <c r="J66" s="3">
-        <v>120364600</v>
+        <v>116414700</v>
       </c>
       <c r="K66" s="3">
         <v>125098400</v>
@@ -4461,25 +4461,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>44756200</v>
+        <v>43287400</v>
       </c>
       <c r="E72" s="3">
-        <v>42366500</v>
+        <v>40976200</v>
       </c>
       <c r="F72" s="3">
-        <v>40454300</v>
+        <v>39126700</v>
       </c>
       <c r="G72" s="3">
-        <v>38615600</v>
+        <v>37348400</v>
       </c>
       <c r="H72" s="3">
-        <v>46381200</v>
+        <v>44859100</v>
       </c>
       <c r="I72" s="3">
-        <v>46066000</v>
+        <v>44554300</v>
       </c>
       <c r="J72" s="3">
-        <v>50203300</v>
+        <v>48555800</v>
       </c>
       <c r="K72" s="3">
         <v>51226600</v>
@@ -4721,25 +4721,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>49118800</v>
+        <v>47506900</v>
       </c>
       <c r="E76" s="3">
-        <v>46843500</v>
+        <v>45306300</v>
       </c>
       <c r="F76" s="3">
-        <v>43268900</v>
+        <v>41849000</v>
       </c>
       <c r="G76" s="3">
-        <v>42482000</v>
+        <v>41087900</v>
       </c>
       <c r="H76" s="3">
-        <v>51182800</v>
+        <v>49503100</v>
       </c>
       <c r="I76" s="3">
-        <v>52098000</v>
+        <v>50388300</v>
       </c>
       <c r="J76" s="3">
-        <v>57483300</v>
+        <v>55596900</v>
       </c>
       <c r="K76" s="3">
         <v>58953900</v>
@@ -4921,25 +4921,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1578300</v>
+        <v>1526500</v>
       </c>
       <c r="E81" s="3">
-        <v>2644200</v>
+        <v>2557400</v>
       </c>
       <c r="F81" s="3">
-        <v>1607500</v>
+        <v>1554800</v>
       </c>
       <c r="G81" s="3">
-        <v>2052300</v>
+        <v>1985000</v>
       </c>
       <c r="H81" s="3">
-        <v>629200</v>
+        <v>608600</v>
       </c>
       <c r="I81" s="3">
-        <v>761200</v>
+        <v>736200</v>
       </c>
       <c r="J81" s="3">
-        <v>1263100</v>
+        <v>1221700</v>
       </c>
       <c r="K81" s="3">
         <v>1614500</v>
@@ -5011,25 +5011,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1002800</v>
+        <v>969900</v>
       </c>
       <c r="E83" s="3">
-        <v>812500</v>
+        <v>785900</v>
       </c>
       <c r="F83" s="3">
-        <v>828900</v>
+        <v>801700</v>
       </c>
       <c r="G83" s="3">
-        <v>1039000</v>
+        <v>1004900</v>
       </c>
       <c r="H83" s="3">
-        <v>901200</v>
+        <v>871700</v>
       </c>
       <c r="I83" s="3">
-        <v>496100</v>
+        <v>479900</v>
       </c>
       <c r="J83" s="3">
-        <v>1249100</v>
+        <v>1208100</v>
       </c>
       <c r="K83" s="3">
         <v>1182100</v>
@@ -5401,25 +5401,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3145000</v>
+        <v>3041800</v>
       </c>
       <c r="E89" s="3">
-        <v>1860900</v>
+        <v>1799800</v>
       </c>
       <c r="F89" s="3">
-        <v>1530500</v>
+        <v>1480300</v>
       </c>
       <c r="G89" s="3">
-        <v>-24500</v>
+        <v>-23700</v>
       </c>
       <c r="H89" s="3">
-        <v>3525600</v>
+        <v>3409900</v>
       </c>
       <c r="I89" s="3">
-        <v>782200</v>
+        <v>756500</v>
       </c>
       <c r="J89" s="3">
-        <v>619900</v>
+        <v>599600</v>
       </c>
       <c r="K89" s="3">
         <v>7463900</v>
@@ -5491,25 +5491,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-488000</v>
+        <v>-472000</v>
       </c>
       <c r="E91" s="3">
-        <v>-423800</v>
+        <v>-409900</v>
       </c>
       <c r="F91" s="3">
-        <v>-384100</v>
+        <v>-371500</v>
       </c>
       <c r="G91" s="3">
-        <v>-607100</v>
+        <v>-587100</v>
       </c>
       <c r="H91" s="3">
-        <v>-399300</v>
+        <v>-386200</v>
       </c>
       <c r="I91" s="3">
-        <v>-239300</v>
+        <v>-231500</v>
       </c>
       <c r="J91" s="3">
-        <v>-568500</v>
+        <v>-549900</v>
       </c>
       <c r="K91" s="3">
         <v>-1016700</v>
@@ -5686,25 +5686,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-16928600</v>
+        <v>-16373100</v>
       </c>
       <c r="E94" s="3">
-        <v>1250300</v>
+        <v>1209300</v>
       </c>
       <c r="F94" s="3">
-        <v>-523000</v>
+        <v>-505800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1534000</v>
+        <v>-1483600</v>
       </c>
       <c r="H94" s="3">
-        <v>-310500</v>
+        <v>-300300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1642500</v>
+        <v>-1588600</v>
       </c>
       <c r="J94" s="3">
-        <v>-2564800</v>
+        <v>-2480600</v>
       </c>
       <c r="K94" s="3">
         <v>-1974700</v>
@@ -6036,25 +6036,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1286500</v>
+        <v>-1244300</v>
       </c>
       <c r="E100" s="3">
-        <v>7674600</v>
+        <v>7422700</v>
       </c>
       <c r="F100" s="3">
-        <v>-722600</v>
+        <v>-698900</v>
       </c>
       <c r="G100" s="3">
-        <v>1426600</v>
+        <v>1379800</v>
       </c>
       <c r="H100" s="3">
-        <v>2239100</v>
+        <v>2165600</v>
       </c>
       <c r="I100" s="3">
-        <v>-784500</v>
+        <v>-758800</v>
       </c>
       <c r="J100" s="3">
-        <v>821900</v>
+        <v>794900</v>
       </c>
       <c r="K100" s="3">
         <v>-262100</v>
@@ -6101,25 +6101,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-60700</v>
+        <v>-58700</v>
       </c>
       <c r="E101" s="3">
-        <v>371200</v>
+        <v>359100</v>
       </c>
       <c r="F101" s="3">
-        <v>-252200</v>
+        <v>-243900</v>
       </c>
       <c r="G101" s="3">
-        <v>-330400</v>
+        <v>-319500</v>
       </c>
       <c r="H101" s="3">
-        <v>-107400</v>
+        <v>-103900</v>
       </c>
       <c r="I101" s="3">
-        <v>-82900</v>
+        <v>-80200</v>
       </c>
       <c r="J101" s="3">
-        <v>-92200</v>
+        <v>-89200</v>
       </c>
       <c r="K101" s="3">
         <v>126200</v>
@@ -6166,25 +6166,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-15130800</v>
+        <v>-14634300</v>
       </c>
       <c r="E102" s="3">
-        <v>11156900</v>
+        <v>10790800</v>
       </c>
       <c r="F102" s="3">
-        <v>32700</v>
+        <v>31600</v>
       </c>
       <c r="G102" s="3">
-        <v>-462300</v>
+        <v>-447100</v>
       </c>
       <c r="H102" s="3">
-        <v>5346700</v>
+        <v>5171300</v>
       </c>
       <c r="I102" s="3">
-        <v>-1727800</v>
+        <v>-1671100</v>
       </c>
       <c r="J102" s="3">
-        <v>-1215300</v>
+        <v>-1175400</v>
       </c>
       <c r="K102" s="3">
         <v>5353200</v>

--- a/AAII_Financials/Quarterly/SIEGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIEGY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,281 +665,305 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18161600</v>
+        <v>17996700</v>
       </c>
       <c r="E8" s="3">
-        <v>16558300</v>
+        <v>19030900</v>
       </c>
       <c r="F8" s="3">
-        <v>15887600</v>
+        <v>17547300</v>
       </c>
       <c r="G8" s="3">
-        <v>17287700</v>
+        <v>15998200</v>
       </c>
       <c r="H8" s="3">
-        <v>14654600</v>
+        <v>15350200</v>
       </c>
       <c r="I8" s="3">
+        <v>16162900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>14158900</v>
+      </c>
+      <c r="K8" s="3">
         <v>15563500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>15440400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>20059200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>16749600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>17039900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>16298200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>25039500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>22479400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>22598000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>22241200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>24927300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>23896100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>23634700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>22552400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>25768700</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11531500</v>
+        <v>11227600</v>
       </c>
       <c r="E9" s="3">
-        <v>10642900</v>
+        <v>12149500</v>
       </c>
       <c r="F9" s="3">
-        <v>9880800</v>
+        <v>11141500</v>
       </c>
       <c r="G9" s="3">
-        <v>11400500</v>
+        <v>10282900</v>
       </c>
       <c r="H9" s="3">
-        <v>9285700</v>
+        <v>9546600</v>
       </c>
       <c r="I9" s="3">
+        <v>10562200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>8971600</v>
+      </c>
+      <c r="K9" s="3">
         <v>9903300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>9809600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>12496100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>10675800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>10582800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>10438000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>17823500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>15801300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>15522700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>15554100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>17849700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>17030700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>15969700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>15409800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>18465200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6630100</v>
+        <v>6769100</v>
       </c>
       <c r="E10" s="3">
-        <v>5915400</v>
+        <v>6881500</v>
       </c>
       <c r="F10" s="3">
-        <v>6006800</v>
+        <v>6405800</v>
       </c>
       <c r="G10" s="3">
-        <v>5887100</v>
+        <v>5715300</v>
       </c>
       <c r="H10" s="3">
-        <v>5368900</v>
+        <v>5803600</v>
       </c>
       <c r="I10" s="3">
+        <v>5600700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>5187300</v>
+      </c>
+      <c r="K10" s="3">
         <v>5660200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>5630800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>7563100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>6073800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>6457100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>5860200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>7216000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>6678000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>7075300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>6687100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>7077500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>6865500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>7665000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>7142600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>7303400</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,73 +987,81 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1377500</v>
+        <v>1364700</v>
       </c>
       <c r="E12" s="3">
-        <v>1273600</v>
+        <v>1577500</v>
       </c>
       <c r="F12" s="3">
-        <v>1201400</v>
+        <v>1330900</v>
       </c>
       <c r="G12" s="3">
-        <v>1362800</v>
+        <v>1230500</v>
       </c>
       <c r="H12" s="3">
-        <v>1227300</v>
+        <v>1160700</v>
       </c>
       <c r="I12" s="3">
+        <v>1308000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1185800</v>
+      </c>
+      <c r="K12" s="3">
         <v>1308600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1269100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1572900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1359900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1367300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1299100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>1735600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1506500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>1565200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>1373300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>1656100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>1511300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>1425000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>1322900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>1551800</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,8 +1125,14 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1149,17 +1187,23 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>10</v>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1223,8 +1267,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1245,138 +1295,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16286100</v>
+        <v>15853100</v>
       </c>
       <c r="E17" s="3">
-        <v>14895100</v>
+        <v>17260400</v>
       </c>
       <c r="F17" s="3">
-        <v>13924100</v>
+        <v>15735300</v>
       </c>
       <c r="G17" s="3">
-        <v>15712600</v>
+        <v>14391300</v>
       </c>
       <c r="H17" s="3">
-        <v>13384400</v>
+        <v>13453100</v>
       </c>
       <c r="I17" s="3">
+        <v>14689100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>12931600</v>
+      </c>
+      <c r="K17" s="3">
         <v>14183800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>14117100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>17557800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>15177900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>14926200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>14927400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>23528700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>20824700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>20680500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>20439300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>23346400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>22102100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>20967800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>19862000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>23667500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1875400</v>
+        <v>2143600</v>
       </c>
       <c r="E18" s="3">
-        <v>1663200</v>
+        <v>1770500</v>
       </c>
       <c r="F18" s="3">
-        <v>1963500</v>
+        <v>1812000</v>
       </c>
       <c r="G18" s="3">
-        <v>1575100</v>
+        <v>1606900</v>
       </c>
       <c r="H18" s="3">
-        <v>1270200</v>
+        <v>1897100</v>
       </c>
       <c r="I18" s="3">
+        <v>1473800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1227300</v>
+      </c>
+      <c r="K18" s="3">
         <v>1379800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1323300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2501400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1571700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>2113700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1370800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1510800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1654700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1917500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1801900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1580900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>1794100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>2666900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>2690400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>2101100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1400,333 +1464,365 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>207800</v>
+        <v>705800</v>
       </c>
       <c r="E20" s="3">
-        <v>762100</v>
+        <v>429800</v>
       </c>
       <c r="F20" s="3">
-        <v>441500</v>
+        <v>200700</v>
       </c>
       <c r="G20" s="3">
-        <v>225800</v>
+        <v>736400</v>
       </c>
       <c r="H20" s="3">
-        <v>496800</v>
+        <v>426500</v>
       </c>
       <c r="I20" s="3">
+        <v>220400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>480000</v>
+      </c>
+      <c r="K20" s="3">
         <v>427900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>479900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>407900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>400000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>564600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>553800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>350000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>435900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>1373300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1141100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>478000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>518400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>154900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>759500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3053100</v>
+        <v>3744000</v>
       </c>
       <c r="E21" s="3">
-        <v>3211200</v>
+        <v>3084000</v>
       </c>
       <c r="F21" s="3">
-        <v>3206600</v>
+        <v>2949800</v>
       </c>
       <c r="G21" s="3">
-        <v>2805800</v>
+        <v>3102500</v>
       </c>
       <c r="H21" s="3">
-        <v>2638700</v>
+        <v>3098200</v>
       </c>
       <c r="I21" s="3">
+        <v>2665100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2549500</v>
+      </c>
+      <c r="K21" s="3">
         <v>2287600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>3011300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>4091500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2988100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>3678300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>2916300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2874200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>2982200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>4229900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>3902300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>3202200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>3279600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>3607100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>4225700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>3242100</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>154700</v>
+        <v>180000</v>
       </c>
       <c r="E22" s="3">
-        <v>185200</v>
+        <v>193100</v>
       </c>
       <c r="F22" s="3">
-        <v>187400</v>
+        <v>149500</v>
       </c>
       <c r="G22" s="3">
-        <v>160300</v>
+        <v>178900</v>
       </c>
       <c r="H22" s="3">
-        <v>246100</v>
+        <v>181100</v>
       </c>
       <c r="I22" s="3">
+        <v>154900</v>
+      </c>
+      <c r="J22" s="3">
+        <v>237800</v>
+      </c>
+      <c r="K22" s="3">
         <v>353400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>159200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>308700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>276500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>312200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>259600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>301300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>299800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>298400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>311900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>310800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>322000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>284100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>286400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>291100</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1928500</v>
+        <v>2669500</v>
       </c>
       <c r="E23" s="3">
-        <v>2240100</v>
+        <v>2007300</v>
       </c>
       <c r="F23" s="3">
-        <v>2217600</v>
+        <v>1863300</v>
       </c>
       <c r="G23" s="3">
-        <v>1640600</v>
+        <v>2164400</v>
       </c>
       <c r="H23" s="3">
-        <v>1520900</v>
+        <v>2142500</v>
       </c>
       <c r="I23" s="3">
+        <v>1539300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1469500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1454300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1644000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2600700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1695200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2366100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1665100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1559500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1790800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>2992300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>2631100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1748100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>1990400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>2537800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>3163400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>2080000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>374900</v>
+        <v>693800</v>
       </c>
       <c r="E24" s="3">
-        <v>529500</v>
+        <v>624000</v>
       </c>
       <c r="F24" s="3">
-        <v>551000</v>
+        <v>362200</v>
       </c>
       <c r="G24" s="3">
-        <v>430200</v>
+        <v>511600</v>
       </c>
       <c r="H24" s="3">
-        <v>461800</v>
+        <v>532400</v>
       </c>
       <c r="I24" s="3">
+        <v>406900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>446200</v>
+      </c>
+      <c r="K24" s="3">
         <v>334200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>302600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>916300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>448200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>311000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>461700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>828500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>512800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>774200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>655200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>379200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>392700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>860400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>853400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>693700</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1790,138 +1886,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1553600</v>
+        <v>1975600</v>
       </c>
       <c r="E26" s="3">
-        <v>1710600</v>
+        <v>1383300</v>
       </c>
       <c r="F26" s="3">
-        <v>1666600</v>
+        <v>1501100</v>
       </c>
       <c r="G26" s="3">
-        <v>1210400</v>
+        <v>1652700</v>
       </c>
       <c r="H26" s="3">
-        <v>1059100</v>
+        <v>1610200</v>
       </c>
       <c r="I26" s="3">
+        <v>1132400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1023300</v>
+      </c>
+      <c r="K26" s="3">
         <v>1120100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1341400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1684400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1247000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>2055100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1203400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>731000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1278100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>2218200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1975800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1368800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>1597700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>1677400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>2310100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>1386300</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1408000</v>
+        <v>1808700</v>
       </c>
       <c r="E27" s="3">
-        <v>1570600</v>
+        <v>1207600</v>
       </c>
       <c r="F27" s="3">
-        <v>1528800</v>
+        <v>1360400</v>
       </c>
       <c r="G27" s="3">
-        <v>1073800</v>
+        <v>1517500</v>
       </c>
       <c r="H27" s="3">
-        <v>1063600</v>
+        <v>1477100</v>
       </c>
       <c r="I27" s="3">
+        <v>1001500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1027600</v>
+      </c>
+      <c r="K27" s="3">
         <v>1069300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1333500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1499400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1122300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1916300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1079000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>594800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1163900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>2144100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1952300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1350900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1539400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>1636300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>2271300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>1359300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1985,73 +2099,85 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>118600</v>
+        <v>-16400</v>
       </c>
       <c r="E29" s="3">
-        <v>986800</v>
+        <v>65500</v>
       </c>
       <c r="F29" s="3">
-        <v>26000</v>
+        <v>114500</v>
       </c>
       <c r="G29" s="3">
-        <v>911200</v>
+        <v>953500</v>
       </c>
       <c r="H29" s="3">
-        <v>-455000</v>
+        <v>25100</v>
       </c>
       <c r="I29" s="3">
+        <v>916400</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-439600</v>
+      </c>
+      <c r="K29" s="3">
         <v>-333100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-111800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>115100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>91800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>245200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>135200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>24400</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>50500</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>47100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>503800</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>34800</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>-16800</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>29300</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>14100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="Y29" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2115,8 +2241,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2180,138 +2312,156 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-207800</v>
+        <v>-705800</v>
       </c>
       <c r="E32" s="3">
-        <v>-762100</v>
+        <v>-429800</v>
       </c>
       <c r="F32" s="3">
-        <v>-441500</v>
+        <v>-200700</v>
       </c>
       <c r="G32" s="3">
-        <v>-225800</v>
+        <v>-736400</v>
       </c>
       <c r="H32" s="3">
-        <v>-496800</v>
+        <v>-426500</v>
       </c>
       <c r="I32" s="3">
+        <v>-220400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-480000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-427900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-479900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-407900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-400000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-564600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-553800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-350000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-435900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-1373300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1141100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-478000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-518400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-154900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-759500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-270000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1526500</v>
+        <v>1792400</v>
       </c>
       <c r="E33" s="3">
-        <v>2557400</v>
+        <v>1273100</v>
       </c>
       <c r="F33" s="3">
-        <v>1554800</v>
+        <v>1474900</v>
       </c>
       <c r="G33" s="3">
-        <v>1985000</v>
+        <v>2470900</v>
       </c>
       <c r="H33" s="3">
-        <v>608600</v>
+        <v>1502200</v>
       </c>
       <c r="I33" s="3">
+        <v>1917800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>588000</v>
+      </c>
+      <c r="K33" s="3">
         <v>736200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1221700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1614500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1214000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>2161500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1214100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>619100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1214400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>2191200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>2456000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1385700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>1522500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>1665600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>2285400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2375,143 +2525,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1526500</v>
+        <v>1792400</v>
       </c>
       <c r="E35" s="3">
-        <v>2557400</v>
+        <v>1273100</v>
       </c>
       <c r="F35" s="3">
-        <v>1554800</v>
+        <v>1474900</v>
       </c>
       <c r="G35" s="3">
-        <v>1985000</v>
+        <v>2470900</v>
       </c>
       <c r="H35" s="3">
-        <v>608600</v>
+        <v>1502200</v>
       </c>
       <c r="I35" s="3">
+        <v>1917800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>588000</v>
+      </c>
+      <c r="K35" s="3">
         <v>736200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1221700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1614500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1214000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>2161500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1214100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>619100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1214400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>2191200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>2456000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1385700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>1522500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>1665600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>2285400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2535,8 +2703,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2560,593 +2730,649 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12056500</v>
+        <v>13308000</v>
       </c>
       <c r="E41" s="3">
-        <v>26690800</v>
+        <v>10412700</v>
       </c>
       <c r="F41" s="3">
-        <v>15825500</v>
+        <v>11648700</v>
       </c>
       <c r="G41" s="3">
-        <v>15853700</v>
+        <v>25788000</v>
       </c>
       <c r="H41" s="3">
-        <v>13644000</v>
+        <v>15290200</v>
       </c>
       <c r="I41" s="3">
+        <v>15317500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>13182600</v>
+      </c>
+      <c r="K41" s="3">
         <v>8843100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>12815300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>15178900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>9437100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>10628200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>14819700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>12256700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>7784800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>10749800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>11215400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>9396700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>9520100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>11598400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>11182900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>12447100</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8460300</v>
+        <v>9590200</v>
       </c>
       <c r="E42" s="3">
-        <v>10324500</v>
+        <v>8710900</v>
       </c>
       <c r="F42" s="3">
-        <v>9495700</v>
+        <v>8174200</v>
       </c>
       <c r="G42" s="3">
-        <v>9464100</v>
+        <v>9975300</v>
       </c>
       <c r="H42" s="3">
-        <v>9563500</v>
+        <v>9174600</v>
       </c>
       <c r="I42" s="3">
+        <v>9144000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>9240000</v>
+      </c>
+      <c r="K42" s="3">
         <v>11103600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>11233400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>13069400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>11464000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>11729900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>11299300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>11865700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>10144400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>10626400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>10132700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>9992400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>9755700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>10085400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>10037200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>9499600</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>26224500</v>
+        <v>26084700</v>
       </c>
       <c r="E43" s="3">
-        <v>24292600</v>
+        <v>26182900</v>
       </c>
       <c r="F43" s="3">
-        <v>23540600</v>
+        <v>25337500</v>
       </c>
       <c r="G43" s="3">
-        <v>23871400</v>
+        <v>23470900</v>
       </c>
       <c r="H43" s="3">
-        <v>23248200</v>
+        <v>22744400</v>
       </c>
       <c r="I43" s="3">
+        <v>23064000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>22461800</v>
+      </c>
+      <c r="K43" s="3">
         <v>24030600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>33874100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>37124500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>35800200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>34793900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>34533100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>31430400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>29901800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>28899100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>29119000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>29882000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>20761300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>20843300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>20116800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>20045200</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10112200</v>
+        <v>10622200</v>
       </c>
       <c r="E44" s="3">
-        <v>8983100</v>
+        <v>9639300</v>
       </c>
       <c r="F44" s="3">
-        <v>8742600</v>
+        <v>9770200</v>
       </c>
       <c r="G44" s="3">
-        <v>8801300</v>
+        <v>8679300</v>
       </c>
       <c r="H44" s="3">
-        <v>9813000</v>
+        <v>8446900</v>
       </c>
       <c r="I44" s="3">
+        <v>8503600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>9481100</v>
+      </c>
+      <c r="K44" s="3">
         <v>9569100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>18004600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>18137200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>18655400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>18701400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>17891600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>15379000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>16156000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>16172400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>16158900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>15578800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>23339600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>23185100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>22082900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>21316400</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1873200</v>
+        <v>1884000</v>
       </c>
       <c r="E45" s="3">
-        <v>1737700</v>
+        <v>2152400</v>
       </c>
       <c r="F45" s="3">
-        <v>3501300</v>
+        <v>1809800</v>
       </c>
       <c r="G45" s="3">
-        <v>1815600</v>
+        <v>1678900</v>
       </c>
       <c r="H45" s="3">
-        <v>49062800</v>
+        <v>3382900</v>
       </c>
       <c r="I45" s="3">
+        <v>1754200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>47403300</v>
+      </c>
+      <c r="K45" s="3">
         <v>48519700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2511100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2692500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2531600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>2367300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>2349300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1993700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2067500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>2175500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1936600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>4957000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>2066700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>1916800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>1676200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>1637500</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>58726700</v>
+        <v>61489100</v>
       </c>
       <c r="E46" s="3">
-        <v>72028700</v>
+        <v>57098200</v>
       </c>
       <c r="F46" s="3">
-        <v>61105800</v>
+        <v>56740400</v>
       </c>
       <c r="G46" s="3">
-        <v>59806200</v>
+        <v>69592400</v>
       </c>
       <c r="H46" s="3">
-        <v>105331500</v>
+        <v>59039000</v>
       </c>
       <c r="I46" s="3">
+        <v>57783300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>101768800</v>
+      </c>
+      <c r="K46" s="3">
         <v>102066100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>78438600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>86202500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>77888300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>78220700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>80893000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>71502200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>66054600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>68623200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>68562600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>68160900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>65443400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>67629100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>65096000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>64945700</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>33879800</v>
+        <v>32830900</v>
       </c>
       <c r="E47" s="3">
-        <v>31639600</v>
+        <v>33276000</v>
       </c>
       <c r="F47" s="3">
-        <v>32028100</v>
+        <v>32733800</v>
       </c>
       <c r="G47" s="3">
-        <v>34587700</v>
+        <v>30569500</v>
       </c>
       <c r="H47" s="3">
-        <v>25664400</v>
+        <v>30944800</v>
       </c>
       <c r="I47" s="3">
+        <v>33417800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>24796400</v>
+      </c>
+      <c r="K47" s="3">
         <v>25346000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>24782600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>27056400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>25019700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>25335500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>24967100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>22543000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>22100500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>21630800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>23888300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>24426800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>25769900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>27684300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>27944900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>27727700</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11992200</v>
+        <v>12222600</v>
       </c>
       <c r="E48" s="3">
-        <v>11391500</v>
+        <v>12025100</v>
       </c>
       <c r="F48" s="3">
-        <v>11049400</v>
+        <v>11586600</v>
       </c>
       <c r="G48" s="3">
-        <v>11573300</v>
+        <v>11006200</v>
       </c>
       <c r="H48" s="3">
-        <v>11638800</v>
+        <v>10675600</v>
       </c>
       <c r="I48" s="3">
+        <v>11181800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>11245100</v>
+      </c>
+      <c r="K48" s="3">
         <v>11644400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>16910500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>14924100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>13879200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>14074500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>13777800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>12605600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>12157100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>12203900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>12181400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>12316100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>12254400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>12244000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>12059700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>11922400</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>44593800</v>
+        <v>45357900</v>
       </c>
       <c r="E49" s="3">
-        <v>28531200</v>
+        <v>44082600</v>
       </c>
       <c r="F49" s="3">
-        <v>27614400</v>
+        <v>43085500</v>
       </c>
       <c r="G49" s="3">
-        <v>28551600</v>
+        <v>27566200</v>
       </c>
       <c r="H49" s="3">
-        <v>29497700</v>
+        <v>26680400</v>
       </c>
       <c r="I49" s="3">
+        <v>27585800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>28500000</v>
+      </c>
+      <c r="K49" s="3">
         <v>30084900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>46092100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>48950600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>46096100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>47582400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>46788200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>42614900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>42278500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>42292300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>43301000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>43569100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>44476800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>42453200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>38471600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>37445700</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3210,8 +3436,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3275,73 +3507,85 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5303400</v>
+        <v>5636700</v>
       </c>
       <c r="E52" s="3">
-        <v>5064000</v>
+        <v>5509100</v>
       </c>
       <c r="F52" s="3">
-        <v>5312400</v>
+        <v>5124000</v>
       </c>
       <c r="G52" s="3">
-        <v>5373400</v>
+        <v>4892700</v>
       </c>
       <c r="H52" s="3">
-        <v>5233400</v>
+        <v>5132700</v>
       </c>
       <c r="I52" s="3">
+        <v>5191600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>5056400</v>
+      </c>
+      <c r="K52" s="3">
         <v>4936400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>5787800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>6918700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>5967900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>5757300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>5357800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>4596500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>4630300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>4895200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>4720200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>4242200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>3778900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>4188200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>4597800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>5526300</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3405,73 +3649,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>154495900</v>
+        <v>157537200</v>
       </c>
       <c r="E54" s="3">
-        <v>148655000</v>
+        <v>151989900</v>
       </c>
       <c r="F54" s="3">
-        <v>137110000</v>
+        <v>149270300</v>
       </c>
       <c r="G54" s="3">
-        <v>139892100</v>
+        <v>143627000</v>
       </c>
       <c r="H54" s="3">
-        <v>177365800</v>
+        <v>132472500</v>
       </c>
       <c r="I54" s="3">
+        <v>135160500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>171366700</v>
+      </c>
+      <c r="K54" s="3">
         <v>174077900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>172011600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>184052300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>168851000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>170970500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>171783900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>153862300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>147220900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>149645400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>152653500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>152715200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>151723300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>154198700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>148170000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>147567900</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3495,8 +3751,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3520,398 +3778,436 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9071200</v>
+        <v>9257500</v>
       </c>
       <c r="E57" s="3">
-        <v>8213100</v>
+        <v>9634900</v>
       </c>
       <c r="F57" s="3">
-        <v>7931900</v>
+        <v>8764400</v>
       </c>
       <c r="G57" s="3">
-        <v>8889400</v>
+        <v>7935300</v>
       </c>
       <c r="H57" s="3">
-        <v>6922500</v>
+        <v>7663600</v>
       </c>
       <c r="I57" s="3">
+        <v>8588700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>6688400</v>
+      </c>
+      <c r="K57" s="3">
         <v>7001500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>11821700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>13975900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>12247500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>12271800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>11978700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>11869000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>10496900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>10028300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>9988000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>10946100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>10770000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>9352900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>8818800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>9446800</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12169400</v>
+        <v>10582900</v>
       </c>
       <c r="E58" s="3">
-        <v>9629000</v>
+        <v>8532000</v>
       </c>
       <c r="F58" s="3">
-        <v>8511200</v>
+        <v>11757800</v>
       </c>
       <c r="G58" s="3">
-        <v>7409200</v>
+        <v>9303300</v>
       </c>
       <c r="H58" s="3">
-        <v>6163800</v>
+        <v>8223300</v>
       </c>
       <c r="I58" s="3">
+        <v>7158600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>5955300</v>
+      </c>
+      <c r="K58" s="3">
         <v>7799800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>7622600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>7391600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>11469900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>10756200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>9369800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>5601100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>3361000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>6353800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>6216900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>6111500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>7700200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>6085000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>5627200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>7284700</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24159400</v>
+        <v>24552000</v>
       </c>
       <c r="E59" s="3">
-        <v>21257600</v>
+        <v>25417100</v>
       </c>
       <c r="F59" s="3">
-        <v>22654300</v>
+        <v>23342200</v>
       </c>
       <c r="G59" s="3">
-        <v>22222900</v>
+        <v>20538600</v>
       </c>
       <c r="H59" s="3">
-        <v>51394400</v>
+        <v>21888000</v>
       </c>
       <c r="I59" s="3">
+        <v>21471300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>49656000</v>
+      </c>
+      <c r="K59" s="3">
         <v>49887000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>37285100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>40767700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>38105900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>37718600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>39414800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>35555100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>34141200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>34551700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>35443700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>34640300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>32000300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>33477100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>33731800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>33643700</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>45400000</v>
+        <v>44392400</v>
       </c>
       <c r="E60" s="3">
-        <v>39099600</v>
+        <v>43584000</v>
       </c>
       <c r="F60" s="3">
-        <v>39097300</v>
+        <v>43864400</v>
       </c>
       <c r="G60" s="3">
-        <v>38521500</v>
+        <v>37777100</v>
       </c>
       <c r="H60" s="3">
-        <v>64480600</v>
+        <v>37774900</v>
       </c>
       <c r="I60" s="3">
+        <v>37218600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>62299700</v>
+      </c>
+      <c r="K60" s="3">
         <v>64688400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>56729400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>62135200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>61823300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>60746600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>60763400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>53025200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>47999100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>50933900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>51648600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>51697900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>50470500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>48915000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>48177900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>50375200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>45540000</v>
+        <v>45562900</v>
       </c>
       <c r="E61" s="3">
-        <v>49194900</v>
+        <v>44595300</v>
       </c>
       <c r="F61" s="3">
-        <v>40582100</v>
+        <v>43999700</v>
       </c>
       <c r="G61" s="3">
-        <v>42911400</v>
+        <v>47530900</v>
       </c>
       <c r="H61" s="3">
-        <v>45862900</v>
+        <v>39209500</v>
       </c>
       <c r="I61" s="3">
+        <v>41460000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>44311700</v>
+      </c>
+      <c r="K61" s="3">
         <v>41581400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>37631800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>37256800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>30732300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>32870400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>33201700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>30038100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>28666600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>28340300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>29600300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>30043500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>32026100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>38674700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>31563800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>30405200</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10854000</v>
+        <v>10747600</v>
       </c>
       <c r="E62" s="3">
-        <v>10008300</v>
+        <v>10365800</v>
       </c>
       <c r="F62" s="3">
-        <v>11805900</v>
+        <v>10486900</v>
       </c>
       <c r="G62" s="3">
-        <v>13495000</v>
+        <v>9669800</v>
       </c>
       <c r="H62" s="3">
-        <v>14683900</v>
+        <v>11406600</v>
       </c>
       <c r="I62" s="3">
+        <v>13038600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>14187300</v>
+      </c>
+      <c r="K62" s="3">
         <v>14498800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>18940700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>22205400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>20458800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>20995700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>20836600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>17583200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>17860100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>18649700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>20484200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>20910500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>20396700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>21366900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>22391600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>25920100</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3975,8 +4271,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4040,8 +4342,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4105,73 +4413,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>106989000</v>
+        <v>106261200</v>
       </c>
       <c r="E66" s="3">
-        <v>103348800</v>
+        <v>103815400</v>
       </c>
       <c r="F66" s="3">
-        <v>95261000</v>
+        <v>103370300</v>
       </c>
       <c r="G66" s="3">
-        <v>98804200</v>
+        <v>99853200</v>
       </c>
       <c r="H66" s="3">
-        <v>127862700</v>
+        <v>92039000</v>
       </c>
       <c r="I66" s="3">
+        <v>95462300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>123537900</v>
+      </c>
+      <c r="K66" s="3">
         <v>123689500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>116414700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>125098400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>116177700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>117771900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>117952500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>103496400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>97249900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>100645900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>103254500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>104266500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>104659200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>109687800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>102846900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>107410700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4195,8 +4515,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4260,8 +4582,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4325,8 +4653,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4390,8 +4724,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4455,73 +4795,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>43287400</v>
+        <v>45123300</v>
       </c>
       <c r="E72" s="3">
-        <v>40976200</v>
+        <v>43207700</v>
       </c>
       <c r="F72" s="3">
-        <v>39126700</v>
+        <v>41823300</v>
       </c>
       <c r="G72" s="3">
-        <v>37348400</v>
+        <v>39590200</v>
       </c>
       <c r="H72" s="3">
-        <v>44859100</v>
+        <v>37803300</v>
       </c>
       <c r="I72" s="3">
+        <v>36085100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>43341900</v>
+      </c>
+      <c r="K72" s="3">
         <v>44554300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>48555800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>51226600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>47708900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>47185300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>48717600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>45427100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>44466800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>44000000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>42359600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>40160500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>38469700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>35296500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>36673300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>32225800</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4585,8 +4937,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4650,8 +5008,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4715,73 +5079,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>47506900</v>
+        <v>51276000</v>
       </c>
       <c r="E76" s="3">
-        <v>45306300</v>
+        <v>48174600</v>
       </c>
       <c r="F76" s="3">
-        <v>41849000</v>
+        <v>45900000</v>
       </c>
       <c r="G76" s="3">
-        <v>41087900</v>
+        <v>43773900</v>
       </c>
       <c r="H76" s="3">
-        <v>49503100</v>
+        <v>40433500</v>
       </c>
       <c r="I76" s="3">
+        <v>39698200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>47828800</v>
+      </c>
+      <c r="K76" s="3">
         <v>50388300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>55596900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>58953900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>52673300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>53198600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>53831400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>50365900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>49971100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>48999500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>49399000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>48448700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>47064100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>44510900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>45323200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>40157200</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4845,143 +5221,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1526500</v>
+        <v>1792400</v>
       </c>
       <c r="E81" s="3">
-        <v>2557400</v>
+        <v>1273100</v>
       </c>
       <c r="F81" s="3">
-        <v>1554800</v>
+        <v>1474900</v>
       </c>
       <c r="G81" s="3">
-        <v>1985000</v>
+        <v>2470900</v>
       </c>
       <c r="H81" s="3">
-        <v>608600</v>
+        <v>1502200</v>
       </c>
       <c r="I81" s="3">
+        <v>1917800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>588000</v>
+      </c>
+      <c r="K81" s="3">
         <v>736200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1221700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1614500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1214000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>2161500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1214100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>619100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1214400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>2191200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>2456000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1385700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>1522500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>1665600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>2285400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5005,73 +5399,81 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>969900</v>
+        <v>894500</v>
       </c>
       <c r="E83" s="3">
-        <v>785900</v>
+        <v>883600</v>
       </c>
       <c r="F83" s="3">
-        <v>801700</v>
+        <v>937100</v>
       </c>
       <c r="G83" s="3">
-        <v>1004900</v>
+        <v>759300</v>
       </c>
       <c r="H83" s="3">
-        <v>871700</v>
+        <v>774500</v>
       </c>
       <c r="I83" s="3">
+        <v>970900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>842200</v>
+      </c>
+      <c r="K83" s="3">
         <v>479900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1208100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1182100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>1016400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>1000000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>991600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>1013500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>891600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>939100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>959300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>1143300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>967200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>785300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>775900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>871000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5135,8 +5537,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5200,8 +5608,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5265,8 +5679,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5330,8 +5750,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5395,73 +5821,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3041800</v>
+        <v>1621100</v>
       </c>
       <c r="E89" s="3">
-        <v>1799800</v>
+        <v>4796700</v>
       </c>
       <c r="F89" s="3">
-        <v>1480300</v>
+        <v>2938900</v>
       </c>
       <c r="G89" s="3">
-        <v>-23700</v>
+        <v>1738900</v>
       </c>
       <c r="H89" s="3">
-        <v>3409900</v>
+        <v>1430200</v>
       </c>
       <c r="I89" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>3294500</v>
+      </c>
+      <c r="K89" s="3">
         <v>756500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>599600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>7463900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1281100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1299100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>224900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>4696200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1625000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1495600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>1540500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>3636400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>1781700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>1423800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>1331100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>5149500</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5485,73 +5923,81 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-472000</v>
+        <v>-427600</v>
       </c>
       <c r="E91" s="3">
-        <v>-409900</v>
+        <v>-676400</v>
       </c>
       <c r="F91" s="3">
-        <v>-371500</v>
+        <v>-456000</v>
       </c>
       <c r="G91" s="3">
-        <v>-587100</v>
+        <v>-396000</v>
       </c>
       <c r="H91" s="3">
-        <v>-386200</v>
+        <v>-358900</v>
       </c>
       <c r="I91" s="3">
+        <v>-567300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-373100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-231500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-549900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1016700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-770500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-717700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-628000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1058900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-662100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-607000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-563200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-969400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-724800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-1115100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-988300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-959000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5615,8 +6061,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5680,73 +6132,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-16373100</v>
+        <v>-1080000</v>
       </c>
       <c r="E94" s="3">
-        <v>1209300</v>
+        <v>-1762900</v>
       </c>
       <c r="F94" s="3">
-        <v>-505800</v>
+        <v>-15819300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1483600</v>
+        <v>1168400</v>
       </c>
       <c r="H94" s="3">
-        <v>-300300</v>
+        <v>-488700</v>
       </c>
       <c r="I94" s="3">
+        <v>-1433500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-290200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1588600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2480600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1974700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1202300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1320600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1522800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2462200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1002500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1308200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>592400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-1884900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-1668400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-4665900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-369800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-2619900</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5770,8 +6234,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5835,8 +6301,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5900,8 +6372,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5965,8 +6443,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6030,199 +6514,223 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1244300</v>
+        <v>2119600</v>
       </c>
       <c r="E100" s="3">
-        <v>7422700</v>
+        <v>-4437800</v>
       </c>
       <c r="F100" s="3">
-        <v>-698900</v>
+        <v>-1202200</v>
       </c>
       <c r="G100" s="3">
-        <v>1379800</v>
+        <v>7171600</v>
       </c>
       <c r="H100" s="3">
-        <v>2165600</v>
+        <v>-675300</v>
       </c>
       <c r="I100" s="3">
+        <v>1333100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>2092400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-758800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>794900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-262100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-890500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-4363700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>2801500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>2307100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-3425800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-639500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-380400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-1729000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-1276800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>3617700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-2304200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>2442700</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-58700</v>
+        <v>234500</v>
       </c>
       <c r="E101" s="3">
-        <v>359100</v>
+        <v>168000</v>
       </c>
       <c r="F101" s="3">
-        <v>-243900</v>
+        <v>-56700</v>
       </c>
       <c r="G101" s="3">
-        <v>-319500</v>
+        <v>346900</v>
       </c>
       <c r="H101" s="3">
-        <v>-103900</v>
+        <v>-235600</v>
       </c>
       <c r="I101" s="3">
+        <v>-308700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-100400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-80200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-89200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>126200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-203500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>192600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>78900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-137300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>68100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-13500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>50500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-130200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-402800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>39900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>63400</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-14634300</v>
+        <v>2895300</v>
       </c>
       <c r="E102" s="3">
-        <v>10790800</v>
+        <v>-1236000</v>
       </c>
       <c r="F102" s="3">
-        <v>31600</v>
+        <v>-14139300</v>
       </c>
       <c r="G102" s="3">
-        <v>-447100</v>
+        <v>10425800</v>
       </c>
       <c r="H102" s="3">
-        <v>5171300</v>
+        <v>30500</v>
       </c>
       <c r="I102" s="3">
+        <v>-432000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>4996400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1671100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1175400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>5353200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1015200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-4192700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1582600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>4403800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-2735100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-465600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>1803000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-107700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-1566300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>415500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-1279500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>4972300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SIEGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIEGY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,305 +665,317 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17996700</v>
+        <v>17685800</v>
       </c>
       <c r="E8" s="3">
-        <v>19030900</v>
+        <v>17122200</v>
       </c>
       <c r="F8" s="3">
-        <v>17547300</v>
+        <v>18106200</v>
       </c>
       <c r="G8" s="3">
-        <v>15998200</v>
+        <v>16694600</v>
       </c>
       <c r="H8" s="3">
-        <v>15350200</v>
+        <v>15220800</v>
       </c>
       <c r="I8" s="3">
-        <v>16162900</v>
+        <v>14604300</v>
       </c>
       <c r="J8" s="3">
+        <v>15377500</v>
+      </c>
+      <c r="K8" s="3">
         <v>14158900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15563500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15440400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20059200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16749600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>17039900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16298200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>25039500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>22479400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>22598000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>22241200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>24927300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>23896100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>23634700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>22552400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>25768700</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11227600</v>
+        <v>11727200</v>
       </c>
       <c r="E9" s="3">
-        <v>12149500</v>
+        <v>10682100</v>
       </c>
       <c r="F9" s="3">
-        <v>11141500</v>
+        <v>11559100</v>
       </c>
       <c r="G9" s="3">
-        <v>10282900</v>
+        <v>10600100</v>
       </c>
       <c r="H9" s="3">
-        <v>9546600</v>
+        <v>9783200</v>
       </c>
       <c r="I9" s="3">
-        <v>10562200</v>
+        <v>9082700</v>
       </c>
       <c r="J9" s="3">
+        <v>10048900</v>
+      </c>
+      <c r="K9" s="3">
         <v>8971600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9903300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9809600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12496100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10675800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10582800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10438000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>17823500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>15801300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>15522700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>15554100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>17849700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>17030700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>15969700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>15409800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>18465200</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6769100</v>
+        <v>5958600</v>
       </c>
       <c r="E10" s="3">
-        <v>6881500</v>
+        <v>6440200</v>
       </c>
       <c r="F10" s="3">
-        <v>6405800</v>
+        <v>6547100</v>
       </c>
       <c r="G10" s="3">
-        <v>5715300</v>
+        <v>6094500</v>
       </c>
       <c r="H10" s="3">
-        <v>5803600</v>
+        <v>5437600</v>
       </c>
       <c r="I10" s="3">
-        <v>5600700</v>
+        <v>5521600</v>
       </c>
       <c r="J10" s="3">
+        <v>5328600</v>
+      </c>
+      <c r="K10" s="3">
         <v>5187300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5660200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5630800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7563100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6073800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6457100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5860200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7216000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6678000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7075300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6687100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7077500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6865500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>7665000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>7142600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>7303400</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,79 +1001,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1364700</v>
+        <v>1410500</v>
       </c>
       <c r="E12" s="3">
-        <v>1577500</v>
+        <v>1298400</v>
       </c>
       <c r="F12" s="3">
-        <v>1330900</v>
+        <v>1500800</v>
       </c>
       <c r="G12" s="3">
-        <v>1230500</v>
+        <v>1266200</v>
       </c>
       <c r="H12" s="3">
-        <v>1160700</v>
+        <v>1170800</v>
       </c>
       <c r="I12" s="3">
-        <v>1308000</v>
+        <v>1104300</v>
       </c>
       <c r="J12" s="3">
+        <v>1244400</v>
+      </c>
+      <c r="K12" s="3">
         <v>1185800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1308600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1269100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1572900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1359900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1367300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1299100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1735600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1506500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1565200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1373300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1656100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1511300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1425000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1322900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1551800</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1131,8 +1147,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1193,8 +1212,8 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>10</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
@@ -1202,8 +1221,11 @@
       <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1273,8 +1295,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1297,150 +1322,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15853100</v>
+        <v>16368700</v>
       </c>
       <c r="E17" s="3">
-        <v>17260400</v>
+        <v>15082800</v>
       </c>
       <c r="F17" s="3">
-        <v>15735300</v>
+        <v>16421700</v>
       </c>
       <c r="G17" s="3">
-        <v>14391300</v>
+        <v>14970700</v>
       </c>
       <c r="H17" s="3">
-        <v>13453100</v>
+        <v>13692000</v>
       </c>
       <c r="I17" s="3">
-        <v>14689100</v>
+        <v>12799400</v>
       </c>
       <c r="J17" s="3">
+        <v>13975300</v>
+      </c>
+      <c r="K17" s="3">
         <v>12931600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14183800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14117100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>17557800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15177900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14926200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14927400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>23528700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>20824700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>20680500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>20439300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>23346400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>22102100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>20967800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>19862000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>23667500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2143600</v>
+        <v>1317100</v>
       </c>
       <c r="E18" s="3">
-        <v>1770500</v>
+        <v>2039500</v>
       </c>
       <c r="F18" s="3">
-        <v>1812000</v>
+        <v>1684500</v>
       </c>
       <c r="G18" s="3">
-        <v>1606900</v>
+        <v>1724000</v>
       </c>
       <c r="H18" s="3">
-        <v>1897100</v>
+        <v>1528800</v>
       </c>
       <c r="I18" s="3">
-        <v>1473800</v>
+        <v>1804900</v>
       </c>
       <c r="J18" s="3">
+        <v>1402200</v>
+      </c>
+      <c r="K18" s="3">
         <v>1227300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1379800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1323300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2501400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1571700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2113700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1370800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1510800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1654700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1917500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1801900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1580900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1794100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2666900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2690400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2101100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1466,363 +1498,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>705800</v>
+        <v>694400</v>
       </c>
       <c r="E20" s="3">
-        <v>429800</v>
+        <v>671500</v>
       </c>
       <c r="F20" s="3">
-        <v>200700</v>
+        <v>408900</v>
       </c>
       <c r="G20" s="3">
-        <v>736400</v>
+        <v>191000</v>
       </c>
       <c r="H20" s="3">
-        <v>426500</v>
+        <v>700600</v>
       </c>
       <c r="I20" s="3">
-        <v>220400</v>
+        <v>405800</v>
       </c>
       <c r="J20" s="3">
+        <v>209700</v>
+      </c>
+      <c r="K20" s="3">
         <v>480000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>427900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>479900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>407900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>564600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>553800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>350000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>435900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1373300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1141100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>478000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>518400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>154900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>759500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3744000</v>
+        <v>3020300</v>
       </c>
       <c r="E21" s="3">
-        <v>3084000</v>
+        <v>3562100</v>
       </c>
       <c r="F21" s="3">
-        <v>2949800</v>
+        <v>2934100</v>
       </c>
       <c r="G21" s="3">
-        <v>3102500</v>
+        <v>2806500</v>
       </c>
       <c r="H21" s="3">
-        <v>3098200</v>
+        <v>2951800</v>
       </c>
       <c r="I21" s="3">
-        <v>2665100</v>
+        <v>2947600</v>
       </c>
       <c r="J21" s="3">
+        <v>2535600</v>
+      </c>
+      <c r="K21" s="3">
         <v>2549500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2287600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3011300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4091500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2988100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3678300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2916300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2874200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2982200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4229900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3902300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3202200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3279600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3607100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>4225700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3242100</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>180000</v>
+        <v>194100</v>
       </c>
       <c r="E22" s="3">
-        <v>193100</v>
+        <v>171300</v>
       </c>
       <c r="F22" s="3">
-        <v>149500</v>
+        <v>183700</v>
       </c>
       <c r="G22" s="3">
-        <v>178900</v>
+        <v>142200</v>
       </c>
       <c r="H22" s="3">
-        <v>181100</v>
+        <v>170200</v>
       </c>
       <c r="I22" s="3">
-        <v>154900</v>
+        <v>172300</v>
       </c>
       <c r="J22" s="3">
+        <v>147400</v>
+      </c>
+      <c r="K22" s="3">
         <v>237800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>353400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>159200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>308700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>276500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>312200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>259600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>301300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>299800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>298400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>311900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>310800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>322000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>284100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>286400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>291100</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2669500</v>
+        <v>1817400</v>
       </c>
       <c r="E23" s="3">
-        <v>2007300</v>
+        <v>2539700</v>
       </c>
       <c r="F23" s="3">
-        <v>1863300</v>
+        <v>1909700</v>
       </c>
       <c r="G23" s="3">
-        <v>2164400</v>
+        <v>1772700</v>
       </c>
       <c r="H23" s="3">
-        <v>2142500</v>
+        <v>2059200</v>
       </c>
       <c r="I23" s="3">
-        <v>1539300</v>
+        <v>2038400</v>
       </c>
       <c r="J23" s="3">
+        <v>1464500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1469500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1454300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1644000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2600700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1695200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2366100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1665100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1559500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1790800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2992300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2631100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1748100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1990400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2537800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3163400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2080000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>693800</v>
+        <v>561500</v>
       </c>
       <c r="E24" s="3">
-        <v>624000</v>
+        <v>660100</v>
       </c>
       <c r="F24" s="3">
-        <v>362200</v>
+        <v>593700</v>
       </c>
       <c r="G24" s="3">
-        <v>511600</v>
+        <v>344600</v>
       </c>
       <c r="H24" s="3">
-        <v>532400</v>
+        <v>486800</v>
       </c>
       <c r="I24" s="3">
-        <v>406900</v>
+        <v>506500</v>
       </c>
       <c r="J24" s="3">
+        <v>387100</v>
+      </c>
+      <c r="K24" s="3">
         <v>446200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>334200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>302600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>916300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>448200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>311000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>461700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>828500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>512800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>774200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>655200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>379200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>392700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>860400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>853400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>693700</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1892,150 +1940,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1975600</v>
+        <v>1255900</v>
       </c>
       <c r="E26" s="3">
-        <v>1383300</v>
+        <v>1879600</v>
       </c>
       <c r="F26" s="3">
-        <v>1501100</v>
+        <v>1316100</v>
       </c>
       <c r="G26" s="3">
-        <v>1652700</v>
+        <v>1428200</v>
       </c>
       <c r="H26" s="3">
-        <v>1610200</v>
+        <v>1572400</v>
       </c>
       <c r="I26" s="3">
-        <v>1132400</v>
+        <v>1531900</v>
       </c>
       <c r="J26" s="3">
+        <v>1077300</v>
+      </c>
+      <c r="K26" s="3">
         <v>1023300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1120100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1341400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1684400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1247000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2055100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1203400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>731000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1278100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2218200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1975800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1368800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1597700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1677400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2310100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1386300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1808700</v>
+        <v>1069000</v>
       </c>
       <c r="E27" s="3">
-        <v>1207600</v>
+        <v>1720800</v>
       </c>
       <c r="F27" s="3">
-        <v>1360400</v>
+        <v>1149000</v>
       </c>
       <c r="G27" s="3">
-        <v>1517500</v>
+        <v>1294300</v>
       </c>
       <c r="H27" s="3">
-        <v>1477100</v>
+        <v>1443700</v>
       </c>
       <c r="I27" s="3">
-        <v>1001500</v>
+        <v>1405300</v>
       </c>
       <c r="J27" s="3">
+        <v>952800</v>
+      </c>
+      <c r="K27" s="3">
         <v>1027600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1069300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1333500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1499400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1122300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1916300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1079000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>594800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1163900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2144100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1952300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1350900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1539400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1636300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2271300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1359300</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2105,79 +2162,85 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-16400</v>
+        <v>4200</v>
       </c>
       <c r="E29" s="3">
-        <v>65500</v>
+        <v>-15600</v>
       </c>
       <c r="F29" s="3">
-        <v>114500</v>
+        <v>62300</v>
       </c>
       <c r="G29" s="3">
-        <v>953500</v>
+        <v>109000</v>
       </c>
       <c r="H29" s="3">
-        <v>25100</v>
+        <v>907100</v>
       </c>
       <c r="I29" s="3">
-        <v>916400</v>
+        <v>23900</v>
       </c>
       <c r="J29" s="3">
+        <v>871800</v>
+      </c>
+      <c r="K29" s="3">
         <v>-439600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-333100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-111800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>115100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>91800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>245200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>135200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>24400</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>50500</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>47100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>503800</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>34800</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-16800</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>29300</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>14100</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2247,8 +2310,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2318,150 +2384,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-705800</v>
+        <v>-694400</v>
       </c>
       <c r="E32" s="3">
-        <v>-429800</v>
+        <v>-671500</v>
       </c>
       <c r="F32" s="3">
-        <v>-200700</v>
+        <v>-408900</v>
       </c>
       <c r="G32" s="3">
-        <v>-736400</v>
+        <v>-191000</v>
       </c>
       <c r="H32" s="3">
-        <v>-426500</v>
+        <v>-700600</v>
       </c>
       <c r="I32" s="3">
-        <v>-220400</v>
+        <v>-405800</v>
       </c>
       <c r="J32" s="3">
+        <v>-209700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-480000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-427900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-479900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-407900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-564600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-553800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-350000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-435900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1373300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1141100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-478000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-518400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-154900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-759500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-270000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1792400</v>
+        <v>1073200</v>
       </c>
       <c r="E33" s="3">
-        <v>1273100</v>
+        <v>1705300</v>
       </c>
       <c r="F33" s="3">
-        <v>1474900</v>
+        <v>1211200</v>
       </c>
       <c r="G33" s="3">
-        <v>2470900</v>
+        <v>1403200</v>
       </c>
       <c r="H33" s="3">
-        <v>1502200</v>
+        <v>2350800</v>
       </c>
       <c r="I33" s="3">
-        <v>1917800</v>
+        <v>1429200</v>
       </c>
       <c r="J33" s="3">
+        <v>1824600</v>
+      </c>
+      <c r="K33" s="3">
         <v>588000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>736200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1221700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1614500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1214000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2161500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1214100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>619100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1214400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2191200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2456000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1385700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1522500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1665600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2285400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2531,155 +2606,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1792400</v>
+        <v>1073200</v>
       </c>
       <c r="E35" s="3">
-        <v>1273100</v>
+        <v>1705300</v>
       </c>
       <c r="F35" s="3">
-        <v>1474900</v>
+        <v>1211200</v>
       </c>
       <c r="G35" s="3">
-        <v>2470900</v>
+        <v>1403200</v>
       </c>
       <c r="H35" s="3">
-        <v>1502200</v>
+        <v>2350800</v>
       </c>
       <c r="I35" s="3">
-        <v>1917800</v>
+        <v>1429200</v>
       </c>
       <c r="J35" s="3">
+        <v>1824600</v>
+      </c>
+      <c r="K35" s="3">
         <v>588000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>736200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1221700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1614500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1214000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2161500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1214100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>619100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1214400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2191200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2456000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1385700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1522500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1665600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2285400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2705,8 +2789,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2732,647 +2817,675 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13308000</v>
+        <v>9854900</v>
       </c>
       <c r="E41" s="3">
-        <v>10412700</v>
+        <v>12661300</v>
       </c>
       <c r="F41" s="3">
-        <v>11648700</v>
+        <v>9906800</v>
       </c>
       <c r="G41" s="3">
-        <v>25788000</v>
+        <v>11082700</v>
       </c>
       <c r="H41" s="3">
-        <v>15290200</v>
+        <v>24534900</v>
       </c>
       <c r="I41" s="3">
-        <v>15317500</v>
+        <v>14547200</v>
       </c>
       <c r="J41" s="3">
+        <v>14573200</v>
+      </c>
+      <c r="K41" s="3">
         <v>13182600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8843100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12815300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15178900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9437100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10628200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14819700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12256700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7784800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10749800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>11215400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9396700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9520100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>11598400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>11182900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>12447100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9590200</v>
+        <v>8929100</v>
       </c>
       <c r="E42" s="3">
-        <v>8710900</v>
+        <v>9124200</v>
       </c>
       <c r="F42" s="3">
-        <v>8174200</v>
+        <v>8287600</v>
       </c>
       <c r="G42" s="3">
-        <v>9975300</v>
+        <v>7777000</v>
       </c>
       <c r="H42" s="3">
-        <v>9174600</v>
+        <v>9490600</v>
       </c>
       <c r="I42" s="3">
-        <v>9144000</v>
+        <v>8728700</v>
       </c>
       <c r="J42" s="3">
+        <v>8699700</v>
+      </c>
+      <c r="K42" s="3">
         <v>9240000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>11103600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>11233400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>13069400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>11464000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>11729900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>11299300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>11865700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>10144400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>10626400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>10132700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>9992400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>9755700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>10085400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>10037200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>9499600</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>26084700</v>
+        <v>25051800</v>
       </c>
       <c r="E43" s="3">
-        <v>26182900</v>
+        <v>24817200</v>
       </c>
       <c r="F43" s="3">
-        <v>25337500</v>
+        <v>24866000</v>
       </c>
       <c r="G43" s="3">
-        <v>23470900</v>
+        <v>24106300</v>
       </c>
       <c r="H43" s="3">
-        <v>22744400</v>
+        <v>22330400</v>
       </c>
       <c r="I43" s="3">
-        <v>23064000</v>
+        <v>21639200</v>
       </c>
       <c r="J43" s="3">
+        <v>21943300</v>
+      </c>
+      <c r="K43" s="3">
         <v>22461800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>24030600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>33874100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>37124500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>35800200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>34793900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>34533100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>31430400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>29901800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>28899100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>29119000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>29882000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>20761300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>20843300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>20116800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>20045200</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10622200</v>
+        <v>10497300</v>
       </c>
       <c r="E44" s="3">
-        <v>9639300</v>
+        <v>10106000</v>
       </c>
       <c r="F44" s="3">
-        <v>9770200</v>
+        <v>9170900</v>
       </c>
       <c r="G44" s="3">
-        <v>8679300</v>
+        <v>9295400</v>
       </c>
       <c r="H44" s="3">
-        <v>8446900</v>
+        <v>8257500</v>
       </c>
       <c r="I44" s="3">
-        <v>8503600</v>
+        <v>8036500</v>
       </c>
       <c r="J44" s="3">
+        <v>8090400</v>
+      </c>
+      <c r="K44" s="3">
         <v>9481100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9569100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>18004600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>18137200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>18655400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>18701400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>17891600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>15379000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>16156000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>16172400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>16158900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>15578800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>23339600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>23185100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>22082900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>21316400</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1884000</v>
+        <v>3426100</v>
       </c>
       <c r="E45" s="3">
-        <v>2152400</v>
+        <v>1792500</v>
       </c>
       <c r="F45" s="3">
-        <v>1809800</v>
+        <v>2047800</v>
       </c>
       <c r="G45" s="3">
-        <v>1678900</v>
+        <v>1721900</v>
       </c>
       <c r="H45" s="3">
-        <v>3382900</v>
+        <v>1597300</v>
       </c>
       <c r="I45" s="3">
-        <v>1754200</v>
+        <v>3218500</v>
       </c>
       <c r="J45" s="3">
+        <v>1668900</v>
+      </c>
+      <c r="K45" s="3">
         <v>47403300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>48519700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2511100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2692500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2531600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2367300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2349300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1993700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2067500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2175500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1936600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4957000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2066700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1916800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1676200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1637500</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>61489100</v>
+        <v>57759100</v>
       </c>
       <c r="E46" s="3">
-        <v>57098200</v>
+        <v>58501200</v>
       </c>
       <c r="F46" s="3">
-        <v>56740400</v>
+        <v>54280100</v>
       </c>
       <c r="G46" s="3">
-        <v>69592400</v>
+        <v>53983300</v>
       </c>
       <c r="H46" s="3">
-        <v>59039000</v>
+        <v>66210800</v>
       </c>
       <c r="I46" s="3">
-        <v>57783300</v>
+        <v>56170100</v>
       </c>
       <c r="J46" s="3">
+        <v>54975500</v>
+      </c>
+      <c r="K46" s="3">
         <v>101768800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>102066100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>78438600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>86202500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>77888300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>78220700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>80893000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>71502200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>66054600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>68623200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>68562600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>68160900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>65443400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>67629100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>65096000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>64945700</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>32830900</v>
+        <v>31922700</v>
       </c>
       <c r="E47" s="3">
-        <v>33276000</v>
+        <v>31235600</v>
       </c>
       <c r="F47" s="3">
-        <v>32733800</v>
+        <v>31659100</v>
       </c>
       <c r="G47" s="3">
-        <v>30569500</v>
+        <v>31143200</v>
       </c>
       <c r="H47" s="3">
-        <v>30944800</v>
+        <v>29084000</v>
       </c>
       <c r="I47" s="3">
-        <v>33417800</v>
+        <v>29441100</v>
       </c>
       <c r="J47" s="3">
+        <v>31794000</v>
+      </c>
+      <c r="K47" s="3">
         <v>24796400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>25346000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>24782600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>27056400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>25019700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>25335500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>24967100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>22543000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>22100500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>21630800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>23888300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>24426800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>25769900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>27684300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>27944900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>27727700</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12222600</v>
+        <v>11579900</v>
       </c>
       <c r="E48" s="3">
-        <v>12025100</v>
+        <v>11628600</v>
       </c>
       <c r="F48" s="3">
-        <v>11586600</v>
+        <v>11440800</v>
       </c>
       <c r="G48" s="3">
-        <v>11006200</v>
+        <v>11023500</v>
       </c>
       <c r="H48" s="3">
-        <v>10675600</v>
+        <v>10471400</v>
       </c>
       <c r="I48" s="3">
-        <v>11181800</v>
+        <v>10156900</v>
       </c>
       <c r="J48" s="3">
+        <v>10638500</v>
+      </c>
+      <c r="K48" s="3">
         <v>11245100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11644400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16910500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14924100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13879200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14074500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13777800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12605600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12157100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12203900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12181400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12316100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12254400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12244000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12059700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>11922400</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>45357900</v>
+        <v>43350000</v>
       </c>
       <c r="E49" s="3">
-        <v>44082600</v>
+        <v>43153800</v>
       </c>
       <c r="F49" s="3">
-        <v>43085500</v>
+        <v>42033900</v>
       </c>
       <c r="G49" s="3">
-        <v>27566200</v>
+        <v>40991900</v>
       </c>
       <c r="H49" s="3">
-        <v>26680400</v>
+        <v>26226700</v>
       </c>
       <c r="I49" s="3">
-        <v>27585800</v>
+        <v>25383900</v>
       </c>
       <c r="J49" s="3">
+        <v>26245400</v>
+      </c>
+      <c r="K49" s="3">
         <v>28500000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>30084900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>46092100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>48950600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>46096100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>47582400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>46788200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>42614900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>42278500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>42292300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>43301000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>43569100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>44476800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>42453200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>38471600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>37445700</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3442,8 +3555,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3513,79 +3629,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5636700</v>
+        <v>4789900</v>
       </c>
       <c r="E52" s="3">
-        <v>5509100</v>
+        <v>5362800</v>
       </c>
       <c r="F52" s="3">
-        <v>5124000</v>
+        <v>5241400</v>
       </c>
       <c r="G52" s="3">
-        <v>4892700</v>
+        <v>4875000</v>
       </c>
       <c r="H52" s="3">
-        <v>5132700</v>
+        <v>4655000</v>
       </c>
       <c r="I52" s="3">
-        <v>5191600</v>
+        <v>4883300</v>
       </c>
       <c r="J52" s="3">
+        <v>4939400</v>
+      </c>
+      <c r="K52" s="3">
         <v>5056400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4936400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5787800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6918700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5967900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5757300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5357800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4596500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4630300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4895200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4720200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4242200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3778900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4188200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4597800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5526300</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3655,79 +3777,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>157537200</v>
+        <v>149401600</v>
       </c>
       <c r="E54" s="3">
-        <v>151989900</v>
+        <v>149882100</v>
       </c>
       <c r="F54" s="3">
-        <v>149270300</v>
+        <v>144654200</v>
       </c>
       <c r="G54" s="3">
-        <v>143627000</v>
+        <v>142016900</v>
       </c>
       <c r="H54" s="3">
-        <v>132472500</v>
+        <v>136647800</v>
       </c>
       <c r="I54" s="3">
-        <v>135160500</v>
+        <v>126035300</v>
       </c>
       <c r="J54" s="3">
+        <v>128592700</v>
+      </c>
+      <c r="K54" s="3">
         <v>171366700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>174077900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>172011600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>184052300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>168851000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>170970500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>171783900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>153862300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>147220900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>149645400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>152653500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>152715200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>151723300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>154198700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>148170000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>147567900</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3753,8 +3881,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3780,434 +3909,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9257500</v>
+        <v>9270500</v>
       </c>
       <c r="E57" s="3">
-        <v>9634900</v>
+        <v>8807600</v>
       </c>
       <c r="F57" s="3">
-        <v>8764400</v>
+        <v>9166700</v>
       </c>
       <c r="G57" s="3">
-        <v>7935300</v>
+        <v>8338500</v>
       </c>
       <c r="H57" s="3">
-        <v>7663600</v>
+        <v>7549700</v>
       </c>
       <c r="I57" s="3">
-        <v>8588700</v>
+        <v>7291200</v>
       </c>
       <c r="J57" s="3">
+        <v>8171400</v>
+      </c>
+      <c r="K57" s="3">
         <v>6688400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7001500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11821700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>13975900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12247500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12271800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11978700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11869000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>10496900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>10028300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9988000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>10946100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>10770000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>9352900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>8818800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>9446800</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10582900</v>
+        <v>10896900</v>
       </c>
       <c r="E58" s="3">
-        <v>8532000</v>
+        <v>10068700</v>
       </c>
       <c r="F58" s="3">
-        <v>11757800</v>
+        <v>8117400</v>
       </c>
       <c r="G58" s="3">
-        <v>9303300</v>
+        <v>11186500</v>
       </c>
       <c r="H58" s="3">
-        <v>8223300</v>
+        <v>8851200</v>
       </c>
       <c r="I58" s="3">
-        <v>7158600</v>
+        <v>7823700</v>
       </c>
       <c r="J58" s="3">
+        <v>6810700</v>
+      </c>
+      <c r="K58" s="3">
         <v>5955300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7799800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7622600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7391600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>11469900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>10756200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9369800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5601100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3361000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6353800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6216900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6111500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7700200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>6085000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>5627200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>7284700</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24552000</v>
+        <v>24134300</v>
       </c>
       <c r="E59" s="3">
-        <v>25417100</v>
+        <v>23359000</v>
       </c>
       <c r="F59" s="3">
-        <v>23342200</v>
+        <v>24231900</v>
       </c>
       <c r="G59" s="3">
-        <v>20538600</v>
+        <v>22207900</v>
       </c>
       <c r="H59" s="3">
-        <v>21888000</v>
+        <v>19540500</v>
       </c>
       <c r="I59" s="3">
-        <v>21471300</v>
+        <v>20824400</v>
       </c>
       <c r="J59" s="3">
+        <v>20427900</v>
+      </c>
+      <c r="K59" s="3">
         <v>49656000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>49887000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>37285100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>40767700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>38105900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>37718600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>39414800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>35555100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>34141200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>34551700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>35443700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>34640300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>32000300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>33477100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>33731800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>33643700</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>44392400</v>
+        <v>44301700</v>
       </c>
       <c r="E60" s="3">
-        <v>43584000</v>
+        <v>42235300</v>
       </c>
       <c r="F60" s="3">
-        <v>43864400</v>
+        <v>41516000</v>
       </c>
       <c r="G60" s="3">
-        <v>37777100</v>
+        <v>41732900</v>
       </c>
       <c r="H60" s="3">
-        <v>37774900</v>
+        <v>35941400</v>
       </c>
       <c r="I60" s="3">
-        <v>37218600</v>
+        <v>35939400</v>
       </c>
       <c r="J60" s="3">
+        <v>35410000</v>
+      </c>
+      <c r="K60" s="3">
         <v>62299700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>64688400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>56729400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>62135200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>61823300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>60746600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>60763400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>53025200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>47999100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>50933900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>51648600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>51697900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>50470500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>48915000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>48177900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>50375200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>45562900</v>
+        <v>42817500</v>
       </c>
       <c r="E61" s="3">
-        <v>44595300</v>
+        <v>43348900</v>
       </c>
       <c r="F61" s="3">
-        <v>43999700</v>
+        <v>42428300</v>
       </c>
       <c r="G61" s="3">
-        <v>47530900</v>
+        <v>41861600</v>
       </c>
       <c r="H61" s="3">
-        <v>39209500</v>
+        <v>45221300</v>
       </c>
       <c r="I61" s="3">
-        <v>41460000</v>
+        <v>37304200</v>
       </c>
       <c r="J61" s="3">
+        <v>39445400</v>
+      </c>
+      <c r="K61" s="3">
         <v>44311700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>41581400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>37631800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>37256800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>30732300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>32870400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>33201700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>30038100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>28666600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>28340300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>29600300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>30043500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>32026100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>38674700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>31563800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>30405200</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10747600</v>
+        <v>9742800</v>
       </c>
       <c r="E62" s="3">
-        <v>10365800</v>
+        <v>10225400</v>
       </c>
       <c r="F62" s="3">
-        <v>10486900</v>
+        <v>9862100</v>
       </c>
       <c r="G62" s="3">
-        <v>9669800</v>
+        <v>9977300</v>
       </c>
       <c r="H62" s="3">
-        <v>11406600</v>
+        <v>9199900</v>
       </c>
       <c r="I62" s="3">
-        <v>13038600</v>
+        <v>10852300</v>
       </c>
       <c r="J62" s="3">
+        <v>12405000</v>
+      </c>
+      <c r="K62" s="3">
         <v>14187300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14498800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18940700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>22205400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>20458800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>20995700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>20836600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>17583200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>17860100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>18649700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>20484200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>20910500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>20396700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>21366900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>22391600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>25920100</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4277,8 +4425,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4348,8 +4499,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4419,79 +4573,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>106261200</v>
+        <v>102139700</v>
       </c>
       <c r="E66" s="3">
-        <v>103815400</v>
+        <v>101097700</v>
       </c>
       <c r="F66" s="3">
-        <v>103370300</v>
+        <v>98820500</v>
       </c>
       <c r="G66" s="3">
-        <v>99853200</v>
+        <v>98347300</v>
       </c>
       <c r="H66" s="3">
-        <v>92039000</v>
+        <v>95001100</v>
       </c>
       <c r="I66" s="3">
-        <v>95462300</v>
+        <v>87566600</v>
       </c>
       <c r="J66" s="3">
+        <v>90823500</v>
+      </c>
+      <c r="K66" s="3">
         <v>123537900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>123689500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>116414700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>125098400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>116177700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>117771900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>117952500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>103496400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>97249900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>100645900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>103254500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>104266500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>104659200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>109687800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>102846900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>107410700</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4517,8 +4677,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4588,8 +4749,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4659,8 +4823,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4730,8 +4897,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4801,79 +4971,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>45123300</v>
+        <v>40692900</v>
       </c>
       <c r="E72" s="3">
-        <v>43207700</v>
+        <v>42930700</v>
       </c>
       <c r="F72" s="3">
-        <v>41823300</v>
+        <v>41108100</v>
       </c>
       <c r="G72" s="3">
-        <v>39590200</v>
+        <v>39791000</v>
       </c>
       <c r="H72" s="3">
-        <v>37803300</v>
+        <v>37666400</v>
       </c>
       <c r="I72" s="3">
-        <v>36085100</v>
+        <v>35966300</v>
       </c>
       <c r="J72" s="3">
+        <v>34331700</v>
+      </c>
+      <c r="K72" s="3">
         <v>43341900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>44554300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>48555800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>51226600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>47708900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>47185300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>48717600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>45427100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>44466800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>44000000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>42359600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>40160500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>38469700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>35296500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>36673300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>32225800</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4943,8 +5119,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5014,8 +5193,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5085,79 +5267,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>51276000</v>
+        <v>47261800</v>
       </c>
       <c r="E76" s="3">
-        <v>48174600</v>
+        <v>48784400</v>
       </c>
       <c r="F76" s="3">
-        <v>45900000</v>
+        <v>45833700</v>
       </c>
       <c r="G76" s="3">
-        <v>43773900</v>
+        <v>43669600</v>
       </c>
       <c r="H76" s="3">
-        <v>40433500</v>
+        <v>41646800</v>
       </c>
       <c r="I76" s="3">
-        <v>39698200</v>
+        <v>38468700</v>
       </c>
       <c r="J76" s="3">
+        <v>37769200</v>
+      </c>
+      <c r="K76" s="3">
         <v>47828800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>50388300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>55596900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>58953900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>52673300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>53198600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>53831400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>50365900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>49971100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>48999500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>49399000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>48448700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>47064100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>44510900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>45323200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>40157200</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5227,155 +5415,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1792400</v>
+        <v>1073200</v>
       </c>
       <c r="E81" s="3">
-        <v>1273100</v>
+        <v>1705300</v>
       </c>
       <c r="F81" s="3">
-        <v>1474900</v>
+        <v>1211200</v>
       </c>
       <c r="G81" s="3">
-        <v>2470900</v>
+        <v>1403200</v>
       </c>
       <c r="H81" s="3">
-        <v>1502200</v>
+        <v>2350800</v>
       </c>
       <c r="I81" s="3">
-        <v>1917800</v>
+        <v>1429200</v>
       </c>
       <c r="J81" s="3">
+        <v>1824600</v>
+      </c>
+      <c r="K81" s="3">
         <v>588000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>736200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1221700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1614500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1214000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2161500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1214100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>619100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1214400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2191200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2456000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1385700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1522500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1665600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2285400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5401,79 +5598,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>894500</v>
+        <v>1008800</v>
       </c>
       <c r="E83" s="3">
-        <v>883600</v>
+        <v>851100</v>
       </c>
       <c r="F83" s="3">
-        <v>937100</v>
+        <v>840700</v>
       </c>
       <c r="G83" s="3">
-        <v>759300</v>
+        <v>891600</v>
       </c>
       <c r="H83" s="3">
-        <v>774500</v>
+        <v>722400</v>
       </c>
       <c r="I83" s="3">
-        <v>970900</v>
+        <v>736900</v>
       </c>
       <c r="J83" s="3">
+        <v>923700</v>
+      </c>
+      <c r="K83" s="3">
         <v>842200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>479900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1208100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1182100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1016400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1000000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>991600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1013500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>891600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>939100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>959300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1143300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>967200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>785300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>775900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>871000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5543,8 +5744,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5614,8 +5818,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5685,8 +5892,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5756,8 +5966,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5827,79 +6040,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1621100</v>
+        <v>1906600</v>
       </c>
       <c r="E89" s="3">
-        <v>4796700</v>
+        <v>1542300</v>
       </c>
       <c r="F89" s="3">
-        <v>2938900</v>
+        <v>4563600</v>
       </c>
       <c r="G89" s="3">
-        <v>1738900</v>
+        <v>2796100</v>
       </c>
       <c r="H89" s="3">
-        <v>1430200</v>
+        <v>1654400</v>
       </c>
       <c r="I89" s="3">
-        <v>-22900</v>
+        <v>1360700</v>
       </c>
       <c r="J89" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="K89" s="3">
         <v>3294500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>756500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>599600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7463900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1281100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1299100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>224900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4696200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1625000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1495600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1540500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3636400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1781700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1423800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1331100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>5149500</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5925,79 +6144,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-427600</v>
+        <v>-532400</v>
       </c>
       <c r="E91" s="3">
-        <v>-676400</v>
+        <v>-406900</v>
       </c>
       <c r="F91" s="3">
-        <v>-456000</v>
+        <v>-643500</v>
       </c>
       <c r="G91" s="3">
-        <v>-396000</v>
+        <v>-433800</v>
       </c>
       <c r="H91" s="3">
-        <v>-358900</v>
+        <v>-376800</v>
       </c>
       <c r="I91" s="3">
-        <v>-567300</v>
+        <v>-341500</v>
       </c>
       <c r="J91" s="3">
+        <v>-539700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-373100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-231500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-549900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1016700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-770500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-717700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-628000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1058900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-662100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-607000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-563200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-969400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-724800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1115100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-988300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-959000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6067,8 +6290,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6138,79 +6364,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1080000</v>
+        <v>-973600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1762900</v>
+        <v>-1027500</v>
       </c>
       <c r="F94" s="3">
-        <v>-15819300</v>
+        <v>-1677200</v>
       </c>
       <c r="G94" s="3">
-        <v>1168400</v>
+        <v>-15050600</v>
       </c>
       <c r="H94" s="3">
-        <v>-488700</v>
+        <v>1111600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1433500</v>
+        <v>-465000</v>
       </c>
       <c r="J94" s="3">
+        <v>-1363800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-290200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1588600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2480600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1974700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1202300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1320600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1522800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2462200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1002500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1308200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>592400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1884900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1668400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4665900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-369800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2619900</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6236,8 +6468,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6307,8 +6540,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6378,8 +6614,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6449,8 +6688,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6520,217 +6762,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2119600</v>
+        <v>-3831900</v>
       </c>
       <c r="E100" s="3">
-        <v>-4437800</v>
+        <v>2016600</v>
       </c>
       <c r="F100" s="3">
-        <v>-1202200</v>
+        <v>-4222200</v>
       </c>
       <c r="G100" s="3">
-        <v>7171600</v>
+        <v>-1143800</v>
       </c>
       <c r="H100" s="3">
-        <v>-675300</v>
+        <v>6823200</v>
       </c>
       <c r="I100" s="3">
-        <v>1333100</v>
+        <v>-642500</v>
       </c>
       <c r="J100" s="3">
+        <v>1268300</v>
+      </c>
+      <c r="K100" s="3">
         <v>2092400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-758800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>794900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-262100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-890500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4363700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2801500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2307100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3425800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-639500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-380400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1729000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1276800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>3617700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2304200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2442700</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>234500</v>
+        <v>110000</v>
       </c>
       <c r="E101" s="3">
-        <v>168000</v>
+        <v>223100</v>
       </c>
       <c r="F101" s="3">
-        <v>-56700</v>
+        <v>159800</v>
       </c>
       <c r="G101" s="3">
-        <v>346900</v>
+        <v>-54000</v>
       </c>
       <c r="H101" s="3">
-        <v>-235600</v>
+        <v>330100</v>
       </c>
       <c r="I101" s="3">
-        <v>-308700</v>
+        <v>-224200</v>
       </c>
       <c r="J101" s="3">
+        <v>-293700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-80200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-89200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>126200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-203500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>192600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>78900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-137300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>68100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-13500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>50500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-130200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-402800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>39900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>63400</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2895300</v>
+        <v>-2788800</v>
       </c>
       <c r="E102" s="3">
-        <v>-1236000</v>
+        <v>2754600</v>
       </c>
       <c r="F102" s="3">
-        <v>-14139300</v>
+        <v>-1175900</v>
       </c>
       <c r="G102" s="3">
-        <v>10425800</v>
+        <v>-13452200</v>
       </c>
       <c r="H102" s="3">
-        <v>30500</v>
+        <v>9919200</v>
       </c>
       <c r="I102" s="3">
-        <v>-432000</v>
+        <v>29100</v>
       </c>
       <c r="J102" s="3">
+        <v>-411000</v>
+      </c>
+      <c r="K102" s="3">
         <v>4996400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1671100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1175400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5353200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1015200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4192700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1582600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4403800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2735100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-465600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1803000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-107700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1566300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>415500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1279500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>4972300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SIEGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIEGY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,317 +665,329 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17685800</v>
+        <v>17820500</v>
       </c>
       <c r="E8" s="3">
-        <v>17122200</v>
+        <v>16995700</v>
       </c>
       <c r="F8" s="3">
-        <v>18106200</v>
+        <v>16454100</v>
       </c>
       <c r="G8" s="3">
-        <v>16694600</v>
+        <v>17399600</v>
       </c>
       <c r="H8" s="3">
-        <v>15220800</v>
+        <v>16043200</v>
       </c>
       <c r="I8" s="3">
-        <v>14604300</v>
+        <v>14626900</v>
       </c>
       <c r="J8" s="3">
+        <v>14034400</v>
+      </c>
+      <c r="K8" s="3">
         <v>15377500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14158900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15563500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15440400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>20059200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16749600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>17039900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>16298200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>25039500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>22479400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>22598000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>22241200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>24927300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>23896100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>23634700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>22552400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>25768700</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11727200</v>
+        <v>11607700</v>
       </c>
       <c r="E9" s="3">
-        <v>10682100</v>
+        <v>11269600</v>
       </c>
       <c r="F9" s="3">
-        <v>11559100</v>
+        <v>10265200</v>
       </c>
       <c r="G9" s="3">
-        <v>10600100</v>
+        <v>11108000</v>
       </c>
       <c r="H9" s="3">
-        <v>9783200</v>
+        <v>10186400</v>
       </c>
       <c r="I9" s="3">
-        <v>9082700</v>
+        <v>9401500</v>
       </c>
       <c r="J9" s="3">
+        <v>8728200</v>
+      </c>
+      <c r="K9" s="3">
         <v>10048900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8971600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9903300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9809600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12496100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10675800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10582800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10438000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>17823500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>15801300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>15522700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>15554100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>17849700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>17030700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>15969700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>15409800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>18465200</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5958600</v>
+        <v>6212800</v>
       </c>
       <c r="E10" s="3">
-        <v>6440200</v>
+        <v>5726100</v>
       </c>
       <c r="F10" s="3">
-        <v>6547100</v>
+        <v>6188900</v>
       </c>
       <c r="G10" s="3">
-        <v>6094500</v>
+        <v>6291600</v>
       </c>
       <c r="H10" s="3">
-        <v>5437600</v>
+        <v>5856700</v>
       </c>
       <c r="I10" s="3">
-        <v>5521600</v>
+        <v>5225400</v>
       </c>
       <c r="J10" s="3">
+        <v>5306200</v>
+      </c>
+      <c r="K10" s="3">
         <v>5328600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5187300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5660200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5630800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7563100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6073800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6457100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5860200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7216000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6678000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7075300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6687100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>7077500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6865500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>7665000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>7142600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>7303400</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1002,82 +1014,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1410500</v>
+        <v>1396400</v>
       </c>
       <c r="E12" s="3">
-        <v>1298400</v>
+        <v>1355500</v>
       </c>
       <c r="F12" s="3">
-        <v>1500800</v>
+        <v>1247700</v>
       </c>
       <c r="G12" s="3">
-        <v>1266200</v>
+        <v>1442200</v>
       </c>
       <c r="H12" s="3">
-        <v>1170800</v>
+        <v>1216800</v>
       </c>
       <c r="I12" s="3">
-        <v>1104300</v>
+        <v>1125100</v>
       </c>
       <c r="J12" s="3">
+        <v>1061200</v>
+      </c>
+      <c r="K12" s="3">
         <v>1244400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1185800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1308600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1269100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1572900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1359900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1367300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1299100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1735600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1506500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1565200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1373300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1656100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1511300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1425000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1322900</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1551800</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1150,8 +1166,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1215,8 +1234,8 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>10</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>10</v>
@@ -1224,8 +1243,11 @@
       <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1298,8 +1320,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1323,156 +1348,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16368700</v>
+        <v>15395900</v>
       </c>
       <c r="E17" s="3">
-        <v>15082800</v>
+        <v>15730000</v>
       </c>
       <c r="F17" s="3">
-        <v>16421700</v>
+        <v>14494200</v>
       </c>
       <c r="G17" s="3">
-        <v>14970700</v>
+        <v>15780900</v>
       </c>
       <c r="H17" s="3">
-        <v>13692000</v>
+        <v>14386500</v>
       </c>
       <c r="I17" s="3">
-        <v>12799400</v>
+        <v>13157700</v>
       </c>
       <c r="J17" s="3">
+        <v>12299900</v>
+      </c>
+      <c r="K17" s="3">
         <v>13975300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12931600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14183800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14117100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>17557800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15177900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14926200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14927400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>23528700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>20824700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>20680500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>20439300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>23346400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>22102100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>20967800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>19862000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>23667500</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1317100</v>
+        <v>2424700</v>
       </c>
       <c r="E18" s="3">
-        <v>2039500</v>
+        <v>1265700</v>
       </c>
       <c r="F18" s="3">
-        <v>1684500</v>
+        <v>1959900</v>
       </c>
       <c r="G18" s="3">
-        <v>1724000</v>
+        <v>1618800</v>
       </c>
       <c r="H18" s="3">
-        <v>1528800</v>
+        <v>1656700</v>
       </c>
       <c r="I18" s="3">
-        <v>1804900</v>
+        <v>1469200</v>
       </c>
       <c r="J18" s="3">
+        <v>1734500</v>
+      </c>
+      <c r="K18" s="3">
         <v>1402200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1227300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1379800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1323300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2501400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1571700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2113700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1370800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1510800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1654700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1917500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1801900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1580900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1794100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2666900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2690400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2101100</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1499,378 +1531,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>694400</v>
+        <v>-3174700</v>
       </c>
       <c r="E20" s="3">
-        <v>671500</v>
+        <v>667300</v>
       </c>
       <c r="F20" s="3">
-        <v>408900</v>
+        <v>645300</v>
       </c>
       <c r="G20" s="3">
-        <v>191000</v>
+        <v>393000</v>
       </c>
       <c r="H20" s="3">
-        <v>700600</v>
+        <v>183500</v>
       </c>
       <c r="I20" s="3">
-        <v>405800</v>
+        <v>673200</v>
       </c>
       <c r="J20" s="3">
+        <v>390000</v>
+      </c>
+      <c r="K20" s="3">
         <v>209700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>480000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>427900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>479900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>407900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>564600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>553800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>350000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>435900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1373300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1141100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>478000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>518400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>154900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>759500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3020300</v>
+        <v>126700</v>
       </c>
       <c r="E21" s="3">
-        <v>3562100</v>
+        <v>2902400</v>
       </c>
       <c r="F21" s="3">
-        <v>2934100</v>
+        <v>3423100</v>
       </c>
       <c r="G21" s="3">
-        <v>2806500</v>
+        <v>2819600</v>
       </c>
       <c r="H21" s="3">
-        <v>2951800</v>
+        <v>2697000</v>
       </c>
       <c r="I21" s="3">
-        <v>2947600</v>
+        <v>2836600</v>
       </c>
       <c r="J21" s="3">
+        <v>2832600</v>
+      </c>
+      <c r="K21" s="3">
         <v>2535600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2549500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2287600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3011300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4091500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2988100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3678300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2916300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2874200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2982200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4229900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3902300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3202200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3279600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3607100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>4225700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3242100</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>194100</v>
+        <v>159600</v>
       </c>
       <c r="E22" s="3">
-        <v>171300</v>
+        <v>186500</v>
       </c>
       <c r="F22" s="3">
-        <v>183700</v>
+        <v>164600</v>
       </c>
       <c r="G22" s="3">
-        <v>142200</v>
+        <v>176500</v>
       </c>
       <c r="H22" s="3">
-        <v>170200</v>
+        <v>136600</v>
       </c>
       <c r="I22" s="3">
-        <v>172300</v>
+        <v>163600</v>
       </c>
       <c r="J22" s="3">
+        <v>165600</v>
+      </c>
+      <c r="K22" s="3">
         <v>147400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>237800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>353400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>159200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>308700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>276500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>312200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>259600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>301300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>299800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>298400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>311900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>310800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>322000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>284100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>286400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>291100</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1817400</v>
+        <v>-909600</v>
       </c>
       <c r="E23" s="3">
-        <v>2539700</v>
+        <v>1746400</v>
       </c>
       <c r="F23" s="3">
-        <v>1909700</v>
+        <v>2440600</v>
       </c>
       <c r="G23" s="3">
-        <v>1772700</v>
+        <v>1835200</v>
       </c>
       <c r="H23" s="3">
-        <v>2059200</v>
+        <v>1703600</v>
       </c>
       <c r="I23" s="3">
-        <v>2038400</v>
+        <v>1978800</v>
       </c>
       <c r="J23" s="3">
+        <v>1958900</v>
+      </c>
+      <c r="K23" s="3">
         <v>1464500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1469500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1454300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1644000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2600700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1695200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2366100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1665100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1559500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1790800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2992300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2631100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1748100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1990400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2537800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3163400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2080000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>561500</v>
+        <v>609400</v>
       </c>
       <c r="E24" s="3">
-        <v>660100</v>
+        <v>539600</v>
       </c>
       <c r="F24" s="3">
-        <v>593700</v>
+        <v>634300</v>
       </c>
       <c r="G24" s="3">
-        <v>344600</v>
+        <v>570500</v>
       </c>
       <c r="H24" s="3">
-        <v>486800</v>
+        <v>331100</v>
       </c>
       <c r="I24" s="3">
-        <v>506500</v>
+        <v>467800</v>
       </c>
       <c r="J24" s="3">
+        <v>486700</v>
+      </c>
+      <c r="K24" s="3">
         <v>387100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>446200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>334200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>302600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>916300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>448200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>311000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>461700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>828500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>512800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>774200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>655200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>379200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>392700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>860400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>853400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>693700</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1943,156 +1991,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1255900</v>
+        <v>-1519000</v>
       </c>
       <c r="E26" s="3">
-        <v>1879600</v>
+        <v>1206900</v>
       </c>
       <c r="F26" s="3">
-        <v>1316100</v>
+        <v>1806300</v>
       </c>
       <c r="G26" s="3">
-        <v>1428200</v>
+        <v>1264700</v>
       </c>
       <c r="H26" s="3">
-        <v>1572400</v>
+        <v>1372400</v>
       </c>
       <c r="I26" s="3">
-        <v>1531900</v>
+        <v>1511100</v>
       </c>
       <c r="J26" s="3">
+        <v>1472200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1077300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1023300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1120100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1341400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1684400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1247000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2055100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1203400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>731000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1278100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2218200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1975800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1368800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1597700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1677400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2310100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1386300</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1069000</v>
+        <v>-1643700</v>
       </c>
       <c r="E27" s="3">
-        <v>1720800</v>
+        <v>1027300</v>
       </c>
       <c r="F27" s="3">
-        <v>1149000</v>
+        <v>1653700</v>
       </c>
       <c r="G27" s="3">
-        <v>1294300</v>
+        <v>1104100</v>
       </c>
       <c r="H27" s="3">
-        <v>1443700</v>
+        <v>1243800</v>
       </c>
       <c r="I27" s="3">
-        <v>1405300</v>
+        <v>1387400</v>
       </c>
       <c r="J27" s="3">
+        <v>1350500</v>
+      </c>
+      <c r="K27" s="3">
         <v>952800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1027600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1069300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1333500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1499400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1122300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1916300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1079000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>594800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1163900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2144100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1952300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1350900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1539400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1636300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2271300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1359300</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2165,82 +2222,88 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>4200</v>
+        <v>-7000</v>
       </c>
       <c r="E29" s="3">
-        <v>-15600</v>
+        <v>4000</v>
       </c>
       <c r="F29" s="3">
-        <v>62300</v>
+        <v>-15000</v>
       </c>
       <c r="G29" s="3">
-        <v>109000</v>
+        <v>59800</v>
       </c>
       <c r="H29" s="3">
-        <v>907100</v>
+        <v>104700</v>
       </c>
       <c r="I29" s="3">
-        <v>23900</v>
+        <v>871700</v>
       </c>
       <c r="J29" s="3">
+        <v>22900</v>
+      </c>
+      <c r="K29" s="3">
         <v>871800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-439600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-333100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-111800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>115100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>91800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>245200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>135200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>24400</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>50500</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>47100</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>503800</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>34800</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-16800</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>29300</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>14100</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2313,8 +2376,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2387,156 +2453,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-694400</v>
+        <v>3174700</v>
       </c>
       <c r="E32" s="3">
-        <v>-671500</v>
+        <v>-667300</v>
       </c>
       <c r="F32" s="3">
-        <v>-408900</v>
+        <v>-645300</v>
       </c>
       <c r="G32" s="3">
-        <v>-191000</v>
+        <v>-393000</v>
       </c>
       <c r="H32" s="3">
-        <v>-700600</v>
+        <v>-183500</v>
       </c>
       <c r="I32" s="3">
-        <v>-405800</v>
+        <v>-673200</v>
       </c>
       <c r="J32" s="3">
+        <v>-390000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-209700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-480000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-427900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-479900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-407900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-564600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-553800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-350000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-435900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1373300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1141100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-478000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-518400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-154900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-759500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-270000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1073200</v>
+        <v>-1650700</v>
       </c>
       <c r="E33" s="3">
-        <v>1705300</v>
+        <v>1031300</v>
       </c>
       <c r="F33" s="3">
-        <v>1211200</v>
+        <v>1638700</v>
       </c>
       <c r="G33" s="3">
-        <v>1403200</v>
+        <v>1164000</v>
       </c>
       <c r="H33" s="3">
-        <v>2350800</v>
+        <v>1348500</v>
       </c>
       <c r="I33" s="3">
-        <v>1429200</v>
+        <v>2259100</v>
       </c>
       <c r="J33" s="3">
+        <v>1373400</v>
+      </c>
+      <c r="K33" s="3">
         <v>1824600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>588000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>736200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1221700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1614500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1214000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2161500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1214100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>619100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1214400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2191200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2456000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1385700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1522500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1665600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2285400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2609,161 +2684,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1073200</v>
+        <v>-1650700</v>
       </c>
       <c r="E35" s="3">
-        <v>1705300</v>
+        <v>1031300</v>
       </c>
       <c r="F35" s="3">
-        <v>1211200</v>
+        <v>1638700</v>
       </c>
       <c r="G35" s="3">
-        <v>1403200</v>
+        <v>1164000</v>
       </c>
       <c r="H35" s="3">
-        <v>2350800</v>
+        <v>1348500</v>
       </c>
       <c r="I35" s="3">
-        <v>1429200</v>
+        <v>2259100</v>
       </c>
       <c r="J35" s="3">
+        <v>1373400</v>
+      </c>
+      <c r="K35" s="3">
         <v>1824600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>588000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>736200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1221700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1614500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1214000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2161500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1214100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>619100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1214400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2191200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2456000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1385700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1522500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1665600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2285400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2790,8 +2874,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2818,674 +2903,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9854900</v>
+        <v>10070700</v>
       </c>
       <c r="E41" s="3">
-        <v>12661300</v>
+        <v>9470300</v>
       </c>
       <c r="F41" s="3">
-        <v>9906800</v>
+        <v>12167300</v>
       </c>
       <c r="G41" s="3">
-        <v>11082700</v>
+        <v>9520200</v>
       </c>
       <c r="H41" s="3">
-        <v>24534900</v>
+        <v>10650200</v>
       </c>
       <c r="I41" s="3">
-        <v>14547200</v>
+        <v>23577500</v>
       </c>
       <c r="J41" s="3">
+        <v>13979600</v>
+      </c>
+      <c r="K41" s="3">
         <v>14573200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13182600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8843100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12815300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15178900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9437100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10628200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>14819700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12256700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7784800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10749800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>11215400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9396700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9520100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>11598400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>11182900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>12447100</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8929100</v>
+        <v>9616900</v>
       </c>
       <c r="E42" s="3">
-        <v>9124200</v>
+        <v>8580600</v>
       </c>
       <c r="F42" s="3">
-        <v>8287600</v>
+        <v>8768100</v>
       </c>
       <c r="G42" s="3">
-        <v>7777000</v>
+        <v>7964200</v>
       </c>
       <c r="H42" s="3">
-        <v>9490600</v>
+        <v>7473500</v>
       </c>
       <c r="I42" s="3">
-        <v>8728700</v>
+        <v>9120200</v>
       </c>
       <c r="J42" s="3">
+        <v>8388100</v>
+      </c>
+      <c r="K42" s="3">
         <v>8699700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>9240000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>11103600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>11233400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>13069400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>11464000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>11729900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>11299300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>11865700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>10144400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>10626400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>10132700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>9992400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>9755700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>10085400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>10037200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>9499600</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>25051800</v>
+        <v>24739500</v>
       </c>
       <c r="E43" s="3">
-        <v>24817200</v>
+        <v>24074200</v>
       </c>
       <c r="F43" s="3">
-        <v>24866000</v>
+        <v>23848800</v>
       </c>
       <c r="G43" s="3">
-        <v>24106300</v>
+        <v>23895700</v>
       </c>
       <c r="H43" s="3">
-        <v>22330400</v>
+        <v>23165600</v>
       </c>
       <c r="I43" s="3">
-        <v>21639200</v>
+        <v>21459100</v>
       </c>
       <c r="J43" s="3">
+        <v>20794800</v>
+      </c>
+      <c r="K43" s="3">
         <v>21943300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>22461800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>24030600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>33874100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>37124500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>35800200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>34793900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>34533100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>31430400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>29901800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>28899100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>29119000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>29882000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>20761300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>20843300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>20116800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>20045200</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10497300</v>
+        <v>10758000</v>
       </c>
       <c r="E44" s="3">
-        <v>10106000</v>
+        <v>10087700</v>
       </c>
       <c r="F44" s="3">
-        <v>9170900</v>
+        <v>9711700</v>
       </c>
       <c r="G44" s="3">
-        <v>9295400</v>
+        <v>8813000</v>
       </c>
       <c r="H44" s="3">
-        <v>8257500</v>
+        <v>8932700</v>
       </c>
       <c r="I44" s="3">
-        <v>8036500</v>
+        <v>7935300</v>
       </c>
       <c r="J44" s="3">
+        <v>7722900</v>
+      </c>
+      <c r="K44" s="3">
         <v>8090400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9481100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>9569100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>18004600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>18137200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>18655400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>18701400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>17891600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>15379000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>16156000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>16172400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>16158900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>15578800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>23339600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>23185100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>22082900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>21316400</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3426100</v>
+        <v>2902400</v>
       </c>
       <c r="E45" s="3">
-        <v>1792500</v>
+        <v>3292400</v>
       </c>
       <c r="F45" s="3">
-        <v>2047800</v>
+        <v>1722500</v>
       </c>
       <c r="G45" s="3">
-        <v>1721900</v>
+        <v>1967900</v>
       </c>
       <c r="H45" s="3">
-        <v>1597300</v>
+        <v>1654700</v>
       </c>
       <c r="I45" s="3">
-        <v>3218500</v>
+        <v>1535000</v>
       </c>
       <c r="J45" s="3">
+        <v>3092900</v>
+      </c>
+      <c r="K45" s="3">
         <v>1668900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>47403300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>48519700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2511100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2692500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2531600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2367300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2349300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1993700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2067500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2175500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1936600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4957000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2066700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1916800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1676200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1637500</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>57759100</v>
+        <v>58087600</v>
       </c>
       <c r="E46" s="3">
-        <v>58501200</v>
+        <v>55505300</v>
       </c>
       <c r="F46" s="3">
-        <v>54280100</v>
+        <v>56218500</v>
       </c>
       <c r="G46" s="3">
-        <v>53983300</v>
+        <v>52162000</v>
       </c>
       <c r="H46" s="3">
-        <v>66210800</v>
+        <v>51876800</v>
       </c>
       <c r="I46" s="3">
-        <v>56170100</v>
+        <v>63627100</v>
       </c>
       <c r="J46" s="3">
+        <v>53978300</v>
+      </c>
+      <c r="K46" s="3">
         <v>54975500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>101768800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>102066100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>78438600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>86202500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>77888300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>78220700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>80893000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>71502200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>66054600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>68623200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>68562600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>68160900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>65443400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>67629100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>65096000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>64945700</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>31922700</v>
+        <v>28996400</v>
       </c>
       <c r="E47" s="3">
-        <v>31235600</v>
+        <v>30677000</v>
       </c>
       <c r="F47" s="3">
-        <v>31659100</v>
+        <v>30016800</v>
       </c>
       <c r="G47" s="3">
-        <v>31143200</v>
+        <v>30423700</v>
       </c>
       <c r="H47" s="3">
-        <v>29084000</v>
+        <v>29928000</v>
       </c>
       <c r="I47" s="3">
-        <v>29441100</v>
+        <v>27949100</v>
       </c>
       <c r="J47" s="3">
+        <v>28292200</v>
+      </c>
+      <c r="K47" s="3">
         <v>31794000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>24796400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>25346000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>24782600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>27056400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>25019700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>25335500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>24967100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>22543000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>22100500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>21630800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>23888300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>24426800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>25769900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>27684300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>27944900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>27727700</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11579900</v>
+        <v>11384300</v>
       </c>
       <c r="E48" s="3">
-        <v>11628600</v>
+        <v>11128000</v>
       </c>
       <c r="F48" s="3">
-        <v>11440800</v>
+        <v>11174900</v>
       </c>
       <c r="G48" s="3">
-        <v>11023500</v>
+        <v>10994300</v>
       </c>
       <c r="H48" s="3">
-        <v>10471400</v>
+        <v>10593400</v>
       </c>
       <c r="I48" s="3">
-        <v>10156900</v>
+        <v>10062800</v>
       </c>
       <c r="J48" s="3">
+        <v>9760600</v>
+      </c>
+      <c r="K48" s="3">
         <v>10638500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11245100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11644400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16910500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14924100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13879200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14074500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13777800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12605600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12157100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12203900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12181400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12316100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12254400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12244000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>12059700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>11922400</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>43350000</v>
+        <v>42773500</v>
       </c>
       <c r="E49" s="3">
-        <v>43153800</v>
+        <v>41658400</v>
       </c>
       <c r="F49" s="3">
-        <v>42033900</v>
+        <v>41469900</v>
       </c>
       <c r="G49" s="3">
-        <v>40991900</v>
+        <v>40393700</v>
       </c>
       <c r="H49" s="3">
-        <v>26226700</v>
+        <v>39392300</v>
       </c>
       <c r="I49" s="3">
-        <v>25383900</v>
+        <v>25203300</v>
       </c>
       <c r="J49" s="3">
+        <v>24393400</v>
+      </c>
+      <c r="K49" s="3">
         <v>26245400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>28500000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>30084900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>46092100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>48950600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>46096100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>47582400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>46788200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>42614900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>42278500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>42292300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>43301000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>43569100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>44476800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>42453200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>38471600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>37445700</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3558,8 +3671,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3632,82 +3748,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4789900</v>
+        <v>4366600</v>
       </c>
       <c r="E52" s="3">
-        <v>5362800</v>
+        <v>4603000</v>
       </c>
       <c r="F52" s="3">
-        <v>5241400</v>
+        <v>5153600</v>
       </c>
       <c r="G52" s="3">
-        <v>4875000</v>
+        <v>5036900</v>
       </c>
       <c r="H52" s="3">
-        <v>4655000</v>
+        <v>4684800</v>
       </c>
       <c r="I52" s="3">
-        <v>4883300</v>
+        <v>4473300</v>
       </c>
       <c r="J52" s="3">
+        <v>4692800</v>
+      </c>
+      <c r="K52" s="3">
         <v>4939400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5056400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4936400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5787800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6918700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5967900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5757300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5357800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4596500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4630300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4895200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4720200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4242200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3778900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4188200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4597800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>5526300</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3780,82 +3902,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>149401600</v>
+        <v>145608400</v>
       </c>
       <c r="E54" s="3">
-        <v>149882100</v>
+        <v>143571700</v>
       </c>
       <c r="F54" s="3">
-        <v>144654200</v>
+        <v>144033500</v>
       </c>
       <c r="G54" s="3">
-        <v>142016900</v>
+        <v>139009600</v>
       </c>
       <c r="H54" s="3">
-        <v>136647800</v>
+        <v>136475200</v>
       </c>
       <c r="I54" s="3">
-        <v>126035300</v>
+        <v>131315700</v>
       </c>
       <c r="J54" s="3">
+        <v>121117300</v>
+      </c>
+      <c r="K54" s="3">
         <v>128592700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>171366700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>174077900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>172011600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>184052300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>168851000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>170970500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>171783900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>153862300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>147220900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>149645400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>152653500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>152715200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>151723300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>154198700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>148170000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>147567900</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3882,8 +4010,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3910,452 +4039,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9270500</v>
+        <v>9104300</v>
       </c>
       <c r="E57" s="3">
-        <v>8807600</v>
+        <v>8908800</v>
       </c>
       <c r="F57" s="3">
-        <v>9166700</v>
+        <v>8463900</v>
       </c>
       <c r="G57" s="3">
-        <v>8338500</v>
+        <v>8809000</v>
       </c>
       <c r="H57" s="3">
-        <v>7549700</v>
+        <v>8013100</v>
       </c>
       <c r="I57" s="3">
-        <v>7291200</v>
+        <v>7255100</v>
       </c>
       <c r="J57" s="3">
+        <v>7006700</v>
+      </c>
+      <c r="K57" s="3">
         <v>8171400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6688400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7001500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11821700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>13975900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12247500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12271800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11978700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11869000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>10496900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>10028300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>9988000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>10946100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>10770000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>9352900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>8818800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>9446800</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10896900</v>
+        <v>9873300</v>
       </c>
       <c r="E58" s="3">
-        <v>10068700</v>
+        <v>10471700</v>
       </c>
       <c r="F58" s="3">
-        <v>8117400</v>
+        <v>9675800</v>
       </c>
       <c r="G58" s="3">
-        <v>11186500</v>
+        <v>7800700</v>
       </c>
       <c r="H58" s="3">
-        <v>8851200</v>
+        <v>10750000</v>
       </c>
       <c r="I58" s="3">
-        <v>7823700</v>
+        <v>8505800</v>
       </c>
       <c r="J58" s="3">
+        <v>7518400</v>
+      </c>
+      <c r="K58" s="3">
         <v>6810700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5955300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7799800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7622600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7391600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>11469900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>10756200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9369800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5601100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3361000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6353800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6216900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>6111500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>7700200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>6085000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>5627200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>7284700</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24134300</v>
+        <v>24818300</v>
       </c>
       <c r="E59" s="3">
-        <v>23359000</v>
+        <v>23192500</v>
       </c>
       <c r="F59" s="3">
-        <v>24231900</v>
+        <v>22447500</v>
       </c>
       <c r="G59" s="3">
-        <v>22207900</v>
+        <v>23286300</v>
       </c>
       <c r="H59" s="3">
-        <v>19540500</v>
+        <v>21341400</v>
       </c>
       <c r="I59" s="3">
-        <v>20824400</v>
+        <v>18778000</v>
       </c>
       <c r="J59" s="3">
+        <v>20011800</v>
+      </c>
+      <c r="K59" s="3">
         <v>20427900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>49656000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>49887000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>37285100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>40767700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>38105900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>37718600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>39414800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>35555100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>34141200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>34551700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>35443700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>34640300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>32000300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>33477100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>33731800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>33643700</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>44301700</v>
+        <v>43795800</v>
       </c>
       <c r="E60" s="3">
-        <v>42235300</v>
+        <v>42573000</v>
       </c>
       <c r="F60" s="3">
-        <v>41516000</v>
+        <v>40587200</v>
       </c>
       <c r="G60" s="3">
-        <v>41732900</v>
+        <v>39896000</v>
       </c>
       <c r="H60" s="3">
-        <v>35941400</v>
+        <v>40104500</v>
       </c>
       <c r="I60" s="3">
-        <v>35939400</v>
+        <v>34539000</v>
       </c>
       <c r="J60" s="3">
+        <v>34537000</v>
+      </c>
+      <c r="K60" s="3">
         <v>35410000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>62299700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>64688400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>56729400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>62135200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>61823300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>60746600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>60763400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>53025200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>47999100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>50933900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>51648600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>51697900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>50470500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>48915000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>48177900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>50375200</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>42817500</v>
+        <v>41548700</v>
       </c>
       <c r="E61" s="3">
-        <v>43348900</v>
+        <v>41146700</v>
       </c>
       <c r="F61" s="3">
-        <v>42428300</v>
+        <v>41657400</v>
       </c>
       <c r="G61" s="3">
-        <v>41861600</v>
+        <v>40772700</v>
       </c>
       <c r="H61" s="3">
-        <v>45221300</v>
+        <v>40228100</v>
       </c>
       <c r="I61" s="3">
-        <v>37304200</v>
+        <v>43456700</v>
       </c>
       <c r="J61" s="3">
+        <v>35848600</v>
+      </c>
+      <c r="K61" s="3">
         <v>39445400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>44311700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>41581400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>37631800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>37256800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>30732300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>32870400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>33201700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>30038100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>28666600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>28340300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>29600300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>30043500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>32026100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>38674700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>31563800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>30405200</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9742800</v>
+        <v>9193000</v>
       </c>
       <c r="E62" s="3">
-        <v>10225400</v>
+        <v>9362600</v>
       </c>
       <c r="F62" s="3">
-        <v>9862100</v>
+        <v>9826400</v>
       </c>
       <c r="G62" s="3">
-        <v>9977300</v>
+        <v>9477300</v>
       </c>
       <c r="H62" s="3">
-        <v>9199900</v>
+        <v>9588000</v>
       </c>
       <c r="I62" s="3">
-        <v>10852300</v>
+        <v>8841000</v>
       </c>
       <c r="J62" s="3">
+        <v>10428800</v>
+      </c>
+      <c r="K62" s="3">
         <v>12405000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14187300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14498800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18940700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>22205400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>20458800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>20995700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>20836600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>17583200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>17860100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>18649700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>20484200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>20910500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>20396700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>21366900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>22391600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>25920100</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4428,8 +4576,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4502,8 +4653,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4576,82 +4730,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>102139700</v>
+        <v>100004300</v>
       </c>
       <c r="E66" s="3">
-        <v>101097700</v>
+        <v>98154100</v>
       </c>
       <c r="F66" s="3">
-        <v>98820500</v>
+        <v>97152700</v>
       </c>
       <c r="G66" s="3">
-        <v>98347300</v>
+        <v>94964400</v>
       </c>
       <c r="H66" s="3">
-        <v>95001100</v>
+        <v>94509600</v>
       </c>
       <c r="I66" s="3">
-        <v>87566600</v>
+        <v>91294000</v>
       </c>
       <c r="J66" s="3">
+        <v>84149600</v>
+      </c>
+      <c r="K66" s="3">
         <v>90823500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>123537900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>123689500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>116414700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>125098400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>116177700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>117771900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>117952500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>103496400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>97249900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>100645900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>103254500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>104266500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>104659200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>109687800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>102846900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>107410700</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4678,8 +4838,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4752,8 +4913,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4826,8 +4990,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4900,8 +5067,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4974,82 +5144,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>40692900</v>
+        <v>37211000</v>
       </c>
       <c r="E72" s="3">
-        <v>42930700</v>
+        <v>39105100</v>
       </c>
       <c r="F72" s="3">
-        <v>41108100</v>
+        <v>41255500</v>
       </c>
       <c r="G72" s="3">
-        <v>39791000</v>
+        <v>39504000</v>
       </c>
       <c r="H72" s="3">
-        <v>37666400</v>
+        <v>38238300</v>
       </c>
       <c r="I72" s="3">
-        <v>35966300</v>
+        <v>36196600</v>
       </c>
       <c r="J72" s="3">
+        <v>34562900</v>
+      </c>
+      <c r="K72" s="3">
         <v>34331700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>43341900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>44554300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>48555800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>51226600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>47708900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>47185300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>48717600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>45427100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>44466800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>44000000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>42359600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>40160500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>38469700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>35296500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>36673300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>32225800</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5122,8 +5298,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5196,8 +5375,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5270,82 +5452,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>47261800</v>
+        <v>45604100</v>
       </c>
       <c r="E76" s="3">
-        <v>48784400</v>
+        <v>45417600</v>
       </c>
       <c r="F76" s="3">
-        <v>45833700</v>
+        <v>46880800</v>
       </c>
       <c r="G76" s="3">
-        <v>43669600</v>
+        <v>44045200</v>
       </c>
       <c r="H76" s="3">
-        <v>41646800</v>
+        <v>41965600</v>
       </c>
       <c r="I76" s="3">
-        <v>38468700</v>
+        <v>40021700</v>
       </c>
       <c r="J76" s="3">
+        <v>36967600</v>
+      </c>
+      <c r="K76" s="3">
         <v>37769200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>47828800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>50388300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>55596900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>58953900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>52673300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>53198600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>53831400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>50365900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>49971100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>48999500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>49399000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>48448700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>47064100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>44510900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>45323200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>40157200</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5418,161 +5606,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1073200</v>
+        <v>-1650700</v>
       </c>
       <c r="E81" s="3">
-        <v>1705300</v>
+        <v>1031300</v>
       </c>
       <c r="F81" s="3">
-        <v>1211200</v>
+        <v>1638700</v>
       </c>
       <c r="G81" s="3">
-        <v>1403200</v>
+        <v>1164000</v>
       </c>
       <c r="H81" s="3">
-        <v>2350800</v>
+        <v>1348500</v>
       </c>
       <c r="I81" s="3">
-        <v>1429200</v>
+        <v>2259100</v>
       </c>
       <c r="J81" s="3">
+        <v>1373400</v>
+      </c>
+      <c r="K81" s="3">
         <v>1824600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>588000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>736200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1221700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1614500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1214000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2161500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1214100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>619100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1214400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2191200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2456000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1385700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1522500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1665600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2285400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5599,82 +5796,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1008800</v>
+        <v>876700</v>
       </c>
       <c r="E83" s="3">
-        <v>851100</v>
+        <v>969500</v>
       </c>
       <c r="F83" s="3">
-        <v>840700</v>
+        <v>817900</v>
       </c>
       <c r="G83" s="3">
+        <v>807900</v>
+      </c>
+      <c r="H83" s="3">
+        <v>856800</v>
+      </c>
+      <c r="I83" s="3">
+        <v>694200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>708200</v>
+      </c>
+      <c r="K83" s="3">
+        <v>923700</v>
+      </c>
+      <c r="L83" s="3">
+        <v>842200</v>
+      </c>
+      <c r="M83" s="3">
+        <v>479900</v>
+      </c>
+      <c r="N83" s="3">
+        <v>1208100</v>
+      </c>
+      <c r="O83" s="3">
+        <v>1182100</v>
+      </c>
+      <c r="P83" s="3">
+        <v>1016400</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="R83" s="3">
+        <v>991600</v>
+      </c>
+      <c r="S83" s="3">
+        <v>1013500</v>
+      </c>
+      <c r="T83" s="3">
         <v>891600</v>
       </c>
-      <c r="H83" s="3">
-        <v>722400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>736900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>923700</v>
-      </c>
-      <c r="K83" s="3">
-        <v>842200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>479900</v>
-      </c>
-      <c r="M83" s="3">
-        <v>1208100</v>
-      </c>
-      <c r="N83" s="3">
-        <v>1182100</v>
-      </c>
-      <c r="O83" s="3">
-        <v>1016400</v>
-      </c>
-      <c r="P83" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>991600</v>
-      </c>
-      <c r="R83" s="3">
-        <v>1013500</v>
-      </c>
-      <c r="S83" s="3">
-        <v>891600</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>939100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>959300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1143300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>967200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>785300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>775900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>871000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5747,8 +5948,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5821,8 +6025,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5895,8 +6102,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5969,8 +6179,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6043,82 +6256,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1906600</v>
+        <v>2750800</v>
       </c>
       <c r="E89" s="3">
-        <v>1542300</v>
+        <v>1832200</v>
       </c>
       <c r="F89" s="3">
-        <v>4563600</v>
+        <v>1482100</v>
       </c>
       <c r="G89" s="3">
-        <v>2796100</v>
+        <v>4385600</v>
       </c>
       <c r="H89" s="3">
-        <v>1654400</v>
+        <v>2687000</v>
       </c>
       <c r="I89" s="3">
-        <v>1360700</v>
+        <v>1589900</v>
       </c>
       <c r="J89" s="3">
+        <v>1307600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-21800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3294500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>756500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>599600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7463900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1281100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1299100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>224900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4696200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1625000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1495600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1540500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3636400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1781700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1423800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1331100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>5149500</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6145,82 +6364,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-532400</v>
+        <v>-469800</v>
       </c>
       <c r="E91" s="3">
-        <v>-406900</v>
+        <v>-511700</v>
       </c>
       <c r="F91" s="3">
-        <v>-643500</v>
+        <v>-391000</v>
       </c>
       <c r="G91" s="3">
-        <v>-433800</v>
+        <v>-618400</v>
       </c>
       <c r="H91" s="3">
-        <v>-376800</v>
+        <v>-416900</v>
       </c>
       <c r="I91" s="3">
-        <v>-341500</v>
+        <v>-362100</v>
       </c>
       <c r="J91" s="3">
+        <v>-328100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-539700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-373100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-231500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-549900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1016700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-770500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-717700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-628000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1058900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-662100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-607000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-563200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-969400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-724800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1115100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-988300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-959000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6293,8 +6516,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6367,82 +6593,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-973600</v>
+        <v>-133700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1027500</v>
+        <v>-935600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1677200</v>
+        <v>-987400</v>
       </c>
       <c r="G94" s="3">
-        <v>-15050600</v>
+        <v>-1611800</v>
       </c>
       <c r="H94" s="3">
-        <v>1111600</v>
+        <v>-14463300</v>
       </c>
       <c r="I94" s="3">
-        <v>-465000</v>
+        <v>1068200</v>
       </c>
       <c r="J94" s="3">
+        <v>-446800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1363800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-290200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1588600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2480600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1974700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1202300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1320600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1522800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2462200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1002500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1308200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>592400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1884900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1668400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-4665900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-369800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2619900</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6469,8 +6701,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6543,8 +6776,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6617,8 +6853,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6691,8 +6930,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6765,226 +7007,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3831900</v>
+        <v>-2211200</v>
       </c>
       <c r="E100" s="3">
-        <v>2016600</v>
+        <v>-3682400</v>
       </c>
       <c r="F100" s="3">
-        <v>-4222200</v>
+        <v>1937900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1143800</v>
+        <v>-4057400</v>
       </c>
       <c r="H100" s="3">
-        <v>6823200</v>
+        <v>-1099100</v>
       </c>
       <c r="I100" s="3">
-        <v>-642500</v>
+        <v>6556900</v>
       </c>
       <c r="J100" s="3">
+        <v>-617400</v>
+      </c>
+      <c r="K100" s="3">
         <v>1268300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2092400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-758800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>794900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-262100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-890500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4363700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2801500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2307100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3425800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-639500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-380400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1729000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1276800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>3617700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2304200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>2442700</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>110000</v>
+        <v>225400</v>
       </c>
       <c r="E101" s="3">
-        <v>223100</v>
+        <v>105700</v>
       </c>
       <c r="F101" s="3">
-        <v>159800</v>
+        <v>214400</v>
       </c>
       <c r="G101" s="3">
-        <v>-54000</v>
+        <v>153600</v>
       </c>
       <c r="H101" s="3">
-        <v>330100</v>
+        <v>-51900</v>
       </c>
       <c r="I101" s="3">
-        <v>-224200</v>
+        <v>317200</v>
       </c>
       <c r="J101" s="3">
+        <v>-215400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-293700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-80200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-89200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>126200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-203500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>192600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>78900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-137300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>68100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-13500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>50500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-130200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-402800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>39900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>63400</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2788800</v>
+        <v>631400</v>
       </c>
       <c r="E102" s="3">
-        <v>2754600</v>
+        <v>-2680000</v>
       </c>
       <c r="F102" s="3">
-        <v>-1175900</v>
+        <v>2647100</v>
       </c>
       <c r="G102" s="3">
-        <v>-13452200</v>
+        <v>-1130100</v>
       </c>
       <c r="H102" s="3">
-        <v>9919200</v>
+        <v>-12927300</v>
       </c>
       <c r="I102" s="3">
-        <v>29100</v>
+        <v>9532200</v>
       </c>
       <c r="J102" s="3">
+        <v>27900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-411000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4996400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1671100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1175400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5353200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1015200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4192700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1582600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4403800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2735100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-465600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1803000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-107700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1566300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>415500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1279500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>4972300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SIEGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIEGY_QTR_FIN.xlsx
@@ -761,25 +761,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17820500</v>
+        <v>18238600</v>
       </c>
       <c r="E8" s="3">
-        <v>16995700</v>
+        <v>17394400</v>
       </c>
       <c r="F8" s="3">
-        <v>16454100</v>
+        <v>16840100</v>
       </c>
       <c r="G8" s="3">
-        <v>17399600</v>
+        <v>17807900</v>
       </c>
       <c r="H8" s="3">
-        <v>16043200</v>
+        <v>16419600</v>
       </c>
       <c r="I8" s="3">
-        <v>14626900</v>
+        <v>14970000</v>
       </c>
       <c r="J8" s="3">
-        <v>14034400</v>
+        <v>14363700</v>
       </c>
       <c r="K8" s="3">
         <v>15377500</v>
@@ -838,25 +838,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11607700</v>
+        <v>11880100</v>
       </c>
       <c r="E9" s="3">
-        <v>11269600</v>
+        <v>11534000</v>
       </c>
       <c r="F9" s="3">
-        <v>10265200</v>
+        <v>10506100</v>
       </c>
       <c r="G9" s="3">
-        <v>11108000</v>
+        <v>11368600</v>
       </c>
       <c r="H9" s="3">
-        <v>10186400</v>
+        <v>10425400</v>
       </c>
       <c r="I9" s="3">
-        <v>9401500</v>
+        <v>9622100</v>
       </c>
       <c r="J9" s="3">
-        <v>8728200</v>
+        <v>8933000</v>
       </c>
       <c r="K9" s="3">
         <v>10048900</v>
@@ -915,25 +915,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6212800</v>
+        <v>6358600</v>
       </c>
       <c r="E10" s="3">
-        <v>5726100</v>
+        <v>5860400</v>
       </c>
       <c r="F10" s="3">
-        <v>6188900</v>
+        <v>6334100</v>
       </c>
       <c r="G10" s="3">
-        <v>6291600</v>
+        <v>6439200</v>
       </c>
       <c r="H10" s="3">
-        <v>5856700</v>
+        <v>5994100</v>
       </c>
       <c r="I10" s="3">
-        <v>5225400</v>
+        <v>5348000</v>
       </c>
       <c r="J10" s="3">
-        <v>5306200</v>
+        <v>5430700</v>
       </c>
       <c r="K10" s="3">
         <v>5328600</v>
@@ -1021,25 +1021,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1396400</v>
+        <v>1429100</v>
       </c>
       <c r="E12" s="3">
-        <v>1355500</v>
+        <v>1387300</v>
       </c>
       <c r="F12" s="3">
-        <v>1247700</v>
+        <v>1277000</v>
       </c>
       <c r="G12" s="3">
-        <v>1442200</v>
+        <v>1476100</v>
       </c>
       <c r="H12" s="3">
-        <v>1216800</v>
+        <v>1245400</v>
       </c>
       <c r="I12" s="3">
-        <v>1125100</v>
+        <v>1151500</v>
       </c>
       <c r="J12" s="3">
-        <v>1061200</v>
+        <v>1086100</v>
       </c>
       <c r="K12" s="3">
         <v>1244400</v>
@@ -1355,25 +1355,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15395900</v>
+        <v>15757100</v>
       </c>
       <c r="E17" s="3">
-        <v>15730000</v>
+        <v>16099000</v>
       </c>
       <c r="F17" s="3">
-        <v>14494200</v>
+        <v>14834300</v>
       </c>
       <c r="G17" s="3">
-        <v>15780900</v>
+        <v>16151100</v>
       </c>
       <c r="H17" s="3">
-        <v>14386500</v>
+        <v>14724000</v>
       </c>
       <c r="I17" s="3">
-        <v>13157700</v>
+        <v>13466400</v>
       </c>
       <c r="J17" s="3">
-        <v>12299900</v>
+        <v>12588500</v>
       </c>
       <c r="K17" s="3">
         <v>13975300</v>
@@ -1432,25 +1432,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2424700</v>
+        <v>2481600</v>
       </c>
       <c r="E18" s="3">
-        <v>1265700</v>
+        <v>1295400</v>
       </c>
       <c r="F18" s="3">
-        <v>1959900</v>
+        <v>2005900</v>
       </c>
       <c r="G18" s="3">
-        <v>1618800</v>
+        <v>1656800</v>
       </c>
       <c r="H18" s="3">
-        <v>1656700</v>
+        <v>1695500</v>
       </c>
       <c r="I18" s="3">
-        <v>1469200</v>
+        <v>1503600</v>
       </c>
       <c r="J18" s="3">
-        <v>1734500</v>
+        <v>1775200</v>
       </c>
       <c r="K18" s="3">
         <v>1402200</v>
@@ -1538,25 +1538,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3174700</v>
+        <v>-3249200</v>
       </c>
       <c r="E20" s="3">
-        <v>667300</v>
+        <v>682900</v>
       </c>
       <c r="F20" s="3">
-        <v>645300</v>
+        <v>660500</v>
       </c>
       <c r="G20" s="3">
-        <v>393000</v>
+        <v>402200</v>
       </c>
       <c r="H20" s="3">
-        <v>183500</v>
+        <v>187800</v>
       </c>
       <c r="I20" s="3">
-        <v>673200</v>
+        <v>689000</v>
       </c>
       <c r="J20" s="3">
-        <v>390000</v>
+        <v>399100</v>
       </c>
       <c r="K20" s="3">
         <v>209700</v>
@@ -1615,25 +1615,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>126700</v>
+        <v>129600</v>
       </c>
       <c r="E21" s="3">
-        <v>2902400</v>
+        <v>2970500</v>
       </c>
       <c r="F21" s="3">
-        <v>3423100</v>
+        <v>3503400</v>
       </c>
       <c r="G21" s="3">
-        <v>2819600</v>
+        <v>2885800</v>
       </c>
       <c r="H21" s="3">
-        <v>2697000</v>
+        <v>2760200</v>
       </c>
       <c r="I21" s="3">
-        <v>2836600</v>
+        <v>2903200</v>
       </c>
       <c r="J21" s="3">
-        <v>2832600</v>
+        <v>2899100</v>
       </c>
       <c r="K21" s="3">
         <v>2535600</v>
@@ -1692,25 +1692,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>159600</v>
+        <v>163300</v>
       </c>
       <c r="E22" s="3">
-        <v>186500</v>
+        <v>190900</v>
       </c>
       <c r="F22" s="3">
-        <v>164600</v>
+        <v>168400</v>
       </c>
       <c r="G22" s="3">
-        <v>176500</v>
+        <v>180700</v>
       </c>
       <c r="H22" s="3">
-        <v>136600</v>
+        <v>139800</v>
       </c>
       <c r="I22" s="3">
-        <v>163600</v>
+        <v>167400</v>
       </c>
       <c r="J22" s="3">
-        <v>165600</v>
+        <v>169500</v>
       </c>
       <c r="K22" s="3">
         <v>147400</v>
@@ -1769,25 +1769,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-909600</v>
+        <v>-931000</v>
       </c>
       <c r="E23" s="3">
-        <v>1746400</v>
+        <v>1787400</v>
       </c>
       <c r="F23" s="3">
-        <v>2440600</v>
+        <v>2497900</v>
       </c>
       <c r="G23" s="3">
-        <v>1835200</v>
+        <v>1878300</v>
       </c>
       <c r="H23" s="3">
-        <v>1703600</v>
+        <v>1743500</v>
       </c>
       <c r="I23" s="3">
-        <v>1978800</v>
+        <v>2025300</v>
       </c>
       <c r="J23" s="3">
-        <v>1958900</v>
+        <v>2004900</v>
       </c>
       <c r="K23" s="3">
         <v>1464500</v>
@@ -1846,25 +1846,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>609400</v>
+        <v>623700</v>
       </c>
       <c r="E24" s="3">
-        <v>539600</v>
+        <v>552300</v>
       </c>
       <c r="F24" s="3">
-        <v>634300</v>
+        <v>649200</v>
       </c>
       <c r="G24" s="3">
-        <v>570500</v>
+        <v>583900</v>
       </c>
       <c r="H24" s="3">
-        <v>331100</v>
+        <v>338900</v>
       </c>
       <c r="I24" s="3">
-        <v>467800</v>
+        <v>478800</v>
       </c>
       <c r="J24" s="3">
-        <v>486700</v>
+        <v>498200</v>
       </c>
       <c r="K24" s="3">
         <v>387100</v>
@@ -2000,25 +2000,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1519000</v>
+        <v>-1554700</v>
       </c>
       <c r="E26" s="3">
-        <v>1206900</v>
+        <v>1235200</v>
       </c>
       <c r="F26" s="3">
-        <v>1806300</v>
+        <v>1848700</v>
       </c>
       <c r="G26" s="3">
-        <v>1264700</v>
+        <v>1294400</v>
       </c>
       <c r="H26" s="3">
-        <v>1372400</v>
+        <v>1404600</v>
       </c>
       <c r="I26" s="3">
-        <v>1511100</v>
+        <v>1546500</v>
       </c>
       <c r="J26" s="3">
-        <v>1472200</v>
+        <v>1506700</v>
       </c>
       <c r="K26" s="3">
         <v>1077300</v>
@@ -2077,25 +2077,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1643700</v>
+        <v>-1682300</v>
       </c>
       <c r="E27" s="3">
-        <v>1027300</v>
+        <v>1051400</v>
       </c>
       <c r="F27" s="3">
-        <v>1653700</v>
+        <v>1692500</v>
       </c>
       <c r="G27" s="3">
-        <v>1104100</v>
+        <v>1130000</v>
       </c>
       <c r="H27" s="3">
-        <v>1243800</v>
+        <v>1272900</v>
       </c>
       <c r="I27" s="3">
-        <v>1387400</v>
+        <v>1419900</v>
       </c>
       <c r="J27" s="3">
-        <v>1350500</v>
+        <v>1382200</v>
       </c>
       <c r="K27" s="3">
         <v>952800</v>
@@ -2231,25 +2231,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-7000</v>
+        <v>-7100</v>
       </c>
       <c r="E29" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="F29" s="3">
-        <v>-15000</v>
+        <v>-15300</v>
       </c>
       <c r="G29" s="3">
-        <v>59800</v>
+        <v>61200</v>
       </c>
       <c r="H29" s="3">
-        <v>104700</v>
+        <v>107200</v>
       </c>
       <c r="I29" s="3">
-        <v>871700</v>
+        <v>892200</v>
       </c>
       <c r="J29" s="3">
-        <v>22900</v>
+        <v>23500</v>
       </c>
       <c r="K29" s="3">
         <v>871800</v>
@@ -2462,25 +2462,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3174700</v>
+        <v>3249200</v>
       </c>
       <c r="E32" s="3">
-        <v>-667300</v>
+        <v>-682900</v>
       </c>
       <c r="F32" s="3">
-        <v>-645300</v>
+        <v>-660500</v>
       </c>
       <c r="G32" s="3">
-        <v>-393000</v>
+        <v>-402200</v>
       </c>
       <c r="H32" s="3">
-        <v>-183500</v>
+        <v>-187800</v>
       </c>
       <c r="I32" s="3">
-        <v>-673200</v>
+        <v>-689000</v>
       </c>
       <c r="J32" s="3">
-        <v>-390000</v>
+        <v>-399100</v>
       </c>
       <c r="K32" s="3">
         <v>-209700</v>
@@ -2539,25 +2539,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1650700</v>
+        <v>-1689400</v>
       </c>
       <c r="E33" s="3">
-        <v>1031300</v>
+        <v>1055500</v>
       </c>
       <c r="F33" s="3">
-        <v>1638700</v>
+        <v>1677200</v>
       </c>
       <c r="G33" s="3">
-        <v>1164000</v>
+        <v>1191300</v>
       </c>
       <c r="H33" s="3">
-        <v>1348500</v>
+        <v>1380100</v>
       </c>
       <c r="I33" s="3">
-        <v>2259100</v>
+        <v>2312100</v>
       </c>
       <c r="J33" s="3">
-        <v>1373400</v>
+        <v>1405600</v>
       </c>
       <c r="K33" s="3">
         <v>1824600</v>
@@ -2693,25 +2693,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1650700</v>
+        <v>-1689400</v>
       </c>
       <c r="E35" s="3">
-        <v>1031300</v>
+        <v>1055500</v>
       </c>
       <c r="F35" s="3">
-        <v>1638700</v>
+        <v>1677200</v>
       </c>
       <c r="G35" s="3">
-        <v>1164000</v>
+        <v>1191300</v>
       </c>
       <c r="H35" s="3">
-        <v>1348500</v>
+        <v>1380100</v>
       </c>
       <c r="I35" s="3">
-        <v>2259100</v>
+        <v>2312100</v>
       </c>
       <c r="J35" s="3">
-        <v>1373400</v>
+        <v>1405600</v>
       </c>
       <c r="K35" s="3">
         <v>1824600</v>
@@ -2910,25 +2910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10070700</v>
+        <v>10307000</v>
       </c>
       <c r="E41" s="3">
-        <v>9470300</v>
+        <v>9692500</v>
       </c>
       <c r="F41" s="3">
-        <v>12167300</v>
+        <v>12452700</v>
       </c>
       <c r="G41" s="3">
-        <v>9520200</v>
+        <v>9743500</v>
       </c>
       <c r="H41" s="3">
-        <v>10650200</v>
+        <v>10900100</v>
       </c>
       <c r="I41" s="3">
-        <v>23577500</v>
+        <v>24130700</v>
       </c>
       <c r="J41" s="3">
-        <v>13979600</v>
+        <v>14307500</v>
       </c>
       <c r="K41" s="3">
         <v>14573200</v>
@@ -2987,25 +2987,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9616900</v>
+        <v>9842600</v>
       </c>
       <c r="E42" s="3">
-        <v>8580600</v>
+        <v>8781900</v>
       </c>
       <c r="F42" s="3">
-        <v>8768100</v>
+        <v>8973900</v>
       </c>
       <c r="G42" s="3">
-        <v>7964200</v>
+        <v>8151100</v>
       </c>
       <c r="H42" s="3">
-        <v>7473500</v>
+        <v>7648900</v>
       </c>
       <c r="I42" s="3">
-        <v>9120200</v>
+        <v>9334200</v>
       </c>
       <c r="J42" s="3">
-        <v>8388100</v>
+        <v>8584900</v>
       </c>
       <c r="K42" s="3">
         <v>8699700</v>
@@ -3064,25 +3064,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>24739500</v>
+        <v>25319900</v>
       </c>
       <c r="E43" s="3">
-        <v>24074200</v>
+        <v>24639000</v>
       </c>
       <c r="F43" s="3">
-        <v>23848800</v>
+        <v>24408300</v>
       </c>
       <c r="G43" s="3">
-        <v>23895700</v>
+        <v>24456300</v>
       </c>
       <c r="H43" s="3">
-        <v>23165600</v>
+        <v>23709100</v>
       </c>
       <c r="I43" s="3">
-        <v>21459100</v>
+        <v>21962500</v>
       </c>
       <c r="J43" s="3">
-        <v>20794800</v>
+        <v>21282700</v>
       </c>
       <c r="K43" s="3">
         <v>21943300</v>
@@ -3141,25 +3141,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10758000</v>
+        <v>11010300</v>
       </c>
       <c r="E44" s="3">
-        <v>10087700</v>
+        <v>10324400</v>
       </c>
       <c r="F44" s="3">
-        <v>9711700</v>
+        <v>9939500</v>
       </c>
       <c r="G44" s="3">
-        <v>8813000</v>
+        <v>9019800</v>
       </c>
       <c r="H44" s="3">
-        <v>8932700</v>
+        <v>9142300</v>
       </c>
       <c r="I44" s="3">
-        <v>7935300</v>
+        <v>8121500</v>
       </c>
       <c r="J44" s="3">
-        <v>7722900</v>
+        <v>7904100</v>
       </c>
       <c r="K44" s="3">
         <v>8090400</v>
@@ -3218,25 +3218,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2902400</v>
+        <v>2970500</v>
       </c>
       <c r="E45" s="3">
-        <v>3292400</v>
+        <v>3369700</v>
       </c>
       <c r="F45" s="3">
-        <v>1722500</v>
+        <v>1762900</v>
       </c>
       <c r="G45" s="3">
-        <v>1967900</v>
+        <v>2014000</v>
       </c>
       <c r="H45" s="3">
-        <v>1654700</v>
+        <v>1693500</v>
       </c>
       <c r="I45" s="3">
-        <v>1535000</v>
+        <v>1571000</v>
       </c>
       <c r="J45" s="3">
-        <v>3092900</v>
+        <v>3165500</v>
       </c>
       <c r="K45" s="3">
         <v>1668900</v>
@@ -3295,25 +3295,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>58087600</v>
+        <v>59450400</v>
       </c>
       <c r="E46" s="3">
-        <v>55505300</v>
+        <v>56807500</v>
       </c>
       <c r="F46" s="3">
-        <v>56218500</v>
+        <v>57537400</v>
       </c>
       <c r="G46" s="3">
-        <v>52162000</v>
+        <v>53385800</v>
       </c>
       <c r="H46" s="3">
-        <v>51876800</v>
+        <v>53093800</v>
       </c>
       <c r="I46" s="3">
-        <v>63627100</v>
+        <v>65119900</v>
       </c>
       <c r="J46" s="3">
-        <v>53978300</v>
+        <v>55244700</v>
       </c>
       <c r="K46" s="3">
         <v>54975500</v>
@@ -3372,25 +3372,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>28996400</v>
+        <v>29676700</v>
       </c>
       <c r="E47" s="3">
-        <v>30677000</v>
+        <v>31396700</v>
       </c>
       <c r="F47" s="3">
-        <v>30016800</v>
+        <v>30721000</v>
       </c>
       <c r="G47" s="3">
-        <v>30423700</v>
+        <v>31137500</v>
       </c>
       <c r="H47" s="3">
-        <v>29928000</v>
+        <v>30630100</v>
       </c>
       <c r="I47" s="3">
-        <v>27949100</v>
+        <v>28604900</v>
       </c>
       <c r="J47" s="3">
-        <v>28292200</v>
+        <v>28956000</v>
       </c>
       <c r="K47" s="3">
         <v>31794000</v>
@@ -3449,25 +3449,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11384300</v>
+        <v>11651400</v>
       </c>
       <c r="E48" s="3">
-        <v>11128000</v>
+        <v>11389100</v>
       </c>
       <c r="F48" s="3">
-        <v>11174900</v>
+        <v>11437000</v>
       </c>
       <c r="G48" s="3">
-        <v>10994300</v>
+        <v>11252300</v>
       </c>
       <c r="H48" s="3">
-        <v>10593400</v>
+        <v>10841900</v>
       </c>
       <c r="I48" s="3">
-        <v>10062800</v>
+        <v>10298900</v>
       </c>
       <c r="J48" s="3">
-        <v>9760600</v>
+        <v>9989500</v>
       </c>
       <c r="K48" s="3">
         <v>10638500</v>
@@ -3526,25 +3526,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>42773500</v>
+        <v>43777000</v>
       </c>
       <c r="E49" s="3">
-        <v>41658400</v>
+        <v>42635800</v>
       </c>
       <c r="F49" s="3">
-        <v>41469900</v>
+        <v>42442800</v>
       </c>
       <c r="G49" s="3">
-        <v>40393700</v>
+        <v>41341400</v>
       </c>
       <c r="H49" s="3">
-        <v>39392300</v>
+        <v>40316500</v>
       </c>
       <c r="I49" s="3">
-        <v>25203300</v>
+        <v>25794600</v>
       </c>
       <c r="J49" s="3">
-        <v>24393400</v>
+        <v>24965700</v>
       </c>
       <c r="K49" s="3">
         <v>26245400</v>
@@ -3757,25 +3757,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4366600</v>
+        <v>4469100</v>
       </c>
       <c r="E52" s="3">
-        <v>4603000</v>
+        <v>4711000</v>
       </c>
       <c r="F52" s="3">
-        <v>5153600</v>
+        <v>5274500</v>
       </c>
       <c r="G52" s="3">
-        <v>5036900</v>
+        <v>5155000</v>
       </c>
       <c r="H52" s="3">
-        <v>4684800</v>
+        <v>4794700</v>
       </c>
       <c r="I52" s="3">
-        <v>4473300</v>
+        <v>4578300</v>
       </c>
       <c r="J52" s="3">
-        <v>4692800</v>
+        <v>4802900</v>
       </c>
       <c r="K52" s="3">
         <v>4939400</v>
@@ -3911,25 +3911,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>145608400</v>
+        <v>149024600</v>
       </c>
       <c r="E54" s="3">
-        <v>143571700</v>
+        <v>146940100</v>
       </c>
       <c r="F54" s="3">
-        <v>144033500</v>
+        <v>147412700</v>
       </c>
       <c r="G54" s="3">
-        <v>139009600</v>
+        <v>142270900</v>
       </c>
       <c r="H54" s="3">
-        <v>136475200</v>
+        <v>139677100</v>
       </c>
       <c r="I54" s="3">
-        <v>131315700</v>
+        <v>134396500</v>
       </c>
       <c r="J54" s="3">
-        <v>121117300</v>
+        <v>123958800</v>
       </c>
       <c r="K54" s="3">
         <v>128592700</v>
@@ -4046,25 +4046,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9104300</v>
+        <v>9317900</v>
       </c>
       <c r="E57" s="3">
-        <v>8908800</v>
+        <v>9117800</v>
       </c>
       <c r="F57" s="3">
-        <v>8463900</v>
+        <v>8662500</v>
       </c>
       <c r="G57" s="3">
-        <v>8809000</v>
+        <v>9015700</v>
       </c>
       <c r="H57" s="3">
-        <v>8013100</v>
+        <v>8201100</v>
       </c>
       <c r="I57" s="3">
-        <v>7255100</v>
+        <v>7425300</v>
       </c>
       <c r="J57" s="3">
-        <v>7006700</v>
+        <v>7171100</v>
       </c>
       <c r="K57" s="3">
         <v>8171400</v>
@@ -4123,25 +4123,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9873300</v>
+        <v>10104900</v>
       </c>
       <c r="E58" s="3">
-        <v>10471700</v>
+        <v>10717400</v>
       </c>
       <c r="F58" s="3">
-        <v>9675800</v>
+        <v>9902800</v>
       </c>
       <c r="G58" s="3">
-        <v>7800700</v>
+        <v>7983700</v>
       </c>
       <c r="H58" s="3">
-        <v>10750000</v>
+        <v>11002200</v>
       </c>
       <c r="I58" s="3">
-        <v>8505800</v>
+        <v>8705400</v>
       </c>
       <c r="J58" s="3">
-        <v>7518400</v>
+        <v>7694800</v>
       </c>
       <c r="K58" s="3">
         <v>6810700</v>
@@ -4200,25 +4200,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24818300</v>
+        <v>25400600</v>
       </c>
       <c r="E59" s="3">
-        <v>23192500</v>
+        <v>23736700</v>
       </c>
       <c r="F59" s="3">
-        <v>22447500</v>
+        <v>22974100</v>
       </c>
       <c r="G59" s="3">
-        <v>23286300</v>
+        <v>23832600</v>
       </c>
       <c r="H59" s="3">
-        <v>21341400</v>
+        <v>21842100</v>
       </c>
       <c r="I59" s="3">
-        <v>18778000</v>
+        <v>19218600</v>
       </c>
       <c r="J59" s="3">
-        <v>20011800</v>
+        <v>20481300</v>
       </c>
       <c r="K59" s="3">
         <v>20427900</v>
@@ -4277,25 +4277,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>43795800</v>
+        <v>44823300</v>
       </c>
       <c r="E60" s="3">
-        <v>42573000</v>
+        <v>43571800</v>
       </c>
       <c r="F60" s="3">
-        <v>40587200</v>
+        <v>41539400</v>
       </c>
       <c r="G60" s="3">
-        <v>39896000</v>
+        <v>40832000</v>
       </c>
       <c r="H60" s="3">
-        <v>40104500</v>
+        <v>41045300</v>
       </c>
       <c r="I60" s="3">
-        <v>34539000</v>
+        <v>35349300</v>
       </c>
       <c r="J60" s="3">
-        <v>34537000</v>
+        <v>35347200</v>
       </c>
       <c r="K60" s="3">
         <v>35410000</v>
@@ -4354,25 +4354,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>41548700</v>
+        <v>42523500</v>
       </c>
       <c r="E61" s="3">
-        <v>41146700</v>
+        <v>42112100</v>
       </c>
       <c r="F61" s="3">
-        <v>41657400</v>
+        <v>42634700</v>
       </c>
       <c r="G61" s="3">
-        <v>40772700</v>
+        <v>41729300</v>
       </c>
       <c r="H61" s="3">
-        <v>40228100</v>
+        <v>41171900</v>
       </c>
       <c r="I61" s="3">
-        <v>43456700</v>
+        <v>44476300</v>
       </c>
       <c r="J61" s="3">
-        <v>35848600</v>
+        <v>36689600</v>
       </c>
       <c r="K61" s="3">
         <v>39445400</v>
@@ -4431,25 +4431,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9193000</v>
+        <v>9408700</v>
       </c>
       <c r="E62" s="3">
-        <v>9362600</v>
+        <v>9582200</v>
       </c>
       <c r="F62" s="3">
-        <v>9826400</v>
+        <v>10056900</v>
       </c>
       <c r="G62" s="3">
-        <v>9477300</v>
+        <v>9699600</v>
       </c>
       <c r="H62" s="3">
-        <v>9588000</v>
+        <v>9813000</v>
       </c>
       <c r="I62" s="3">
-        <v>8841000</v>
+        <v>9048400</v>
       </c>
       <c r="J62" s="3">
-        <v>10428800</v>
+        <v>10673500</v>
       </c>
       <c r="K62" s="3">
         <v>12405000</v>
@@ -4739,25 +4739,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100004300</v>
+        <v>102350500</v>
       </c>
       <c r="E66" s="3">
-        <v>98154100</v>
+        <v>100456900</v>
       </c>
       <c r="F66" s="3">
-        <v>97152700</v>
+        <v>99432000</v>
       </c>
       <c r="G66" s="3">
-        <v>94964400</v>
+        <v>97192400</v>
       </c>
       <c r="H66" s="3">
-        <v>94509600</v>
+        <v>96726900</v>
       </c>
       <c r="I66" s="3">
-        <v>91294000</v>
+        <v>93435900</v>
       </c>
       <c r="J66" s="3">
-        <v>84149600</v>
+        <v>86123900</v>
       </c>
       <c r="K66" s="3">
         <v>90823500</v>
@@ -5153,25 +5153,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>37211000</v>
+        <v>38084000</v>
       </c>
       <c r="E72" s="3">
-        <v>39105100</v>
+        <v>40022500</v>
       </c>
       <c r="F72" s="3">
-        <v>41255500</v>
+        <v>42223400</v>
       </c>
       <c r="G72" s="3">
-        <v>39504000</v>
+        <v>40430800</v>
       </c>
       <c r="H72" s="3">
-        <v>38238300</v>
+        <v>39135400</v>
       </c>
       <c r="I72" s="3">
-        <v>36196600</v>
+        <v>37045900</v>
       </c>
       <c r="J72" s="3">
-        <v>34562900</v>
+        <v>35373800</v>
       </c>
       <c r="K72" s="3">
         <v>34331700</v>
@@ -5461,25 +5461,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>45604100</v>
+        <v>46674000</v>
       </c>
       <c r="E76" s="3">
-        <v>45417600</v>
+        <v>46483100</v>
       </c>
       <c r="F76" s="3">
-        <v>46880800</v>
+        <v>47980700</v>
       </c>
       <c r="G76" s="3">
-        <v>44045200</v>
+        <v>45078500</v>
       </c>
       <c r="H76" s="3">
-        <v>41965600</v>
+        <v>42950200</v>
       </c>
       <c r="I76" s="3">
-        <v>40021700</v>
+        <v>40960600</v>
       </c>
       <c r="J76" s="3">
-        <v>36967600</v>
+        <v>37834900</v>
       </c>
       <c r="K76" s="3">
         <v>37769200</v>
@@ -5697,25 +5697,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1650700</v>
+        <v>-1689400</v>
       </c>
       <c r="E81" s="3">
-        <v>1031300</v>
+        <v>1055500</v>
       </c>
       <c r="F81" s="3">
-        <v>1638700</v>
+        <v>1677200</v>
       </c>
       <c r="G81" s="3">
-        <v>1164000</v>
+        <v>1191300</v>
       </c>
       <c r="H81" s="3">
-        <v>1348500</v>
+        <v>1380100</v>
       </c>
       <c r="I81" s="3">
-        <v>2259100</v>
+        <v>2312100</v>
       </c>
       <c r="J81" s="3">
-        <v>1373400</v>
+        <v>1405600</v>
       </c>
       <c r="K81" s="3">
         <v>1824600</v>
@@ -5803,25 +5803,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>876700</v>
+        <v>897300</v>
       </c>
       <c r="E83" s="3">
-        <v>969500</v>
+        <v>992200</v>
       </c>
       <c r="F83" s="3">
-        <v>817900</v>
+        <v>837100</v>
       </c>
       <c r="G83" s="3">
-        <v>807900</v>
+        <v>826800</v>
       </c>
       <c r="H83" s="3">
-        <v>856800</v>
+        <v>876900</v>
       </c>
       <c r="I83" s="3">
-        <v>694200</v>
+        <v>710500</v>
       </c>
       <c r="J83" s="3">
-        <v>708200</v>
+        <v>724800</v>
       </c>
       <c r="K83" s="3">
         <v>923700</v>
@@ -6265,25 +6265,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2750800</v>
+        <v>2815400</v>
       </c>
       <c r="E89" s="3">
-        <v>1832200</v>
+        <v>1875200</v>
       </c>
       <c r="F89" s="3">
-        <v>1482100</v>
+        <v>1516900</v>
       </c>
       <c r="G89" s="3">
-        <v>4385600</v>
+        <v>4488500</v>
       </c>
       <c r="H89" s="3">
-        <v>2687000</v>
+        <v>2750000</v>
       </c>
       <c r="I89" s="3">
-        <v>1589900</v>
+        <v>1627200</v>
       </c>
       <c r="J89" s="3">
-        <v>1307600</v>
+        <v>1338300</v>
       </c>
       <c r="K89" s="3">
         <v>-21800</v>
@@ -6371,25 +6371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-469800</v>
+        <v>-480800</v>
       </c>
       <c r="E91" s="3">
-        <v>-511700</v>
+        <v>-523700</v>
       </c>
       <c r="F91" s="3">
-        <v>-391000</v>
+        <v>-400200</v>
       </c>
       <c r="G91" s="3">
-        <v>-618400</v>
+        <v>-632900</v>
       </c>
       <c r="H91" s="3">
-        <v>-416900</v>
+        <v>-426700</v>
       </c>
       <c r="I91" s="3">
-        <v>-362100</v>
+        <v>-370600</v>
       </c>
       <c r="J91" s="3">
-        <v>-328100</v>
+        <v>-335800</v>
       </c>
       <c r="K91" s="3">
         <v>-539700</v>
@@ -6602,25 +6602,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-133700</v>
+        <v>-136800</v>
       </c>
       <c r="E94" s="3">
-        <v>-935600</v>
+        <v>-957500</v>
       </c>
       <c r="F94" s="3">
-        <v>-987400</v>
+        <v>-1010600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1611800</v>
+        <v>-1649600</v>
       </c>
       <c r="H94" s="3">
-        <v>-14463300</v>
+        <v>-14802600</v>
       </c>
       <c r="I94" s="3">
-        <v>1068200</v>
+        <v>1093300</v>
       </c>
       <c r="J94" s="3">
-        <v>-446800</v>
+        <v>-457300</v>
       </c>
       <c r="K94" s="3">
         <v>-1363800</v>
@@ -7016,25 +7016,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2211200</v>
+        <v>-2263100</v>
       </c>
       <c r="E100" s="3">
-        <v>-3682400</v>
+        <v>-3768800</v>
       </c>
       <c r="F100" s="3">
-        <v>1937900</v>
+        <v>1983400</v>
       </c>
       <c r="G100" s="3">
-        <v>-4057400</v>
+        <v>-4152600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1099100</v>
+        <v>-1124900</v>
       </c>
       <c r="I100" s="3">
-        <v>6556900</v>
+        <v>6710700</v>
       </c>
       <c r="J100" s="3">
-        <v>-617400</v>
+        <v>-631900</v>
       </c>
       <c r="K100" s="3">
         <v>1268300</v>
@@ -7093,25 +7093,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>225400</v>
+        <v>230700</v>
       </c>
       <c r="E101" s="3">
-        <v>105700</v>
+        <v>108200</v>
       </c>
       <c r="F101" s="3">
-        <v>214400</v>
+        <v>219500</v>
       </c>
       <c r="G101" s="3">
-        <v>153600</v>
+        <v>157200</v>
       </c>
       <c r="H101" s="3">
-        <v>-51900</v>
+        <v>-53100</v>
       </c>
       <c r="I101" s="3">
-        <v>317200</v>
+        <v>324600</v>
       </c>
       <c r="J101" s="3">
-        <v>-215400</v>
+        <v>-220500</v>
       </c>
       <c r="K101" s="3">
         <v>-293700</v>
@@ -7170,25 +7170,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>631400</v>
+        <v>646200</v>
       </c>
       <c r="E102" s="3">
-        <v>-2680000</v>
+        <v>-2742900</v>
       </c>
       <c r="F102" s="3">
-        <v>2647100</v>
+        <v>2709200</v>
       </c>
       <c r="G102" s="3">
-        <v>-1130100</v>
+        <v>-1156600</v>
       </c>
       <c r="H102" s="3">
-        <v>-12927300</v>
+        <v>-13230600</v>
       </c>
       <c r="I102" s="3">
-        <v>9532200</v>
+        <v>9755800</v>
       </c>
       <c r="J102" s="3">
-        <v>27900</v>
+        <v>28600</v>
       </c>
       <c r="K102" s="3">
         <v>-411000</v>

--- a/AAII_Financials/Quarterly/SIEGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIEGY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,329 +665,353 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18238600</v>
+        <v>19118100</v>
       </c>
       <c r="E8" s="3">
-        <v>17394400</v>
+        <v>21765200</v>
       </c>
       <c r="F8" s="3">
-        <v>16840100</v>
+        <v>18903300</v>
       </c>
       <c r="G8" s="3">
-        <v>17807900</v>
+        <v>18028300</v>
       </c>
       <c r="H8" s="3">
-        <v>16419600</v>
+        <v>17453800</v>
       </c>
       <c r="I8" s="3">
+        <v>18456800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>17017900</v>
+      </c>
+      <c r="K8" s="3">
         <v>14970000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>14363700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>15377500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>14158900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>15563500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>15440400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>20059200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>16749600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>17039900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>16298200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>25039500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>22479400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>22598000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>22241200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>24927300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>23896100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>23634700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>22552400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>25768700</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11880100</v>
+        <v>11748000</v>
       </c>
       <c r="E9" s="3">
-        <v>11534000</v>
+        <v>13649300</v>
       </c>
       <c r="F9" s="3">
-        <v>10506100</v>
+        <v>12313000</v>
       </c>
       <c r="G9" s="3">
-        <v>11368600</v>
+        <v>11954300</v>
       </c>
       <c r="H9" s="3">
-        <v>10425400</v>
+        <v>10888900</v>
       </c>
       <c r="I9" s="3">
+        <v>11782900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>10805400</v>
+      </c>
+      <c r="K9" s="3">
         <v>9622100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>8933000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>10048900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>8971600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>9903300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>9809600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>12496100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>10675800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>10582800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>10438000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>17823500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>15801300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>15522700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>15554100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>17849700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>17030700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>15969700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>15409800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>18465200</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6358600</v>
+        <v>7370000</v>
       </c>
       <c r="E10" s="3">
-        <v>5860400</v>
+        <v>8115900</v>
       </c>
       <c r="F10" s="3">
-        <v>6334100</v>
+        <v>6590300</v>
       </c>
       <c r="G10" s="3">
-        <v>6439200</v>
+        <v>6074000</v>
       </c>
       <c r="H10" s="3">
-        <v>5994100</v>
+        <v>6564900</v>
       </c>
       <c r="I10" s="3">
+        <v>6673900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>6212600</v>
+      </c>
+      <c r="K10" s="3">
         <v>5348000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>5430700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>5328600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>5187300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>5660200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>5630800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>7563100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>6073800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>6457100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>5860200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>7216000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>6678000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>7075300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>6687100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>7077500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>6865500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>7665000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>7142600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>7303400</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1015,85 +1039,93 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1429100</v>
+        <v>1512900</v>
       </c>
       <c r="E12" s="3">
-        <v>1387300</v>
+        <v>1672700</v>
       </c>
       <c r="F12" s="3">
-        <v>1277000</v>
+        <v>1481200</v>
       </c>
       <c r="G12" s="3">
-        <v>1476100</v>
+        <v>1437800</v>
       </c>
       <c r="H12" s="3">
-        <v>1245400</v>
+        <v>1323600</v>
       </c>
       <c r="I12" s="3">
+        <v>1529900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1290800</v>
+      </c>
+      <c r="K12" s="3">
         <v>1151500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1086100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1244400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1185800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1308600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1269100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>1572900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1359900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>1367300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>1299100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>1735600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>1506500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>1565200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>1373300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>1656100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>1511300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>1425000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>1322900</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>1551800</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1169,8 +1201,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1237,17 +1275,23 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>10</v>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1323,8 +1367,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1349,162 +1399,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15757100</v>
+        <v>16763000</v>
       </c>
       <c r="E17" s="3">
-        <v>16099000</v>
+        <v>17934200</v>
       </c>
       <c r="F17" s="3">
-        <v>14834300</v>
+        <v>16331300</v>
       </c>
       <c r="G17" s="3">
-        <v>16151100</v>
+        <v>16685700</v>
       </c>
       <c r="H17" s="3">
-        <v>14724000</v>
+        <v>15374900</v>
       </c>
       <c r="I17" s="3">
+        <v>16739700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>15260600</v>
+      </c>
+      <c r="K17" s="3">
         <v>13466400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>12588500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>13975300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>12931600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>14183800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>14117100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>17557800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>15177900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>14926200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>14927400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>23528700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>20824700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>20680500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>20439300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>23346400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>22102100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>20967800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>19862000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>23667500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2481600</v>
+        <v>2355100</v>
       </c>
       <c r="E18" s="3">
-        <v>1295400</v>
+        <v>3831000</v>
       </c>
       <c r="F18" s="3">
-        <v>2005900</v>
+        <v>2572000</v>
       </c>
       <c r="G18" s="3">
-        <v>1656800</v>
+        <v>1342600</v>
       </c>
       <c r="H18" s="3">
-        <v>1695500</v>
+        <v>2079000</v>
       </c>
       <c r="I18" s="3">
+        <v>1717100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1757300</v>
+      </c>
+      <c r="K18" s="3">
         <v>1503600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1775200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1402200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1227300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1379800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1323300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>2501400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1571700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>2113700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1370800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1510800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>1654700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>1917500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>1801900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>1580900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>1794100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>2666900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>2690400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>2101100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1532,393 +1596,425 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3249200</v>
+        <v>288800</v>
       </c>
       <c r="E20" s="3">
-        <v>682900</v>
+        <v>449700</v>
       </c>
       <c r="F20" s="3">
-        <v>660500</v>
+        <v>-3367600</v>
       </c>
       <c r="G20" s="3">
-        <v>402200</v>
+        <v>707800</v>
       </c>
       <c r="H20" s="3">
-        <v>187800</v>
+        <v>684500</v>
       </c>
       <c r="I20" s="3">
+        <v>416900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>194700</v>
+      </c>
+      <c r="K20" s="3">
         <v>689000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>399100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>209700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>480000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>427900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>479900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>407900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>400000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>564600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>553800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>350000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>435900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>1373300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>1141100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>478000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>518400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>154900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>759500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>129600</v>
+        <v>3555900</v>
       </c>
       <c r="E21" s="3">
-        <v>2970500</v>
+        <v>5222300</v>
       </c>
       <c r="F21" s="3">
-        <v>3503400</v>
+        <v>134400</v>
       </c>
       <c r="G21" s="3">
-        <v>2885800</v>
+        <v>3078800</v>
       </c>
       <c r="H21" s="3">
-        <v>2760200</v>
+        <v>3631100</v>
       </c>
       <c r="I21" s="3">
+        <v>2991000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2860800</v>
+      </c>
+      <c r="K21" s="3">
         <v>2903200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2899100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>2535600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2549500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>2287600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>3011300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>4091500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>2988100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>3678300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>2916300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>2874200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>2982200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>4229900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>3902300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>3202200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>3279600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>3607100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>4225700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>3242100</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>163300</v>
+        <v>292000</v>
       </c>
       <c r="E22" s="3">
-        <v>190900</v>
+        <v>187300</v>
       </c>
       <c r="F22" s="3">
-        <v>168400</v>
+        <v>169300</v>
       </c>
       <c r="G22" s="3">
-        <v>180700</v>
+        <v>197800</v>
       </c>
       <c r="H22" s="3">
-        <v>139800</v>
+        <v>174600</v>
       </c>
       <c r="I22" s="3">
+        <v>187300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>144900</v>
+      </c>
+      <c r="K22" s="3">
         <v>167400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>169500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>147400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>237800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>353400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>159200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>308700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>276500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>312200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>259600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>301300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>299800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>298400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>311900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>310800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>322000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>284100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>286400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>291100</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-931000</v>
+        <v>2351900</v>
       </c>
       <c r="E23" s="3">
-        <v>1787400</v>
+        <v>4093400</v>
       </c>
       <c r="F23" s="3">
-        <v>2497900</v>
+        <v>-964900</v>
       </c>
       <c r="G23" s="3">
-        <v>1878300</v>
+        <v>1852600</v>
       </c>
       <c r="H23" s="3">
-        <v>1743500</v>
+        <v>2588900</v>
       </c>
       <c r="I23" s="3">
+        <v>1946700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1807100</v>
+      </c>
+      <c r="K23" s="3">
         <v>2025300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>2004900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1464500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1469500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1454300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1644000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2600700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1695200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>2366100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1665100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1559500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>1790800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>2992300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>2631100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>1748100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>1990400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>2537800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>3163400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>2080000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>623700</v>
+        <v>612600</v>
       </c>
       <c r="E24" s="3">
-        <v>552300</v>
+        <v>1008300</v>
       </c>
       <c r="F24" s="3">
-        <v>649200</v>
+        <v>646400</v>
       </c>
       <c r="G24" s="3">
-        <v>583900</v>
+        <v>572400</v>
       </c>
       <c r="H24" s="3">
-        <v>338900</v>
+        <v>672900</v>
       </c>
       <c r="I24" s="3">
+        <v>605200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>351300</v>
+      </c>
+      <c r="K24" s="3">
         <v>478800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>498200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>387100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>446200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>334200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>302600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>916300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>448200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>311000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>461700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>828500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>512800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>774200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>655200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>379200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>392700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>860400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>853400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>693700</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1994,162 +2090,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1554700</v>
+        <v>1739400</v>
       </c>
       <c r="E26" s="3">
-        <v>1235200</v>
+        <v>3085100</v>
       </c>
       <c r="F26" s="3">
-        <v>1848700</v>
+        <v>-1611300</v>
       </c>
       <c r="G26" s="3">
-        <v>1294400</v>
+        <v>1280200</v>
       </c>
       <c r="H26" s="3">
-        <v>1404600</v>
+        <v>1916000</v>
       </c>
       <c r="I26" s="3">
+        <v>1341500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1455800</v>
+      </c>
+      <c r="K26" s="3">
         <v>1546500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1506700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1077300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1023300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1120100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1341400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1684400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1247000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>2055100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1203400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>731000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>1278100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>2218200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>1975800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>1368800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>1597700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>1677400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>2310100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>1386300</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1682300</v>
+        <v>1571100</v>
       </c>
       <c r="E27" s="3">
-        <v>1051400</v>
+        <v>2859800</v>
       </c>
       <c r="F27" s="3">
-        <v>1692500</v>
+        <v>-1743600</v>
       </c>
       <c r="G27" s="3">
-        <v>1130000</v>
+        <v>1089700</v>
       </c>
       <c r="H27" s="3">
-        <v>1272900</v>
+        <v>1754200</v>
       </c>
       <c r="I27" s="3">
+        <v>1171200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1319300</v>
+      </c>
+      <c r="K27" s="3">
         <v>1419900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1382200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>952800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1027600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1069300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1333500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1499400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1122300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1916300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1079000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>594800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1163900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>2144100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>1952300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>1350900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>1539400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>1636300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>2271300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>1359300</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2225,85 +2339,97 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-7100</v>
+        <v>-8500</v>
       </c>
       <c r="E29" s="3">
-        <v>4100</v>
+        <v>-2100</v>
       </c>
       <c r="F29" s="3">
-        <v>-15300</v>
+        <v>-7400</v>
       </c>
       <c r="G29" s="3">
-        <v>61200</v>
+        <v>4200</v>
       </c>
       <c r="H29" s="3">
-        <v>107200</v>
+        <v>-15900</v>
       </c>
       <c r="I29" s="3">
+        <v>63500</v>
+      </c>
+      <c r="J29" s="3">
+        <v>111100</v>
+      </c>
+      <c r="K29" s="3">
         <v>892200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>23500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>871800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-439600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-333100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-111800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>115100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>91800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>245200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>135200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>24400</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>50500</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>47100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>503800</v>
       </c>
-      <c r="W29" s="3">
+      <c r="Y29" s="3">
         <v>34800</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="3">
         <v>-16800</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="AA29" s="3">
         <v>29300</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AB29" s="3">
         <v>14100</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AC29" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2379,8 +2505,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2456,162 +2588,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3249200</v>
+        <v>-288800</v>
       </c>
       <c r="E32" s="3">
-        <v>-682900</v>
+        <v>-449700</v>
       </c>
       <c r="F32" s="3">
-        <v>-660500</v>
+        <v>3367600</v>
       </c>
       <c r="G32" s="3">
-        <v>-402200</v>
+        <v>-707800</v>
       </c>
       <c r="H32" s="3">
-        <v>-187800</v>
+        <v>-684500</v>
       </c>
       <c r="I32" s="3">
+        <v>-416900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-194700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-689000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-399100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-209700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-480000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-427900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-479900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-407900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-400000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-564600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-553800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-350000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-435900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-1373300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-1141100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-478000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-518400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-154900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-759500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-270000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1689400</v>
+        <v>1562700</v>
       </c>
       <c r="E33" s="3">
-        <v>1055500</v>
+        <v>2857700</v>
       </c>
       <c r="F33" s="3">
-        <v>1677200</v>
+        <v>-1751000</v>
       </c>
       <c r="G33" s="3">
-        <v>1191300</v>
+        <v>1094000</v>
       </c>
       <c r="H33" s="3">
-        <v>1380100</v>
+        <v>1738300</v>
       </c>
       <c r="I33" s="3">
+        <v>1234700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1430400</v>
+      </c>
+      <c r="K33" s="3">
         <v>2312100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1405600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1824600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>588000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>736200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1221700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1614500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1214000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>2161500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1214100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>619100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>1214400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>2191200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>2456000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>1385700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>1522500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>1665600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>2285400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2687,167 +2837,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1689400</v>
+        <v>1562700</v>
       </c>
       <c r="E35" s="3">
-        <v>1055500</v>
+        <v>2857700</v>
       </c>
       <c r="F35" s="3">
-        <v>1677200</v>
+        <v>-1751000</v>
       </c>
       <c r="G35" s="3">
-        <v>1191300</v>
+        <v>1094000</v>
       </c>
       <c r="H35" s="3">
-        <v>1380100</v>
+        <v>1738300</v>
       </c>
       <c r="I35" s="3">
+        <v>1234700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1430400</v>
+      </c>
+      <c r="K35" s="3">
         <v>2312100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1405600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1824600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>588000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>736200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1221700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1614500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1214000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>2161500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1214100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>619100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>1214400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>2191200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>2456000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>1385700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>1522500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>1665600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>2285400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2875,8 +3043,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2904,701 +3074,757 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10307000</v>
+        <v>10722800</v>
       </c>
       <c r="E41" s="3">
-        <v>9692500</v>
+        <v>11072000</v>
       </c>
       <c r="F41" s="3">
-        <v>12452700</v>
+        <v>10682600</v>
       </c>
       <c r="G41" s="3">
-        <v>9743500</v>
+        <v>10045700</v>
       </c>
       <c r="H41" s="3">
-        <v>10900100</v>
+        <v>12906500</v>
       </c>
       <c r="I41" s="3">
+        <v>10098600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>11297300</v>
+      </c>
+      <c r="K41" s="3">
         <v>24130700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>14307500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>14573200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>13182600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>8843100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>12815300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>15178900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>9437100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>10628200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>14819700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>12256700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>7784800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>10749800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>11215400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>9396700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>9520100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>11598400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>11182900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>12447100</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9842600</v>
+        <v>10436100</v>
       </c>
       <c r="E42" s="3">
-        <v>8781900</v>
+        <v>10258400</v>
       </c>
       <c r="F42" s="3">
-        <v>8973900</v>
+        <v>10201200</v>
       </c>
       <c r="G42" s="3">
-        <v>8151100</v>
+        <v>9102000</v>
       </c>
       <c r="H42" s="3">
-        <v>7648900</v>
+        <v>9300900</v>
       </c>
       <c r="I42" s="3">
+        <v>8448100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>7927600</v>
+      </c>
+      <c r="K42" s="3">
         <v>9334200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>8584900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>8699700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>9240000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>11103600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>11233400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>13069400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>11464000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>11729900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>11299300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>11865700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>10144400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>10626400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>10132700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>9992400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>9755700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>10085400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>10037200</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>9499600</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>25319900</v>
+        <v>26675400</v>
       </c>
       <c r="E43" s="3">
-        <v>24639000</v>
+        <v>27182100</v>
       </c>
       <c r="F43" s="3">
-        <v>24408300</v>
+        <v>26242600</v>
       </c>
       <c r="G43" s="3">
-        <v>24456300</v>
+        <v>25536900</v>
       </c>
       <c r="H43" s="3">
-        <v>23709100</v>
+        <v>25297800</v>
       </c>
       <c r="I43" s="3">
+        <v>25347600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>24573100</v>
+      </c>
+      <c r="K43" s="3">
         <v>21962500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>21282700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>21943300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>22461800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>24030600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>33874100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>37124500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>35800200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>34793900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>34533100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>31430400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>29901800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>28899100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>29119000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>29882000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>20761300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>20843300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>20116800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>20045200</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>11010300</v>
+        <v>11893000</v>
       </c>
       <c r="E44" s="3">
-        <v>10324400</v>
+        <v>11242300</v>
       </c>
       <c r="F44" s="3">
-        <v>9939500</v>
+        <v>11411600</v>
       </c>
       <c r="G44" s="3">
-        <v>9019800</v>
+        <v>10700600</v>
       </c>
       <c r="H44" s="3">
-        <v>9142300</v>
+        <v>10301700</v>
       </c>
       <c r="I44" s="3">
+        <v>9348500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>9475400</v>
+      </c>
+      <c r="K44" s="3">
         <v>8121500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>7904100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>8090400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>9481100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>9569100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>18004600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>18137200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>18655400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>18701400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>17891600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>15379000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>16156000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>16172400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>16158900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>15578800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>23339600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>23185100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>22082900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>21316400</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2970500</v>
+        <v>2263100</v>
       </c>
       <c r="E45" s="3">
-        <v>3369700</v>
+        <v>2486300</v>
       </c>
       <c r="F45" s="3">
-        <v>1762900</v>
+        <v>3078800</v>
       </c>
       <c r="G45" s="3">
-        <v>2014000</v>
+        <v>3492500</v>
       </c>
       <c r="H45" s="3">
-        <v>1693500</v>
+        <v>1827200</v>
       </c>
       <c r="I45" s="3">
+        <v>2087400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1755200</v>
+      </c>
+      <c r="K45" s="3">
         <v>1571000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3165500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1668900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>47403300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>48519700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>2511100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>2692500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2531600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>2367300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>2349300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1993700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>2067500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>2175500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>1936600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>4957000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>2066700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>1916800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>1676200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>1637500</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>59450400</v>
+        <v>61990300</v>
       </c>
       <c r="E46" s="3">
-        <v>56807500</v>
+        <v>62241100</v>
       </c>
       <c r="F46" s="3">
-        <v>57537400</v>
+        <v>61616900</v>
       </c>
       <c r="G46" s="3">
-        <v>53385800</v>
+        <v>58877700</v>
       </c>
       <c r="H46" s="3">
-        <v>53093800</v>
+        <v>59634200</v>
       </c>
       <c r="I46" s="3">
+        <v>55331300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>55028700</v>
+      </c>
+      <c r="K46" s="3">
         <v>65119900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>55244700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>54975500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>101768800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>102066100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>78438600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>86202500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>77888300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>78220700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>80893000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>71502200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>66054600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>68623200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>68562600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>68160900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>65443400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>67629100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>65096000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>64945700</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>29676700</v>
+        <v>28487700</v>
       </c>
       <c r="E47" s="3">
-        <v>31396700</v>
+        <v>32647800</v>
       </c>
       <c r="F47" s="3">
-        <v>30721000</v>
+        <v>30758200</v>
       </c>
       <c r="G47" s="3">
-        <v>31137500</v>
+        <v>32540900</v>
       </c>
       <c r="H47" s="3">
-        <v>30630100</v>
+        <v>31840500</v>
       </c>
       <c r="I47" s="3">
+        <v>32272200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>31746300</v>
+      </c>
+      <c r="K47" s="3">
         <v>28604900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>28956000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>31794000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>24796400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>25346000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>24782600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>27056400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>25019700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>25335500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>24967100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>22543000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>22100500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>21630800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>23888300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>24426800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>25769900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>27684300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>27944900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>27727700</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11651400</v>
+        <v>12061200</v>
       </c>
       <c r="E48" s="3">
-        <v>11389100</v>
+        <v>12413500</v>
       </c>
       <c r="F48" s="3">
-        <v>11437000</v>
+        <v>12076000</v>
       </c>
       <c r="G48" s="3">
-        <v>11252300</v>
+        <v>11804100</v>
       </c>
       <c r="H48" s="3">
-        <v>10841900</v>
+        <v>11853800</v>
       </c>
       <c r="I48" s="3">
+        <v>11662300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>11237000</v>
+      </c>
+      <c r="K48" s="3">
         <v>10298900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>9989500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>10638500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>11245100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>11644400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>16910500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>14924100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>13879200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>14074500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>13777800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>12605600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>12157100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>12203900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>12181400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>12316100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>12254400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>12244000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>12059700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>11922400</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>43777000</v>
+        <v>45893900</v>
       </c>
       <c r="E49" s="3">
-        <v>42635800</v>
+        <v>48728300</v>
       </c>
       <c r="F49" s="3">
-        <v>42442800</v>
+        <v>45372300</v>
       </c>
       <c r="G49" s="3">
-        <v>41341400</v>
+        <v>44189500</v>
       </c>
       <c r="H49" s="3">
-        <v>40316500</v>
+        <v>43989500</v>
       </c>
       <c r="I49" s="3">
+        <v>42847900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>41785700</v>
+      </c>
+      <c r="K49" s="3">
         <v>25794600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>24965700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>26245400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>28500000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>30084900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>46092100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>48950600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>46096100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>47582400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>46788200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>42614900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>42278500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>42292300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>43301000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>43569100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>44476800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>42453200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>38471600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>37445700</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3674,8 +3900,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3751,85 +3983,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4469100</v>
+        <v>3843700</v>
       </c>
       <c r="E52" s="3">
-        <v>4711000</v>
+        <v>4258500</v>
       </c>
       <c r="F52" s="3">
-        <v>5274500</v>
+        <v>4631900</v>
       </c>
       <c r="G52" s="3">
-        <v>5155000</v>
+        <v>4882700</v>
       </c>
       <c r="H52" s="3">
-        <v>4794700</v>
+        <v>5466700</v>
       </c>
       <c r="I52" s="3">
+        <v>5342900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>4969400</v>
+      </c>
+      <c r="K52" s="3">
         <v>4578300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>4802900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>4939400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>5056400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>4936400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>5787800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>6918700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>5967900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>5757300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>5357800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>4596500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>4630300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>4895200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>4720200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>4242200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>3778900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>4188200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>4597800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>5526300</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3905,85 +4149,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>149024600</v>
+        <v>152276900</v>
       </c>
       <c r="E54" s="3">
-        <v>146940100</v>
+        <v>160289100</v>
       </c>
       <c r="F54" s="3">
-        <v>147412700</v>
+        <v>154455300</v>
       </c>
       <c r="G54" s="3">
-        <v>142270900</v>
+        <v>152294900</v>
       </c>
       <c r="H54" s="3">
-        <v>139677100</v>
+        <v>152784700</v>
       </c>
       <c r="I54" s="3">
+        <v>147455600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>144767200</v>
+      </c>
+      <c r="K54" s="3">
         <v>134396500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>123958800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>128592700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>171366700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>174077900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>172011600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>184052300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>168851000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>170970500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>171783900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>153862300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>147220900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>149645400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>152653500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>152715200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>151723300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>154198700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>148170000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>147567900</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4011,8 +4267,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4040,470 +4298,508 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9317900</v>
+        <v>9990700</v>
       </c>
       <c r="E57" s="3">
-        <v>9117800</v>
+        <v>10915400</v>
       </c>
       <c r="F57" s="3">
-        <v>8662500</v>
+        <v>9657400</v>
       </c>
       <c r="G57" s="3">
-        <v>9015700</v>
+        <v>9450100</v>
       </c>
       <c r="H57" s="3">
-        <v>8201100</v>
+        <v>8978200</v>
       </c>
       <c r="I57" s="3">
+        <v>9344300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>8500000</v>
+      </c>
+      <c r="K57" s="3">
         <v>7425300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>7171100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>8171400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>6688400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>7001500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>11821700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>13975900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>12247500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>12271800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>11978700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>11869000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>10496900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>10028300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>9988000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>10946100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>10770000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>9352900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>8818800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>9446800</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10104900</v>
+        <v>7518100</v>
       </c>
       <c r="E58" s="3">
-        <v>10717400</v>
+        <v>7044200</v>
       </c>
       <c r="F58" s="3">
-        <v>9902800</v>
+        <v>10473100</v>
       </c>
       <c r="G58" s="3">
-        <v>7983700</v>
+        <v>11107900</v>
       </c>
       <c r="H58" s="3">
-        <v>11002200</v>
+        <v>10263700</v>
       </c>
       <c r="I58" s="3">
+        <v>16549200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>11403100</v>
+      </c>
+      <c r="K58" s="3">
         <v>8705400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>7694800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>6810700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>5955300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>7799800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>7622600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>7391600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>11469900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>10756200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>9369800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>5601100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>3361000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>6353800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>6216900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>6111500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>7700200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>6085000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>5627200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>7284700</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>25400600</v>
+        <v>26169600</v>
       </c>
       <c r="E59" s="3">
-        <v>23736700</v>
+        <v>27202200</v>
       </c>
       <c r="F59" s="3">
-        <v>22974100</v>
+        <v>26326200</v>
       </c>
       <c r="G59" s="3">
-        <v>23832600</v>
+        <v>24601700</v>
       </c>
       <c r="H59" s="3">
-        <v>21842100</v>
+        <v>23811300</v>
       </c>
       <c r="I59" s="3">
+        <v>24701100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>22638000</v>
+      </c>
+      <c r="K59" s="3">
         <v>19218600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>20481300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>20427900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>49656000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>49887000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>37285100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>40767700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>38105900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>37718600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>39414800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>35555100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>34141200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>34551700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>35443700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>34640300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>32000300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>33477100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>33731800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>33643700</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>44823300</v>
+        <v>43678500</v>
       </c>
       <c r="E60" s="3">
-        <v>43571800</v>
+        <v>45161800</v>
       </c>
       <c r="F60" s="3">
-        <v>41539400</v>
+        <v>46456800</v>
       </c>
       <c r="G60" s="3">
-        <v>40832000</v>
+        <v>45159700</v>
       </c>
       <c r="H60" s="3">
-        <v>41045300</v>
+        <v>43053200</v>
       </c>
       <c r="I60" s="3">
+        <v>42320000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>42541100</v>
+      </c>
+      <c r="K60" s="3">
         <v>35349300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>35347200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>35410000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>62299700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>64688400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>56729400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>62135200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>61823300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>60746600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>60763400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>53025200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>47999100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>50933900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>51648600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>51697900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>50470500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>48915000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>48177900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>50375200</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>42523500</v>
+        <v>44580900</v>
       </c>
       <c r="E61" s="3">
-        <v>42112100</v>
+        <v>46528700</v>
       </c>
       <c r="F61" s="3">
-        <v>42634700</v>
+        <v>44073100</v>
       </c>
       <c r="G61" s="3">
-        <v>41729300</v>
+        <v>43646700</v>
       </c>
       <c r="H61" s="3">
-        <v>41171900</v>
+        <v>44188400</v>
       </c>
       <c r="I61" s="3">
+        <v>43250000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>42672300</v>
+      </c>
+      <c r="K61" s="3">
         <v>44476300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>36689600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>39445400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>44311700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>41581400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>37631800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>37256800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>30732300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>32870400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>33201700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>30038100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>28666600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>28340300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>29600300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>30043500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>32026100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>38674700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>31563800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>30405200</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9408700</v>
+        <v>9826700</v>
       </c>
       <c r="E62" s="3">
-        <v>9582200</v>
+        <v>10614900</v>
       </c>
       <c r="F62" s="3">
-        <v>10056900</v>
+        <v>9751600</v>
       </c>
       <c r="G62" s="3">
-        <v>9699600</v>
+        <v>9931400</v>
       </c>
       <c r="H62" s="3">
-        <v>9813000</v>
+        <v>10423400</v>
       </c>
       <c r="I62" s="3">
+        <v>10053100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>10170600</v>
+      </c>
+      <c r="K62" s="3">
         <v>9048400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>10673500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>12405000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>14187300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>14498800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>18940700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>22205400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>20458800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>20995700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>20836600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>17583200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>17860100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>18649700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>20484200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>20910500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>20396700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>21366900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>22391600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>25920100</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4579,8 +4875,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4656,8 +4958,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4733,85 +5041,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>102350500</v>
+        <v>103916800</v>
       </c>
       <c r="E66" s="3">
-        <v>100456900</v>
+        <v>108558200</v>
       </c>
       <c r="F66" s="3">
-        <v>99432000</v>
+        <v>106080400</v>
       </c>
       <c r="G66" s="3">
-        <v>97192400</v>
+        <v>104117800</v>
       </c>
       <c r="H66" s="3">
-        <v>96726900</v>
+        <v>103055500</v>
       </c>
       <c r="I66" s="3">
+        <v>100734300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>100251800</v>
+      </c>
+      <c r="K66" s="3">
         <v>93435900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>86123900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>90823500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>123537900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>123689500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>116414700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>125098400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>116177700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>117771900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>117952500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>103496400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>97249900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>100645900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>103254500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>104266500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>104659200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>109687800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>102846900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>107410700</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4839,8 +5159,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4916,8 +5238,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4993,8 +5321,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5070,8 +5404,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5147,85 +5487,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>38084000</v>
+        <v>41809000</v>
       </c>
       <c r="E72" s="3">
-        <v>40022500</v>
+        <v>41218600</v>
       </c>
       <c r="F72" s="3">
-        <v>42223400</v>
+        <v>39471900</v>
       </c>
       <c r="G72" s="3">
-        <v>40430800</v>
+        <v>41481000</v>
       </c>
       <c r="H72" s="3">
-        <v>39135400</v>
+        <v>43762100</v>
       </c>
       <c r="I72" s="3">
+        <v>41904200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>40561600</v>
+      </c>
+      <c r="K72" s="3">
         <v>37045900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>35373800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>34331700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>43341900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>44554300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>48555800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>51226600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>47708900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>47185300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>48717600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>45427100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>44466800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>44000000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>42359600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>40160500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>38469700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>35296500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>36673300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>32225800</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5301,8 +5653,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5378,8 +5736,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5455,85 +5819,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>46674000</v>
+        <v>48360100</v>
       </c>
       <c r="E76" s="3">
-        <v>46483100</v>
+        <v>51730900</v>
       </c>
       <c r="F76" s="3">
-        <v>47980700</v>
+        <v>48374900</v>
       </c>
       <c r="G76" s="3">
-        <v>45078500</v>
+        <v>48177100</v>
       </c>
       <c r="H76" s="3">
-        <v>42950200</v>
+        <v>49729200</v>
       </c>
       <c r="I76" s="3">
+        <v>46721300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>44515400</v>
+      </c>
+      <c r="K76" s="3">
         <v>40960600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>37834900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>37769200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>47828800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>50388300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>55596900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>58953900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>52673300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>53198600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>53831400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>50365900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>49971100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>48999500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>49399000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>48448700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>47064100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>44510900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>45323200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>40157200</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5609,167 +5985,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1689400</v>
+        <v>1562700</v>
       </c>
       <c r="E81" s="3">
-        <v>1055500</v>
+        <v>2857700</v>
       </c>
       <c r="F81" s="3">
-        <v>1677200</v>
+        <v>-1751000</v>
       </c>
       <c r="G81" s="3">
-        <v>1191300</v>
+        <v>1094000</v>
       </c>
       <c r="H81" s="3">
-        <v>1380100</v>
+        <v>1738300</v>
       </c>
       <c r="I81" s="3">
+        <v>1234700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1430400</v>
+      </c>
+      <c r="K81" s="3">
         <v>2312100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1405600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1824600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>588000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>736200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1221700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1614500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1214000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>2161500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1214100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>619100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>1214400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>2191200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>2456000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>1385700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>1522500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>1665600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>2285400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5797,85 +6191,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>897300</v>
+        <v>912000</v>
       </c>
       <c r="E83" s="3">
-        <v>992200</v>
+        <v>941600</v>
       </c>
       <c r="F83" s="3">
-        <v>837100</v>
+        <v>930000</v>
       </c>
       <c r="G83" s="3">
-        <v>826800</v>
+        <v>1028400</v>
       </c>
       <c r="H83" s="3">
-        <v>876900</v>
+        <v>867600</v>
       </c>
       <c r="I83" s="3">
+        <v>857000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>908800</v>
+      </c>
+      <c r="K83" s="3">
         <v>710500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>724800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>923700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>842200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>479900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>1208100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>1182100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>1016400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>1000000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>991600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>1013500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>891600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>939100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>959300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>1143300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>967200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>785300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>775900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>871000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5951,8 +6353,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6028,8 +6436,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6105,8 +6519,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6182,8 +6602,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6259,85 +6685,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2815400</v>
+        <v>551200</v>
       </c>
       <c r="E89" s="3">
-        <v>1875200</v>
+        <v>4400200</v>
       </c>
       <c r="F89" s="3">
-        <v>1516900</v>
+        <v>2918000</v>
       </c>
       <c r="G89" s="3">
-        <v>4488500</v>
+        <v>1943500</v>
       </c>
       <c r="H89" s="3">
-        <v>2750000</v>
+        <v>1572200</v>
       </c>
       <c r="I89" s="3">
+        <v>4652000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>2850300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1627200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1338300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-21800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>3294500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>756500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>599600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>7463900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1281100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1299100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>224900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>4696200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>1625000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>1495600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>1540500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>3636400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>1781700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>1423800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>1331100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>5149500</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6365,85 +6803,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-480800</v>
+        <v>-461300</v>
       </c>
       <c r="E91" s="3">
-        <v>-523700</v>
+        <v>-749100</v>
       </c>
       <c r="F91" s="3">
-        <v>-400200</v>
+        <v>-498300</v>
       </c>
       <c r="G91" s="3">
-        <v>-632900</v>
+        <v>-542800</v>
       </c>
       <c r="H91" s="3">
-        <v>-426700</v>
+        <v>-414700</v>
       </c>
       <c r="I91" s="3">
+        <v>-656000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-442200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-370600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-335800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-539700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-373100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-231500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-549900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1016700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-770500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-717700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-628000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-1058900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-662100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-607000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-563200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-969400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-724800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-1115100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-988300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-959000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6519,8 +6965,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6596,85 +7048,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-136800</v>
+        <v>-672900</v>
       </c>
       <c r="E94" s="3">
-        <v>-957500</v>
+        <v>-452800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1010600</v>
+        <v>-141800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1649600</v>
+        <v>-992400</v>
       </c>
       <c r="H94" s="3">
-        <v>-14802600</v>
+        <v>-1047400</v>
       </c>
       <c r="I94" s="3">
+        <v>-1709700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-15342100</v>
+      </c>
+      <c r="K94" s="3">
         <v>1093300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-457300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1363800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-290200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1588600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-2480600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1974700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1202300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1320600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1522800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-2462200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-1002500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-1308200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>592400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-1884900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-1668400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-4665900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-369800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-2619900</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6702,8 +7166,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6779,8 +7245,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6856,8 +7328,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6933,8 +7411,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7010,235 +7494,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2263100</v>
+        <v>241200</v>
       </c>
       <c r="E100" s="3">
-        <v>-3768800</v>
+        <v>-3741100</v>
       </c>
       <c r="F100" s="3">
-        <v>1983400</v>
+        <v>-2345600</v>
       </c>
       <c r="G100" s="3">
-        <v>-4152600</v>
+        <v>-3906100</v>
       </c>
       <c r="H100" s="3">
-        <v>-1124900</v>
+        <v>2055700</v>
       </c>
       <c r="I100" s="3">
+        <v>-4303900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1165900</v>
+      </c>
+      <c r="K100" s="3">
         <v>6710700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-631900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1268300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>2092400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-758800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>794900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-262100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-890500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-4363700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>2801500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>2307100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-3425800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-639500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-380400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-1729000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-1276800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>3617700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-2304200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>2442700</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>230700</v>
+        <v>-477200</v>
       </c>
       <c r="E101" s="3">
-        <v>108200</v>
+        <v>139700</v>
       </c>
       <c r="F101" s="3">
-        <v>219500</v>
+        <v>239100</v>
       </c>
       <c r="G101" s="3">
-        <v>157200</v>
+        <v>112100</v>
       </c>
       <c r="H101" s="3">
-        <v>-53100</v>
+        <v>227500</v>
       </c>
       <c r="I101" s="3">
+        <v>162900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="K101" s="3">
         <v>324600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-220500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-293700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-100400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-80200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-89200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>126200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-203500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>192600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>78900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-137300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>68100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-13500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>50500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-130200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-402800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>39900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>63400</v>
       </c>
-      <c r="AA101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>646200</v>
+        <v>-357600</v>
       </c>
       <c r="E102" s="3">
-        <v>-2742900</v>
+        <v>346000</v>
       </c>
       <c r="F102" s="3">
-        <v>2709200</v>
+        <v>669700</v>
       </c>
       <c r="G102" s="3">
-        <v>-1156600</v>
+        <v>-2842800</v>
       </c>
       <c r="H102" s="3">
-        <v>-13230600</v>
+        <v>2807900</v>
       </c>
       <c r="I102" s="3">
+        <v>-1198700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-13712700</v>
+      </c>
+      <c r="K102" s="3">
         <v>9755800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>28600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-411000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>4996400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1671100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1175400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>5353200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1015200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-4192700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>1582600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>4403800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-2735100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-465600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>1803000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-107700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-1566300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>415500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-1279500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>4972300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SIEGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIEGY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,353 +665,365 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19118100</v>
+        <v>20909100</v>
       </c>
       <c r="E8" s="3">
-        <v>21765200</v>
+        <v>19459600</v>
       </c>
       <c r="F8" s="3">
-        <v>18903300</v>
+        <v>22154000</v>
       </c>
       <c r="G8" s="3">
-        <v>18028300</v>
+        <v>19241000</v>
       </c>
       <c r="H8" s="3">
-        <v>17453800</v>
+        <v>18350400</v>
       </c>
       <c r="I8" s="3">
-        <v>18456800</v>
+        <v>17765600</v>
       </c>
       <c r="J8" s="3">
+        <v>18786500</v>
+      </c>
+      <c r="K8" s="3">
         <v>17017900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14970000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14363700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15377500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14158900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>15563500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>15440400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>20059200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>16749600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>17039900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>16298200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>25039500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>22479400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>22598000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>22241200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>24927300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>23896100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>23634700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>22552400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>25768700</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11748000</v>
+        <v>13156500</v>
       </c>
       <c r="E9" s="3">
-        <v>13649300</v>
+        <v>11957900</v>
       </c>
       <c r="F9" s="3">
-        <v>12313000</v>
+        <v>13893100</v>
       </c>
       <c r="G9" s="3">
-        <v>11954300</v>
+        <v>12533000</v>
       </c>
       <c r="H9" s="3">
-        <v>10888900</v>
+        <v>12167900</v>
       </c>
       <c r="I9" s="3">
-        <v>11782900</v>
+        <v>11083500</v>
       </c>
       <c r="J9" s="3">
+        <v>11993400</v>
+      </c>
+      <c r="K9" s="3">
         <v>10805400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9622100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8933000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10048900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8971600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9903300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9809600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12496100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10675800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10582800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>10438000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>17823500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>15801300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>15522700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>15554100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>17849700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>17030700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>15969700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>15409800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>18465200</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7370000</v>
+        <v>7752600</v>
       </c>
       <c r="E10" s="3">
-        <v>8115900</v>
+        <v>7501700</v>
       </c>
       <c r="F10" s="3">
-        <v>6590300</v>
+        <v>8260900</v>
       </c>
       <c r="G10" s="3">
-        <v>6074000</v>
+        <v>6708000</v>
       </c>
       <c r="H10" s="3">
-        <v>6564900</v>
+        <v>6182500</v>
       </c>
       <c r="I10" s="3">
-        <v>6673900</v>
+        <v>6682200</v>
       </c>
       <c r="J10" s="3">
+        <v>6793100</v>
+      </c>
+      <c r="K10" s="3">
         <v>6212600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5348000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5430700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5328600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5187300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5660200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5630800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7563100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6073800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6457100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5860200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7216000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6678000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>7075300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6687100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>7077500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>6865500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>7665000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>7142600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>7303400</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,91 +1053,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1512900</v>
+        <v>1645500</v>
       </c>
       <c r="E12" s="3">
-        <v>1672700</v>
+        <v>1540000</v>
       </c>
       <c r="F12" s="3">
-        <v>1481200</v>
+        <v>1702600</v>
       </c>
       <c r="G12" s="3">
-        <v>1437800</v>
+        <v>1507700</v>
       </c>
       <c r="H12" s="3">
-        <v>1323600</v>
+        <v>1463500</v>
       </c>
       <c r="I12" s="3">
-        <v>1529900</v>
+        <v>1347200</v>
       </c>
       <c r="J12" s="3">
+        <v>1557200</v>
+      </c>
+      <c r="K12" s="3">
         <v>1290800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1151500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1086100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1244400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1185800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1308600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1269100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1572900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1359900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1367300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1299100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1735600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1506500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1565200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1373300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1656100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1511300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1425000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1322900</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>1551800</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1207,8 +1223,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1281,8 +1300,8 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>10</v>
+      <c r="AA14" s="3">
+        <v>0</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>10</v>
@@ -1290,8 +1309,11 @@
       <c r="AC14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1373,8 +1395,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1401,174 +1426,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16763000</v>
+        <v>18515100</v>
       </c>
       <c r="E17" s="3">
-        <v>17934200</v>
+        <v>17062400</v>
       </c>
       <c r="F17" s="3">
-        <v>16331300</v>
+        <v>18254500</v>
       </c>
       <c r="G17" s="3">
-        <v>16685700</v>
+        <v>16623000</v>
       </c>
       <c r="H17" s="3">
-        <v>15374900</v>
+        <v>16983800</v>
       </c>
       <c r="I17" s="3">
-        <v>16739700</v>
+        <v>15649500</v>
       </c>
       <c r="J17" s="3">
+        <v>17038700</v>
+      </c>
+      <c r="K17" s="3">
         <v>15260600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13466400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12588500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13975300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12931600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14183800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14117100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>17557800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>15177900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14926200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>14927400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>23528700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>20824700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>20680500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>20439300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>23346400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>22102100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>20967800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>19862000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>23667500</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2355100</v>
+        <v>2393900</v>
       </c>
       <c r="E18" s="3">
-        <v>3831000</v>
+        <v>2397200</v>
       </c>
       <c r="F18" s="3">
-        <v>2572000</v>
+        <v>3899500</v>
       </c>
       <c r="G18" s="3">
-        <v>1342600</v>
+        <v>2617900</v>
       </c>
       <c r="H18" s="3">
-        <v>2079000</v>
+        <v>1366600</v>
       </c>
       <c r="I18" s="3">
-        <v>1717100</v>
+        <v>2116100</v>
       </c>
       <c r="J18" s="3">
+        <v>1747800</v>
+      </c>
+      <c r="K18" s="3">
         <v>1757300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1503600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1775200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1402200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1227300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1379800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1323300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2501400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1571700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2113700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1370800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1510800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1654700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1917500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1801900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1580900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1794100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2666900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>2690400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>2101100</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1598,423 +1630,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>288800</v>
+        <v>2441300</v>
       </c>
       <c r="E20" s="3">
-        <v>449700</v>
+        <v>294000</v>
       </c>
       <c r="F20" s="3">
-        <v>-3367600</v>
+        <v>457700</v>
       </c>
       <c r="G20" s="3">
-        <v>707800</v>
+        <v>-3427800</v>
       </c>
       <c r="H20" s="3">
-        <v>684500</v>
+        <v>720400</v>
       </c>
       <c r="I20" s="3">
-        <v>416900</v>
+        <v>696800</v>
       </c>
       <c r="J20" s="3">
+        <v>424300</v>
+      </c>
+      <c r="K20" s="3">
         <v>194700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>689000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>399100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>209700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>480000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>427900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>479900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>407900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>400000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>564600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>553800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>350000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>435900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1373300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1141100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>478000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>518400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>154900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>759500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3555900</v>
+        <v>5992900</v>
       </c>
       <c r="E21" s="3">
-        <v>5222300</v>
+        <v>3619500</v>
       </c>
       <c r="F21" s="3">
-        <v>134400</v>
+        <v>5315600</v>
       </c>
       <c r="G21" s="3">
-        <v>3078800</v>
+        <v>136800</v>
       </c>
       <c r="H21" s="3">
-        <v>3631100</v>
+        <v>3133800</v>
       </c>
       <c r="I21" s="3">
-        <v>2991000</v>
+        <v>3695900</v>
       </c>
       <c r="J21" s="3">
+        <v>3044400</v>
+      </c>
+      <c r="K21" s="3">
         <v>2860800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2903200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2899100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2535600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2549500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2287600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3011300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4091500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2988100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3678300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2916300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2874200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2982200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>4229900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3902300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3202200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3279600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>3607100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>4225700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>3242100</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>292000</v>
+        <v>374800</v>
       </c>
       <c r="E22" s="3">
-        <v>187300</v>
+        <v>297200</v>
       </c>
       <c r="F22" s="3">
-        <v>169300</v>
+        <v>190600</v>
       </c>
       <c r="G22" s="3">
-        <v>197800</v>
+        <v>172300</v>
       </c>
       <c r="H22" s="3">
-        <v>174600</v>
+        <v>201400</v>
       </c>
       <c r="I22" s="3">
-        <v>187300</v>
+        <v>177700</v>
       </c>
       <c r="J22" s="3">
+        <v>190600</v>
+      </c>
+      <c r="K22" s="3">
         <v>144900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>167400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>169500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>147400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>237800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>353400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>159200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>308700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>276500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>312200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>259600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>301300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>299800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>298400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>311900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>310800</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>322000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>284100</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>286400</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>291100</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2351900</v>
+        <v>4460500</v>
       </c>
       <c r="E23" s="3">
-        <v>4093400</v>
+        <v>2393900</v>
       </c>
       <c r="F23" s="3">
-        <v>-964900</v>
+        <v>4166500</v>
       </c>
       <c r="G23" s="3">
-        <v>1852600</v>
+        <v>-982100</v>
       </c>
       <c r="H23" s="3">
-        <v>2588900</v>
+        <v>1885700</v>
       </c>
       <c r="I23" s="3">
-        <v>1946700</v>
+        <v>2635200</v>
       </c>
       <c r="J23" s="3">
+        <v>1981500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1807100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2025300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2004900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1464500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1469500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1454300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1644000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2600700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1695200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2366100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1665100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1559500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1790800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2992300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2631100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1748100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1990400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2537800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>3163400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>2080000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>612600</v>
+        <v>633200</v>
       </c>
       <c r="E24" s="3">
-        <v>1008300</v>
+        <v>623500</v>
       </c>
       <c r="F24" s="3">
-        <v>646400</v>
+        <v>1026300</v>
       </c>
       <c r="G24" s="3">
-        <v>572400</v>
+        <v>658000</v>
       </c>
       <c r="H24" s="3">
-        <v>672900</v>
+        <v>582600</v>
       </c>
       <c r="I24" s="3">
-        <v>605200</v>
+        <v>684900</v>
       </c>
       <c r="J24" s="3">
+        <v>616000</v>
+      </c>
+      <c r="K24" s="3">
         <v>351300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>478800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>498200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>387100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>446200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>334200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>302600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>916300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>448200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>311000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>461700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>828500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>512800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>774200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>655200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>379200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>392700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>860400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>853400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>693700</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2096,174 +2144,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1739400</v>
+        <v>3827300</v>
       </c>
       <c r="E26" s="3">
-        <v>3085100</v>
+        <v>1770400</v>
       </c>
       <c r="F26" s="3">
-        <v>-1611300</v>
+        <v>3140200</v>
       </c>
       <c r="G26" s="3">
-        <v>1280200</v>
+        <v>-1640100</v>
       </c>
       <c r="H26" s="3">
-        <v>1916000</v>
+        <v>1303000</v>
       </c>
       <c r="I26" s="3">
-        <v>1341500</v>
+        <v>1950300</v>
       </c>
       <c r="J26" s="3">
+        <v>1365500</v>
+      </c>
+      <c r="K26" s="3">
         <v>1455800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1546500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1506700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1077300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1023300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1120100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1341400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1684400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1247000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2055100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1203400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>731000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1278100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2218200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1975800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1368800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1597700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1677400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2310100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1386300</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1571100</v>
+        <v>3746500</v>
       </c>
       <c r="E27" s="3">
-        <v>2859800</v>
+        <v>1599200</v>
       </c>
       <c r="F27" s="3">
-        <v>-1743600</v>
+        <v>2910900</v>
       </c>
       <c r="G27" s="3">
-        <v>1089700</v>
+        <v>-1774700</v>
       </c>
       <c r="H27" s="3">
-        <v>1754200</v>
+        <v>1109200</v>
       </c>
       <c r="I27" s="3">
-        <v>1171200</v>
+        <v>1785500</v>
       </c>
       <c r="J27" s="3">
+        <v>1192100</v>
+      </c>
+      <c r="K27" s="3">
         <v>1319300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1419900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1382200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>952800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1027600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1069300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1333500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1499400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1122300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1916300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1079000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>594800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1163900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2144100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1952300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1350900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1539400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1636300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>2271300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1359300</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2345,91 +2402,97 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-8500</v>
+        <v>-3200</v>
       </c>
       <c r="E29" s="3">
-        <v>-2100</v>
+        <v>-8600</v>
       </c>
       <c r="F29" s="3">
-        <v>-7400</v>
+        <v>-2200</v>
       </c>
       <c r="G29" s="3">
-        <v>4200</v>
+        <v>-7500</v>
       </c>
       <c r="H29" s="3">
-        <v>-15900</v>
+        <v>4300</v>
       </c>
       <c r="I29" s="3">
-        <v>63500</v>
+        <v>-16200</v>
       </c>
       <c r="J29" s="3">
+        <v>64600</v>
+      </c>
+      <c r="K29" s="3">
         <v>111100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>892200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>23500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>871800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-439600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-333100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-111800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>115100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>91800</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>245200</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>135200</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>24400</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>50500</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>47100</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>503800</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>34800</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-16800</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>29300</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>14100</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2511,8 +2574,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2594,174 +2660,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-288800</v>
+        <v>-2441300</v>
       </c>
       <c r="E32" s="3">
-        <v>-449700</v>
+        <v>-294000</v>
       </c>
       <c r="F32" s="3">
-        <v>3367600</v>
+        <v>-457700</v>
       </c>
       <c r="G32" s="3">
-        <v>-707800</v>
+        <v>3427800</v>
       </c>
       <c r="H32" s="3">
-        <v>-684500</v>
+        <v>-720400</v>
       </c>
       <c r="I32" s="3">
-        <v>-416900</v>
+        <v>-696800</v>
       </c>
       <c r="J32" s="3">
+        <v>-424300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-194700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-689000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-399100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-209700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-480000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-427900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-479900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-407900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-400000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-564600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-553800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-350000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-435900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1373300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1141100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-478000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-518400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-154900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-759500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-270000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1562700</v>
+        <v>3743300</v>
       </c>
       <c r="E33" s="3">
-        <v>2857700</v>
+        <v>1590600</v>
       </c>
       <c r="F33" s="3">
-        <v>-1751000</v>
+        <v>2908700</v>
       </c>
       <c r="G33" s="3">
-        <v>1094000</v>
+        <v>-1782300</v>
       </c>
       <c r="H33" s="3">
-        <v>1738300</v>
+        <v>1113500</v>
       </c>
       <c r="I33" s="3">
-        <v>1234700</v>
+        <v>1769300</v>
       </c>
       <c r="J33" s="3">
+        <v>1256700</v>
+      </c>
+      <c r="K33" s="3">
         <v>1430400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2312100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1405600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1824600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>588000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>736200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1221700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1614500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1214000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2161500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1214100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>619100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1214400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2191200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2456000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1385700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1522500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1665600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>2285400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2843,179 +2918,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1562700</v>
+        <v>3743300</v>
       </c>
       <c r="E35" s="3">
-        <v>2857700</v>
+        <v>1590600</v>
       </c>
       <c r="F35" s="3">
-        <v>-1751000</v>
+        <v>2908700</v>
       </c>
       <c r="G35" s="3">
-        <v>1094000</v>
+        <v>-1782300</v>
       </c>
       <c r="H35" s="3">
-        <v>1738300</v>
+        <v>1113500</v>
       </c>
       <c r="I35" s="3">
-        <v>1234700</v>
+        <v>1769300</v>
       </c>
       <c r="J35" s="3">
+        <v>1256700</v>
+      </c>
+      <c r="K35" s="3">
         <v>1430400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2312100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1405600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1824600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>588000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>736200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1221700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1614500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1214000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2161500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1214100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>619100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1214400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2191200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2456000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1385700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1522500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1665600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>2285400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3045,8 +3129,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3076,755 +3161,783 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10722800</v>
+        <v>9892400</v>
       </c>
       <c r="E41" s="3">
-        <v>11072000</v>
+        <v>10914400</v>
       </c>
       <c r="F41" s="3">
-        <v>10682600</v>
+        <v>11269800</v>
       </c>
       <c r="G41" s="3">
-        <v>10045700</v>
+        <v>10873500</v>
       </c>
       <c r="H41" s="3">
-        <v>12906500</v>
+        <v>10225200</v>
       </c>
       <c r="I41" s="3">
-        <v>10098600</v>
+        <v>13137100</v>
       </c>
       <c r="J41" s="3">
+        <v>10279000</v>
+      </c>
+      <c r="K41" s="3">
         <v>11297300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>24130700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14307500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14573200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13182600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8843100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12815300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15178900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9437100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10628200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>14819700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>12256700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7784800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>10749800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>11215400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>9396700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>9520100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>11598400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>11182900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>12447100</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>10436100</v>
+        <v>10442700</v>
       </c>
       <c r="E42" s="3">
-        <v>10258400</v>
+        <v>10622500</v>
       </c>
       <c r="F42" s="3">
-        <v>10201200</v>
+        <v>10441600</v>
       </c>
       <c r="G42" s="3">
-        <v>9102000</v>
+        <v>10383500</v>
       </c>
       <c r="H42" s="3">
-        <v>9300900</v>
+        <v>9264600</v>
       </c>
       <c r="I42" s="3">
-        <v>8448100</v>
+        <v>9467000</v>
       </c>
       <c r="J42" s="3">
+        <v>8599000</v>
+      </c>
+      <c r="K42" s="3">
         <v>7927600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>9334200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>8584900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>8699700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>9240000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>11103600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>11233400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>13069400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>11464000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>11729900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>11299300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>11865700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>10144400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>10626400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>10132700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>9992400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>9755700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>10085400</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>10037200</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>9499600</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>26675400</v>
+        <v>27044200</v>
       </c>
       <c r="E43" s="3">
-        <v>27182100</v>
+        <v>27151900</v>
       </c>
       <c r="F43" s="3">
-        <v>26242600</v>
+        <v>27667700</v>
       </c>
       <c r="G43" s="3">
-        <v>25536900</v>
+        <v>26711400</v>
       </c>
       <c r="H43" s="3">
-        <v>25297800</v>
+        <v>25993100</v>
       </c>
       <c r="I43" s="3">
-        <v>25347600</v>
+        <v>25749800</v>
       </c>
       <c r="J43" s="3">
+        <v>25800400</v>
+      </c>
+      <c r="K43" s="3">
         <v>24573100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>21962500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>21282700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>21943300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>22461800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>24030600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>33874100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>37124500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>35800200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>34793900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>34533100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>31430400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>29901800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>28899100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>29119000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>29882000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>20761300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>20843300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>20116800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>20045200</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>11893000</v>
+        <v>12470500</v>
       </c>
       <c r="E44" s="3">
-        <v>11242300</v>
+        <v>12105400</v>
       </c>
       <c r="F44" s="3">
-        <v>11411600</v>
+        <v>11443100</v>
       </c>
       <c r="G44" s="3">
-        <v>10700600</v>
+        <v>11615400</v>
       </c>
       <c r="H44" s="3">
-        <v>10301700</v>
+        <v>10891800</v>
       </c>
       <c r="I44" s="3">
-        <v>9348500</v>
+        <v>10485800</v>
       </c>
       <c r="J44" s="3">
+        <v>9515500</v>
+      </c>
+      <c r="K44" s="3">
         <v>9475400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8121500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7904100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8090400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>9481100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>9569100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>18004600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>18137200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>18655400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>18701400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>17891600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>15379000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>16156000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>16172400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>16158900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>15578800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>23339600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>23185100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>22082900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>21316400</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2263100</v>
+        <v>2327200</v>
       </c>
       <c r="E45" s="3">
-        <v>2486300</v>
+        <v>2303500</v>
       </c>
       <c r="F45" s="3">
-        <v>3078800</v>
+        <v>2530700</v>
       </c>
       <c r="G45" s="3">
-        <v>3492500</v>
+        <v>3133800</v>
       </c>
       <c r="H45" s="3">
-        <v>1827200</v>
+        <v>3554800</v>
       </c>
       <c r="I45" s="3">
-        <v>2087400</v>
+        <v>1859800</v>
       </c>
       <c r="J45" s="3">
+        <v>2124700</v>
+      </c>
+      <c r="K45" s="3">
         <v>1755200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1571000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3165500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1668900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>47403300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>48519700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2511100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2692500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2531600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2367300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2349300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1993700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2067500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2175500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1936600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>4957000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2066700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1916800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1676200</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1637500</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>61990300</v>
+        <v>62177000</v>
       </c>
       <c r="E46" s="3">
-        <v>62241100</v>
+        <v>63097700</v>
       </c>
       <c r="F46" s="3">
-        <v>61616900</v>
+        <v>63353000</v>
       </c>
       <c r="G46" s="3">
-        <v>58877700</v>
+        <v>62717600</v>
       </c>
       <c r="H46" s="3">
-        <v>59634200</v>
+        <v>59929500</v>
       </c>
       <c r="I46" s="3">
-        <v>55331300</v>
+        <v>60699500</v>
       </c>
       <c r="J46" s="3">
+        <v>56319700</v>
+      </c>
+      <c r="K46" s="3">
         <v>55028700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>65119900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>55244700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>54975500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>101768800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>102066100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>78438600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>86202500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>77888300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>78220700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>80893000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>71502200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>66054600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>68623200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>68562600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>68160900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>65443400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>67629100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>65096000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>64945700</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>28487700</v>
+        <v>29949700</v>
       </c>
       <c r="E47" s="3">
-        <v>32647800</v>
+        <v>28996600</v>
       </c>
       <c r="F47" s="3">
-        <v>30758200</v>
+        <v>33231000</v>
       </c>
       <c r="G47" s="3">
-        <v>32540900</v>
+        <v>31307600</v>
       </c>
       <c r="H47" s="3">
-        <v>31840500</v>
+        <v>33122200</v>
       </c>
       <c r="I47" s="3">
-        <v>32272200</v>
+        <v>32409300</v>
       </c>
       <c r="J47" s="3">
+        <v>32848700</v>
+      </c>
+      <c r="K47" s="3">
         <v>31746300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>28604900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>28956000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>31794000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>24796400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>25346000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>24782600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>27056400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>25019700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>25335500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>24967100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>22543000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>22100500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>21630800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>23888300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>24426800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>25769900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>27684300</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>27944900</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>27727700</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12061200</v>
+        <v>12301400</v>
       </c>
       <c r="E48" s="3">
-        <v>12413500</v>
+        <v>12276700</v>
       </c>
       <c r="F48" s="3">
-        <v>12076000</v>
+        <v>12635300</v>
       </c>
       <c r="G48" s="3">
-        <v>11804100</v>
+        <v>12291700</v>
       </c>
       <c r="H48" s="3">
-        <v>11853800</v>
+        <v>12015000</v>
       </c>
       <c r="I48" s="3">
-        <v>11662300</v>
+        <v>12065600</v>
       </c>
       <c r="J48" s="3">
+        <v>11870700</v>
+      </c>
+      <c r="K48" s="3">
         <v>11237000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10298900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9989500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10638500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11245100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11644400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16910500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14924100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13879200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>14074500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13777800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12605600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12157100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12203900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12181400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>12316100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>12254400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>12244000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>12059700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>11922400</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>45893900</v>
+        <v>45761800</v>
       </c>
       <c r="E49" s="3">
-        <v>48728300</v>
+        <v>46713800</v>
       </c>
       <c r="F49" s="3">
-        <v>45372300</v>
+        <v>49598800</v>
       </c>
       <c r="G49" s="3">
-        <v>44189500</v>
+        <v>46182900</v>
       </c>
       <c r="H49" s="3">
-        <v>43989500</v>
+        <v>44978900</v>
       </c>
       <c r="I49" s="3">
-        <v>42847900</v>
+        <v>44775300</v>
       </c>
       <c r="J49" s="3">
+        <v>43613400</v>
+      </c>
+      <c r="K49" s="3">
         <v>41785700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>25794600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>24965700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>26245400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>28500000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>30084900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>46092100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>48950600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>46096100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>47582400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>46788200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>42614900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>42278500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>42292300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>43301000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>43569100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>44476800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>42453200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>38471600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>37445700</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3906,8 +4019,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3989,91 +4105,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3843700</v>
+        <v>3803600</v>
       </c>
       <c r="E52" s="3">
-        <v>4258500</v>
+        <v>3912400</v>
       </c>
       <c r="F52" s="3">
-        <v>4631900</v>
+        <v>4334500</v>
       </c>
       <c r="G52" s="3">
-        <v>4882700</v>
+        <v>4714700</v>
       </c>
       <c r="H52" s="3">
-        <v>5466700</v>
+        <v>4969900</v>
       </c>
       <c r="I52" s="3">
-        <v>5342900</v>
+        <v>5564300</v>
       </c>
       <c r="J52" s="3">
+        <v>5438300</v>
+      </c>
+      <c r="K52" s="3">
         <v>4969400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4578300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4802900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4939400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5056400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4936400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5787800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6918700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5967900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5757300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5357800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4596500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4630300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4895200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4720200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4242200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3778900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>4188200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>4597800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>5526300</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4155,91 +4277,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>152276900</v>
+        <v>153993500</v>
       </c>
       <c r="E54" s="3">
-        <v>160289100</v>
+        <v>154997100</v>
       </c>
       <c r="F54" s="3">
-        <v>154455300</v>
+        <v>163152500</v>
       </c>
       <c r="G54" s="3">
-        <v>152294900</v>
+        <v>157214500</v>
       </c>
       <c r="H54" s="3">
-        <v>152784700</v>
+        <v>155015400</v>
       </c>
       <c r="I54" s="3">
-        <v>147455600</v>
+        <v>155514100</v>
       </c>
       <c r="J54" s="3">
+        <v>150089700</v>
+      </c>
+      <c r="K54" s="3">
         <v>144767200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>134396500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>123958800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>128592700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>171366700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>174077900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>172011600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>184052300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>168851000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>170970500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>171783900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>153862300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>147220900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>149645400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>152653500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>152715200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>151723300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>154198700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>148170000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>147567900</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4269,8 +4397,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4300,506 +4429,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9990700</v>
+        <v>10277900</v>
       </c>
       <c r="E57" s="3">
-        <v>10915400</v>
+        <v>10169200</v>
       </c>
       <c r="F57" s="3">
-        <v>9657400</v>
+        <v>11110400</v>
       </c>
       <c r="G57" s="3">
-        <v>9450100</v>
+        <v>9829900</v>
       </c>
       <c r="H57" s="3">
-        <v>8978200</v>
+        <v>9618900</v>
       </c>
       <c r="I57" s="3">
-        <v>9344300</v>
+        <v>9138600</v>
       </c>
       <c r="J57" s="3">
+        <v>9511200</v>
+      </c>
+      <c r="K57" s="3">
         <v>8500000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7425300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7171100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8171400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6688400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7001500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11821700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>13975900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>12247500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12271800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>11978700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>11869000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>10496900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>10028300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>9988000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>10946100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>10770000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>9352900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>8818800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>9446800</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7518100</v>
+        <v>10134700</v>
       </c>
       <c r="E58" s="3">
-        <v>7044200</v>
+        <v>7652500</v>
       </c>
       <c r="F58" s="3">
-        <v>10473100</v>
+        <v>7170000</v>
       </c>
       <c r="G58" s="3">
-        <v>11107900</v>
+        <v>10660200</v>
       </c>
       <c r="H58" s="3">
-        <v>10263700</v>
+        <v>11306400</v>
       </c>
       <c r="I58" s="3">
-        <v>16549200</v>
+        <v>10447000</v>
       </c>
       <c r="J58" s="3">
+        <v>16844900</v>
+      </c>
+      <c r="K58" s="3">
         <v>11403100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8705400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7694800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6810700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5955300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7799800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7622600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7391600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>11469900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>10756200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>9369800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5601100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3361000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>6353800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>6216900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>6111500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>7700200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>6085000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>5627200</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>7284700</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>26169600</v>
+        <v>25921000</v>
       </c>
       <c r="E59" s="3">
-        <v>27202200</v>
+        <v>26637100</v>
       </c>
       <c r="F59" s="3">
-        <v>26326200</v>
+        <v>27688200</v>
       </c>
       <c r="G59" s="3">
-        <v>24601700</v>
+        <v>26796500</v>
       </c>
       <c r="H59" s="3">
-        <v>23811300</v>
+        <v>25041200</v>
       </c>
       <c r="I59" s="3">
-        <v>24701100</v>
+        <v>24236700</v>
       </c>
       <c r="J59" s="3">
+        <v>25142400</v>
+      </c>
+      <c r="K59" s="3">
         <v>22638000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19218600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>20481300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>20427900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>49656000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>49887000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>37285100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>40767700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>38105900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>37718600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>39414800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>35555100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>34141200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>34551700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>35443700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>34640300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>32000300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>33477100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>33731800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>33643700</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>43678500</v>
+        <v>46333600</v>
       </c>
       <c r="E60" s="3">
-        <v>45161800</v>
+        <v>44458700</v>
       </c>
       <c r="F60" s="3">
-        <v>46456800</v>
+        <v>45968600</v>
       </c>
       <c r="G60" s="3">
-        <v>45159700</v>
+        <v>47286700</v>
       </c>
       <c r="H60" s="3">
-        <v>43053200</v>
+        <v>45966400</v>
       </c>
       <c r="I60" s="3">
-        <v>42320000</v>
+        <v>43822300</v>
       </c>
       <c r="J60" s="3">
+        <v>43076000</v>
+      </c>
+      <c r="K60" s="3">
         <v>42541100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>35349300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>35347200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>35410000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>62299700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>64688400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>56729400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>62135200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>61823300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>60746600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>60763400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>53025200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>47999100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>50933900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>51648600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>51697900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>50470500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>48915000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>48177900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>50375200</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>44580900</v>
+        <v>43742600</v>
       </c>
       <c r="E61" s="3">
-        <v>46528700</v>
+        <v>45377300</v>
       </c>
       <c r="F61" s="3">
-        <v>44073100</v>
+        <v>47359900</v>
       </c>
       <c r="G61" s="3">
-        <v>43646700</v>
+        <v>44860400</v>
       </c>
       <c r="H61" s="3">
-        <v>44188400</v>
+        <v>44426400</v>
       </c>
       <c r="I61" s="3">
-        <v>43250000</v>
+        <v>44977800</v>
       </c>
       <c r="J61" s="3">
+        <v>44022600</v>
+      </c>
+      <c r="K61" s="3">
         <v>42672300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>44476300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>36689600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>39445400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>44311700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>41581400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>37631800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>37256800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>30732300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>32870400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>33201700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>30038100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>28666600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>28340300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>29600300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>30043500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>32026100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>38674700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>31563800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>30405200</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9826700</v>
+        <v>9646900</v>
       </c>
       <c r="E62" s="3">
-        <v>10614900</v>
+        <v>10002200</v>
       </c>
       <c r="F62" s="3">
-        <v>9751600</v>
+        <v>10804500</v>
       </c>
       <c r="G62" s="3">
-        <v>9931400</v>
+        <v>9925800</v>
       </c>
       <c r="H62" s="3">
-        <v>10423400</v>
+        <v>10108900</v>
       </c>
       <c r="I62" s="3">
-        <v>10053100</v>
+        <v>10609600</v>
       </c>
       <c r="J62" s="3">
+        <v>10232700</v>
+      </c>
+      <c r="K62" s="3">
         <v>10170600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9048400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10673500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12405000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14187300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14498800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>18940700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>22205400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>20458800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>20995700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>20836600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>17583200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>17860100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>18649700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>20484200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>20910500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>20396700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>21366900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>22391600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>25920100</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4881,8 +5029,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4964,8 +5115,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5047,91 +5201,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>103916800</v>
+        <v>105321900</v>
       </c>
       <c r="E66" s="3">
-        <v>108558200</v>
+        <v>105773100</v>
       </c>
       <c r="F66" s="3">
-        <v>106080400</v>
+        <v>110497500</v>
       </c>
       <c r="G66" s="3">
-        <v>104117800</v>
+        <v>107975400</v>
       </c>
       <c r="H66" s="3">
-        <v>103055500</v>
+        <v>105977700</v>
       </c>
       <c r="I66" s="3">
-        <v>100734300</v>
+        <v>104896500</v>
       </c>
       <c r="J66" s="3">
+        <v>102533800</v>
+      </c>
+      <c r="K66" s="3">
         <v>100251800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>93435900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>86123900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>90823500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>123537900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>123689500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>116414700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>125098400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>116177700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>117771900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>117952500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>103496400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>97249900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>100645900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>103254500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>104266500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>104659200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>109687800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>102846900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>107410700</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5161,8 +5321,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5244,8 +5405,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5327,8 +5491,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5410,8 +5577,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5493,91 +5663,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>41809000</v>
+        <v>37228400</v>
       </c>
       <c r="E72" s="3">
-        <v>41218600</v>
+        <v>42555900</v>
       </c>
       <c r="F72" s="3">
-        <v>39471900</v>
+        <v>41954900</v>
       </c>
       <c r="G72" s="3">
-        <v>41481000</v>
+        <v>40177000</v>
       </c>
       <c r="H72" s="3">
-        <v>43762100</v>
+        <v>42222000</v>
       </c>
       <c r="I72" s="3">
-        <v>41904200</v>
+        <v>44543800</v>
       </c>
       <c r="J72" s="3">
+        <v>42652800</v>
+      </c>
+      <c r="K72" s="3">
         <v>40561600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>37045900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>35373800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>34331700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>43341900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>44554300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>48555800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>51226600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>47708900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>47185300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>48717600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>45427100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>44466800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>44000000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>42359600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>40160500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>38469700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>35296500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>36673300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>32225800</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5659,8 +5835,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5742,8 +5921,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5825,91 +6007,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>48360100</v>
+        <v>48671600</v>
       </c>
       <c r="E76" s="3">
-        <v>51730900</v>
+        <v>49224000</v>
       </c>
       <c r="F76" s="3">
-        <v>48374900</v>
+        <v>52655000</v>
       </c>
       <c r="G76" s="3">
-        <v>48177100</v>
+        <v>49239100</v>
       </c>
       <c r="H76" s="3">
-        <v>49729200</v>
+        <v>49037700</v>
       </c>
       <c r="I76" s="3">
-        <v>46721300</v>
+        <v>50617500</v>
       </c>
       <c r="J76" s="3">
+        <v>47555900</v>
+      </c>
+      <c r="K76" s="3">
         <v>44515400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>40960600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>37834900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>37769200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>47828800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>50388300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>55596900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>58953900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>52673300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>53198600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>53831400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>50365900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>49971100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>48999500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>49399000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>48448700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>47064100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>44510900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>45323200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>40157200</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5991,179 +6179,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1562700</v>
+        <v>3743300</v>
       </c>
       <c r="E81" s="3">
-        <v>2857700</v>
+        <v>1590600</v>
       </c>
       <c r="F81" s="3">
-        <v>-1751000</v>
+        <v>2908700</v>
       </c>
       <c r="G81" s="3">
-        <v>1094000</v>
+        <v>-1782300</v>
       </c>
       <c r="H81" s="3">
-        <v>1738300</v>
+        <v>1113500</v>
       </c>
       <c r="I81" s="3">
-        <v>1234700</v>
+        <v>1769300</v>
       </c>
       <c r="J81" s="3">
+        <v>1256700</v>
+      </c>
+      <c r="K81" s="3">
         <v>1430400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2312100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1405600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1824600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>588000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>736200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1221700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1614500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1214000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2161500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1214100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>619100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1214400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2191200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2456000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1385700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1522500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1665600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>2285400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6193,91 +6390,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>912000</v>
+        <v>1157700</v>
       </c>
       <c r="E83" s="3">
-        <v>941600</v>
+        <v>928300</v>
       </c>
       <c r="F83" s="3">
-        <v>930000</v>
+        <v>958400</v>
       </c>
       <c r="G83" s="3">
-        <v>1028400</v>
+        <v>946600</v>
       </c>
       <c r="H83" s="3">
-        <v>867600</v>
+        <v>1046700</v>
       </c>
       <c r="I83" s="3">
-        <v>857000</v>
+        <v>883100</v>
       </c>
       <c r="J83" s="3">
+        <v>872300</v>
+      </c>
+      <c r="K83" s="3">
         <v>908800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>710500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>724800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>923700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>842200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>479900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1208100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1182100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1016400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1000000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>991600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1013500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>891600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>939100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>959300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1143300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>967200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>785300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>775900</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>871000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6359,8 +6560,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6442,8 +6646,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6525,8 +6732,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6608,8 +6818,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6691,91 +6904,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>551200</v>
+        <v>3099300</v>
       </c>
       <c r="E89" s="3">
-        <v>4400200</v>
+        <v>561100</v>
       </c>
       <c r="F89" s="3">
-        <v>2918000</v>
+        <v>4478800</v>
       </c>
       <c r="G89" s="3">
-        <v>1943500</v>
+        <v>2970100</v>
       </c>
       <c r="H89" s="3">
-        <v>1572200</v>
+        <v>1978300</v>
       </c>
       <c r="I89" s="3">
-        <v>4652000</v>
+        <v>1600300</v>
       </c>
       <c r="J89" s="3">
+        <v>4735100</v>
+      </c>
+      <c r="K89" s="3">
         <v>2850300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1627200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1338300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-21800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3294500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>756500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>599600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7463900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1281100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1299100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>224900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4696200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1625000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1495600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1540500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3636400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1781700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1423800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1331100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>5149500</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6805,91 +7024,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-461300</v>
+        <v>-528000</v>
       </c>
       <c r="E91" s="3">
-        <v>-749100</v>
+        <v>-436000</v>
       </c>
       <c r="F91" s="3">
-        <v>-498300</v>
+        <v>-708000</v>
       </c>
       <c r="G91" s="3">
-        <v>-542800</v>
+        <v>-471000</v>
       </c>
       <c r="H91" s="3">
-        <v>-414700</v>
+        <v>-513000</v>
       </c>
       <c r="I91" s="3">
-        <v>-656000</v>
+        <v>-392000</v>
       </c>
       <c r="J91" s="3">
+        <v>-620000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-442200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-370600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-335800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-539700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-373100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-231500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-549900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1016700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-770500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-717700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-628000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1058900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-662100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-607000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-563200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-969400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-724800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1115100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-988300</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-959000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6971,8 +7194,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7054,91 +7280,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-672900</v>
+        <v>-782900</v>
       </c>
       <c r="E94" s="3">
-        <v>-452800</v>
+        <v>-684900</v>
       </c>
       <c r="F94" s="3">
-        <v>-141800</v>
+        <v>-460900</v>
       </c>
       <c r="G94" s="3">
-        <v>-992400</v>
+        <v>-144300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1047400</v>
+        <v>-1010100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1709700</v>
+        <v>-1066100</v>
       </c>
       <c r="J94" s="3">
+        <v>-1740300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-15342100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1093300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-457300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1363800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-290200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1588600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2480600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1974700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1202300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1320600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1522800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2462200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1002500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1308200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>592400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1884900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1668400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-4665900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-369800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-2619900</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7168,8 +7400,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7251,8 +7484,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7334,8 +7570,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7417,8 +7656,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7500,253 +7742,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>241200</v>
+        <v>-3265200</v>
       </c>
       <c r="E100" s="3">
-        <v>-3741100</v>
+        <v>245500</v>
       </c>
       <c r="F100" s="3">
-        <v>-2345600</v>
+        <v>-3807900</v>
       </c>
       <c r="G100" s="3">
-        <v>-3906100</v>
+        <v>-2387500</v>
       </c>
       <c r="H100" s="3">
-        <v>2055700</v>
+        <v>-3975900</v>
       </c>
       <c r="I100" s="3">
-        <v>-4303900</v>
+        <v>2092400</v>
       </c>
       <c r="J100" s="3">
+        <v>-4380800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1165900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6710700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-631900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1268300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2092400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-758800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>794900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-262100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-890500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4363700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2801500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2307100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3425800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-639500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-380400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1729000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1276800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>3617700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-2304200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>2442700</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-477200</v>
+        <v>-72200</v>
       </c>
       <c r="E101" s="3">
-        <v>139700</v>
+        <v>-485700</v>
       </c>
       <c r="F101" s="3">
-        <v>239100</v>
+        <v>142200</v>
       </c>
       <c r="G101" s="3">
-        <v>112100</v>
+        <v>243400</v>
       </c>
       <c r="H101" s="3">
-        <v>227500</v>
+        <v>114200</v>
       </c>
       <c r="I101" s="3">
-        <v>162900</v>
+        <v>231500</v>
       </c>
       <c r="J101" s="3">
+        <v>165800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-55000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>324600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-220500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-293700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-80200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-89200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>126200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-203500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>192600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>78900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-137300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>68100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-13500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>50500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-130200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-402800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>39900</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>63400</v>
       </c>
-      <c r="AC101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-357600</v>
+        <v>-1020900</v>
       </c>
       <c r="E102" s="3">
-        <v>346000</v>
+        <v>-364000</v>
       </c>
       <c r="F102" s="3">
-        <v>669700</v>
+        <v>352100</v>
       </c>
       <c r="G102" s="3">
-        <v>-2842800</v>
+        <v>681700</v>
       </c>
       <c r="H102" s="3">
-        <v>2807900</v>
+        <v>-2893600</v>
       </c>
       <c r="I102" s="3">
-        <v>-1198700</v>
+        <v>2858100</v>
       </c>
       <c r="J102" s="3">
+        <v>-1220100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-13712700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9755800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>28600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-411000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4996400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1671100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1175400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5353200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1015200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4192700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1582600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4403800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2735100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-465600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1803000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-107700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1566300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>415500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1279500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>4972300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SIEGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIEGY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,365 +665,377 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20909100</v>
+        <v>20477600</v>
       </c>
       <c r="E8" s="3">
-        <v>19459600</v>
+        <v>21048900</v>
       </c>
       <c r="F8" s="3">
-        <v>22154000</v>
+        <v>19589700</v>
       </c>
       <c r="G8" s="3">
-        <v>19241000</v>
+        <v>22302100</v>
       </c>
       <c r="H8" s="3">
-        <v>18350400</v>
+        <v>19369600</v>
       </c>
       <c r="I8" s="3">
-        <v>17765600</v>
+        <v>18473100</v>
       </c>
       <c r="J8" s="3">
+        <v>17884400</v>
+      </c>
+      <c r="K8" s="3">
         <v>18786500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17017900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14970000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14363700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15377500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14158900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>15563500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>15440400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>20059200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>16749600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>17039900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>16298200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>25039500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>22479400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>22598000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>22241200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>24927300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>23896100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>23634700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>22552400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>25768700</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13156500</v>
+        <v>12615700</v>
       </c>
       <c r="E9" s="3">
-        <v>11957900</v>
+        <v>13244400</v>
       </c>
       <c r="F9" s="3">
-        <v>13893100</v>
+        <v>12037800</v>
       </c>
       <c r="G9" s="3">
-        <v>12533000</v>
+        <v>13986000</v>
       </c>
       <c r="H9" s="3">
-        <v>12167900</v>
+        <v>12616800</v>
       </c>
       <c r="I9" s="3">
-        <v>11083500</v>
+        <v>12249200</v>
       </c>
       <c r="J9" s="3">
+        <v>11157600</v>
+      </c>
+      <c r="K9" s="3">
         <v>11993400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10805400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9622100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8933000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10048900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8971600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9903300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>9809600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12496100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10675800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>10582800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>10438000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>17823500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>15801300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>15522700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>15554100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>17849700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>17030700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>15969700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>15409800</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>18465200</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7752600</v>
+        <v>7861900</v>
       </c>
       <c r="E10" s="3">
-        <v>7501700</v>
+        <v>7804400</v>
       </c>
       <c r="F10" s="3">
-        <v>8260900</v>
+        <v>7551800</v>
       </c>
       <c r="G10" s="3">
-        <v>6708000</v>
+        <v>8316100</v>
       </c>
       <c r="H10" s="3">
-        <v>6182500</v>
+        <v>6752900</v>
       </c>
       <c r="I10" s="3">
-        <v>6682200</v>
+        <v>6223800</v>
       </c>
       <c r="J10" s="3">
+        <v>6726800</v>
+      </c>
+      <c r="K10" s="3">
         <v>6793100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6212600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5348000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5430700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5328600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5187300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5660200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5630800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7563100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6073800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6457100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5860200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>7216000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6678000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>7075300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6687100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>7077500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>6865500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>7665000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>7142600</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>7303400</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,94 +1066,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1645500</v>
+        <v>1671700</v>
       </c>
       <c r="E12" s="3">
-        <v>1540000</v>
+        <v>1656500</v>
       </c>
       <c r="F12" s="3">
-        <v>1702600</v>
+        <v>1550300</v>
       </c>
       <c r="G12" s="3">
-        <v>1507700</v>
+        <v>1714000</v>
       </c>
       <c r="H12" s="3">
-        <v>1463500</v>
+        <v>1517700</v>
       </c>
       <c r="I12" s="3">
-        <v>1347200</v>
+        <v>1473300</v>
       </c>
       <c r="J12" s="3">
+        <v>1356200</v>
+      </c>
+      <c r="K12" s="3">
         <v>1557200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1290800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1151500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1086100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1244400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1185800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1308600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1269100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1572900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1359900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1367300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1299100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1735600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1506500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1565200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1373300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1656100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1511300</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1425000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>1322900</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>1551800</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1226,8 +1242,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1303,8 +1322,8 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>10</v>
+      <c r="AB14" s="3">
+        <v>0</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>10</v>
@@ -1312,8 +1331,11 @@
       <c r="AD14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1398,8 +1420,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1427,180 +1452,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>18515100</v>
+        <v>17993900</v>
       </c>
       <c r="E17" s="3">
-        <v>17062400</v>
+        <v>18638900</v>
       </c>
       <c r="F17" s="3">
-        <v>18254500</v>
+        <v>17176500</v>
       </c>
       <c r="G17" s="3">
-        <v>16623000</v>
+        <v>18376600</v>
       </c>
       <c r="H17" s="3">
-        <v>16983800</v>
+        <v>16734200</v>
       </c>
       <c r="I17" s="3">
-        <v>15649500</v>
+        <v>17097300</v>
       </c>
       <c r="J17" s="3">
+        <v>15754100</v>
+      </c>
+      <c r="K17" s="3">
         <v>17038700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15260600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13466400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12588500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13975300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12931600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14183800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14117100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>17557800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>15177900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>14926200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>14927400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>23528700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>20824700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>20680500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>20439300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>23346400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>22102100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>20967800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>19862000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>23667500</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2393900</v>
+        <v>2483700</v>
       </c>
       <c r="E18" s="3">
-        <v>2397200</v>
+        <v>2410000</v>
       </c>
       <c r="F18" s="3">
-        <v>3899500</v>
+        <v>2413200</v>
       </c>
       <c r="G18" s="3">
-        <v>2617900</v>
+        <v>3925500</v>
       </c>
       <c r="H18" s="3">
-        <v>1366600</v>
+        <v>2635400</v>
       </c>
       <c r="I18" s="3">
-        <v>2116100</v>
+        <v>1375700</v>
       </c>
       <c r="J18" s="3">
+        <v>2130300</v>
+      </c>
+      <c r="K18" s="3">
         <v>1747800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1757300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1503600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1775200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1402200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1227300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1379800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1323300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2501400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1571700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2113700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1370800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1510800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1654700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1917500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1801900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1580900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1794100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>2666900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>2690400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>2101100</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1631,438 +1663,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2441300</v>
+        <v>79100</v>
       </c>
       <c r="E20" s="3">
-        <v>294000</v>
+        <v>2457700</v>
       </c>
       <c r="F20" s="3">
-        <v>457700</v>
+        <v>296000</v>
       </c>
       <c r="G20" s="3">
-        <v>-3427800</v>
+        <v>460700</v>
       </c>
       <c r="H20" s="3">
-        <v>720400</v>
+        <v>-3450700</v>
       </c>
       <c r="I20" s="3">
-        <v>696800</v>
+        <v>725300</v>
       </c>
       <c r="J20" s="3">
+        <v>701400</v>
+      </c>
+      <c r="K20" s="3">
         <v>424300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>194700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>689000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>399100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>209700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>480000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>427900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>479900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>407900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>564600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>553800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>350000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>435900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1373300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1141100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>478000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>518400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>154900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>759500</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5992900</v>
+        <v>3429000</v>
       </c>
       <c r="E21" s="3">
-        <v>3619500</v>
+        <v>6033000</v>
       </c>
       <c r="F21" s="3">
-        <v>5315600</v>
+        <v>3643700</v>
       </c>
       <c r="G21" s="3">
-        <v>136800</v>
+        <v>5351100</v>
       </c>
       <c r="H21" s="3">
-        <v>3133800</v>
+        <v>137700</v>
       </c>
       <c r="I21" s="3">
-        <v>3695900</v>
+        <v>3154700</v>
       </c>
       <c r="J21" s="3">
+        <v>3720600</v>
+      </c>
+      <c r="K21" s="3">
         <v>3044400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2860800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2903200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2899100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2535600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2549500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2287600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3011300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4091500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2988100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3678300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2916300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2874200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2982200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>4229900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3902300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3202200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>3279600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>3607100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>4225700</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>3242100</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>374800</v>
+        <v>410900</v>
       </c>
       <c r="E22" s="3">
-        <v>297200</v>
+        <v>377300</v>
       </c>
       <c r="F22" s="3">
+        <v>299200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>191900</v>
+      </c>
+      <c r="H22" s="3">
+        <v>173500</v>
+      </c>
+      <c r="I22" s="3">
+        <v>202700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>178900</v>
+      </c>
+      <c r="K22" s="3">
         <v>190600</v>
       </c>
-      <c r="G22" s="3">
-        <v>172300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>201400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>177700</v>
-      </c>
-      <c r="J22" s="3">
-        <v>190600</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>144900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>167400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>169500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>147400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>237800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>353400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>159200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>308700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>276500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>312200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>259600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>301300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>299800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>298400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>311900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>310800</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>322000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>284100</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>286400</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>291100</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4460500</v>
+        <v>2151900</v>
       </c>
       <c r="E23" s="3">
-        <v>2393900</v>
+        <v>4490300</v>
       </c>
       <c r="F23" s="3">
-        <v>4166500</v>
+        <v>2410000</v>
       </c>
       <c r="G23" s="3">
-        <v>-982100</v>
+        <v>4194400</v>
       </c>
       <c r="H23" s="3">
-        <v>1885700</v>
+        <v>-988700</v>
       </c>
       <c r="I23" s="3">
-        <v>2635200</v>
+        <v>1898300</v>
       </c>
       <c r="J23" s="3">
+        <v>2652800</v>
+      </c>
+      <c r="K23" s="3">
         <v>1981500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1807100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2025300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2004900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1464500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1469500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1454300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1644000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2600700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1695200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2366100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1665100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1559500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1790800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2992300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2631100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1748100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1990400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>2537800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>3163400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>2080000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>633200</v>
+        <v>624400</v>
       </c>
       <c r="E24" s="3">
-        <v>623500</v>
+        <v>637500</v>
       </c>
       <c r="F24" s="3">
-        <v>1026300</v>
+        <v>627700</v>
       </c>
       <c r="G24" s="3">
-        <v>658000</v>
+        <v>1033100</v>
       </c>
       <c r="H24" s="3">
-        <v>582600</v>
+        <v>662400</v>
       </c>
       <c r="I24" s="3">
-        <v>684900</v>
+        <v>586500</v>
       </c>
       <c r="J24" s="3">
+        <v>689500</v>
+      </c>
+      <c r="K24" s="3">
         <v>616000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>351300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>478800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>498200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>387100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>446200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>334200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>302600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>916300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>448200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>311000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>461700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>828500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>512800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>774200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>655200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>379200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>392700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>860400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>853400</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>693700</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2147,180 +2195,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3827300</v>
+        <v>1527500</v>
       </c>
       <c r="E26" s="3">
-        <v>1770400</v>
+        <v>3852900</v>
       </c>
       <c r="F26" s="3">
-        <v>3140200</v>
+        <v>1782300</v>
       </c>
       <c r="G26" s="3">
-        <v>-1640100</v>
+        <v>3161200</v>
       </c>
       <c r="H26" s="3">
-        <v>1303000</v>
+        <v>-1651100</v>
       </c>
       <c r="I26" s="3">
-        <v>1950300</v>
+        <v>1311800</v>
       </c>
       <c r="J26" s="3">
+        <v>1963300</v>
+      </c>
+      <c r="K26" s="3">
         <v>1365500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1455800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1546500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1506700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1077300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1023300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1120100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1341400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1684400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1247000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2055100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1203400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>731000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1278100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2218200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1975800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1368800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1597700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1677400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>2310100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>1386300</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3746500</v>
+        <v>1351900</v>
       </c>
       <c r="E27" s="3">
-        <v>1599200</v>
+        <v>3771600</v>
       </c>
       <c r="F27" s="3">
-        <v>2910900</v>
+        <v>1609900</v>
       </c>
       <c r="G27" s="3">
-        <v>-1774700</v>
+        <v>2930300</v>
       </c>
       <c r="H27" s="3">
-        <v>1109200</v>
+        <v>-1786600</v>
       </c>
       <c r="I27" s="3">
-        <v>1785500</v>
+        <v>1116600</v>
       </c>
       <c r="J27" s="3">
+        <v>1797400</v>
+      </c>
+      <c r="K27" s="3">
         <v>1192100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1319300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1419900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1382200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>952800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1027600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1069300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1333500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1499400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1122300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1916300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1079000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>594800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1163900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2144100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1952300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1350900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1539400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1636300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>2271300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>1359300</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2405,94 +2462,100 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-3200</v>
+        <v>33600</v>
       </c>
       <c r="E29" s="3">
-        <v>-8600</v>
+        <v>-3300</v>
       </c>
       <c r="F29" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="G29" s="3">
         <v>-2200</v>
       </c>
-      <c r="G29" s="3">
-        <v>-7500</v>
-      </c>
       <c r="H29" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="I29" s="3">
         <v>4300</v>
       </c>
-      <c r="I29" s="3">
-        <v>-16200</v>
-      </c>
       <c r="J29" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="K29" s="3">
         <v>64600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>111100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>892200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>23500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>871800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-439600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-333100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-111800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>115100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>91800</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>245200</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>135200</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>24400</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>50500</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>47100</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>503800</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>34800</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-16800</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>29300</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>14100</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2577,8 +2640,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2663,180 +2729,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2441300</v>
+        <v>-79100</v>
       </c>
       <c r="E32" s="3">
-        <v>-294000</v>
+        <v>-2457700</v>
       </c>
       <c r="F32" s="3">
-        <v>-457700</v>
+        <v>-296000</v>
       </c>
       <c r="G32" s="3">
-        <v>3427800</v>
+        <v>-460700</v>
       </c>
       <c r="H32" s="3">
-        <v>-720400</v>
+        <v>3450700</v>
       </c>
       <c r="I32" s="3">
-        <v>-696800</v>
+        <v>-725300</v>
       </c>
       <c r="J32" s="3">
+        <v>-701400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-424300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-194700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-689000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-399100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-209700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-480000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-427900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-479900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-407900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-564600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-553800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-350000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-435900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1373300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1141100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-478000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-518400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-154900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-759500</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-270000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3743300</v>
+        <v>1385500</v>
       </c>
       <c r="E33" s="3">
-        <v>1590600</v>
+        <v>3768300</v>
       </c>
       <c r="F33" s="3">
-        <v>2908700</v>
+        <v>1601200</v>
       </c>
       <c r="G33" s="3">
-        <v>-1782300</v>
+        <v>2928200</v>
       </c>
       <c r="H33" s="3">
-        <v>1113500</v>
+        <v>-1794200</v>
       </c>
       <c r="I33" s="3">
-        <v>1769300</v>
+        <v>1121000</v>
       </c>
       <c r="J33" s="3">
+        <v>1781200</v>
+      </c>
+      <c r="K33" s="3">
         <v>1256700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1430400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2312100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1405600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1824600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>588000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>736200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1221700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1614500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1214000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2161500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1214100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>619100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1214400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2191200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2456000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1385700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1522500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1665600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>2285400</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2921,185 +2996,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3743300</v>
+        <v>1385500</v>
       </c>
       <c r="E35" s="3">
-        <v>1590600</v>
+        <v>3768300</v>
       </c>
       <c r="F35" s="3">
-        <v>2908700</v>
+        <v>1601200</v>
       </c>
       <c r="G35" s="3">
-        <v>-1782300</v>
+        <v>2928200</v>
       </c>
       <c r="H35" s="3">
-        <v>1113500</v>
+        <v>-1794200</v>
       </c>
       <c r="I35" s="3">
-        <v>1769300</v>
+        <v>1121000</v>
       </c>
       <c r="J35" s="3">
+        <v>1781200</v>
+      </c>
+      <c r="K35" s="3">
         <v>1256700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1430400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2312100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1405600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1824600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>588000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>736200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1221700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1614500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1214000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2161500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1214100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>619100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1214400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2191200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2456000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1385700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1522500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1665600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>2285400</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3130,8 +3214,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3162,782 +3247,810 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9892400</v>
+        <v>10626300</v>
       </c>
       <c r="E41" s="3">
-        <v>10914400</v>
+        <v>9958500</v>
       </c>
       <c r="F41" s="3">
-        <v>11269800</v>
+        <v>10987400</v>
       </c>
       <c r="G41" s="3">
-        <v>10873500</v>
+        <v>11345100</v>
       </c>
       <c r="H41" s="3">
-        <v>10225200</v>
+        <v>10946200</v>
       </c>
       <c r="I41" s="3">
-        <v>13137100</v>
+        <v>10293500</v>
       </c>
       <c r="J41" s="3">
+        <v>13224900</v>
+      </c>
+      <c r="K41" s="3">
         <v>10279000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11297300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>24130700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14307500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14573200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13182600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8843100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12815300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15178900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9437100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10628200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>14819700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>12256700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7784800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>10749800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>11215400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>9396700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>9520100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>11598400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>11182900</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>12447100</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>10442700</v>
+        <v>10883300</v>
       </c>
       <c r="E42" s="3">
-        <v>10622500</v>
+        <v>10512500</v>
       </c>
       <c r="F42" s="3">
-        <v>10441600</v>
+        <v>10693600</v>
       </c>
       <c r="G42" s="3">
-        <v>10383500</v>
+        <v>10511400</v>
       </c>
       <c r="H42" s="3">
-        <v>9264600</v>
+        <v>10452900</v>
       </c>
       <c r="I42" s="3">
-        <v>9467000</v>
+        <v>9326500</v>
       </c>
       <c r="J42" s="3">
+        <v>9530300</v>
+      </c>
+      <c r="K42" s="3">
         <v>8599000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>7927600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>9334200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>8584900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>8699700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>9240000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>11103600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>11233400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>13069400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>11464000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>11729900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>11299300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>11865700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>10144400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>10626400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>10132700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>9992400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>9755700</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>10085400</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>10037200</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>9499600</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>27044200</v>
+        <v>27746500</v>
       </c>
       <c r="E43" s="3">
-        <v>27151900</v>
+        <v>27225000</v>
       </c>
       <c r="F43" s="3">
-        <v>27667700</v>
+        <v>27333400</v>
       </c>
       <c r="G43" s="3">
-        <v>26711400</v>
+        <v>27852700</v>
       </c>
       <c r="H43" s="3">
-        <v>25993100</v>
+        <v>26890000</v>
       </c>
       <c r="I43" s="3">
-        <v>25749800</v>
+        <v>26166900</v>
       </c>
       <c r="J43" s="3">
+        <v>25921900</v>
+      </c>
+      <c r="K43" s="3">
         <v>25800400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>24573100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>21962500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>21282700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>21943300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>22461800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>24030600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>33874100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>37124500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>35800200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>34793900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>34533100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>31430400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>29901800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>28899100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>29119000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>29882000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>20761300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>20843300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>20116800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>20045200</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>12470500</v>
+        <v>12966900</v>
       </c>
       <c r="E44" s="3">
-        <v>12105400</v>
+        <v>12553900</v>
       </c>
       <c r="F44" s="3">
-        <v>11443100</v>
+        <v>12186400</v>
       </c>
       <c r="G44" s="3">
-        <v>11615400</v>
+        <v>11519600</v>
       </c>
       <c r="H44" s="3">
-        <v>10891800</v>
+        <v>11693100</v>
       </c>
       <c r="I44" s="3">
-        <v>10485800</v>
+        <v>10964600</v>
       </c>
       <c r="J44" s="3">
+        <v>10555900</v>
+      </c>
+      <c r="K44" s="3">
         <v>9515500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9475400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8121500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7904100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8090400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>9481100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>9569100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>18004600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>18137200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>18655400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>18701400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>17891600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>15379000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>16156000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>16172400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>16158900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>15578800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>23339600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>23185100</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>22082900</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>21316400</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2327200</v>
+        <v>2403400</v>
       </c>
       <c r="E45" s="3">
-        <v>2303500</v>
+        <v>2342700</v>
       </c>
       <c r="F45" s="3">
-        <v>2530700</v>
+        <v>2318900</v>
       </c>
       <c r="G45" s="3">
-        <v>3133800</v>
+        <v>2547600</v>
       </c>
       <c r="H45" s="3">
-        <v>3554800</v>
+        <v>3154700</v>
       </c>
       <c r="I45" s="3">
-        <v>1859800</v>
+        <v>3578600</v>
       </c>
       <c r="J45" s="3">
+        <v>1872200</v>
+      </c>
+      <c r="K45" s="3">
         <v>2124700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1755200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1571000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3165500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1668900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>47403300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>48519700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2511100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2692500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2531600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2367300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2349300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1993700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2067500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2175500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1936600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>4957000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2066700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1916800</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1676200</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>1637500</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>62177000</v>
+        <v>64626500</v>
       </c>
       <c r="E46" s="3">
-        <v>63097700</v>
+        <v>62592700</v>
       </c>
       <c r="F46" s="3">
-        <v>63353000</v>
+        <v>63519600</v>
       </c>
       <c r="G46" s="3">
-        <v>62717600</v>
+        <v>63776500</v>
       </c>
       <c r="H46" s="3">
-        <v>59929500</v>
+        <v>63136900</v>
       </c>
       <c r="I46" s="3">
-        <v>60699500</v>
+        <v>60330200</v>
       </c>
       <c r="J46" s="3">
+        <v>61105300</v>
+      </c>
+      <c r="K46" s="3">
         <v>56319700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>55028700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>65119900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>55244700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>54975500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>101768800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>102066100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>78438600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>86202500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>77888300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>78220700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>80893000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>71502200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>66054600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>68623200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>68562600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>68160900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>65443400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>67629100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>65096000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>64945700</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>29949700</v>
+        <v>28435900</v>
       </c>
       <c r="E47" s="3">
-        <v>28996600</v>
+        <v>30149900</v>
       </c>
       <c r="F47" s="3">
-        <v>33231000</v>
+        <v>29190500</v>
       </c>
       <c r="G47" s="3">
-        <v>31307600</v>
+        <v>33453200</v>
       </c>
       <c r="H47" s="3">
-        <v>33122200</v>
+        <v>31517000</v>
       </c>
       <c r="I47" s="3">
-        <v>32409300</v>
+        <v>33343700</v>
       </c>
       <c r="J47" s="3">
+        <v>32626000</v>
+      </c>
+      <c r="K47" s="3">
         <v>32848700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>31746300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>28604900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>28956000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>31794000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>24796400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>25346000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>24782600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>27056400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>25019700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>25335500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>24967100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>22543000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>22100500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>21630800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>23888300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>24426800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>25769900</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>27684300</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>27944900</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>27727700</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12301400</v>
+        <v>12420500</v>
       </c>
       <c r="E48" s="3">
-        <v>12276700</v>
+        <v>12383700</v>
       </c>
       <c r="F48" s="3">
-        <v>12635300</v>
+        <v>12358700</v>
       </c>
       <c r="G48" s="3">
-        <v>12291700</v>
+        <v>12719700</v>
       </c>
       <c r="H48" s="3">
-        <v>12015000</v>
+        <v>12373900</v>
       </c>
       <c r="I48" s="3">
-        <v>12065600</v>
+        <v>12095300</v>
       </c>
       <c r="J48" s="3">
+        <v>12146300</v>
+      </c>
+      <c r="K48" s="3">
         <v>11870700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11237000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10298900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9989500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10638500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11245100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11644400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16910500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14924100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13879200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>14074500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>13777800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12605600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12157100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12203900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>12181400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>12316100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>12254400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>12244000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>12059700</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>11922400</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>45761800</v>
+        <v>45848800</v>
       </c>
       <c r="E49" s="3">
-        <v>46713800</v>
+        <v>46067700</v>
       </c>
       <c r="F49" s="3">
-        <v>49598800</v>
+        <v>47026100</v>
       </c>
       <c r="G49" s="3">
-        <v>46182900</v>
+        <v>49930400</v>
       </c>
       <c r="H49" s="3">
-        <v>44978900</v>
+        <v>46491600</v>
       </c>
       <c r="I49" s="3">
-        <v>44775300</v>
+        <v>45279600</v>
       </c>
       <c r="J49" s="3">
+        <v>45074700</v>
+      </c>
+      <c r="K49" s="3">
         <v>43613400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>41785700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>25794600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>24965700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>26245400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>28500000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>30084900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>46092100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>48950600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>46096100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>47582400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>46788200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>42614900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>42278500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>42292300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>43301000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>43569100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>44476800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>42453200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>38471600</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>37445700</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4022,8 +4135,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4108,94 +4224,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3803600</v>
+        <v>4436100</v>
       </c>
       <c r="E52" s="3">
-        <v>3912400</v>
+        <v>3829000</v>
       </c>
       <c r="F52" s="3">
-        <v>4334500</v>
+        <v>3938500</v>
       </c>
       <c r="G52" s="3">
-        <v>4714700</v>
+        <v>4363500</v>
       </c>
       <c r="H52" s="3">
-        <v>4969900</v>
+        <v>4746200</v>
       </c>
       <c r="I52" s="3">
-        <v>5564300</v>
+        <v>5003100</v>
       </c>
       <c r="J52" s="3">
+        <v>5601500</v>
+      </c>
+      <c r="K52" s="3">
         <v>5438300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4969400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4578300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4802900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4939400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5056400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4936400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5787800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6918700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5967900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5757300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5357800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4596500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4630300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4895200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4720200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>4242200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>3778900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>4188200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>4597800</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>5526300</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4280,94 +4402,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>153993500</v>
+        <v>155767800</v>
       </c>
       <c r="E54" s="3">
-        <v>154997100</v>
+        <v>155023000</v>
       </c>
       <c r="F54" s="3">
-        <v>163152500</v>
+        <v>156033400</v>
       </c>
       <c r="G54" s="3">
-        <v>157214500</v>
+        <v>164243300</v>
       </c>
       <c r="H54" s="3">
-        <v>155015400</v>
+        <v>158265600</v>
       </c>
       <c r="I54" s="3">
-        <v>155514100</v>
+        <v>156051900</v>
       </c>
       <c r="J54" s="3">
+        <v>156553800</v>
+      </c>
+      <c r="K54" s="3">
         <v>150089700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>144767200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>134396500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>123958800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>128592700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>171366700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>174077900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>172011600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>184052300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>168851000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>170970500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>171783900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>153862300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>147220900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>149645400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>152653500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>152715200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>151723300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>154198700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>148170000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>147567900</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4398,8 +4526,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4430,524 +4559,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10277900</v>
+        <v>10249100</v>
       </c>
       <c r="E57" s="3">
-        <v>10169200</v>
+        <v>10346700</v>
       </c>
       <c r="F57" s="3">
-        <v>11110400</v>
+        <v>10237200</v>
       </c>
       <c r="G57" s="3">
-        <v>9829900</v>
+        <v>11184700</v>
       </c>
       <c r="H57" s="3">
-        <v>9618900</v>
+        <v>9895700</v>
       </c>
       <c r="I57" s="3">
-        <v>9138600</v>
+        <v>9683200</v>
       </c>
       <c r="J57" s="3">
+        <v>9199700</v>
+      </c>
+      <c r="K57" s="3">
         <v>9511200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8500000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7425300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7171100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8171400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6688400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7001500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11821700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>13975900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12247500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>12271800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>11978700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>11869000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>10496900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>10028300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>9988000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>10946100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>10770000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>9352900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>8818800</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>9446800</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10134700</v>
+        <v>10501700</v>
       </c>
       <c r="E58" s="3">
-        <v>7652500</v>
+        <v>10202500</v>
       </c>
       <c r="F58" s="3">
-        <v>7170000</v>
+        <v>7703600</v>
       </c>
       <c r="G58" s="3">
-        <v>10660200</v>
+        <v>7217900</v>
       </c>
       <c r="H58" s="3">
-        <v>11306400</v>
+        <v>10731500</v>
       </c>
       <c r="I58" s="3">
-        <v>10447000</v>
+        <v>11382000</v>
       </c>
       <c r="J58" s="3">
+        <v>10516900</v>
+      </c>
+      <c r="K58" s="3">
         <v>16844900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11403100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8705400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7694800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6810700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5955300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7799800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7622600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7391600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>11469900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>10756200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>9369800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5601100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3361000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>6353800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>6216900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>6111500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>7700200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>6085000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>5627200</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>7284700</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>25921000</v>
+        <v>27836400</v>
       </c>
       <c r="E59" s="3">
-        <v>26637100</v>
+        <v>26094300</v>
       </c>
       <c r="F59" s="3">
-        <v>27688200</v>
+        <v>26815200</v>
       </c>
       <c r="G59" s="3">
-        <v>26796500</v>
+        <v>27873300</v>
       </c>
       <c r="H59" s="3">
-        <v>25041200</v>
+        <v>26975700</v>
       </c>
       <c r="I59" s="3">
-        <v>24236700</v>
+        <v>25208600</v>
       </c>
       <c r="J59" s="3">
+        <v>24398800</v>
+      </c>
+      <c r="K59" s="3">
         <v>25142400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>22638000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19218600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>20481300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>20427900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>49656000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>49887000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>37285100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>40767700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>38105900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>37718600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>39414800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>35555100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>34141200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>34551700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>35443700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>34640300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>32000300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>33477100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>33731800</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>33643700</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>46333600</v>
+        <v>48587200</v>
       </c>
       <c r="E60" s="3">
-        <v>44458700</v>
+        <v>46643400</v>
       </c>
       <c r="F60" s="3">
-        <v>45968600</v>
+        <v>44756000</v>
       </c>
       <c r="G60" s="3">
-        <v>47286700</v>
+        <v>46275900</v>
       </c>
       <c r="H60" s="3">
-        <v>45966400</v>
+        <v>47602800</v>
       </c>
       <c r="I60" s="3">
-        <v>43822300</v>
+        <v>46273700</v>
       </c>
       <c r="J60" s="3">
+        <v>44115300</v>
+      </c>
+      <c r="K60" s="3">
         <v>43076000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>42541100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>35349300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>35347200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>35410000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>62299700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>64688400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>56729400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>62135200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>61823300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>60746600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>60763400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>53025200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>47999100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>50933900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>51648600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>51697900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>50470500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>48915000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>48177900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>50375200</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>43742600</v>
+        <v>42500000</v>
       </c>
       <c r="E61" s="3">
-        <v>45377300</v>
+        <v>44035100</v>
       </c>
       <c r="F61" s="3">
-        <v>47359900</v>
+        <v>45680700</v>
       </c>
       <c r="G61" s="3">
-        <v>44860400</v>
+        <v>47676500</v>
       </c>
       <c r="H61" s="3">
-        <v>44426400</v>
+        <v>45160400</v>
       </c>
       <c r="I61" s="3">
-        <v>44977800</v>
+        <v>44723500</v>
       </c>
       <c r="J61" s="3">
+        <v>45278500</v>
+      </c>
+      <c r="K61" s="3">
         <v>44022600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>42672300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>44476300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>36689600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>39445400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>44311700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>41581400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>37631800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>37256800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>30732300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>32870400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>33201700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>30038100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>28666600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>28340300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>29600300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>30043500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>32026100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>38674700</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>31563800</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>30405200</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9646900</v>
+        <v>9956400</v>
       </c>
       <c r="E62" s="3">
-        <v>10002200</v>
+        <v>9711400</v>
       </c>
       <c r="F62" s="3">
-        <v>10804500</v>
+        <v>10069100</v>
       </c>
       <c r="G62" s="3">
-        <v>9925800</v>
+        <v>10876800</v>
       </c>
       <c r="H62" s="3">
-        <v>10108900</v>
+        <v>9992100</v>
       </c>
       <c r="I62" s="3">
-        <v>10609600</v>
+        <v>10176400</v>
       </c>
       <c r="J62" s="3">
+        <v>10680600</v>
+      </c>
+      <c r="K62" s="3">
         <v>10232700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10170600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9048400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10673500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12405000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14187300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>14498800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>18940700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>22205400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>20458800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>20995700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>20836600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>17583200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>17860100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>18649700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>20484200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>20910500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>20396700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>21366900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>22391600</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>25920100</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5032,8 +5180,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5118,8 +5269,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5204,94 +5358,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>105321900</v>
+        <v>106590900</v>
       </c>
       <c r="E66" s="3">
-        <v>105773100</v>
+        <v>106026100</v>
       </c>
       <c r="F66" s="3">
-        <v>110497500</v>
+        <v>106480300</v>
       </c>
       <c r="G66" s="3">
-        <v>107975400</v>
+        <v>111236200</v>
       </c>
       <c r="H66" s="3">
-        <v>105977700</v>
+        <v>108697300</v>
       </c>
       <c r="I66" s="3">
-        <v>104896500</v>
+        <v>106686300</v>
       </c>
       <c r="J66" s="3">
+        <v>105597800</v>
+      </c>
+      <c r="K66" s="3">
         <v>102533800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>100251800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>93435900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>86123900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>90823500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>123537900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>123689500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>116414700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>125098400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>116177700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>117771900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>117952500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>103496400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>97249900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>100645900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>103254500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>104266500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>104659200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>109687800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>102846900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>107410700</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5322,8 +5482,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5408,8 +5569,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5494,8 +5658,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5580,8 +5747,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5666,94 +5836,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>37228400</v>
+        <v>38012900</v>
       </c>
       <c r="E72" s="3">
-        <v>42555900</v>
+        <v>37477300</v>
       </c>
       <c r="F72" s="3">
-        <v>41954900</v>
+        <v>42840400</v>
       </c>
       <c r="G72" s="3">
-        <v>40177000</v>
+        <v>42235500</v>
       </c>
       <c r="H72" s="3">
-        <v>42222000</v>
+        <v>40445600</v>
       </c>
       <c r="I72" s="3">
-        <v>44543800</v>
+        <v>42504300</v>
       </c>
       <c r="J72" s="3">
+        <v>44841600</v>
+      </c>
+      <c r="K72" s="3">
         <v>42652800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>40561600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>37045900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>35373800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>34331700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>43341900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>44554300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>48555800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>51226600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>47708900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>47185300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>48717600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>45427100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>44466800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>44000000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>42359600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>40160500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>38469700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>35296500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>36673300</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>32225800</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5838,8 +6014,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5924,8 +6103,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6010,94 +6192,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>48671600</v>
+        <v>49176900</v>
       </c>
       <c r="E76" s="3">
-        <v>49224000</v>
+        <v>48997000</v>
       </c>
       <c r="F76" s="3">
-        <v>52655000</v>
+        <v>49553100</v>
       </c>
       <c r="G76" s="3">
-        <v>49239100</v>
+        <v>53007100</v>
       </c>
       <c r="H76" s="3">
-        <v>49037700</v>
+        <v>49568300</v>
       </c>
       <c r="I76" s="3">
-        <v>50617500</v>
+        <v>49365600</v>
       </c>
       <c r="J76" s="3">
+        <v>50956000</v>
+      </c>
+      <c r="K76" s="3">
         <v>47555900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>44515400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>40960600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>37834900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>37769200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>47828800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>50388300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>55596900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>58953900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>52673300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>53198600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>53831400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>50365900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>49971100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>48999500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>49399000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>48448700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>47064100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>44510900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>45323200</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>40157200</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6182,185 +6370,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3743300</v>
+        <v>1385500</v>
       </c>
       <c r="E81" s="3">
-        <v>1590600</v>
+        <v>3768300</v>
       </c>
       <c r="F81" s="3">
-        <v>2908700</v>
+        <v>1601200</v>
       </c>
       <c r="G81" s="3">
-        <v>-1782300</v>
+        <v>2928200</v>
       </c>
       <c r="H81" s="3">
-        <v>1113500</v>
+        <v>-1794200</v>
       </c>
       <c r="I81" s="3">
-        <v>1769300</v>
+        <v>1121000</v>
       </c>
       <c r="J81" s="3">
+        <v>1781200</v>
+      </c>
+      <c r="K81" s="3">
         <v>1256700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1430400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2312100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1405600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1824600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>588000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>736200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1221700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1614500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1214000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2161500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1214100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>619100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1214400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2191200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2456000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1385700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1522500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1665600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>2285400</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>1352200</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6391,94 +6588,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1157700</v>
+        <v>866200</v>
       </c>
       <c r="E83" s="3">
-        <v>928300</v>
+        <v>1165400</v>
       </c>
       <c r="F83" s="3">
-        <v>958400</v>
+        <v>934500</v>
       </c>
       <c r="G83" s="3">
-        <v>946600</v>
+        <v>964800</v>
       </c>
       <c r="H83" s="3">
-        <v>1046700</v>
+        <v>952900</v>
       </c>
       <c r="I83" s="3">
-        <v>883100</v>
+        <v>1053700</v>
       </c>
       <c r="J83" s="3">
+        <v>889000</v>
+      </c>
+      <c r="K83" s="3">
         <v>872300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>908800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>710500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>724800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>923700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>842200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>479900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1208100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1182100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1016400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1000000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>991600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1013500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>891600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>939100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>959300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1143300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>967200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>785300</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>775900</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>871000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6563,8 +6764,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6649,8 +6853,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6735,8 +6942,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6821,8 +7031,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6907,94 +7120,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3099300</v>
+        <v>3739100</v>
       </c>
       <c r="E89" s="3">
-        <v>561100</v>
+        <v>3120000</v>
       </c>
       <c r="F89" s="3">
-        <v>4478800</v>
+        <v>564800</v>
       </c>
       <c r="G89" s="3">
-        <v>2970100</v>
+        <v>4508800</v>
       </c>
       <c r="H89" s="3">
-        <v>1978300</v>
+        <v>2989900</v>
       </c>
       <c r="I89" s="3">
-        <v>1600300</v>
+        <v>1991500</v>
       </c>
       <c r="J89" s="3">
+        <v>1611000</v>
+      </c>
+      <c r="K89" s="3">
         <v>4735100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2850300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1627200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1338300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-21800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3294500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>756500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>599600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7463900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1281100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1299100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>224900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4696200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1625000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1495600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1540500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3636400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1781700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1423800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1331100</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>5149500</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7025,94 +7244,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-497000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-528000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-436000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-708000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-471000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-513000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-392000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-620000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-442200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-370600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-335800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-539700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-373100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-231500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-549900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1016700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-770500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-717700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-628000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1058900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-662100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-607000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-563200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-969400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-724800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1115100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-988300</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-959000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7197,8 +7420,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7283,94 +7509,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-782900</v>
+        <v>-614700</v>
       </c>
       <c r="E94" s="3">
-        <v>-684900</v>
+        <v>-788100</v>
       </c>
       <c r="F94" s="3">
-        <v>-460900</v>
+        <v>-689500</v>
       </c>
       <c r="G94" s="3">
-        <v>-144300</v>
+        <v>-464000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1010100</v>
+        <v>-145300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1066100</v>
+        <v>-1016900</v>
       </c>
       <c r="J94" s="3">
+        <v>-1073300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1740300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15342100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1093300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-457300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1363800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-290200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1588600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2480600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1974700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1202300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1320600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1522800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2462200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1002500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1308200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>592400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1884900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1668400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-4665900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-369800</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-2619900</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7401,8 +7633,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7487,8 +7720,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7573,8 +7809,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7659,8 +7898,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7745,262 +7987,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3265200</v>
+        <v>-2179000</v>
       </c>
       <c r="E100" s="3">
-        <v>245500</v>
+        <v>-3287000</v>
       </c>
       <c r="F100" s="3">
-        <v>-3807900</v>
+        <v>247200</v>
       </c>
       <c r="G100" s="3">
-        <v>-2387500</v>
+        <v>-3833400</v>
       </c>
       <c r="H100" s="3">
-        <v>-3975900</v>
+        <v>-2403400</v>
       </c>
       <c r="I100" s="3">
+        <v>-4002500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>2106400</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-4380800</v>
+      </c>
+      <c r="L100" s="3">
+        <v>-1165900</v>
+      </c>
+      <c r="M100" s="3">
+        <v>6710700</v>
+      </c>
+      <c r="N100" s="3">
+        <v>-631900</v>
+      </c>
+      <c r="O100" s="3">
+        <v>1268300</v>
+      </c>
+      <c r="P100" s="3">
         <v>2092400</v>
       </c>
-      <c r="J100" s="3">
-        <v>-4380800</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-1165900</v>
-      </c>
-      <c r="L100" s="3">
-        <v>6710700</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-631900</v>
-      </c>
-      <c r="N100" s="3">
-        <v>1268300</v>
-      </c>
-      <c r="O100" s="3">
-        <v>2092400</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-758800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>794900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-262100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-890500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4363700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2801500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2307100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-3425800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-639500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-380400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1729000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1276800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>3617700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-2304200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>2442700</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-72200</v>
+        <v>-277500</v>
       </c>
       <c r="E101" s="3">
-        <v>-485700</v>
+        <v>-72600</v>
       </c>
       <c r="F101" s="3">
-        <v>142200</v>
+        <v>-488900</v>
       </c>
       <c r="G101" s="3">
-        <v>243400</v>
+        <v>143100</v>
       </c>
       <c r="H101" s="3">
-        <v>114200</v>
+        <v>245000</v>
       </c>
       <c r="I101" s="3">
-        <v>231500</v>
+        <v>114900</v>
       </c>
       <c r="J101" s="3">
+        <v>233100</v>
+      </c>
+      <c r="K101" s="3">
         <v>165800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-55000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>324600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-220500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-293700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-80200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-89200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>126200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-203500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>192600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>78900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-137300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>68100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-13500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>50500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-130200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-402800</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>39900</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>63400</v>
       </c>
-      <c r="AD101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1020900</v>
+        <v>667800</v>
       </c>
       <c r="E102" s="3">
-        <v>-364000</v>
+        <v>-1027700</v>
       </c>
       <c r="F102" s="3">
-        <v>352100</v>
+        <v>-366400</v>
       </c>
       <c r="G102" s="3">
-        <v>681700</v>
+        <v>354500</v>
       </c>
       <c r="H102" s="3">
-        <v>-2893600</v>
+        <v>686200</v>
       </c>
       <c r="I102" s="3">
-        <v>2858100</v>
+        <v>-2913000</v>
       </c>
       <c r="J102" s="3">
+        <v>2877200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1220100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-13712700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9755800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>28600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-411000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4996400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1671100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1175400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>5353200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1015200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-4192700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1582600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>4403800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2735100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-465600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1803000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-107700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1566300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>415500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1279500</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>4972300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SIEGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SIEGY_QTR_FIN.xlsx
@@ -773,25 +773,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20477600</v>
+        <v>20494600</v>
       </c>
       <c r="E8" s="3">
-        <v>21048900</v>
+        <v>21066400</v>
       </c>
       <c r="F8" s="3">
-        <v>19589700</v>
+        <v>19606000</v>
       </c>
       <c r="G8" s="3">
-        <v>22302100</v>
+        <v>22320600</v>
       </c>
       <c r="H8" s="3">
-        <v>19369600</v>
+        <v>19385700</v>
       </c>
       <c r="I8" s="3">
-        <v>18473100</v>
+        <v>18488400</v>
       </c>
       <c r="J8" s="3">
-        <v>17884400</v>
+        <v>17899200</v>
       </c>
       <c r="K8" s="3">
         <v>18786500</v>
@@ -862,25 +862,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12615700</v>
+        <v>12626100</v>
       </c>
       <c r="E9" s="3">
-        <v>13244400</v>
+        <v>13255400</v>
       </c>
       <c r="F9" s="3">
-        <v>12037800</v>
+        <v>12047800</v>
       </c>
       <c r="G9" s="3">
-        <v>13986000</v>
+        <v>13997600</v>
       </c>
       <c r="H9" s="3">
-        <v>12616800</v>
+        <v>12627200</v>
       </c>
       <c r="I9" s="3">
-        <v>12249200</v>
+        <v>12259400</v>
       </c>
       <c r="J9" s="3">
-        <v>11157600</v>
+        <v>11166800</v>
       </c>
       <c r="K9" s="3">
         <v>11993400</v>
@@ -951,25 +951,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7861900</v>
+        <v>7868400</v>
       </c>
       <c r="E10" s="3">
-        <v>7804400</v>
+        <v>7810900</v>
       </c>
       <c r="F10" s="3">
-        <v>7551800</v>
+        <v>7558100</v>
       </c>
       <c r="G10" s="3">
-        <v>8316100</v>
+        <v>8323000</v>
       </c>
       <c r="H10" s="3">
-        <v>6752900</v>
+        <v>6758500</v>
       </c>
       <c r="I10" s="3">
-        <v>6223800</v>
+        <v>6229000</v>
       </c>
       <c r="J10" s="3">
-        <v>6726800</v>
+        <v>6732400</v>
       </c>
       <c r="K10" s="3">
         <v>6793100</v>
@@ -1073,25 +1073,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1671700</v>
+        <v>1673100</v>
       </c>
       <c r="E12" s="3">
-        <v>1656500</v>
+        <v>1657900</v>
       </c>
       <c r="F12" s="3">
-        <v>1550300</v>
+        <v>1551600</v>
       </c>
       <c r="G12" s="3">
-        <v>1714000</v>
+        <v>1715400</v>
       </c>
       <c r="H12" s="3">
-        <v>1517700</v>
+        <v>1519000</v>
       </c>
       <c r="I12" s="3">
-        <v>1473300</v>
+        <v>1474500</v>
       </c>
       <c r="J12" s="3">
-        <v>1356200</v>
+        <v>1357300</v>
       </c>
       <c r="K12" s="3">
         <v>1557200</v>
@@ -1459,25 +1459,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>17993900</v>
+        <v>18008800</v>
       </c>
       <c r="E17" s="3">
-        <v>18638900</v>
+        <v>18654400</v>
       </c>
       <c r="F17" s="3">
-        <v>17176500</v>
+        <v>17190700</v>
       </c>
       <c r="G17" s="3">
-        <v>18376600</v>
+        <v>18391800</v>
       </c>
       <c r="H17" s="3">
-        <v>16734200</v>
+        <v>16748100</v>
       </c>
       <c r="I17" s="3">
-        <v>17097300</v>
+        <v>17111500</v>
       </c>
       <c r="J17" s="3">
-        <v>15754100</v>
+        <v>15767200</v>
       </c>
       <c r="K17" s="3">
         <v>17038700</v>
@@ -1548,25 +1548,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2483700</v>
+        <v>2485700</v>
       </c>
       <c r="E18" s="3">
-        <v>2410000</v>
+        <v>2412000</v>
       </c>
       <c r="F18" s="3">
-        <v>2413200</v>
+        <v>2415200</v>
       </c>
       <c r="G18" s="3">
-        <v>3925500</v>
+        <v>3928800</v>
       </c>
       <c r="H18" s="3">
-        <v>2635400</v>
+        <v>2637600</v>
       </c>
       <c r="I18" s="3">
-        <v>1375700</v>
+        <v>1376900</v>
       </c>
       <c r="J18" s="3">
-        <v>2130300</v>
+        <v>2132000</v>
       </c>
       <c r="K18" s="3">
         <v>1747800</v>
@@ -1670,25 +1670,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>79100</v>
+        <v>79200</v>
       </c>
       <c r="E20" s="3">
-        <v>2457700</v>
+        <v>2459700</v>
       </c>
       <c r="F20" s="3">
-        <v>296000</v>
+        <v>296200</v>
       </c>
       <c r="G20" s="3">
-        <v>460700</v>
+        <v>461100</v>
       </c>
       <c r="H20" s="3">
-        <v>-3450700</v>
+        <v>-3453600</v>
       </c>
       <c r="I20" s="3">
-        <v>725300</v>
+        <v>725900</v>
       </c>
       <c r="J20" s="3">
-        <v>701400</v>
+        <v>702000</v>
       </c>
       <c r="K20" s="3">
         <v>424300</v>
@@ -1759,25 +1759,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3429000</v>
+        <v>3431900</v>
       </c>
       <c r="E21" s="3">
-        <v>6033000</v>
+        <v>6038000</v>
       </c>
       <c r="F21" s="3">
-        <v>3643700</v>
+        <v>3646700</v>
       </c>
       <c r="G21" s="3">
-        <v>5351100</v>
+        <v>5355600</v>
       </c>
       <c r="H21" s="3">
-        <v>137700</v>
+        <v>137800</v>
       </c>
       <c r="I21" s="3">
-        <v>3154700</v>
+        <v>3157400</v>
       </c>
       <c r="J21" s="3">
-        <v>3720600</v>
+        <v>3723700</v>
       </c>
       <c r="K21" s="3">
         <v>3044400</v>
@@ -1848,25 +1848,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>410900</v>
+        <v>411200</v>
       </c>
       <c r="E22" s="3">
-        <v>377300</v>
+        <v>377600</v>
       </c>
       <c r="F22" s="3">
-        <v>299200</v>
+        <v>299500</v>
       </c>
       <c r="G22" s="3">
-        <v>191900</v>
+        <v>192000</v>
       </c>
       <c r="H22" s="3">
-        <v>173500</v>
+        <v>173600</v>
       </c>
       <c r="I22" s="3">
-        <v>202700</v>
+        <v>202900</v>
       </c>
       <c r="J22" s="3">
-        <v>178900</v>
+        <v>179000</v>
       </c>
       <c r="K22" s="3">
         <v>190600</v>
@@ -1937,25 +1937,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2151900</v>
+        <v>2153700</v>
       </c>
       <c r="E23" s="3">
-        <v>4490300</v>
+        <v>4494100</v>
       </c>
       <c r="F23" s="3">
-        <v>2410000</v>
+        <v>2412000</v>
       </c>
       <c r="G23" s="3">
-        <v>4194400</v>
+        <v>4197900</v>
       </c>
       <c r="H23" s="3">
-        <v>-988700</v>
+        <v>-989500</v>
       </c>
       <c r="I23" s="3">
-        <v>1898300</v>
+        <v>1899800</v>
       </c>
       <c r="J23" s="3">
-        <v>2652800</v>
+        <v>2655000</v>
       </c>
       <c r="K23" s="3">
         <v>1981500</v>
@@ -2026,25 +2026,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>624400</v>
+        <v>625000</v>
       </c>
       <c r="E24" s="3">
-        <v>637500</v>
+        <v>638000</v>
       </c>
       <c r="F24" s="3">
-        <v>627700</v>
+        <v>628200</v>
       </c>
       <c r="G24" s="3">
-        <v>1033100</v>
+        <v>1034000</v>
       </c>
       <c r="H24" s="3">
-        <v>662400</v>
+        <v>662900</v>
       </c>
       <c r="I24" s="3">
-        <v>586500</v>
+        <v>587000</v>
       </c>
       <c r="J24" s="3">
-        <v>689500</v>
+        <v>690100</v>
       </c>
       <c r="K24" s="3">
         <v>616000</v>
@@ -2204,25 +2204,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1527500</v>
+        <v>1528800</v>
       </c>
       <c r="E26" s="3">
-        <v>3852900</v>
+        <v>3856100</v>
       </c>
       <c r="F26" s="3">
-        <v>1782300</v>
+        <v>1783700</v>
       </c>
       <c r="G26" s="3">
-        <v>3161200</v>
+        <v>3163900</v>
       </c>
       <c r="H26" s="3">
-        <v>-1651100</v>
+        <v>-1652500</v>
       </c>
       <c r="I26" s="3">
-        <v>1311800</v>
+        <v>1312900</v>
       </c>
       <c r="J26" s="3">
-        <v>1963300</v>
+        <v>1964900</v>
       </c>
       <c r="K26" s="3">
         <v>1365500</v>
@@ -2293,25 +2293,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1351900</v>
+        <v>1353000</v>
       </c>
       <c r="E27" s="3">
-        <v>3771600</v>
+        <v>3774700</v>
       </c>
       <c r="F27" s="3">
-        <v>1609900</v>
+        <v>1611200</v>
       </c>
       <c r="G27" s="3">
-        <v>2930300</v>
+        <v>2932800</v>
       </c>
       <c r="H27" s="3">
-        <v>-1786600</v>
+        <v>-1788100</v>
       </c>
       <c r="I27" s="3">
-        <v>1116600</v>
+        <v>1117600</v>
       </c>
       <c r="J27" s="3">
-        <v>1797400</v>
+        <v>1798900</v>
       </c>
       <c r="K27" s="3">
         <v>1192100</v>
@@ -2738,25 +2738,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-79100</v>
+        <v>-79200</v>
       </c>
       <c r="E32" s="3">
-        <v>-2457700</v>
+        <v>-2459700</v>
       </c>
       <c r="F32" s="3">
-        <v>-296000</v>
+        <v>-296200</v>
       </c>
       <c r="G32" s="3">
-        <v>-460700</v>
+        <v>-461100</v>
       </c>
       <c r="H32" s="3">
-        <v>3450700</v>
+        <v>3453600</v>
       </c>
       <c r="I32" s="3">
-        <v>-725300</v>
+        <v>-725900</v>
       </c>
       <c r="J32" s="3">
-        <v>-701400</v>
+        <v>-702000</v>
       </c>
       <c r="K32" s="3">
         <v>-424300</v>
@@ -2827,25 +2827,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1385500</v>
+        <v>1386600</v>
       </c>
       <c r="E33" s="3">
-        <v>3768300</v>
+        <v>3771500</v>
       </c>
       <c r="F33" s="3">
-        <v>1601200</v>
+        <v>1602500</v>
       </c>
       <c r="G33" s="3">
-        <v>2928200</v>
+        <v>2930600</v>
       </c>
       <c r="H33" s="3">
-        <v>-1794200</v>
+        <v>-1795700</v>
       </c>
       <c r="I33" s="3">
-        <v>1121000</v>
+        <v>1121900</v>
       </c>
       <c r="J33" s="3">
-        <v>1781200</v>
+        <v>1782700</v>
       </c>
       <c r="K33" s="3">
         <v>1256700</v>
@@ -3005,25 +3005,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1385500</v>
+        <v>1386600</v>
       </c>
       <c r="E35" s="3">
-        <v>3768300</v>
+        <v>3771500</v>
       </c>
       <c r="F35" s="3">
-        <v>1601200</v>
+        <v>1602500</v>
       </c>
       <c r="G35" s="3">
-        <v>2928200</v>
+        <v>2930600</v>
       </c>
       <c r="H35" s="3">
-        <v>-1794200</v>
+        <v>-1795700</v>
       </c>
       <c r="I35" s="3">
-        <v>1121000</v>
+        <v>1121900</v>
       </c>
       <c r="J35" s="3">
-        <v>1781200</v>
+        <v>1782700</v>
       </c>
       <c r="K35" s="3">
         <v>1256700</v>
@@ -3254,25 +3254,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10626300</v>
+        <v>10635200</v>
       </c>
       <c r="E41" s="3">
-        <v>9958500</v>
+        <v>9966800</v>
       </c>
       <c r="F41" s="3">
-        <v>10987400</v>
+        <v>10996500</v>
       </c>
       <c r="G41" s="3">
-        <v>11345100</v>
+        <v>11354500</v>
       </c>
       <c r="H41" s="3">
-        <v>10946200</v>
+        <v>10955200</v>
       </c>
       <c r="I41" s="3">
-        <v>10293500</v>
+        <v>10302100</v>
       </c>
       <c r="J41" s="3">
-        <v>13224900</v>
+        <v>13235900</v>
       </c>
       <c r="K41" s="3">
         <v>10279000</v>
@@ -3343,25 +3343,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>10883300</v>
+        <v>10892300</v>
       </c>
       <c r="E42" s="3">
-        <v>10512500</v>
+        <v>10521200</v>
       </c>
       <c r="F42" s="3">
-        <v>10693600</v>
+        <v>10702400</v>
       </c>
       <c r="G42" s="3">
-        <v>10511400</v>
+        <v>10520200</v>
       </c>
       <c r="H42" s="3">
-        <v>10452900</v>
+        <v>10461600</v>
       </c>
       <c r="I42" s="3">
-        <v>9326500</v>
+        <v>9334300</v>
       </c>
       <c r="J42" s="3">
-        <v>9530300</v>
+        <v>9538200</v>
       </c>
       <c r="K42" s="3">
         <v>8599000</v>
@@ -3432,25 +3432,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>27746500</v>
+        <v>27769500</v>
       </c>
       <c r="E43" s="3">
-        <v>27225000</v>
+        <v>27247600</v>
       </c>
       <c r="F43" s="3">
-        <v>27333400</v>
+        <v>27356100</v>
       </c>
       <c r="G43" s="3">
-        <v>27852700</v>
+        <v>27875800</v>
       </c>
       <c r="H43" s="3">
-        <v>26890000</v>
+        <v>26912300</v>
       </c>
       <c r="I43" s="3">
-        <v>26166900</v>
+        <v>26188600</v>
       </c>
       <c r="J43" s="3">
-        <v>25921900</v>
+        <v>25943400</v>
       </c>
       <c r="K43" s="3">
         <v>25800400</v>
@@ -3521,25 +3521,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>12966900</v>
+        <v>12977700</v>
       </c>
       <c r="E44" s="3">
-        <v>12553900</v>
+        <v>12564300</v>
       </c>
       <c r="F44" s="3">
-        <v>12186400</v>
+        <v>12196500</v>
       </c>
       <c r="G44" s="3">
-        <v>11519600</v>
+        <v>11529200</v>
       </c>
       <c r="H44" s="3">
-        <v>11693100</v>
+        <v>11702800</v>
       </c>
       <c r="I44" s="3">
-        <v>10964600</v>
+        <v>10973700</v>
       </c>
       <c r="J44" s="3">
-        <v>10555900</v>
+        <v>10564600</v>
       </c>
       <c r="K44" s="3">
         <v>9515500</v>
@@ -3610,25 +3610,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2403400</v>
+        <v>2405400</v>
       </c>
       <c r="E45" s="3">
-        <v>2342700</v>
+        <v>2344700</v>
       </c>
       <c r="F45" s="3">
-        <v>2318900</v>
+        <v>2320800</v>
       </c>
       <c r="G45" s="3">
-        <v>2547600</v>
+        <v>2549800</v>
       </c>
       <c r="H45" s="3">
-        <v>3154700</v>
+        <v>3157400</v>
       </c>
       <c r="I45" s="3">
-        <v>3578600</v>
+        <v>3581600</v>
       </c>
       <c r="J45" s="3">
-        <v>1872200</v>
+        <v>1873800</v>
       </c>
       <c r="K45" s="3">
         <v>2124700</v>
@@ -3699,25 +3699,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>64626500</v>
+        <v>64680100</v>
       </c>
       <c r="E46" s="3">
-        <v>62592700</v>
+        <v>62644600</v>
       </c>
       <c r="F46" s="3">
-        <v>63519600</v>
+        <v>63572300</v>
       </c>
       <c r="G46" s="3">
-        <v>63776500</v>
+        <v>63829500</v>
       </c>
       <c r="H46" s="3">
-        <v>63136900</v>
+        <v>63189300</v>
       </c>
       <c r="I46" s="3">
-        <v>60330200</v>
+        <v>60380300</v>
       </c>
       <c r="J46" s="3">
-        <v>61105300</v>
+        <v>61156000</v>
       </c>
       <c r="K46" s="3">
         <v>56319700</v>
@@ -3788,25 +3788,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>28435900</v>
+        <v>28459600</v>
       </c>
       <c r="E47" s="3">
-        <v>30149900</v>
+        <v>30174900</v>
       </c>
       <c r="F47" s="3">
-        <v>29190500</v>
+        <v>29214700</v>
       </c>
       <c r="G47" s="3">
-        <v>33453200</v>
+        <v>33480900</v>
       </c>
       <c r="H47" s="3">
-        <v>31517000</v>
+        <v>31543100</v>
       </c>
       <c r="I47" s="3">
-        <v>33343700</v>
+        <v>33371300</v>
       </c>
       <c r="J47" s="3">
-        <v>32626000</v>
+        <v>32653100</v>
       </c>
       <c r="K47" s="3">
         <v>32848700</v>
@@ -3877,25 +3877,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12420500</v>
+        <v>12430800</v>
       </c>
       <c r="E48" s="3">
-        <v>12383700</v>
+        <v>12394000</v>
       </c>
       <c r="F48" s="3">
-        <v>12358700</v>
+        <v>12369000</v>
       </c>
       <c r="G48" s="3">
-        <v>12719700</v>
+        <v>12730300</v>
       </c>
       <c r="H48" s="3">
-        <v>12373900</v>
+        <v>12384200</v>
       </c>
       <c r="I48" s="3">
-        <v>12095300</v>
+        <v>12105300</v>
       </c>
       <c r="J48" s="3">
-        <v>12146300</v>
+        <v>12156300</v>
       </c>
       <c r="K48" s="3">
         <v>11870700</v>
@@ -3966,25 +3966,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>45848800</v>
+        <v>45886800</v>
       </c>
       <c r="E49" s="3">
-        <v>46067700</v>
+        <v>46106000</v>
       </c>
       <c r="F49" s="3">
-        <v>47026100</v>
+        <v>47065100</v>
       </c>
       <c r="G49" s="3">
-        <v>49930400</v>
+        <v>49971800</v>
       </c>
       <c r="H49" s="3">
-        <v>46491600</v>
+        <v>46530200</v>
       </c>
       <c r="I49" s="3">
-        <v>45279600</v>
+        <v>45317200</v>
       </c>
       <c r="J49" s="3">
-        <v>45074700</v>
+        <v>45112100</v>
       </c>
       <c r="K49" s="3">
         <v>43613400</v>
@@ -4233,25 +4233,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4436100</v>
+        <v>4439800</v>
       </c>
       <c r="E52" s="3">
-        <v>3829000</v>
+        <v>3832200</v>
       </c>
       <c r="F52" s="3">
-        <v>3938500</v>
+        <v>3941800</v>
       </c>
       <c r="G52" s="3">
-        <v>4363500</v>
+        <v>4367100</v>
       </c>
       <c r="H52" s="3">
-        <v>4746200</v>
+        <v>4750100</v>
       </c>
       <c r="I52" s="3">
-        <v>5003100</v>
+        <v>5007300</v>
       </c>
       <c r="J52" s="3">
-        <v>5601500</v>
+        <v>5606200</v>
       </c>
       <c r="K52" s="3">
         <v>5438300</v>
@@ -4411,25 +4411,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>155767800</v>
+        <v>155897100</v>
       </c>
       <c r="E54" s="3">
-        <v>155023000</v>
+        <v>155151700</v>
       </c>
       <c r="F54" s="3">
-        <v>156033400</v>
+        <v>156163000</v>
       </c>
       <c r="G54" s="3">
-        <v>164243300</v>
+        <v>164379700</v>
       </c>
       <c r="H54" s="3">
-        <v>158265600</v>
+        <v>158397000</v>
       </c>
       <c r="I54" s="3">
-        <v>156051900</v>
+        <v>156181400</v>
       </c>
       <c r="J54" s="3">
-        <v>156553800</v>
+        <v>156683800</v>
       </c>
       <c r="K54" s="3">
         <v>150089700</v>
@@ -4566,25 +4566,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10249100</v>
+        <v>10257600</v>
       </c>
       <c r="E57" s="3">
-        <v>10346700</v>
+        <v>10355200</v>
       </c>
       <c r="F57" s="3">
-        <v>10237200</v>
+        <v>10245700</v>
       </c>
       <c r="G57" s="3">
-        <v>11184700</v>
+        <v>11193900</v>
       </c>
       <c r="H57" s="3">
-        <v>9895700</v>
+        <v>9903900</v>
       </c>
       <c r="I57" s="3">
-        <v>9683200</v>
+        <v>9691200</v>
       </c>
       <c r="J57" s="3">
-        <v>9199700</v>
+        <v>9207300</v>
       </c>
       <c r="K57" s="3">
         <v>9511200</v>
@@ -4655,25 +4655,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10501700</v>
+        <v>10510400</v>
       </c>
       <c r="E58" s="3">
-        <v>10202500</v>
+        <v>10210900</v>
       </c>
       <c r="F58" s="3">
-        <v>7703600</v>
+        <v>7710000</v>
       </c>
       <c r="G58" s="3">
-        <v>7217900</v>
+        <v>7223900</v>
       </c>
       <c r="H58" s="3">
-        <v>10731500</v>
+        <v>10740400</v>
       </c>
       <c r="I58" s="3">
-        <v>11382000</v>
+        <v>11391400</v>
       </c>
       <c r="J58" s="3">
-        <v>10516900</v>
+        <v>10525600</v>
       </c>
       <c r="K58" s="3">
         <v>16844900</v>
@@ -4744,25 +4744,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>27836400</v>
+        <v>27859500</v>
       </c>
       <c r="E59" s="3">
-        <v>26094300</v>
+        <v>26116000</v>
       </c>
       <c r="F59" s="3">
-        <v>26815200</v>
+        <v>26837500</v>
       </c>
       <c r="G59" s="3">
-        <v>27873300</v>
+        <v>27896400</v>
       </c>
       <c r="H59" s="3">
-        <v>26975700</v>
+        <v>26998100</v>
       </c>
       <c r="I59" s="3">
-        <v>25208600</v>
+        <v>25229500</v>
       </c>
       <c r="J59" s="3">
-        <v>24398800</v>
+        <v>24419000</v>
       </c>
       <c r="K59" s="3">
         <v>25142400</v>
@@ -4833,25 +4833,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>48587200</v>
+        <v>48627500</v>
       </c>
       <c r="E60" s="3">
-        <v>46643400</v>
+        <v>46682100</v>
       </c>
       <c r="F60" s="3">
-        <v>44756000</v>
+        <v>44793100</v>
       </c>
       <c r="G60" s="3">
-        <v>46275900</v>
+        <v>46314300</v>
       </c>
       <c r="H60" s="3">
-        <v>47602800</v>
+        <v>47642400</v>
       </c>
       <c r="I60" s="3">
-        <v>46273700</v>
+        <v>46312100</v>
       </c>
       <c r="J60" s="3">
-        <v>44115300</v>
+        <v>44151900</v>
       </c>
       <c r="K60" s="3">
         <v>43076000</v>
@@ -4922,25 +4922,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>42500000</v>
+        <v>42535300</v>
       </c>
       <c r="E61" s="3">
-        <v>44035100</v>
+        <v>44071600</v>
       </c>
       <c r="F61" s="3">
-        <v>45680700</v>
+        <v>45718600</v>
       </c>
       <c r="G61" s="3">
-        <v>47676500</v>
+        <v>47716100</v>
       </c>
       <c r="H61" s="3">
-        <v>45160400</v>
+        <v>45197800</v>
       </c>
       <c r="I61" s="3">
-        <v>44723500</v>
+        <v>44760600</v>
       </c>
       <c r="J61" s="3">
-        <v>45278500</v>
+        <v>45316100</v>
       </c>
       <c r="K61" s="3">
         <v>44022600</v>
@@ -5011,25 +5011,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9956400</v>
+        <v>9964600</v>
       </c>
       <c r="E62" s="3">
-        <v>9711400</v>
+        <v>9719400</v>
       </c>
       <c r="F62" s="3">
-        <v>10069100</v>
+        <v>10077500</v>
       </c>
       <c r="G62" s="3">
-        <v>10876800</v>
+        <v>10885800</v>
       </c>
       <c r="H62" s="3">
-        <v>9992100</v>
+        <v>10000400</v>
       </c>
       <c r="I62" s="3">
-        <v>10176400</v>
+        <v>10184900</v>
       </c>
       <c r="J62" s="3">
-        <v>10680600</v>
+        <v>10689400</v>
       </c>
       <c r="K62" s="3">
         <v>10232700</v>
@@ -5367,25 +5367,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>106590900</v>
+        <v>106679400</v>
       </c>
       <c r="E66" s="3">
-        <v>106026100</v>
+        <v>106114100</v>
       </c>
       <c r="F66" s="3">
-        <v>106480300</v>
+        <v>106568700</v>
       </c>
       <c r="G66" s="3">
-        <v>111236200</v>
+        <v>111328600</v>
       </c>
       <c r="H66" s="3">
-        <v>108697300</v>
+        <v>108787500</v>
       </c>
       <c r="I66" s="3">
-        <v>106686300</v>
+        <v>106774900</v>
       </c>
       <c r="J66" s="3">
-        <v>105597800</v>
+        <v>105685500</v>
       </c>
       <c r="K66" s="3">
         <v>102533800</v>
@@ -5845,25 +5845,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>38012900</v>
+        <v>38044400</v>
       </c>
       <c r="E72" s="3">
-        <v>37477300</v>
+        <v>37508500</v>
       </c>
       <c r="F72" s="3">
-        <v>42840400</v>
+        <v>42875900</v>
       </c>
       <c r="G72" s="3">
-        <v>42235500</v>
+        <v>42270500</v>
       </c>
       <c r="H72" s="3">
-        <v>40445600</v>
+        <v>40479200</v>
       </c>
       <c r="I72" s="3">
-        <v>42504300</v>
+        <v>42539600</v>
       </c>
       <c r="J72" s="3">
-        <v>44841600</v>
+        <v>44878900</v>
       </c>
       <c r="K72" s="3">
         <v>42652800</v>
@@ -6201,25 +6201,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>49176900</v>
+        <v>49217800</v>
       </c>
       <c r="E76" s="3">
-        <v>48997000</v>
+        <v>49037700</v>
       </c>
       <c r="F76" s="3">
-        <v>49553100</v>
+        <v>49594300</v>
       </c>
       <c r="G76" s="3">
-        <v>53007100</v>
+        <v>53051100</v>
       </c>
       <c r="H76" s="3">
-        <v>49568300</v>
+        <v>49609500</v>
       </c>
       <c r="I76" s="3">
-        <v>49365600</v>
+        <v>49406600</v>
       </c>
       <c r="J76" s="3">
-        <v>50956000</v>
+        <v>50998300</v>
       </c>
       <c r="K76" s="3">
         <v>47555900</v>
@@ -6473,25 +6473,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1385500</v>
+        <v>1386600</v>
       </c>
       <c r="E81" s="3">
-        <v>3768300</v>
+        <v>3771500</v>
       </c>
       <c r="F81" s="3">
-        <v>1601200</v>
+        <v>1602500</v>
       </c>
       <c r="G81" s="3">
-        <v>2928200</v>
+        <v>2930600</v>
       </c>
       <c r="H81" s="3">
-        <v>-1794200</v>
+        <v>-1795700</v>
       </c>
       <c r="I81" s="3">
-        <v>1121000</v>
+        <v>1121900</v>
       </c>
       <c r="J81" s="3">
-        <v>1781200</v>
+        <v>1782700</v>
       </c>
       <c r="K81" s="3">
         <v>1256700</v>
@@ -6595,25 +6595,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>866200</v>
+        <v>866900</v>
       </c>
       <c r="E83" s="3">
-        <v>1165400</v>
+        <v>1166400</v>
       </c>
       <c r="F83" s="3">
-        <v>934500</v>
+        <v>935300</v>
       </c>
       <c r="G83" s="3">
-        <v>964800</v>
+        <v>965700</v>
       </c>
       <c r="H83" s="3">
-        <v>952900</v>
+        <v>953700</v>
       </c>
       <c r="I83" s="3">
-        <v>1053700</v>
+        <v>1054600</v>
       </c>
       <c r="J83" s="3">
-        <v>889000</v>
+        <v>889700</v>
       </c>
       <c r="K83" s="3">
         <v>872300</v>
@@ -7129,25 +7129,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3739100</v>
+        <v>3742200</v>
       </c>
       <c r="E89" s="3">
-        <v>3120000</v>
+        <v>3122600</v>
       </c>
       <c r="F89" s="3">
-        <v>564800</v>
+        <v>565300</v>
       </c>
       <c r="G89" s="3">
-        <v>4508800</v>
+        <v>4512500</v>
       </c>
       <c r="H89" s="3">
-        <v>2989900</v>
+        <v>2992400</v>
       </c>
       <c r="I89" s="3">
-        <v>1991500</v>
+        <v>1993100</v>
       </c>
       <c r="J89" s="3">
-        <v>1611000</v>
+        <v>1612300</v>
       </c>
       <c r="K89" s="3">
         <v>4735100</v>
@@ -7518,25 +7518,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-614700</v>
+        <v>-615200</v>
       </c>
       <c r="E94" s="3">
-        <v>-788100</v>
+        <v>-788800</v>
       </c>
       <c r="F94" s="3">
-        <v>-689500</v>
+        <v>-690100</v>
       </c>
       <c r="G94" s="3">
-        <v>-464000</v>
+        <v>-464400</v>
       </c>
       <c r="H94" s="3">
-        <v>-145300</v>
+        <v>-145400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1016900</v>
+        <v>-1017700</v>
       </c>
       <c r="J94" s="3">
-        <v>-1073300</v>
+        <v>-1074200</v>
       </c>
       <c r="K94" s="3">
         <v>-1740300</v>
@@ -7996,25 +7996,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2179000</v>
+        <v>-2180900</v>
       </c>
       <c r="E100" s="3">
-        <v>-3287000</v>
+        <v>-3289700</v>
       </c>
       <c r="F100" s="3">
-        <v>247200</v>
+        <v>247400</v>
       </c>
       <c r="G100" s="3">
-        <v>-3833400</v>
+        <v>-3836600</v>
       </c>
       <c r="H100" s="3">
-        <v>-2403400</v>
+        <v>-2405400</v>
       </c>
       <c r="I100" s="3">
-        <v>-4002500</v>
+        <v>-4005800</v>
       </c>
       <c r="J100" s="3">
-        <v>2106400</v>
+        <v>2108200</v>
       </c>
       <c r="K100" s="3">
         <v>-4380800</v>
@@ -8085,25 +8085,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-277500</v>
+        <v>-277800</v>
       </c>
       <c r="E101" s="3">
-        <v>-72600</v>
+        <v>-72700</v>
       </c>
       <c r="F101" s="3">
-        <v>-488900</v>
+        <v>-489300</v>
       </c>
       <c r="G101" s="3">
-        <v>143100</v>
+        <v>143200</v>
       </c>
       <c r="H101" s="3">
-        <v>245000</v>
+        <v>245200</v>
       </c>
       <c r="I101" s="3">
-        <v>114900</v>
+        <v>115000</v>
       </c>
       <c r="J101" s="3">
-        <v>233100</v>
+        <v>233300</v>
       </c>
       <c r="K101" s="3">
         <v>165800</v>
@@ -8174,25 +8174,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>667800</v>
+        <v>668400</v>
       </c>
       <c r="E102" s="3">
-        <v>-1027700</v>
+        <v>-1028600</v>
       </c>
       <c r="F102" s="3">
-        <v>-366400</v>
+        <v>-366700</v>
       </c>
       <c r="G102" s="3">
-        <v>354500</v>
+        <v>354800</v>
       </c>
       <c r="H102" s="3">
-        <v>686200</v>
+        <v>686800</v>
       </c>
       <c r="I102" s="3">
-        <v>-2913000</v>
+        <v>-2915400</v>
       </c>
       <c r="J102" s="3">
-        <v>2877200</v>
+        <v>2879600</v>
       </c>
       <c r="K102" s="3">
         <v>-1220100</v>
